--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,9 @@
       <c r="IB1" t="n">
         <v>10315</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10332</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1776,6 +1779,9 @@
       <c r="IB2" t="n">
         <v>2020</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2488,6 +2494,9 @@
       <c r="IB3" t="n">
         <v>18</v>
       </c>
+      <c r="IC3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3200,6 +3209,9 @@
       <c r="IB4" t="n">
         <v>0</v>
       </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3912,6 +3924,9 @@
       <c r="IB5" t="n">
         <v>1</v>
       </c>
+      <c r="IC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4639,9 @@
       <c r="IB6" t="n">
         <v>63</v>
       </c>
+      <c r="IC6" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5336,6 +5354,9 @@
       <c r="IB7" t="n">
         <v>69</v>
       </c>
+      <c r="IC7" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6048,6 +6069,9 @@
       <c r="IB8" t="n">
         <v>-6</v>
       </c>
+      <c r="IC8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6760,6 +6784,9 @@
       <c r="IB9" t="n">
         <v>0</v>
       </c>
+      <c r="IC9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7472,6 +7499,9 @@
       <c r="IB10" t="n">
         <v>7</v>
       </c>
+      <c r="IC10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8184,6 +8214,9 @@
       <c r="IB11" t="n">
         <v>189</v>
       </c>
+      <c r="IC11" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8896,6 +8929,9 @@
       <c r="IB12" t="n">
         <v>145</v>
       </c>
+      <c r="IC12" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9644,9 @@
       <c r="IB13" t="n">
         <v>334</v>
       </c>
+      <c r="IC13" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10320,6 +10359,9 @@
       <c r="IB14" t="n">
         <v>1.3</v>
       </c>
+      <c r="IC14" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11032,6 +11074,9 @@
       <c r="IB15" t="n">
         <v>81</v>
       </c>
+      <c r="IC15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11744,6 +11789,9 @@
       <c r="IB16" t="n">
         <v>32</v>
       </c>
+      <c r="IC16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12456,6 +12504,9 @@
       <c r="IB17" t="n">
         <v>25</v>
       </c>
+      <c r="IC17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13168,6 +13219,9 @@
       <c r="IB18" t="n">
         <v>19</v>
       </c>
+      <c r="IC18" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13880,6 +13934,9 @@
       <c r="IB19" t="n">
         <v>17</v>
       </c>
+      <c r="IC19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14592,6 +14649,9 @@
       <c r="IB20" t="n">
         <v>9</v>
       </c>
+      <c r="IC20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15304,6 +15364,9 @@
       <c r="IB21" t="n">
         <v>7</v>
       </c>
+      <c r="IC21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16016,6 +16079,9 @@
       <c r="IB22" t="n">
         <v>7</v>
       </c>
+      <c r="IC22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16728,6 +16794,9 @@
       <c r="IB23" t="n">
         <v>2</v>
       </c>
+      <c r="IC23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17440,6 +17509,9 @@
       <c r="IB24" t="n">
         <v>18</v>
       </c>
+      <c r="IC24" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18152,6 +18224,9 @@
       <c r="IB25" t="n">
         <v>50</v>
       </c>
+      <c r="IC25" t="n">
+        <v>63.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18864,6 +18939,9 @@
       <c r="IB26" t="n">
         <v>37.11</v>
       </c>
+      <c r="IC26" t="n">
+        <v>19.37</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19576,6 +19654,9 @@
       <c r="IB27" t="n">
         <v>18.56</v>
       </c>
+      <c r="IC27" t="n">
+        <v>12.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20288,6 +20369,9 @@
       <c r="IB28" t="n">
         <v>25</v>
       </c>
+      <c r="IC28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21000,6 +21084,9 @@
       <c r="IB29" t="n">
         <v>51</v>
       </c>
+      <c r="IC29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21712,6 +21799,9 @@
       <c r="IB30" t="n">
         <v>33</v>
       </c>
+      <c r="IC30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22424,6 +22514,9 @@
       <c r="IB31" t="n">
         <v>47</v>
       </c>
+      <c r="IC31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23136,6 +23229,9 @@
       <c r="IB32" t="n">
         <v>2.61</v>
       </c>
+      <c r="IC32" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23848,6 +23944,9 @@
       <c r="IB33" t="n">
         <v>5.22</v>
       </c>
+      <c r="IC33" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24560,6 +24659,9 @@
       <c r="IB34" t="n">
         <v>34</v>
       </c>
+      <c r="IC34" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25272,6 +25374,9 @@
       <c r="IB35" t="n">
         <v>19.1</v>
       </c>
+      <c r="IC35" t="n">
+        <v>32.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25984,6 +26089,9 @@
       <c r="IB36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IC36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26696,6 +26804,9 @@
       <c r="IB37" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="IC37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27408,6 +27519,9 @@
       <c r="IB38" t="n">
         <v>24.49</v>
       </c>
+      <c r="IC38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28120,6 +28234,9 @@
       <c r="IB39" t="n">
         <v>82.2</v>
       </c>
+      <c r="IC39" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28832,6 +28949,9 @@
       <c r="IB40" t="n">
         <v>9</v>
       </c>
+      <c r="IC40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29544,6 +29664,9 @@
       <c r="IB41" t="n">
         <v>7</v>
       </c>
+      <c r="IC41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30256,6 +30379,9 @@
       <c r="IB42" t="n">
         <v>2</v>
       </c>
+      <c r="IC42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30968,6 +31094,9 @@
       <c r="IB43" t="n">
         <v>4</v>
       </c>
+      <c r="IC43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31680,6 +31809,9 @@
       <c r="IB44" t="n">
         <v>103</v>
       </c>
+      <c r="IC44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32392,6 +32524,9 @@
       <c r="IB45" t="n">
         <v>223</v>
       </c>
+      <c r="IC45" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33104,6 +33239,9 @@
       <c r="IB46" t="n">
         <v>256</v>
       </c>
+      <c r="IC46" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33816,6 +33954,9 @@
       <c r="IB47" t="n">
         <v>76.59999999999999</v>
       </c>
+      <c r="IC47" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34528,6 +34669,9 @@
       <c r="IB48" t="n">
         <v>51</v>
       </c>
+      <c r="IC48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35240,6 +35384,9 @@
       <c r="IB49" t="n">
         <v>5</v>
       </c>
+      <c r="IC49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35952,6 +36099,9 @@
       <c r="IB50" t="n">
         <v>6</v>
       </c>
+      <c r="IC50" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36664,6 +36814,9 @@
       <c r="IB51" t="n">
         <v>25</v>
       </c>
+      <c r="IC51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37376,6 +37529,9 @@
       <c r="IB52" t="n">
         <v>33</v>
       </c>
+      <c r="IC52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38088,6 +38244,9 @@
       <c r="IB53" t="n">
         <v>35</v>
       </c>
+      <c r="IC53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38800,6 +38959,9 @@
       <c r="IB54" t="n">
         <v>5</v>
       </c>
+      <c r="IC54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39512,6 +39674,9 @@
       <c r="IB55" t="n">
         <v>7</v>
       </c>
+      <c r="IC55" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40224,6 +40389,9 @@
       <c r="IB56" t="n">
         <v>77.8</v>
       </c>
+      <c r="IC56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40936,6 +41104,9 @@
       <c r="IB57" t="n">
         <v>189</v>
       </c>
+      <c r="IC57" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41648,6 +41819,9 @@
       <c r="IB58" t="n">
         <v>95</v>
       </c>
+      <c r="IC58" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42360,6 +42534,9 @@
       <c r="IB59" t="n">
         <v>284</v>
       </c>
+      <c r="IC59" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43072,6 +43249,9 @@
       <c r="IB60" t="n">
         <v>1.99</v>
       </c>
+      <c r="IC60" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43784,6 +43964,9 @@
       <c r="IB61" t="n">
         <v>88</v>
       </c>
+      <c r="IC61" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44496,6 +44679,9 @@
       <c r="IB62" t="n">
         <v>42</v>
       </c>
+      <c r="IC62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45208,6 +45394,9 @@
       <c r="IB63" t="n">
         <v>25</v>
       </c>
+      <c r="IC63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45920,6 +46109,9 @@
       <c r="IB64" t="n">
         <v>17</v>
       </c>
+      <c r="IC64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46632,6 +46824,9 @@
       <c r="IB65" t="n">
         <v>19</v>
       </c>
+      <c r="IC65" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47344,6 +47539,9 @@
       <c r="IB66" t="n">
         <v>10</v>
       </c>
+      <c r="IC66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48056,6 +48254,9 @@
       <c r="IB67" t="n">
         <v>7</v>
       </c>
+      <c r="IC67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48768,6 +48969,9 @@
       <c r="IB68" t="n">
         <v>9</v>
       </c>
+      <c r="IC68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49480,6 +49684,9 @@
       <c r="IB69" t="n">
         <v>0</v>
       </c>
+      <c r="IC69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50192,6 +50399,9 @@
       <c r="IB70" t="n">
         <v>19</v>
       </c>
+      <c r="IC70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50904,6 +51114,9 @@
       <c r="IB71" t="n">
         <v>52.6</v>
       </c>
+      <c r="IC71" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51616,6 +51829,9 @@
       <c r="IB72" t="n">
         <v>28.4</v>
       </c>
+      <c r="IC72" t="n">
+        <v>21.79</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52328,6 +52544,9 @@
       <c r="IB73" t="n">
         <v>14.95</v>
       </c>
+      <c r="IC73" t="n">
+        <v>12.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53040,6 +53259,9 @@
       <c r="IB74" t="n">
         <v>28</v>
       </c>
+      <c r="IC74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53752,6 +53974,9 @@
       <c r="IB75" t="n">
         <v>52</v>
       </c>
+      <c r="IC75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54464,6 +54689,9 @@
       <c r="IB76" t="n">
         <v>37</v>
       </c>
+      <c r="IC76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55176,6 +55404,9 @@
       <c r="IB77" t="n">
         <v>44</v>
       </c>
+      <c r="IC77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55888,6 +56119,9 @@
       <c r="IB78" t="n">
         <v>2.32</v>
       </c>
+      <c r="IC78" t="n">
+        <v>2.38</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56600,6 +56834,9 @@
       <c r="IB79" t="n">
         <v>4.4</v>
       </c>
+      <c r="IC79" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57312,6 +57549,9 @@
       <c r="IB80" t="n">
         <v>43.2</v>
       </c>
+      <c r="IC80" t="n">
+        <v>35.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58024,6 +58264,9 @@
       <c r="IB81" t="n">
         <v>22.7</v>
       </c>
+      <c r="IC81" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58736,6 +58979,9 @@
       <c r="IB82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IC82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59448,6 +59694,9 @@
       <c r="IB83" t="n">
         <v>89.7</v>
       </c>
+      <c r="IC83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60160,6 +60409,9 @@
       <c r="IB84" t="n">
         <v>28.24</v>
       </c>
+      <c r="IC84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60872,6 +61124,9 @@
       <c r="IB85" t="n">
         <v>162.6</v>
       </c>
+      <c r="IC85" t="n">
+        <v>101.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61584,6 +61839,9 @@
       <c r="IB86" t="n">
         <v>3</v>
       </c>
+      <c r="IC86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62296,6 +62554,9 @@
       <c r="IB87" t="n">
         <v>5</v>
       </c>
+      <c r="IC87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63008,6 +63269,9 @@
       <c r="IB88" t="n">
         <v>2</v>
       </c>
+      <c r="IC88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63720,6 +63984,9 @@
       <c r="IB89" t="n">
         <v>12</v>
       </c>
+      <c r="IC89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64432,6 +64699,9 @@
       <c r="IB90" t="n">
         <v>111</v>
       </c>
+      <c r="IC90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65144,6 +65414,9 @@
       <c r="IB91" t="n">
         <v>169</v>
       </c>
+      <c r="IC91" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65856,6 +66129,9 @@
       <c r="IB92" t="n">
         <v>202</v>
       </c>
+      <c r="IC92" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66568,6 +66844,9 @@
       <c r="IB93" t="n">
         <v>71.09999999999999</v>
       </c>
+      <c r="IC93" t="n">
+        <v>67.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67280,6 +67559,9 @@
       <c r="IB94" t="n">
         <v>52</v>
       </c>
+      <c r="IC94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67992,6 +68274,9 @@
       <c r="IB95" t="n">
         <v>10</v>
       </c>
+      <c r="IC95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68704,6 +68989,9 @@
       <c r="IB96" t="n">
         <v>7</v>
       </c>
+      <c r="IC96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69416,6 +69704,9 @@
       <c r="IB97" t="n">
         <v>28</v>
       </c>
+      <c r="IC97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70128,6 +70419,9 @@
       <c r="IB98" t="n">
         <v>37</v>
       </c>
+      <c r="IC98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70840,6 +71134,9 @@
       <c r="IB99" t="n">
         <v>50</v>
       </c>
+      <c r="IC99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71552,6 +71849,9 @@
       <c r="IB100" t="n">
         <v>1</v>
       </c>
+      <c r="IC100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72264,6 +72564,9 @@
       <c r="IB101" t="n">
         <v>7</v>
       </c>
+      <c r="IC101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72976,6 +73279,9 @@
       <c r="IB102" t="n">
         <v>70</v>
       </c>
+      <c r="IC102" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10332</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10338</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1782,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2497,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>1</v>
       </c>
+      <c r="ID3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3212,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>1</v>
       </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3927,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>1</v>
       </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4642,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>125</v>
       </c>
+      <c r="ID6" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5357,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>94</v>
       </c>
+      <c r="ID7" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>31</v>
       </c>
+      <c r="ID8" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6787,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>1</v>
       </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>2</v>
       </c>
+      <c r="ID10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8217,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>229</v>
       </c>
+      <c r="ID11" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8932,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>139</v>
       </c>
+      <c r="ID12" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9647,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>368</v>
       </c>
+      <c r="ID13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10362,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.65</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11077,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>89</v>
       </c>
+      <c r="ID15" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11792,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>52</v>
       </c>
+      <c r="ID16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12507,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>30</v>
       </c>
+      <c r="ID17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13222,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>30</v>
       </c>
+      <c r="ID18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13937,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>22</v>
       </c>
+      <c r="ID19" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14652,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>19</v>
       </c>
+      <c r="ID20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15367,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>19</v>
       </c>
+      <c r="ID21" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16082,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>8</v>
       </c>
+      <c r="ID22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16797,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>3</v>
       </c>
+      <c r="ID23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17512,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>30</v>
       </c>
+      <c r="ID24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18227,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>63.3</v>
       </c>
+      <c r="ID25" t="n">
+        <v>58.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18942,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>19.37</v>
       </c>
+      <c r="ID26" t="n">
+        <v>20.89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19657,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>12.27</v>
       </c>
+      <c r="ID27" t="n">
+        <v>12.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20372,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>30</v>
       </c>
+      <c r="ID28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21087,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>63</v>
       </c>
+      <c r="ID29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21802,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>42</v>
       </c>
+      <c r="ID30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22517,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>59</v>
       </c>
+      <c r="ID31" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23232,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>1.97</v>
       </c>
+      <c r="ID32" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23947,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>3.11</v>
       </c>
+      <c r="ID33" t="n">
+        <v>3.39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24662,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>45.8</v>
       </c>
+      <c r="ID34" t="n">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25377,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>32.2</v>
       </c>
+      <c r="ID35" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26092,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>187.3</v>
       </c>
+      <c r="ID36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26807,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="ID37" t="n">
+        <v>84.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27522,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>24.33</v>
       </c>
+      <c r="ID38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28237,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>83.7</v>
       </c>
+      <c r="ID39" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28952,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>10</v>
       </c>
+      <c r="ID40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29667,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>2</v>
       </c>
+      <c r="ID41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30382,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>5</v>
       </c>
+      <c r="ID42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31097,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>5</v>
       </c>
+      <c r="ID43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31812,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>146</v>
       </c>
+      <c r="ID44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32527,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>209</v>
       </c>
+      <c r="ID45" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33242,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>278</v>
       </c>
+      <c r="ID46" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33957,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>75.5</v>
       </c>
+      <c r="ID47" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34672,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>63</v>
       </c>
+      <c r="ID48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35387,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>11</v>
       </c>
+      <c r="ID49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36102,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>23</v>
       </c>
+      <c r="ID50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36817,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>30</v>
       </c>
+      <c r="ID51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37532,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>42</v>
       </c>
+      <c r="ID52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38247,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>55</v>
       </c>
+      <c r="ID53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38962,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>6</v>
       </c>
+      <c r="ID54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39677,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>19</v>
       </c>
+      <c r="ID55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40392,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>100</v>
       </c>
+      <c r="ID56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41107,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>195</v>
       </c>
+      <c r="ID57" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41822,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>110</v>
       </c>
+      <c r="ID58" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42537,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>305</v>
       </c>
+      <c r="ID59" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43252,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>1.77</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43967,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>63</v>
       </c>
+      <c r="ID61" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44682,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>41</v>
       </c>
+      <c r="ID62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45397,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>26</v>
       </c>
+      <c r="ID63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46112,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>22</v>
       </c>
+      <c r="ID64" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46827,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>30</v>
       </c>
+      <c r="ID65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47542,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>14</v>
       </c>
+      <c r="ID66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48257,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>11</v>
       </c>
+      <c r="ID67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48972,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>6</v>
       </c>
+      <c r="ID68" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49687,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>4</v>
       </c>
+      <c r="ID69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50402,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>24</v>
       </c>
+      <c r="ID70" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51117,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>58.3</v>
       </c>
+      <c r="ID71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51832,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>21.79</v>
       </c>
+      <c r="ID72" t="n">
+        <v>28.64</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52547,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>12.71</v>
       </c>
+      <c r="ID73" t="n">
+        <v>9.550000000000001</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53262,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>32</v>
       </c>
+      <c r="ID74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53977,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>65</v>
       </c>
+      <c r="ID75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54692,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>38</v>
       </c>
+      <c r="ID76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55407,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>57</v>
       </c>
+      <c r="ID77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56122,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>2.38</v>
       </c>
+      <c r="ID78" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56837,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>4.07</v>
       </c>
+      <c r="ID79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57552,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>35.1</v>
       </c>
+      <c r="ID80" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58267,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>24.6</v>
       </c>
+      <c r="ID81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58982,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>188.6</v>
       </c>
+      <c r="ID82" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59697,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="ID83" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60412,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>25.66</v>
       </c>
+      <c r="ID84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61127,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>101.1</v>
       </c>
+      <c r="ID85" t="n">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61842,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>6</v>
       </c>
+      <c r="ID86" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62557,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>6</v>
       </c>
+      <c r="ID87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63272,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>5</v>
       </c>
+      <c r="ID88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63987,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>5</v>
       </c>
+      <c r="ID89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64702,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>138</v>
       </c>
+      <c r="ID90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65417,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>155</v>
       </c>
+      <c r="ID91" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66132,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>207</v>
       </c>
+      <c r="ID92" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66847,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>67.90000000000001</v>
       </c>
+      <c r="ID93" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67562,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>65</v>
       </c>
+      <c r="ID94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68277,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>9</v>
       </c>
+      <c r="ID95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68992,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>5</v>
       </c>
+      <c r="ID96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69707,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>32</v>
       </c>
+      <c r="ID97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70422,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>38</v>
       </c>
+      <c r="ID98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71137,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>56</v>
       </c>
+      <c r="ID99" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71852,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>1</v>
       </c>
+      <c r="ID100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72567,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>11</v>
       </c>
+      <c r="ID101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73282,6 +73585,9 @@
       <c r="IC102" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="ID102" t="n">
+        <v>54.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,9 @@
       <c r="ID1" t="n">
         <v>10338</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10348</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1791,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2512,9 @@
       <c r="ID3" t="n">
         <v>2</v>
       </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3233,9 @@
       <c r="ID4" t="n">
         <v>0</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +3954,9 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4675,9 @@
       <c r="ID6" t="n">
         <v>121</v>
       </c>
+      <c r="IE6" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5396,9 @@
       <c r="ID7" t="n">
         <v>88</v>
       </c>
+      <c r="IE7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6117,9 @@
       <c r="ID8" t="n">
         <v>33</v>
       </c>
+      <c r="IE8" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6838,9 @@
       <c r="ID9" t="n">
         <v>1</v>
       </c>
+      <c r="IE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7559,9 @@
       <c r="ID10" t="n">
         <v>1</v>
       </c>
+      <c r="IE10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8280,9 @@
       <c r="ID11" t="n">
         <v>239</v>
       </c>
+      <c r="IE11" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9001,9 @@
       <c r="ID12" t="n">
         <v>137</v>
       </c>
+      <c r="IE12" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9722,9 @@
       <c r="ID13" t="n">
         <v>376</v>
       </c>
+      <c r="IE13" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10443,9 @@
       <c r="ID14" t="n">
         <v>1.74</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11164,9 @@
       <c r="ID15" t="n">
         <v>104</v>
       </c>
+      <c r="IE15" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11885,9 @@
       <c r="ID16" t="n">
         <v>55</v>
       </c>
+      <c r="IE16" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12606,9 @@
       <c r="ID17" t="n">
         <v>34</v>
       </c>
+      <c r="IE17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13327,9 @@
       <c r="ID18" t="n">
         <v>14</v>
       </c>
+      <c r="IE18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14048,9 @@
       <c r="ID19" t="n">
         <v>28</v>
       </c>
+      <c r="IE19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14769,9 @@
       <c r="ID20" t="n">
         <v>18</v>
       </c>
+      <c r="IE20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15490,9 @@
       <c r="ID21" t="n">
         <v>14</v>
       </c>
+      <c r="IE21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16211,9 @@
       <c r="ID22" t="n">
         <v>11</v>
       </c>
+      <c r="IE22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +16932,9 @@
       <c r="ID23" t="n">
         <v>2</v>
       </c>
+      <c r="IE23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17653,9 @@
       <c r="ID24" t="n">
         <v>31</v>
       </c>
+      <c r="IE24" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18374,9 @@
       <c r="ID25" t="n">
         <v>58.1</v>
       </c>
+      <c r="IE25" t="n">
+        <v>53.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19095,9 @@
       <c r="ID26" t="n">
         <v>20.89</v>
       </c>
+      <c r="IE26" t="n">
+        <v>22.76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19816,9 @@
       <c r="ID27" t="n">
         <v>12.13</v>
       </c>
+      <c r="IE27" t="n">
+        <v>12.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20537,9 @@
       <c r="ID28" t="n">
         <v>28</v>
       </c>
+      <c r="IE28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21258,9 @@
       <c r="ID29" t="n">
         <v>47</v>
       </c>
+      <c r="IE29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +21979,9 @@
       <c r="ID30" t="n">
         <v>44</v>
       </c>
+      <c r="IE30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22700,9 @@
       <c r="ID31" t="n">
         <v>61</v>
       </c>
+      <c r="IE31" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23421,9 @@
       <c r="ID32" t="n">
         <v>1.97</v>
       </c>
+      <c r="IE32" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24142,9 @@
       <c r="ID33" t="n">
         <v>3.39</v>
       </c>
+      <c r="IE33" t="n">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24863,9 @@
       <c r="ID34" t="n">
         <v>47.5</v>
       </c>
+      <c r="IE34" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25584,9 @@
       <c r="ID35" t="n">
         <v>29.5</v>
       </c>
+      <c r="IE35" t="n">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26305,9 @@
       <c r="ID36" t="n">
         <v>187.4</v>
       </c>
+      <c r="IE36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27026,9 @@
       <c r="ID37" t="n">
         <v>84.2</v>
       </c>
+      <c r="IE37" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27747,9 @@
       <c r="ID38" t="n">
         <v>24.8</v>
       </c>
+      <c r="IE38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28468,9 @@
       <c r="ID39" t="n">
         <v>97</v>
       </c>
+      <c r="IE39" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29189,9 @@
       <c r="ID40" t="n">
         <v>8</v>
       </c>
+      <c r="IE40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29910,9 @@
       <c r="ID41" t="n">
         <v>3</v>
       </c>
+      <c r="IE41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30631,9 @@
       <c r="ID42" t="n">
         <v>5</v>
       </c>
+      <c r="IE42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31352,9 @@
       <c r="ID43" t="n">
         <v>6</v>
       </c>
+      <c r="IE43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32073,9 @@
       <c r="ID44" t="n">
         <v>128</v>
       </c>
+      <c r="IE44" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32794,9 @@
       <c r="ID45" t="n">
         <v>232</v>
       </c>
+      <c r="IE45" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33515,9 @@
       <c r="ID46" t="n">
         <v>280</v>
       </c>
+      <c r="IE46" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34236,9 @@
       <c r="ID47" t="n">
         <v>74.5</v>
       </c>
+      <c r="IE47" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +34957,9 @@
       <c r="ID48" t="n">
         <v>47</v>
       </c>
+      <c r="IE48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35678,9 @@
       <c r="ID49" t="n">
         <v>8</v>
       </c>
+      <c r="IE49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36399,9 @@
       <c r="ID50" t="n">
         <v>15</v>
       </c>
+      <c r="IE50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37120,9 @@
       <c r="ID51" t="n">
         <v>28</v>
       </c>
+      <c r="IE51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37841,9 @@
       <c r="ID52" t="n">
         <v>44</v>
       </c>
+      <c r="IE52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38562,9 @@
       <c r="ID53" t="n">
         <v>53</v>
       </c>
+      <c r="IE53" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39283,9 @@
       <c r="ID54" t="n">
         <v>6</v>
       </c>
+      <c r="IE54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40004,9 @@
       <c r="ID55" t="n">
         <v>14</v>
       </c>
+      <c r="IE55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40725,9 @@
       <c r="ID56" t="n">
         <v>77.8</v>
       </c>
+      <c r="IE56" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41446,9 @@
       <c r="ID57" t="n">
         <v>184</v>
       </c>
+      <c r="IE57" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42167,9 @@
       <c r="ID58" t="n">
         <v>131</v>
       </c>
+      <c r="IE58" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42888,9 @@
       <c r="ID59" t="n">
         <v>315</v>
       </c>
+      <c r="IE59" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43609,9 @@
       <c r="ID60" t="n">
         <v>1.4</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44330,9 @@
       <c r="ID61" t="n">
         <v>59</v>
       </c>
+      <c r="IE61" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45051,9 @@
       <c r="ID62" t="n">
         <v>50</v>
       </c>
+      <c r="IE62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45772,9 @@
       <c r="ID63" t="n">
         <v>32</v>
       </c>
+      <c r="IE63" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46493,9 @@
       <c r="ID64" t="n">
         <v>28</v>
       </c>
+      <c r="IE64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47214,9 @@
       <c r="ID65" t="n">
         <v>14</v>
       </c>
+      <c r="IE65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +47935,9 @@
       <c r="ID66" t="n">
         <v>11</v>
       </c>
+      <c r="IE66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48656,9 @@
       <c r="ID67" t="n">
         <v>6</v>
       </c>
+      <c r="IE67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49377,9 @@
       <c r="ID68" t="n">
         <v>19</v>
       </c>
+      <c r="IE68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50098,9 @@
       <c r="ID69" t="n">
         <v>3</v>
       </c>
+      <c r="IE69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50819,9 @@
       <c r="ID70" t="n">
         <v>33</v>
       </c>
+      <c r="IE70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51540,9 @@
       <c r="ID71" t="n">
         <v>33.3</v>
       </c>
+      <c r="IE71" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52261,9 @@
       <c r="ID72" t="n">
         <v>28.64</v>
       </c>
+      <c r="IE72" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +52982,9 @@
       <c r="ID73" t="n">
         <v>9.550000000000001</v>
       </c>
+      <c r="IE73" t="n">
+        <v>15.45</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53703,9 @@
       <c r="ID74" t="n">
         <v>41</v>
       </c>
+      <c r="IE74" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54424,9 @@
       <c r="ID75" t="n">
         <v>42</v>
       </c>
+      <c r="IE75" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55145,9 @@
       <c r="ID76" t="n">
         <v>43</v>
       </c>
+      <c r="IE76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55866,9 @@
       <c r="ID77" t="n">
         <v>55</v>
       </c>
+      <c r="IE77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56587,9 @@
       <c r="ID78" t="n">
         <v>1.67</v>
       </c>
+      <c r="IE78" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57308,9 @@
       <c r="ID79" t="n">
         <v>5</v>
       </c>
+      <c r="IE79" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58029,9 @@
       <c r="ID80" t="n">
         <v>54.5</v>
       </c>
+      <c r="IE80" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58750,9 @@
       <c r="ID81" t="n">
         <v>20</v>
       </c>
+      <c r="IE81" t="n">
+        <v>21.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59471,9 @@
       <c r="ID82" t="n">
         <v>186.3</v>
       </c>
+      <c r="IE82" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60192,9 @@
       <c r="ID83" t="n">
         <v>83.3</v>
       </c>
+      <c r="IE83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60913,9 @@
       <c r="ID84" t="n">
         <v>24.66</v>
       </c>
+      <c r="IE84" t="n">
+        <v>27.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61634,9 @@
       <c r="ID85" t="n">
         <v>68.7</v>
       </c>
+      <c r="IE85" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62355,9 @@
       <c r="ID86" t="n">
         <v>15</v>
       </c>
+      <c r="IE86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63076,9 @@
       <c r="ID87" t="n">
         <v>0</v>
       </c>
+      <c r="IE87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63797,9 @@
       <c r="ID88" t="n">
         <v>1</v>
       </c>
+      <c r="IE88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64518,9 @@
       <c r="ID89" t="n">
         <v>6</v>
       </c>
+      <c r="IE89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65239,9 @@
       <c r="ID90" t="n">
         <v>124</v>
       </c>
+      <c r="IE90" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +65960,9 @@
       <c r="ID91" t="n">
         <v>179</v>
       </c>
+      <c r="IE91" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66681,9 @@
       <c r="ID92" t="n">
         <v>230</v>
       </c>
+      <c r="IE92" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67402,9 @@
       <c r="ID93" t="n">
         <v>73</v>
       </c>
+      <c r="IE93" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68123,9 @@
       <c r="ID94" t="n">
         <v>42</v>
       </c>
+      <c r="IE94" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68844,9 @@
       <c r="ID95" t="n">
         <v>5</v>
       </c>
+      <c r="IE95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69565,9 @@
       <c r="ID96" t="n">
         <v>12</v>
       </c>
+      <c r="IE96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70286,9 @@
       <c r="ID97" t="n">
         <v>41</v>
       </c>
+      <c r="IE97" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71007,9 @@
       <c r="ID98" t="n">
         <v>43</v>
       </c>
+      <c r="IE98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71728,9 @@
       <c r="ID99" t="n">
         <v>33</v>
       </c>
+      <c r="IE99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72449,9 @@
       <c r="ID100" t="n">
         <v>3</v>
       </c>
+      <c r="IE100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73170,9 @@
       <c r="ID101" t="n">
         <v>6</v>
       </c>
+      <c r="IE101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,6 +73891,9 @@
       <c r="ID102" t="n">
         <v>54.5</v>
       </c>
+      <c r="IE102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1073,9 @@
       <c r="IE1" t="n">
         <v>10348</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10354</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1794,6 +1797,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2515,6 +2521,9 @@
       <c r="IE3" t="n">
         <v>3</v>
       </c>
+      <c r="IF3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3236,6 +3245,9 @@
       <c r="IE4" t="n">
         <v>1</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3957,6 +3969,9 @@
       <c r="IE5" t="n">
         <v>1</v>
       </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4678,6 +4693,9 @@
       <c r="IE6" t="n">
         <v>117</v>
       </c>
+      <c r="IF6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5399,6 +5417,9 @@
       <c r="IE7" t="n">
         <v>72</v>
       </c>
+      <c r="IF7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6120,6 +6141,9 @@
       <c r="IE8" t="n">
         <v>45</v>
       </c>
+      <c r="IF8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6841,6 +6865,9 @@
       <c r="IE9" t="n">
         <v>1</v>
       </c>
+      <c r="IF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7562,6 +7589,9 @@
       <c r="IE10" t="n">
         <v>14</v>
       </c>
+      <c r="IF10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8283,6 +8313,9 @@
       <c r="IE11" t="n">
         <v>253</v>
       </c>
+      <c r="IF11" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9004,6 +9037,9 @@
       <c r="IE12" t="n">
         <v>134</v>
       </c>
+      <c r="IF12" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9725,6 +9761,9 @@
       <c r="IE13" t="n">
         <v>387</v>
       </c>
+      <c r="IF13" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10446,6 +10485,9 @@
       <c r="IE14" t="n">
         <v>1.89</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11167,6 +11209,9 @@
       <c r="IE15" t="n">
         <v>124</v>
       </c>
+      <c r="IF15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11888,6 +11933,9 @@
       <c r="IE16" t="n">
         <v>38</v>
       </c>
+      <c r="IF16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12609,6 +12657,9 @@
       <c r="IE17" t="n">
         <v>25</v>
       </c>
+      <c r="IF17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13330,6 +13381,9 @@
       <c r="IE18" t="n">
         <v>25</v>
       </c>
+      <c r="IF18" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14051,6 +14105,9 @@
       <c r="IE19" t="n">
         <v>15</v>
       </c>
+      <c r="IF19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14772,6 +14829,9 @@
       <c r="IE20" t="n">
         <v>17</v>
       </c>
+      <c r="IF20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15493,6 +15553,9 @@
       <c r="IE21" t="n">
         <v>12</v>
       </c>
+      <c r="IF21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16214,6 +16277,9 @@
       <c r="IE22" t="n">
         <v>13</v>
       </c>
+      <c r="IF22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16935,6 +17001,9 @@
       <c r="IE23" t="n">
         <v>2</v>
       </c>
+      <c r="IF23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17656,6 +17725,9 @@
       <c r="IE24" t="n">
         <v>32</v>
       </c>
+      <c r="IF24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18377,6 +18449,9 @@
       <c r="IE25" t="n">
         <v>53.1</v>
       </c>
+      <c r="IF25" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19098,6 +19173,9 @@
       <c r="IE26" t="n">
         <v>22.76</v>
       </c>
+      <c r="IF26" t="n">
+        <v>33.27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19819,6 +19897,9 @@
       <c r="IE27" t="n">
         <v>12.09</v>
       </c>
+      <c r="IF27" t="n">
+        <v>13.07</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20540,6 +20621,9 @@
       <c r="IE28" t="n">
         <v>31</v>
       </c>
+      <c r="IF28" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21261,6 +21345,9 @@
       <c r="IE29" t="n">
         <v>50</v>
       </c>
+      <c r="IF29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21982,6 +22069,9 @@
       <c r="IE30" t="n">
         <v>36</v>
       </c>
+      <c r="IF30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22703,6 +22793,9 @@
       <c r="IE31" t="n">
         <v>62</v>
       </c>
+      <c r="IF31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23424,6 +23517,9 @@
       <c r="IE32" t="n">
         <v>1.94</v>
       </c>
+      <c r="IF32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24145,6 +24241,9 @@
       <c r="IE33" t="n">
         <v>3.65</v>
       </c>
+      <c r="IF33" t="n">
+        <v>5.09</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24866,6 +24965,9 @@
       <c r="IE34" t="n">
         <v>48.4</v>
       </c>
+      <c r="IF34" t="n">
+        <v>48.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25587,6 +25689,9 @@
       <c r="IE35" t="n">
         <v>27.4</v>
       </c>
+      <c r="IF35" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26308,6 +26413,9 @@
       <c r="IE36" t="n">
         <v>187.3</v>
       </c>
+      <c r="IF36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27029,6 +27137,9 @@
       <c r="IE37" t="n">
         <v>83.7</v>
       </c>
+      <c r="IF37" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27750,6 +27861,9 @@
       <c r="IE38" t="n">
         <v>24.33</v>
       </c>
+      <c r="IF38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28471,6 +28585,9 @@
       <c r="IE39" t="n">
         <v>84.8</v>
       </c>
+      <c r="IF39" t="n">
+        <v>95.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29192,6 +29309,9 @@
       <c r="IE40" t="n">
         <v>9</v>
       </c>
+      <c r="IF40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29913,6 +30033,9 @@
       <c r="IE41" t="n">
         <v>3</v>
       </c>
+      <c r="IF41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30634,6 +30757,9 @@
       <c r="IE42" t="n">
         <v>5</v>
       </c>
+      <c r="IF42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31355,6 +31481,9 @@
       <c r="IE43" t="n">
         <v>5</v>
       </c>
+      <c r="IF43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32076,6 +32205,9 @@
       <c r="IE44" t="n">
         <v>129</v>
       </c>
+      <c r="IF44" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32797,6 +32929,9 @@
       <c r="IE45" t="n">
         <v>253</v>
       </c>
+      <c r="IF45" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33518,6 +33653,9 @@
       <c r="IE46" t="n">
         <v>293</v>
       </c>
+      <c r="IF46" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34239,6 +34377,9 @@
       <c r="IE47" t="n">
         <v>75.7</v>
       </c>
+      <c r="IF47" t="n">
+        <v>66.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34960,6 +35101,9 @@
       <c r="IE48" t="n">
         <v>50</v>
       </c>
+      <c r="IF48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35681,6 +35825,9 @@
       <c r="IE49" t="n">
         <v>7</v>
       </c>
+      <c r="IF49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36402,6 +36549,9 @@
       <c r="IE50" t="n">
         <v>15</v>
       </c>
+      <c r="IF50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37123,6 +37273,9 @@
       <c r="IE51" t="n">
         <v>31</v>
       </c>
+      <c r="IF51" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37844,6 +37997,9 @@
       <c r="IE52" t="n">
         <v>36</v>
       </c>
+      <c r="IF52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38565,6 +38721,9 @@
       <c r="IE53" t="n">
         <v>36</v>
       </c>
+      <c r="IF53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39286,6 +39445,9 @@
       <c r="IE54" t="n">
         <v>3</v>
       </c>
+      <c r="IF54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40007,6 +40169,9 @@
       <c r="IE55" t="n">
         <v>12</v>
       </c>
+      <c r="IF55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40728,6 +40893,9 @@
       <c r="IE56" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IF56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41449,6 +41617,9 @@
       <c r="IE57" t="n">
         <v>188</v>
       </c>
+      <c r="IF57" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42170,6 +42341,9 @@
       <c r="IE58" t="n">
         <v>152</v>
       </c>
+      <c r="IF58" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42891,6 +43065,9 @@
       <c r="IE59" t="n">
         <v>340</v>
       </c>
+      <c r="IF59" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43612,6 +43789,9 @@
       <c r="IE60" t="n">
         <v>1.24</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44333,6 +44513,9 @@
       <c r="IE61" t="n">
         <v>79</v>
       </c>
+      <c r="IF61" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45054,6 +45237,9 @@
       <c r="IE62" t="n">
         <v>55</v>
       </c>
+      <c r="IF62" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45775,6 +45961,9 @@
       <c r="IE63" t="n">
         <v>21</v>
       </c>
+      <c r="IF63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46496,6 +46685,9 @@
       <c r="IE64" t="n">
         <v>15</v>
       </c>
+      <c r="IF64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47217,6 +47409,9 @@
       <c r="IE65" t="n">
         <v>25</v>
       </c>
+      <c r="IF65" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47938,6 +48133,9 @@
       <c r="IE66" t="n">
         <v>10</v>
       </c>
+      <c r="IF66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48659,6 +48857,9 @@
       <c r="IE67" t="n">
         <v>6</v>
       </c>
+      <c r="IF67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49380,6 +49581,9 @@
       <c r="IE68" t="n">
         <v>12</v>
       </c>
+      <c r="IF68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50101,6 +50305,9 @@
       <c r="IE69" t="n">
         <v>0</v>
       </c>
+      <c r="IF69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50822,6 +51029,9 @@
       <c r="IE70" t="n">
         <v>22</v>
       </c>
+      <c r="IF70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51543,6 +51753,9 @@
       <c r="IE71" t="n">
         <v>45.5</v>
       </c>
+      <c r="IF71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52264,6 +52477,9 @@
       <c r="IE72" t="n">
         <v>34</v>
       </c>
+      <c r="IF72" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52985,6 +53201,9 @@
       <c r="IE73" t="n">
         <v>15.45</v>
       </c>
+      <c r="IF73" t="n">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53706,6 +53925,9 @@
       <c r="IE74" t="n">
         <v>25</v>
       </c>
+      <c r="IF74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54427,6 +54649,9 @@
       <c r="IE75" t="n">
         <v>69</v>
       </c>
+      <c r="IF75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55148,6 +55373,9 @@
       <c r="IE76" t="n">
         <v>43</v>
       </c>
+      <c r="IF76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55869,6 +56097,9 @@
       <c r="IE77" t="n">
         <v>47</v>
       </c>
+      <c r="IF77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56590,6 +56821,9 @@
       <c r="IE78" t="n">
         <v>2.14</v>
       </c>
+      <c r="IF78" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57311,6 +57545,9 @@
       <c r="IE79" t="n">
         <v>4.7</v>
       </c>
+      <c r="IF79" t="n">
+        <v>4.42</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58032,6 +58269,9 @@
       <c r="IE80" t="n">
         <v>46.8</v>
       </c>
+      <c r="IF80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58753,6 +58993,9 @@
       <c r="IE81" t="n">
         <v>21.3</v>
       </c>
+      <c r="IF81" t="n">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59474,6 +59717,9 @@
       <c r="IE82" t="n">
         <v>185.1</v>
       </c>
+      <c r="IF82" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60195,6 +60441,9 @@
       <c r="IE83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IF83" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60916,6 +61165,9 @@
       <c r="IE84" t="n">
         <v>27.16</v>
       </c>
+      <c r="IF84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61637,6 +61889,9 @@
       <c r="IE85" t="n">
         <v>121.6</v>
       </c>
+      <c r="IF85" t="n">
+        <v>69.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62358,6 +62613,9 @@
       <c r="IE86" t="n">
         <v>5</v>
       </c>
+      <c r="IF86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63079,6 +63337,9 @@
       <c r="IE87" t="n">
         <v>6</v>
       </c>
+      <c r="IF87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63800,6 +64061,9 @@
       <c r="IE88" t="n">
         <v>4</v>
       </c>
+      <c r="IF88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64521,6 +64785,9 @@
       <c r="IE89" t="n">
         <v>8</v>
       </c>
+      <c r="IF89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65242,6 +65509,9 @@
       <c r="IE90" t="n">
         <v>122</v>
       </c>
+      <c r="IF90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65963,6 +66233,9 @@
       <c r="IE91" t="n">
         <v>216</v>
       </c>
+      <c r="IF91" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66684,6 +66957,9 @@
       <c r="IE92" t="n">
         <v>240</v>
       </c>
+      <c r="IF92" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67405,6 +67681,9 @@
       <c r="IE93" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IF93" t="n">
+        <v>71.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68126,6 +68405,9 @@
       <c r="IE94" t="n">
         <v>69</v>
       </c>
+      <c r="IF94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68847,6 +69129,9 @@
       <c r="IE95" t="n">
         <v>9</v>
       </c>
+      <c r="IF95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69568,6 +69853,9 @@
       <c r="IE96" t="n">
         <v>10</v>
       </c>
+      <c r="IF96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70289,6 +70577,9 @@
       <c r="IE97" t="n">
         <v>25</v>
       </c>
+      <c r="IF97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71010,6 +71301,9 @@
       <c r="IE98" t="n">
         <v>43</v>
       </c>
+      <c r="IF98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71731,6 +72025,9 @@
       <c r="IE99" t="n">
         <v>48</v>
       </c>
+      <c r="IF99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72452,6 +72749,9 @@
       <c r="IE100" t="n">
         <v>10</v>
       </c>
+      <c r="IF100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73173,6 +73473,9 @@
       <c r="IE101" t="n">
         <v>6</v>
       </c>
+      <c r="IF101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73894,6 +74197,9 @@
       <c r="IE102" t="n">
         <v>60</v>
       </c>
+      <c r="IF102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,6 +1076,9 @@
       <c r="IF1" t="n">
         <v>10354</v>
       </c>
+      <c r="IG1" t="n">
+        <v>10366</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1800,6 +1803,9 @@
       <c r="IF2" t="n">
         <v>2021</v>
       </c>
+      <c r="IG2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2524,6 +2530,9 @@
       <c r="IF3" t="n">
         <v>4</v>
       </c>
+      <c r="IG3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3248,6 +3257,9 @@
       <c r="IF4" t="n">
         <v>0</v>
       </c>
+      <c r="IG4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3972,6 +3984,9 @@
       <c r="IF5" t="n">
         <v>0</v>
       </c>
+      <c r="IG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4696,6 +4711,9 @@
       <c r="IF6" t="n">
         <v>83</v>
       </c>
+      <c r="IG6" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5420,6 +5438,9 @@
       <c r="IF7" t="n">
         <v>80</v>
       </c>
+      <c r="IG7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6144,6 +6165,9 @@
       <c r="IF8" t="n">
         <v>3</v>
       </c>
+      <c r="IG8" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6868,6 +6892,9 @@
       <c r="IF9" t="n">
         <v>1</v>
       </c>
+      <c r="IG9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7592,6 +7619,9 @@
       <c r="IF10" t="n">
         <v>5</v>
       </c>
+      <c r="IG10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8316,6 +8346,9 @@
       <c r="IF11" t="n">
         <v>230</v>
       </c>
+      <c r="IG11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9040,6 +9073,9 @@
       <c r="IF12" t="n">
         <v>136</v>
       </c>
+      <c r="IG12" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9764,6 +9800,9 @@
       <c r="IF13" t="n">
         <v>366</v>
       </c>
+      <c r="IG13" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10488,6 +10527,9 @@
       <c r="IF14" t="n">
         <v>1.69</v>
       </c>
+      <c r="IG14" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11212,6 +11254,9 @@
       <c r="IF15" t="n">
         <v>84</v>
       </c>
+      <c r="IG15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11936,6 +11981,9 @@
       <c r="IF16" t="n">
         <v>54</v>
       </c>
+      <c r="IG16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12660,6 +12708,9 @@
       <c r="IF17" t="n">
         <v>35</v>
       </c>
+      <c r="IG17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13384,6 +13435,9 @@
       <c r="IF18" t="n">
         <v>29</v>
       </c>
+      <c r="IG18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14108,6 +14162,9 @@
       <c r="IF19" t="n">
         <v>16</v>
       </c>
+      <c r="IG19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14832,6 +14889,9 @@
       <c r="IF20" t="n">
         <v>11</v>
       </c>
+      <c r="IG20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15556,6 +15616,9 @@
       <c r="IF21" t="n">
         <v>8</v>
       </c>
+      <c r="IG21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16280,6 +16343,9 @@
       <c r="IF22" t="n">
         <v>16</v>
       </c>
+      <c r="IG22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17004,6 +17070,9 @@
       <c r="IF23" t="n">
         <v>1</v>
       </c>
+      <c r="IG23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17728,6 +17797,9 @@
       <c r="IF24" t="n">
         <v>28</v>
       </c>
+      <c r="IG24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18452,6 +18524,9 @@
       <c r="IF25" t="n">
         <v>39.3</v>
       </c>
+      <c r="IG25" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19176,6 +19251,9 @@
       <c r="IF26" t="n">
         <v>33.27</v>
       </c>
+      <c r="IG26" t="n">
+        <v>33.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19900,6 +19978,9 @@
       <c r="IF27" t="n">
         <v>13.07</v>
       </c>
+      <c r="IG27" t="n">
+        <v>17.74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20624,6 +20705,9 @@
       <c r="IF28" t="n">
         <v>47</v>
       </c>
+      <c r="IG28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21348,6 +21432,9 @@
       <c r="IF29" t="n">
         <v>51</v>
       </c>
+      <c r="IG29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22072,6 +22159,9 @@
       <c r="IF30" t="n">
         <v>38</v>
       </c>
+      <c r="IG30" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22796,6 +22886,9 @@
       <c r="IF31" t="n">
         <v>56</v>
       </c>
+      <c r="IG31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23520,6 +23613,9 @@
       <c r="IF32" t="n">
         <v>2</v>
       </c>
+      <c r="IG32" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24244,6 +24340,9 @@
       <c r="IF33" t="n">
         <v>5.09</v>
       </c>
+      <c r="IG33" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24968,6 +25067,9 @@
       <c r="IF34" t="n">
         <v>48.2</v>
       </c>
+      <c r="IG34" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25692,6 +25794,9 @@
       <c r="IF35" t="n">
         <v>19.6</v>
       </c>
+      <c r="IG35" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26416,6 +26521,9 @@
       <c r="IF36" t="n">
         <v>187.2</v>
       </c>
+      <c r="IG36" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27140,6 +27248,9 @@
       <c r="IF37" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="IG37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27864,6 +27975,9 @@
       <c r="IF38" t="n">
         <v>24.74</v>
       </c>
+      <c r="IG38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28588,6 +28702,9 @@
       <c r="IF39" t="n">
         <v>95.09999999999999</v>
       </c>
+      <c r="IG39" t="n">
+        <v>88.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29312,6 +29429,9 @@
       <c r="IF40" t="n">
         <v>9</v>
       </c>
+      <c r="IG40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30036,6 +30156,9 @@
       <c r="IF41" t="n">
         <v>3</v>
       </c>
+      <c r="IG41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30760,6 +30883,9 @@
       <c r="IF42" t="n">
         <v>5</v>
       </c>
+      <c r="IG42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31484,6 +31610,9 @@
       <c r="IF43" t="n">
         <v>6</v>
       </c>
+      <c r="IG43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32208,6 +32337,9 @@
       <c r="IF44" t="n">
         <v>154</v>
       </c>
+      <c r="IG44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32932,6 +33064,9 @@
       <c r="IF45" t="n">
         <v>204</v>
       </c>
+      <c r="IG45" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33656,6 +33791,9 @@
       <c r="IF46" t="n">
         <v>245</v>
       </c>
+      <c r="IG46" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34380,6 +34518,9 @@
       <c r="IF47" t="n">
         <v>66.90000000000001</v>
       </c>
+      <c r="IG47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35104,6 +35245,9 @@
       <c r="IF48" t="n">
         <v>51</v>
       </c>
+      <c r="IG48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35828,6 +35972,9 @@
       <c r="IF49" t="n">
         <v>12</v>
       </c>
+      <c r="IG49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36552,6 +36699,9 @@
       <c r="IF50" t="n">
         <v>18</v>
       </c>
+      <c r="IG50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37276,6 +37426,9 @@
       <c r="IF51" t="n">
         <v>47</v>
       </c>
+      <c r="IG51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38000,6 +38153,9 @@
       <c r="IF52" t="n">
         <v>38</v>
       </c>
+      <c r="IG52" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38724,6 +38880,9 @@
       <c r="IF53" t="n">
         <v>52</v>
       </c>
+      <c r="IG53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39448,6 +39607,9 @@
       <c r="IF54" t="n">
         <v>5</v>
       </c>
+      <c r="IG54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40172,6 +40334,9 @@
       <c r="IF55" t="n">
         <v>8</v>
       </c>
+      <c r="IG55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40896,6 +41061,9 @@
       <c r="IF56" t="n">
         <v>72.7</v>
       </c>
+      <c r="IG56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41620,6 +41788,9 @@
       <c r="IF57" t="n">
         <v>189</v>
       </c>
+      <c r="IG57" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42344,6 +42515,9 @@
       <c r="IF58" t="n">
         <v>147</v>
       </c>
+      <c r="IG58" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43068,6 +43242,9 @@
       <c r="IF59" t="n">
         <v>336</v>
       </c>
+      <c r="IG59" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43792,6 +43969,9 @@
       <c r="IF60" t="n">
         <v>1.29</v>
       </c>
+      <c r="IG60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44516,6 +44696,9 @@
       <c r="IF61" t="n">
         <v>78</v>
       </c>
+      <c r="IG61" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45240,6 +45423,9 @@
       <c r="IF62" t="n">
         <v>78</v>
       </c>
+      <c r="IG62" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45964,6 +46150,9 @@
       <c r="IF63" t="n">
         <v>27</v>
       </c>
+      <c r="IG63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46688,6 +46877,9 @@
       <c r="IF64" t="n">
         <v>16</v>
       </c>
+      <c r="IG64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47412,6 +47604,9 @@
       <c r="IF65" t="n">
         <v>29</v>
       </c>
+      <c r="IG65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48136,6 +48331,9 @@
       <c r="IF66" t="n">
         <v>12</v>
       </c>
+      <c r="IG66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48860,6 +49058,9 @@
       <c r="IF67" t="n">
         <v>7</v>
       </c>
+      <c r="IG67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49584,6 +49785,9 @@
       <c r="IF68" t="n">
         <v>6</v>
       </c>
+      <c r="IG68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50308,6 +50512,9 @@
       <c r="IF69" t="n">
         <v>2</v>
       </c>
+      <c r="IG69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51032,6 +51239,9 @@
       <c r="IF70" t="n">
         <v>20</v>
       </c>
+      <c r="IG70" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51756,6 +51966,9 @@
       <c r="IF71" t="n">
         <v>60</v>
       </c>
+      <c r="IG71" t="n">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52480,6 +52693,9 @@
       <c r="IF72" t="n">
         <v>28</v>
       </c>
+      <c r="IG72" t="n">
+        <v>41.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53204,6 +53420,9 @@
       <c r="IF73" t="n">
         <v>16.8</v>
       </c>
+      <c r="IG73" t="n">
+        <v>14.42</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53928,6 +54147,9 @@
       <c r="IF74" t="n">
         <v>24</v>
       </c>
+      <c r="IG74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54652,6 +54874,9 @@
       <c r="IF75" t="n">
         <v>70</v>
       </c>
+      <c r="IG75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55376,6 +55601,9 @@
       <c r="IF76" t="n">
         <v>42</v>
       </c>
+      <c r="IG76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56100,6 +56328,9 @@
       <c r="IF77" t="n">
         <v>53</v>
       </c>
+      <c r="IG77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56824,6 +57055,9 @@
       <c r="IF78" t="n">
         <v>2.65</v>
       </c>
+      <c r="IG78" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57548,6 +57782,9 @@
       <c r="IF79" t="n">
         <v>4.42</v>
       </c>
+      <c r="IG79" t="n">
+        <v>6.22</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58272,6 +58509,9 @@
       <c r="IF80" t="n">
         <v>34</v>
       </c>
+      <c r="IG80" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58996,6 +59236,9 @@
       <c r="IF81" t="n">
         <v>22.6</v>
       </c>
+      <c r="IG81" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59720,6 +59963,9 @@
       <c r="IF82" t="n">
         <v>186.7</v>
       </c>
+      <c r="IG82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60444,6 +60690,9 @@
       <c r="IF83" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="IG83" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61168,6 +61417,9 @@
       <c r="IF84" t="n">
         <v>24.41</v>
       </c>
+      <c r="IG84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61892,6 +62144,9 @@
       <c r="IF85" t="n">
         <v>69.40000000000001</v>
       </c>
+      <c r="IG85" t="n">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62616,6 +62871,9 @@
       <c r="IF86" t="n">
         <v>11</v>
       </c>
+      <c r="IG86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63340,6 +63598,9 @@
       <c r="IF87" t="n">
         <v>5</v>
       </c>
+      <c r="IG87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64064,6 +64325,9 @@
       <c r="IF88" t="n">
         <v>3</v>
       </c>
+      <c r="IG88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64788,6 +65052,9 @@
       <c r="IF89" t="n">
         <v>3</v>
       </c>
+      <c r="IG89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65512,6 +65779,9 @@
       <c r="IF90" t="n">
         <v>128</v>
       </c>
+      <c r="IG90" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66236,6 +66506,9 @@
       <c r="IF91" t="n">
         <v>188</v>
       </c>
+      <c r="IG91" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66960,6 +67233,9 @@
       <c r="IF92" t="n">
         <v>241</v>
       </c>
+      <c r="IG92" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67684,6 +67960,9 @@
       <c r="IF93" t="n">
         <v>71.7</v>
       </c>
+      <c r="IG93" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68408,6 +68687,9 @@
       <c r="IF94" t="n">
         <v>70</v>
       </c>
+      <c r="IG94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69132,6 +69414,9 @@
       <c r="IF95" t="n">
         <v>11</v>
       </c>
+      <c r="IG95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69856,6 +70141,9 @@
       <c r="IF96" t="n">
         <v>11</v>
       </c>
+      <c r="IG96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70580,6 +70868,9 @@
       <c r="IF97" t="n">
         <v>24</v>
       </c>
+      <c r="IG97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71304,6 +71595,9 @@
       <c r="IF98" t="n">
         <v>42</v>
       </c>
+      <c r="IG98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72028,6 +72322,9 @@
       <c r="IF99" t="n">
         <v>54</v>
       </c>
+      <c r="IG99" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72752,6 +73049,9 @@
       <c r="IF100" t="n">
         <v>4</v>
       </c>
+      <c r="IG100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73476,6 +73776,9 @@
       <c r="IF101" t="n">
         <v>7</v>
       </c>
+      <c r="IG101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74200,6 +74503,9 @@
       <c r="IF102" t="n">
         <v>58.3</v>
       </c>
+      <c r="IG102" t="n">
+        <v>55.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1147,9 @@
       <c r="IG1" t="n">
         <v>10366</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10374</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1806,6 +1877,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,6 +2607,9 @@
       <c r="IG3" t="n">
         <v>5</v>
       </c>
+      <c r="IH3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3260,6 +3337,9 @@
       <c r="IG4" t="n">
         <v>0</v>
       </c>
+      <c r="IH4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3987,6 +4067,9 @@
       <c r="IG5" t="n">
         <v>1</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4714,6 +4797,9 @@
       <c r="IG6" t="n">
         <v>69</v>
       </c>
+      <c r="IH6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5441,6 +5527,9 @@
       <c r="IG7" t="n">
         <v>71</v>
       </c>
+      <c r="IH7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6168,6 +6257,9 @@
       <c r="IG8" t="n">
         <v>-2</v>
       </c>
+      <c r="IH8" t="n">
+        <v>-40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6895,6 +6987,9 @@
       <c r="IG9" t="n">
         <v>0</v>
       </c>
+      <c r="IH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7622,6 +7717,9 @@
       <c r="IG10" t="n">
         <v>9</v>
       </c>
+      <c r="IH10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8349,6 +8447,9 @@
       <c r="IG11" t="n">
         <v>209</v>
       </c>
+      <c r="IH11" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9076,6 +9177,9 @@
       <c r="IG12" t="n">
         <v>128</v>
       </c>
+      <c r="IH12" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9803,6 +9907,9 @@
       <c r="IG13" t="n">
         <v>337</v>
       </c>
+      <c r="IH13" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10530,6 +10637,9 @@
       <c r="IG14" t="n">
         <v>1.63</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11257,6 +11367,9 @@
       <c r="IG15" t="n">
         <v>78</v>
       </c>
+      <c r="IH15" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11984,6 +12097,9 @@
       <c r="IG16" t="n">
         <v>69</v>
       </c>
+      <c r="IH16" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12711,6 +12827,9 @@
       <c r="IG17" t="n">
         <v>38</v>
       </c>
+      <c r="IH17" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13438,6 +13557,9 @@
       <c r="IG18" t="n">
         <v>22</v>
       </c>
+      <c r="IH18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14165,6 +14287,9 @@
       <c r="IG19" t="n">
         <v>20</v>
       </c>
+      <c r="IH19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14892,6 +15017,9 @@
       <c r="IG20" t="n">
         <v>10</v>
       </c>
+      <c r="IH20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15619,6 +15747,9 @@
       <c r="IG21" t="n">
         <v>8</v>
       </c>
+      <c r="IH21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16346,6 +16477,9 @@
       <c r="IG22" t="n">
         <v>8</v>
       </c>
+      <c r="IH22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17073,6 +17207,9 @@
       <c r="IG23" t="n">
         <v>1</v>
       </c>
+      <c r="IH23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17800,6 +17937,9 @@
       <c r="IG24" t="n">
         <v>19</v>
       </c>
+      <c r="IH24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18527,6 +18667,9 @@
       <c r="IG25" t="n">
         <v>52.6</v>
       </c>
+      <c r="IH25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19254,6 +19397,9 @@
       <c r="IG26" t="n">
         <v>33.7</v>
       </c>
+      <c r="IH26" t="n">
+        <v>43.44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19981,6 +20127,9 @@
       <c r="IG27" t="n">
         <v>17.74</v>
       </c>
+      <c r="IH27" t="n">
+        <v>26.07</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20708,6 +20857,9 @@
       <c r="IG28" t="n">
         <v>39</v>
       </c>
+      <c r="IH28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21435,6 +21587,9 @@
       <c r="IG29" t="n">
         <v>60</v>
       </c>
+      <c r="IH29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22162,6 +22317,9 @@
       <c r="IG30" t="n">
         <v>47</v>
       </c>
+      <c r="IH30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22889,6 +23047,9 @@
       <c r="IG31" t="n">
         <v>55</v>
       </c>
+      <c r="IH31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23616,6 +23777,9 @@
       <c r="IG32" t="n">
         <v>2.89</v>
       </c>
+      <c r="IH32" t="n">
+        <v>3.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24343,6 +24507,9 @@
       <c r="IG33" t="n">
         <v>5.5</v>
       </c>
+      <c r="IH33" t="n">
+        <v>5.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25070,6 +25237,9 @@
       <c r="IG34" t="n">
         <v>32.7</v>
       </c>
+      <c r="IH34" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25797,6 +25967,9 @@
       <c r="IG35" t="n">
         <v>18.2</v>
       </c>
+      <c r="IH35" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26524,6 +26697,9 @@
       <c r="IG36" t="n">
         <v>187.6</v>
       </c>
+      <c r="IH36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27251,6 +27427,9 @@
       <c r="IG37" t="n">
         <v>84</v>
       </c>
+      <c r="IH37" t="n">
+        <v>84.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27978,6 +28157,9 @@
       <c r="IG38" t="n">
         <v>24.33</v>
       </c>
+      <c r="IH38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28705,6 +28887,9 @@
       <c r="IG39" t="n">
         <v>88.59999999999999</v>
       </c>
+      <c r="IH39" t="n">
+        <v>82.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29432,6 +29617,9 @@
       <c r="IG40" t="n">
         <v>10</v>
       </c>
+      <c r="IH40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30159,6 +30347,9 @@
       <c r="IG41" t="n">
         <v>4</v>
       </c>
+      <c r="IH41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30886,6 +31077,9 @@
       <c r="IG42" t="n">
         <v>4</v>
       </c>
+      <c r="IH42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31613,6 +31807,9 @@
       <c r="IG43" t="n">
         <v>5</v>
       </c>
+      <c r="IH43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32340,6 +32537,9 @@
       <c r="IG44" t="n">
         <v>138</v>
       </c>
+      <c r="IH44" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33067,6 +33267,9 @@
       <c r="IG45" t="n">
         <v>188</v>
       </c>
+      <c r="IH45" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33794,6 +33997,9 @@
       <c r="IG46" t="n">
         <v>238</v>
       </c>
+      <c r="IH46" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34521,6 +34727,9 @@
       <c r="IG47" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IH47" t="n">
+        <v>72.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35248,6 +35457,9 @@
       <c r="IG48" t="n">
         <v>60</v>
       </c>
+      <c r="IH48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35975,6 +36187,9 @@
       <c r="IG49" t="n">
         <v>14</v>
       </c>
+      <c r="IH49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36702,6 +36917,9 @@
       <c r="IG50" t="n">
         <v>9</v>
       </c>
+      <c r="IH50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37429,6 +37647,9 @@
       <c r="IG51" t="n">
         <v>39</v>
       </c>
+      <c r="IH51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38156,6 +38377,9 @@
       <c r="IG52" t="n">
         <v>47</v>
       </c>
+      <c r="IH52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38883,6 +39107,9 @@
       <c r="IG53" t="n">
         <v>47</v>
       </c>
+      <c r="IH53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39610,6 +39837,9 @@
       <c r="IG54" t="n">
         <v>3</v>
       </c>
+      <c r="IH54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40337,6 +40567,9 @@
       <c r="IG55" t="n">
         <v>8</v>
       </c>
+      <c r="IH55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41064,6 +41297,9 @@
       <c r="IG56" t="n">
         <v>80</v>
       </c>
+      <c r="IH56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41791,6 +42027,9 @@
       <c r="IG57" t="n">
         <v>208</v>
       </c>
+      <c r="IH57" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42518,6 +42757,9 @@
       <c r="IG58" t="n">
         <v>167</v>
       </c>
+      <c r="IH58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43245,6 +43487,9 @@
       <c r="IG59" t="n">
         <v>375</v>
       </c>
+      <c r="IH59" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43972,6 +44217,9 @@
       <c r="IG60" t="n">
         <v>1.25</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44699,6 +44947,9 @@
       <c r="IG61" t="n">
         <v>73</v>
       </c>
+      <c r="IH61" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45426,6 +45677,9 @@
       <c r="IG62" t="n">
         <v>42</v>
       </c>
+      <c r="IH62" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46153,6 +46407,9 @@
       <c r="IG63" t="n">
         <v>29</v>
       </c>
+      <c r="IH63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46880,6 +47137,9 @@
       <c r="IG64" t="n">
         <v>20</v>
       </c>
+      <c r="IH64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47607,6 +47867,9 @@
       <c r="IG65" t="n">
         <v>22</v>
       </c>
+      <c r="IH65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48334,6 +48597,9 @@
       <c r="IG66" t="n">
         <v>9</v>
       </c>
+      <c r="IH66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49061,6 +49327,9 @@
       <c r="IG67" t="n">
         <v>5</v>
       </c>
+      <c r="IH67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49788,6 +50057,9 @@
       <c r="IG68" t="n">
         <v>13</v>
       </c>
+      <c r="IH68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50515,6 +50787,9 @@
       <c r="IG69" t="n">
         <v>4</v>
       </c>
+      <c r="IH69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51242,6 +51517,9 @@
       <c r="IG70" t="n">
         <v>26</v>
       </c>
+      <c r="IH70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51969,6 +52247,9 @@
       <c r="IG71" t="n">
         <v>34.6</v>
       </c>
+      <c r="IH71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52696,6 +52977,9 @@
       <c r="IG72" t="n">
         <v>41.67</v>
       </c>
+      <c r="IH72" t="n">
+        <v>26.47</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53423,6 +53707,9 @@
       <c r="IG73" t="n">
         <v>14.42</v>
       </c>
+      <c r="IH73" t="n">
+        <v>15.88</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54150,6 +54437,9 @@
       <c r="IG74" t="n">
         <v>40</v>
       </c>
+      <c r="IH74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54877,6 +55167,9 @@
       <c r="IG75" t="n">
         <v>58</v>
       </c>
+      <c r="IH75" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55604,6 +55897,9 @@
       <c r="IG76" t="n">
         <v>43</v>
       </c>
+      <c r="IH76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56331,6 +56627,9 @@
       <c r="IG77" t="n">
         <v>56</v>
       </c>
+      <c r="IH77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57058,6 +57357,9 @@
       <c r="IG78" t="n">
         <v>2.15</v>
       </c>
+      <c r="IH78" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57785,6 +58087,9 @@
       <c r="IG79" t="n">
         <v>6.22</v>
       </c>
+      <c r="IH79" t="n">
+        <v>3.47</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58512,6 +58817,9 @@
       <c r="IG80" t="n">
         <v>39.3</v>
       </c>
+      <c r="IH80" t="n">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59239,6 +59547,9 @@
       <c r="IG81" t="n">
         <v>16.1</v>
       </c>
+      <c r="IH81" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59966,6 +60277,9 @@
       <c r="IG82" t="n">
         <v>188.7</v>
       </c>
+      <c r="IH82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60693,6 +61007,9 @@
       <c r="IG83" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="IH83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61420,6 +61737,9 @@
       <c r="IG84" t="n">
         <v>24.74</v>
       </c>
+      <c r="IH84" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62147,6 +62467,9 @@
       <c r="IG85" t="n">
         <v>69.8</v>
       </c>
+      <c r="IH85" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62874,6 +63197,9 @@
       <c r="IG86" t="n">
         <v>10</v>
       </c>
+      <c r="IH86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63601,6 +63927,9 @@
       <c r="IG87" t="n">
         <v>8</v>
       </c>
+      <c r="IH87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64328,6 +64657,9 @@
       <c r="IG88" t="n">
         <v>1</v>
       </c>
+      <c r="IH88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65055,6 +65387,9 @@
       <c r="IG89" t="n">
         <v>4</v>
       </c>
+      <c r="IH89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65782,6 +66117,9 @@
       <c r="IG90" t="n">
         <v>151</v>
       </c>
+      <c r="IH90" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66509,6 +66847,9 @@
       <c r="IG91" t="n">
         <v>221</v>
       </c>
+      <c r="IH91" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67236,6 +67577,9 @@
       <c r="IG92" t="n">
         <v>270</v>
       </c>
+      <c r="IH92" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67963,6 +68307,9 @@
       <c r="IG93" t="n">
         <v>72</v>
       </c>
+      <c r="IH93" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68690,6 +69037,9 @@
       <c r="IG94" t="n">
         <v>58</v>
       </c>
+      <c r="IH94" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69417,6 +69767,9 @@
       <c r="IG95" t="n">
         <v>12</v>
       </c>
+      <c r="IH95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70144,6 +70497,9 @@
       <c r="IG96" t="n">
         <v>12</v>
       </c>
+      <c r="IH96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70871,6 +71227,9 @@
       <c r="IG97" t="n">
         <v>40</v>
       </c>
+      <c r="IH97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71598,6 +71957,9 @@
       <c r="IG98" t="n">
         <v>43</v>
       </c>
+      <c r="IH98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72325,6 +72687,9 @@
       <c r="IG99" t="n">
         <v>77</v>
       </c>
+      <c r="IH99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73052,6 +73417,9 @@
       <c r="IG100" t="n">
         <v>4</v>
       </c>
+      <c r="IH100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73779,6 +74147,9 @@
       <c r="IG101" t="n">
         <v>5</v>
       </c>
+      <c r="IH101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74506,6 +74877,9 @@
       <c r="IG102" t="n">
         <v>55.6</v>
       </c>
+      <c r="IH102" t="n">
+        <v>73.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1082,9 @@
       <c r="IH1" t="n">
         <v>10374</v>
       </c>
+      <c r="II1" t="n">
+        <v>10387</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1880,6 +1815,9 @@
       <c r="IH2" t="n">
         <v>2021</v>
       </c>
+      <c r="II2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2610,6 +2548,9 @@
       <c r="IH3" t="n">
         <v>6</v>
       </c>
+      <c r="II3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3340,6 +3281,9 @@
       <c r="IH4" t="n">
         <v>1</v>
       </c>
+      <c r="II4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4070,6 +4014,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4800,6 +4747,9 @@
       <c r="IH6" t="n">
         <v>60</v>
       </c>
+      <c r="II6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5530,6 +5480,9 @@
       <c r="IH7" t="n">
         <v>100</v>
       </c>
+      <c r="II7" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6260,6 +6213,9 @@
       <c r="IH8" t="n">
         <v>-40</v>
       </c>
+      <c r="II8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6990,6 +6946,9 @@
       <c r="IH9" t="n">
         <v>0</v>
       </c>
+      <c r="II9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7720,6 +7679,9 @@
       <c r="IH10" t="n">
         <v>8</v>
       </c>
+      <c r="II10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8450,6 +8412,9 @@
       <c r="IH11" t="n">
         <v>216</v>
       </c>
+      <c r="II11" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9180,6 +9145,9 @@
       <c r="IH12" t="n">
         <v>175</v>
       </c>
+      <c r="II12" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9910,6 +9878,9 @@
       <c r="IH13" t="n">
         <v>391</v>
       </c>
+      <c r="II13" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10640,6 +10611,9 @@
       <c r="IH14" t="n">
         <v>1.23</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11370,6 +11344,9 @@
       <c r="IH15" t="n">
         <v>90</v>
       </c>
+      <c r="II15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12100,6 +12077,9 @@
       <c r="IH16" t="n">
         <v>72</v>
       </c>
+      <c r="II16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12830,6 +12810,9 @@
       <c r="IH17" t="n">
         <v>76</v>
       </c>
+      <c r="II17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13560,6 +13543,9 @@
       <c r="IH18" t="n">
         <v>15</v>
       </c>
+      <c r="II18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14290,6 +14276,9 @@
       <c r="IH19" t="n">
         <v>19</v>
       </c>
+      <c r="II19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15020,6 +15009,9 @@
       <c r="IH20" t="n">
         <v>9</v>
       </c>
+      <c r="II20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15750,6 +15742,9 @@
       <c r="IH21" t="n">
         <v>7</v>
       </c>
+      <c r="II21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16480,6 +16475,9 @@
       <c r="IH22" t="n">
         <v>4</v>
       </c>
+      <c r="II22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17210,6 +17208,9 @@
       <c r="IH23" t="n">
         <v>2</v>
       </c>
+      <c r="II23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17940,6 +17941,9 @@
       <c r="IH24" t="n">
         <v>15</v>
       </c>
+      <c r="II24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18670,6 +18674,9 @@
       <c r="IH25" t="n">
         <v>60</v>
       </c>
+      <c r="II25" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19400,6 +19407,9 @@
       <c r="IH26" t="n">
         <v>43.44</v>
       </c>
+      <c r="II26" t="n">
+        <v>23.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20130,6 +20140,9 @@
       <c r="IH27" t="n">
         <v>26.07</v>
       </c>
+      <c r="II27" t="n">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20860,6 +20873,9 @@
       <c r="IH28" t="n">
         <v>41</v>
       </c>
+      <c r="II28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21590,6 +21606,9 @@
       <c r="IH29" t="n">
         <v>50</v>
       </c>
+      <c r="II29" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22320,6 +22339,9 @@
       <c r="IH30" t="n">
         <v>36</v>
       </c>
+      <c r="II30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23050,6 +23072,9 @@
       <c r="IH31" t="n">
         <v>53</v>
       </c>
+      <c r="II31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23780,6 +23805,9 @@
       <c r="IH32" t="n">
         <v>3.53</v>
       </c>
+      <c r="II32" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24510,6 +24538,9 @@
       <c r="IH33" t="n">
         <v>5.89</v>
       </c>
+      <c r="II33" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25240,6 +25271,9 @@
       <c r="IH34" t="n">
         <v>24.5</v>
       </c>
+      <c r="II34" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25970,6 +26004,9 @@
       <c r="IH35" t="n">
         <v>17</v>
       </c>
+      <c r="II35" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26700,6 +26737,9 @@
       <c r="IH36" t="n">
         <v>187.4</v>
       </c>
+      <c r="II36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27430,6 +27470,9 @@
       <c r="IH37" t="n">
         <v>84.2</v>
       </c>
+      <c r="II37" t="n">
+        <v>83.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28160,6 +28203,9 @@
       <c r="IH38" t="n">
         <v>24.41</v>
       </c>
+      <c r="II38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28890,6 +28936,9 @@
       <c r="IH39" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="II39" t="n">
+        <v>78.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29620,6 +29669,9 @@
       <c r="IH40" t="n">
         <v>11</v>
       </c>
+      <c r="II40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30350,6 +30402,9 @@
       <c r="IH41" t="n">
         <v>3</v>
       </c>
+      <c r="II41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31080,6 +31135,9 @@
       <c r="IH42" t="n">
         <v>5</v>
       </c>
+      <c r="II42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31810,6 +31868,9 @@
       <c r="IH43" t="n">
         <v>4</v>
       </c>
+      <c r="II43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32540,6 +32601,9 @@
       <c r="IH44" t="n">
         <v>144</v>
       </c>
+      <c r="II44" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33270,6 +33334,9 @@
       <c r="IH45" t="n">
         <v>245</v>
       </c>
+      <c r="II45" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34000,6 +34067,9 @@
       <c r="IH46" t="n">
         <v>282</v>
       </c>
+      <c r="II46" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34730,6 +34800,9 @@
       <c r="IH47" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="II47" t="n">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35460,6 +35533,9 @@
       <c r="IH48" t="n">
         <v>50</v>
       </c>
+      <c r="II48" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36190,6 +36266,9 @@
       <c r="IH49" t="n">
         <v>10</v>
       </c>
+      <c r="II49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36920,6 +36999,9 @@
       <c r="IH50" t="n">
         <v>8</v>
       </c>
+      <c r="II50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37650,6 +37732,9 @@
       <c r="IH51" t="n">
         <v>41</v>
       </c>
+      <c r="II51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38380,6 +38465,9 @@
       <c r="IH52" t="n">
         <v>36</v>
       </c>
+      <c r="II52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39110,6 +39198,9 @@
       <c r="IH53" t="n">
         <v>49</v>
       </c>
+      <c r="II53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39840,6 +39931,9 @@
       <c r="IH54" t="n">
         <v>6</v>
       </c>
+      <c r="II54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40570,6 +40664,9 @@
       <c r="IH55" t="n">
         <v>7</v>
       </c>
+      <c r="II55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41300,6 +41397,9 @@
       <c r="IH56" t="n">
         <v>77.8</v>
       </c>
+      <c r="II56" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42030,6 +42130,9 @@
       <c r="IH57" t="n">
         <v>247</v>
       </c>
+      <c r="II57" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42760,6 +42863,9 @@
       <c r="IH58" t="n">
         <v>150</v>
       </c>
+      <c r="II58" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43490,6 +43596,9 @@
       <c r="IH59" t="n">
         <v>397</v>
       </c>
+      <c r="II59" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44220,6 +44329,9 @@
       <c r="IH60" t="n">
         <v>1.65</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44950,6 +45062,9 @@
       <c r="IH61" t="n">
         <v>114</v>
       </c>
+      <c r="II61" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45680,6 +45795,9 @@
       <c r="IH62" t="n">
         <v>79</v>
       </c>
+      <c r="II62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46410,6 +46528,9 @@
       <c r="IH63" t="n">
         <v>20</v>
       </c>
+      <c r="II63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47140,6 +47261,9 @@
       <c r="IH64" t="n">
         <v>19</v>
       </c>
+      <c r="II64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47870,6 +47994,9 @@
       <c r="IH65" t="n">
         <v>16</v>
       </c>
+      <c r="II65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48600,6 +48727,9 @@
       <c r="IH66" t="n">
         <v>15</v>
       </c>
+      <c r="II66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49330,6 +49460,9 @@
       <c r="IH67" t="n">
         <v>11</v>
       </c>
+      <c r="II67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50060,6 +50193,9 @@
       <c r="IH68" t="n">
         <v>7</v>
       </c>
+      <c r="II68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50790,6 +50926,9 @@
       <c r="IH69" t="n">
         <v>3</v>
       </c>
+      <c r="II69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51520,6 +51659,9 @@
       <c r="IH70" t="n">
         <v>25</v>
       </c>
+      <c r="II70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52250,6 +52392,9 @@
       <c r="IH71" t="n">
         <v>60</v>
       </c>
+      <c r="II71" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52980,6 +53125,9 @@
       <c r="IH72" t="n">
         <v>26.47</v>
       </c>
+      <c r="II72" t="n">
+        <v>33.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53710,6 +53858,9 @@
       <c r="IH73" t="n">
         <v>15.88</v>
       </c>
+      <c r="II73" t="n">
+        <v>14.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54440,6 +54591,9 @@
       <c r="IH74" t="n">
         <v>44</v>
       </c>
+      <c r="II74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55170,6 +55324,9 @@
       <c r="IH75" t="n">
         <v>39</v>
       </c>
+      <c r="II75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55900,6 +56057,9 @@
       <c r="IH76" t="n">
         <v>44</v>
       </c>
+      <c r="II76" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56630,6 +56790,9 @@
       <c r="IH77" t="n">
         <v>52</v>
       </c>
+      <c r="II77" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57360,6 +57523,9 @@
       <c r="IH78" t="n">
         <v>2.08</v>
       </c>
+      <c r="II78" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58090,6 +58256,9 @@
       <c r="IH79" t="n">
         <v>3.47</v>
       </c>
+      <c r="II79" t="n">
+        <v>5.42</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58820,6 +58989,9 @@
       <c r="IH80" t="n">
         <v>42.3</v>
       </c>
+      <c r="II80" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59550,6 +59722,9 @@
       <c r="IH81" t="n">
         <v>28.8</v>
       </c>
+      <c r="II81" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60280,6 +60455,9 @@
       <c r="IH82" t="n">
         <v>187.7</v>
       </c>
+      <c r="II82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61010,6 +61188,9 @@
       <c r="IH83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="II83" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61740,6 +61921,9 @@
       <c r="IH84" t="n">
         <v>23.74</v>
       </c>
+      <c r="II84" t="n">
+        <v>27.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62470,6 +62654,9 @@
       <c r="IH85" t="n">
         <v>59.1</v>
       </c>
+      <c r="II85" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63200,6 +63387,9 @@
       <c r="IH86" t="n">
         <v>12</v>
       </c>
+      <c r="II86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63930,6 +64120,9 @@
       <c r="IH87" t="n">
         <v>6</v>
       </c>
+      <c r="II87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64660,6 +64853,9 @@
       <c r="IH88" t="n">
         <v>2</v>
       </c>
+      <c r="II88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65390,6 +65586,9 @@
       <c r="IH89" t="n">
         <v>2</v>
       </c>
+      <c r="II89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66120,6 +66319,9 @@
       <c r="IH90" t="n">
         <v>154</v>
       </c>
+      <c r="II90" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66850,6 +67052,9 @@
       <c r="IH91" t="n">
         <v>241</v>
       </c>
+      <c r="II91" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67580,6 +67785,9 @@
       <c r="IH92" t="n">
         <v>286</v>
       </c>
+      <c r="II92" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68310,6 +68518,9 @@
       <c r="IH93" t="n">
         <v>72</v>
       </c>
+      <c r="II93" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69040,6 +69251,9 @@
       <c r="IH94" t="n">
         <v>39</v>
       </c>
+      <c r="II94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69770,6 +69984,9 @@
       <c r="IH95" t="n">
         <v>11</v>
       </c>
+      <c r="II95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70500,6 +70717,9 @@
       <c r="IH96" t="n">
         <v>15</v>
       </c>
+      <c r="II96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71230,6 +71450,9 @@
       <c r="IH97" t="n">
         <v>44</v>
       </c>
+      <c r="II97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71960,6 +72183,9 @@
       <c r="IH98" t="n">
         <v>44</v>
       </c>
+      <c r="II98" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72690,6 +72916,9 @@
       <c r="IH99" t="n">
         <v>44</v>
       </c>
+      <c r="II99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73420,6 +73649,9 @@
       <c r="IH100" t="n">
         <v>9</v>
       </c>
+      <c r="II100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74150,6 +74382,9 @@
       <c r="IH101" t="n">
         <v>11</v>
       </c>
+      <c r="II101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74880,6 +75115,9 @@
       <c r="IH102" t="n">
         <v>73.3</v>
       </c>
+      <c r="II102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,6 +1085,9 @@
       <c r="II1" t="n">
         <v>10387</v>
       </c>
+      <c r="IJ1" t="n">
+        <v>10393</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1818,6 +1821,9 @@
       <c r="II2" t="n">
         <v>2021</v>
       </c>
+      <c r="IJ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2551,6 +2557,9 @@
       <c r="II3" t="n">
         <v>7</v>
       </c>
+      <c r="IJ3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3284,6 +3293,9 @@
       <c r="II4" t="n">
         <v>0</v>
       </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4017,6 +4029,9 @@
       <c r="II5" t="n">
         <v>0</v>
       </c>
+      <c r="IJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4750,6 +4765,9 @@
       <c r="II6" t="n">
         <v>90</v>
       </c>
+      <c r="IJ6" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5483,6 +5501,9 @@
       <c r="II7" t="n">
         <v>88</v>
       </c>
+      <c r="IJ7" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6216,6 +6237,9 @@
       <c r="II8" t="n">
         <v>2</v>
       </c>
+      <c r="IJ8" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6949,6 +6973,9 @@
       <c r="II9" t="n">
         <v>1</v>
       </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7682,6 +7709,9 @@
       <c r="II10" t="n">
         <v>7</v>
       </c>
+      <c r="IJ10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8415,6 +8445,9 @@
       <c r="II11" t="n">
         <v>203</v>
       </c>
+      <c r="IJ11" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9148,6 +9181,9 @@
       <c r="II12" t="n">
         <v>121</v>
       </c>
+      <c r="IJ12" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9881,6 +9917,9 @@
       <c r="II13" t="n">
         <v>324</v>
       </c>
+      <c r="IJ13" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10614,6 +10653,9 @@
       <c r="II14" t="n">
         <v>1.68</v>
       </c>
+      <c r="IJ14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11347,6 +11389,9 @@
       <c r="II15" t="n">
         <v>84</v>
       </c>
+      <c r="IJ15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12080,6 +12125,9 @@
       <c r="II16" t="n">
         <v>50</v>
       </c>
+      <c r="IJ16" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12813,6 +12861,9 @@
       <c r="II17" t="n">
         <v>32</v>
       </c>
+      <c r="IJ17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13546,6 +13597,9 @@
       <c r="II18" t="n">
         <v>16</v>
       </c>
+      <c r="IJ18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14279,6 +14333,9 @@
       <c r="II19" t="n">
         <v>22</v>
       </c>
+      <c r="IJ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15012,6 +15069,9 @@
       <c r="II20" t="n">
         <v>14</v>
       </c>
+      <c r="IJ20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15745,6 +15805,9 @@
       <c r="II21" t="n">
         <v>9</v>
       </c>
+      <c r="IJ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16478,6 +16541,9 @@
       <c r="II22" t="n">
         <v>4</v>
       </c>
+      <c r="IJ22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17211,6 +17277,9 @@
       <c r="II23" t="n">
         <v>2</v>
       </c>
+      <c r="IJ23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17944,6 +18013,9 @@
       <c r="II24" t="n">
         <v>20</v>
       </c>
+      <c r="IJ24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18677,6 +18749,9 @@
       <c r="II25" t="n">
         <v>70</v>
       </c>
+      <c r="IJ25" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19410,6 +19485,9 @@
       <c r="II26" t="n">
         <v>23.14</v>
       </c>
+      <c r="IJ26" t="n">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20143,6 +20221,9 @@
       <c r="II27" t="n">
         <v>16.2</v>
       </c>
+      <c r="IJ27" t="n">
+        <v>21.11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20876,6 +20957,9 @@
       <c r="II28" t="n">
         <v>36</v>
       </c>
+      <c r="IJ28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21609,6 +21693,9 @@
       <c r="II29" t="n">
         <v>61</v>
       </c>
+      <c r="IJ29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22342,6 +22429,9 @@
       <c r="II30" t="n">
         <v>48</v>
       </c>
+      <c r="IJ30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23075,6 +23165,9 @@
       <c r="II31" t="n">
         <v>39</v>
       </c>
+      <c r="IJ31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23808,6 +23901,9 @@
       <c r="II32" t="n">
         <v>1.95</v>
       </c>
+      <c r="IJ32" t="n">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24541,6 +24637,9 @@
       <c r="II33" t="n">
         <v>2.79</v>
       </c>
+      <c r="IJ33" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25274,6 +25373,9 @@
       <c r="II34" t="n">
         <v>46.2</v>
       </c>
+      <c r="IJ34" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26007,6 +26109,9 @@
       <c r="II35" t="n">
         <v>35.9</v>
       </c>
+      <c r="IJ35" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26740,6 +26845,9 @@
       <c r="II36" t="n">
         <v>187.1</v>
       </c>
+      <c r="IJ36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27473,6 +27581,9 @@
       <c r="II37" t="n">
         <v>83.8</v>
       </c>
+      <c r="IJ37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28206,6 +28317,9 @@
       <c r="II38" t="n">
         <v>24.41</v>
       </c>
+      <c r="IJ38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28939,6 +29053,9 @@
       <c r="II39" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="IJ39" t="n">
+        <v>96.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29672,6 +29789,9 @@
       <c r="II40" t="n">
         <v>10</v>
       </c>
+      <c r="IJ40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30405,6 +30525,9 @@
       <c r="II41" t="n">
         <v>5</v>
       </c>
+      <c r="IJ41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31138,6 +31261,9 @@
       <c r="II42" t="n">
         <v>5</v>
       </c>
+      <c r="IJ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31871,6 +31997,9 @@
       <c r="II43" t="n">
         <v>3</v>
       </c>
+      <c r="IJ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32604,6 +32733,9 @@
       <c r="II44" t="n">
         <v>118</v>
       </c>
+      <c r="IJ44" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33337,6 +33469,9 @@
       <c r="II45" t="n">
         <v>182</v>
       </c>
+      <c r="IJ45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34070,6 +34205,9 @@
       <c r="II46" t="n">
         <v>240</v>
       </c>
+      <c r="IJ46" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34803,6 +34941,9 @@
       <c r="II47" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="IJ47" t="n">
+        <v>67.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35536,6 +35677,9 @@
       <c r="II48" t="n">
         <v>61</v>
       </c>
+      <c r="IJ48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36269,6 +36413,9 @@
       <c r="II49" t="n">
         <v>12</v>
       </c>
+      <c r="IJ49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37002,6 +37149,9 @@
       <c r="II50" t="n">
         <v>10</v>
       </c>
+      <c r="IJ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37735,6 +37885,9 @@
       <c r="II51" t="n">
         <v>36</v>
       </c>
+      <c r="IJ51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38468,6 +38621,9 @@
       <c r="II52" t="n">
         <v>48</v>
       </c>
+      <c r="IJ52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39201,6 +39357,9 @@
       <c r="II53" t="n">
         <v>51</v>
       </c>
+      <c r="IJ53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39934,6 +40093,9 @@
       <c r="II54" t="n">
         <v>2</v>
       </c>
+      <c r="IJ54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40667,6 +40829,9 @@
       <c r="II55" t="n">
         <v>9</v>
       </c>
+      <c r="IJ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41400,6 +41565,9 @@
       <c r="II56" t="n">
         <v>64.3</v>
       </c>
+      <c r="IJ56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42133,6 +42301,9 @@
       <c r="II57" t="n">
         <v>232</v>
       </c>
+      <c r="IJ57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42866,6 +43037,9 @@
       <c r="II58" t="n">
         <v>172</v>
       </c>
+      <c r="IJ58" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43599,6 +43773,9 @@
       <c r="II59" t="n">
         <v>404</v>
       </c>
+      <c r="IJ59" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44332,6 +44509,9 @@
       <c r="II60" t="n">
         <v>1.35</v>
       </c>
+      <c r="IJ60" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45065,6 +45245,9 @@
       <c r="II61" t="n">
         <v>100</v>
       </c>
+      <c r="IJ61" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45798,6 +45981,9 @@
       <c r="II62" t="n">
         <v>58</v>
       </c>
+      <c r="IJ62" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46531,6 +46717,9 @@
       <c r="II63" t="n">
         <v>32</v>
       </c>
+      <c r="IJ63" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47264,6 +47453,9 @@
       <c r="II64" t="n">
         <v>22</v>
       </c>
+      <c r="IJ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47997,6 +48189,9 @@
       <c r="II65" t="n">
         <v>16</v>
       </c>
+      <c r="IJ65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48730,6 +48925,9 @@
       <c r="II66" t="n">
         <v>12</v>
       </c>
+      <c r="IJ66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49463,6 +49661,9 @@
       <c r="II67" t="n">
         <v>7</v>
       </c>
+      <c r="IJ67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50196,6 +50397,9 @@
       <c r="II68" t="n">
         <v>13</v>
       </c>
+      <c r="IJ68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50929,6 +51133,9 @@
       <c r="II69" t="n">
         <v>3</v>
       </c>
+      <c r="IJ69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51662,6 +51869,9 @@
       <c r="II70" t="n">
         <v>28</v>
       </c>
+      <c r="IJ70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52395,6 +52605,9 @@
       <c r="II71" t="n">
         <v>42.9</v>
       </c>
+      <c r="IJ71" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53128,6 +53341,9 @@
       <c r="II72" t="n">
         <v>33.67</v>
       </c>
+      <c r="IJ72" t="n">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53861,6 +54077,9 @@
       <c r="II73" t="n">
         <v>14.43</v>
       </c>
+      <c r="IJ73" t="n">
+        <v>21.88</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54594,6 +54813,9 @@
       <c r="II74" t="n">
         <v>39</v>
       </c>
+      <c r="IJ74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55327,6 +55549,9 @@
       <c r="II75" t="n">
         <v>54</v>
       </c>
+      <c r="IJ75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56060,6 +56285,9 @@
       <c r="II76" t="n">
         <v>25</v>
       </c>
+      <c r="IJ76" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56793,6 +57021,9 @@
       <c r="II77" t="n">
         <v>65</v>
       </c>
+      <c r="IJ77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57526,6 +57757,9 @@
       <c r="II78" t="n">
         <v>2.32</v>
       </c>
+      <c r="IJ78" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58259,6 +58493,9 @@
       <c r="II79" t="n">
         <v>5.42</v>
       </c>
+      <c r="IJ79" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58992,6 +59229,9 @@
       <c r="II80" t="n">
         <v>38.5</v>
       </c>
+      <c r="IJ80" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59725,6 +59965,9 @@
       <c r="II81" t="n">
         <v>18.5</v>
       </c>
+      <c r="IJ81" t="n">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60458,6 +60701,9 @@
       <c r="II82" t="n">
         <v>187.7</v>
       </c>
+      <c r="IJ82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61191,6 +61437,9 @@
       <c r="II83" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="IJ83" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61924,6 +62173,9 @@
       <c r="II84" t="n">
         <v>27.58</v>
       </c>
+      <c r="IJ84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62657,6 +62909,9 @@
       <c r="II85" t="n">
         <v>135.6</v>
       </c>
+      <c r="IJ85" t="n">
+        <v>92.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63390,6 +63645,9 @@
       <c r="II86" t="n">
         <v>5</v>
       </c>
+      <c r="IJ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64123,6 +64381,9 @@
       <c r="II87" t="n">
         <v>5</v>
       </c>
+      <c r="IJ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64856,6 +65117,9 @@
       <c r="II88" t="n">
         <v>2</v>
       </c>
+      <c r="IJ88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65589,6 +65853,9 @@
       <c r="II89" t="n">
         <v>11</v>
       </c>
+      <c r="IJ89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66322,6 +66589,9 @@
       <c r="II90" t="n">
         <v>151</v>
       </c>
+      <c r="IJ90" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67055,6 +67325,9 @@
       <c r="II91" t="n">
         <v>250</v>
       </c>
+      <c r="IJ91" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67788,6 +68061,9 @@
       <c r="II92" t="n">
         <v>296</v>
       </c>
+      <c r="IJ92" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68521,6 +68797,9 @@
       <c r="II93" t="n">
         <v>73.3</v>
       </c>
+      <c r="IJ93" t="n">
+        <v>65.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69254,6 +69533,9 @@
       <c r="II94" t="n">
         <v>54</v>
       </c>
+      <c r="IJ94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69987,6 +70269,9 @@
       <c r="II95" t="n">
         <v>11</v>
       </c>
+      <c r="IJ95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70720,6 +71005,9 @@
       <c r="II96" t="n">
         <v>9</v>
       </c>
+      <c r="IJ96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71453,6 +71741,9 @@
       <c r="II97" t="n">
         <v>39</v>
       </c>
+      <c r="IJ97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72186,6 +72477,9 @@
       <c r="II98" t="n">
         <v>25</v>
       </c>
+      <c r="IJ98" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72919,6 +73213,9 @@
       <c r="II99" t="n">
         <v>40</v>
       </c>
+      <c r="IJ99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73652,6 +73949,9 @@
       <c r="II100" t="n">
         <v>3</v>
       </c>
+      <c r="IJ100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74385,6 +74685,9 @@
       <c r="II101" t="n">
         <v>7</v>
       </c>
+      <c r="IJ101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75118,6 +75421,9 @@
       <c r="II102" t="n">
         <v>58.3</v>
       </c>
+      <c r="IJ102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,6 +1088,9 @@
       <c r="IJ1" t="n">
         <v>10393</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10405</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1824,6 +1827,9 @@
       <c r="IJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2560,6 +2566,9 @@
       <c r="IJ3" t="n">
         <v>8</v>
       </c>
+      <c r="IK3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3296,6 +3305,9 @@
       <c r="IJ4" t="n">
         <v>1</v>
       </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4032,6 +4044,9 @@
       <c r="IJ5" t="n">
         <v>0</v>
       </c>
+      <c r="IK5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4768,6 +4783,9 @@
       <c r="IJ6" t="n">
         <v>58</v>
       </c>
+      <c r="IK6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5504,6 +5522,9 @@
       <c r="IJ7" t="n">
         <v>67</v>
       </c>
+      <c r="IK7" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6240,6 +6261,9 @@
       <c r="IJ8" t="n">
         <v>-9</v>
       </c>
+      <c r="IK8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6976,6 +7000,9 @@
       <c r="IJ9" t="n">
         <v>0</v>
       </c>
+      <c r="IK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7712,6 +7739,9 @@
       <c r="IJ10" t="n">
         <v>11</v>
       </c>
+      <c r="IK10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8448,6 +8478,9 @@
       <c r="IJ11" t="n">
         <v>234</v>
       </c>
+      <c r="IK11" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9184,6 +9217,9 @@
       <c r="IJ12" t="n">
         <v>146</v>
       </c>
+      <c r="IK12" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9920,6 +9956,9 @@
       <c r="IJ13" t="n">
         <v>380</v>
       </c>
+      <c r="IK13" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10656,6 +10695,9 @@
       <c r="IJ14" t="n">
         <v>1.6</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11392,6 +11434,9 @@
       <c r="IJ15" t="n">
         <v>87</v>
       </c>
+      <c r="IK15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12128,6 +12173,9 @@
       <c r="IJ16" t="n">
         <v>92</v>
       </c>
+      <c r="IK16" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12864,6 +12912,9 @@
       <c r="IJ17" t="n">
         <v>29</v>
       </c>
+      <c r="IK17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13600,6 +13651,9 @@
       <c r="IJ18" t="n">
         <v>17</v>
       </c>
+      <c r="IK18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14336,6 +14390,9 @@
       <c r="IJ19" t="n">
         <v>15</v>
       </c>
+      <c r="IK19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15072,6 +15129,9 @@
       <c r="IJ20" t="n">
         <v>8</v>
       </c>
+      <c r="IK20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15808,6 +15868,9 @@
       <c r="IJ21" t="n">
         <v>6</v>
       </c>
+      <c r="IK21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16544,6 +16607,9 @@
       <c r="IJ22" t="n">
         <v>5</v>
       </c>
+      <c r="IK22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17280,6 +17346,9 @@
       <c r="IJ23" t="n">
         <v>5</v>
       </c>
+      <c r="IK23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18016,6 +18085,9 @@
       <c r="IJ24" t="n">
         <v>18</v>
       </c>
+      <c r="IK24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18752,6 +18824,9 @@
       <c r="IJ25" t="n">
         <v>44.4</v>
       </c>
+      <c r="IK25" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19488,6 +19563,9 @@
       <c r="IJ26" t="n">
         <v>47.5</v>
       </c>
+      <c r="IK26" t="n">
+        <v>40.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20224,6 +20302,9 @@
       <c r="IJ27" t="n">
         <v>21.11</v>
       </c>
+      <c r="IK27" t="n">
+        <v>18.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20960,6 +21041,9 @@
       <c r="IJ28" t="n">
         <v>39</v>
       </c>
+      <c r="IK28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21696,6 +21780,9 @@
       <c r="IJ29" t="n">
         <v>59</v>
       </c>
+      <c r="IK29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22432,6 +22519,9 @@
       <c r="IJ30" t="n">
         <v>36</v>
       </c>
+      <c r="IK30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23168,6 +23258,9 @@
       <c r="IJ31" t="n">
         <v>58</v>
       </c>
+      <c r="IK31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23904,6 +23997,9 @@
       <c r="IJ32" t="n">
         <v>3.22</v>
       </c>
+      <c r="IK32" t="n">
+        <v>2.64</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24640,6 +24736,9 @@
       <c r="IJ33" t="n">
         <v>7.25</v>
       </c>
+      <c r="IK33" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25376,6 +25475,9 @@
       <c r="IJ34" t="n">
         <v>22.4</v>
       </c>
+      <c r="IK34" t="n">
+        <v>37.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26112,6 +26214,9 @@
       <c r="IJ35" t="n">
         <v>13.8</v>
       </c>
+      <c r="IK35" t="n">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26848,6 +26953,9 @@
       <c r="IJ36" t="n">
         <v>187.5</v>
       </c>
+      <c r="IK36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27584,6 +27692,9 @@
       <c r="IJ37" t="n">
         <v>85</v>
       </c>
+      <c r="IK37" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28320,6 +28431,9 @@
       <c r="IJ38" t="n">
         <v>25.49</v>
       </c>
+      <c r="IK38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29056,6 +29170,9 @@
       <c r="IJ39" t="n">
         <v>96.09999999999999</v>
       </c>
+      <c r="IK39" t="n">
+        <v>102.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29792,6 +29909,9 @@
       <c r="IJ40" t="n">
         <v>9</v>
       </c>
+      <c r="IK40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30528,6 +30648,9 @@
       <c r="IJ41" t="n">
         <v>3</v>
       </c>
+      <c r="IK41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31264,6 +31387,9 @@
       <c r="IJ42" t="n">
         <v>5</v>
       </c>
+      <c r="IK42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32000,6 +32126,9 @@
       <c r="IJ43" t="n">
         <v>5</v>
       </c>
+      <c r="IK43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32736,6 +32865,9 @@
       <c r="IJ44" t="n">
         <v>164</v>
       </c>
+      <c r="IK44" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33472,6 +33604,9 @@
       <c r="IJ45" t="n">
         <v>211</v>
       </c>
+      <c r="IK45" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34208,6 +34343,9 @@
       <c r="IJ46" t="n">
         <v>258</v>
       </c>
+      <c r="IK46" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34944,6 +35082,9 @@
       <c r="IJ47" t="n">
         <v>67.90000000000001</v>
       </c>
+      <c r="IK47" t="n">
+        <v>74.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35680,6 +35821,9 @@
       <c r="IJ48" t="n">
         <v>59</v>
       </c>
+      <c r="IK48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36416,6 +36560,9 @@
       <c r="IJ49" t="n">
         <v>11</v>
       </c>
+      <c r="IK49" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37152,6 +37299,9 @@
       <c r="IJ50" t="n">
         <v>6</v>
       </c>
+      <c r="IK50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37888,6 +38038,9 @@
       <c r="IJ51" t="n">
         <v>39</v>
       </c>
+      <c r="IK51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38624,6 +38777,9 @@
       <c r="IJ52" t="n">
         <v>36</v>
       </c>
+      <c r="IK52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39360,6 +39516,9 @@
       <c r="IJ53" t="n">
         <v>54</v>
       </c>
+      <c r="IK53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40096,6 +40255,9 @@
       <c r="IJ54" t="n">
         <v>6</v>
       </c>
+      <c r="IK54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40832,6 +40994,9 @@
       <c r="IJ55" t="n">
         <v>6</v>
       </c>
+      <c r="IK55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41568,6 +41733,9 @@
       <c r="IJ56" t="n">
         <v>75</v>
       </c>
+      <c r="IK56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42304,6 +42472,9 @@
       <c r="IJ57" t="n">
         <v>193</v>
       </c>
+      <c r="IK57" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43040,6 +43211,9 @@
       <c r="IJ58" t="n">
         <v>179</v>
       </c>
+      <c r="IK58" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43776,6 +43950,9 @@
       <c r="IJ59" t="n">
         <v>372</v>
       </c>
+      <c r="IK59" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44512,6 +44689,9 @@
       <c r="IJ60" t="n">
         <v>1.08</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45248,6 +45428,9 @@
       <c r="IJ61" t="n">
         <v>56</v>
       </c>
+      <c r="IK61" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45984,6 +46167,9 @@
       <c r="IJ62" t="n">
         <v>76</v>
       </c>
+      <c r="IK62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46720,6 +46906,9 @@
       <c r="IJ63" t="n">
         <v>52</v>
       </c>
+      <c r="IK63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47456,6 +47645,9 @@
       <c r="IJ64" t="n">
         <v>15</v>
       </c>
+      <c r="IK64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48192,6 +48384,9 @@
       <c r="IJ65" t="n">
         <v>17</v>
       </c>
+      <c r="IK65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48928,6 +49123,9 @@
       <c r="IJ66" t="n">
         <v>10</v>
       </c>
+      <c r="IK66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49664,6 +49862,9 @@
       <c r="IJ67" t="n">
         <v>7</v>
       </c>
+      <c r="IK67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50400,6 +50601,9 @@
       <c r="IJ68" t="n">
         <v>4</v>
       </c>
+      <c r="IK68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51136,6 +51340,9 @@
       <c r="IJ69" t="n">
         <v>3</v>
       </c>
+      <c r="IK69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51872,6 +52079,9 @@
       <c r="IJ70" t="n">
         <v>17</v>
       </c>
+      <c r="IK70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52608,6 +52818,9 @@
       <c r="IJ71" t="n">
         <v>58.8</v>
       </c>
+      <c r="IK71" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53344,6 +53557,9 @@
       <c r="IJ72" t="n">
         <v>37.2</v>
       </c>
+      <c r="IK72" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54080,6 +54296,9 @@
       <c r="IJ73" t="n">
         <v>21.88</v>
       </c>
+      <c r="IK73" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54816,6 +55035,9 @@
       <c r="IJ74" t="n">
         <v>37</v>
       </c>
+      <c r="IK74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55552,6 +55774,9 @@
       <c r="IJ75" t="n">
         <v>63</v>
       </c>
+      <c r="IK75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56288,6 +56513,9 @@
       <c r="IJ76" t="n">
         <v>49</v>
       </c>
+      <c r="IK76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57024,6 +57252,9 @@
       <c r="IJ77" t="n">
         <v>46</v>
       </c>
+      <c r="IK77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57760,6 +57991,9 @@
       <c r="IJ78" t="n">
         <v>2.71</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58496,6 +58730,9 @@
       <c r="IJ79" t="n">
         <v>4.6</v>
       </c>
+      <c r="IK79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59232,6 +59469,9 @@
       <c r="IJ80" t="n">
         <v>30.4</v>
       </c>
+      <c r="IK80" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59968,6 +60208,9 @@
       <c r="IJ81" t="n">
         <v>21.7</v>
       </c>
+      <c r="IK81" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60704,6 +60947,9 @@
       <c r="IJ82" t="n">
         <v>188.2</v>
       </c>
+      <c r="IK82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61440,6 +61686,9 @@
       <c r="IJ83" t="n">
         <v>86.5</v>
       </c>
+      <c r="IK83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62176,6 +62425,9 @@
       <c r="IJ84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IK84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62912,6 +63164,9 @@
       <c r="IJ85" t="n">
         <v>92.90000000000001</v>
       </c>
+      <c r="IK85" t="n">
+        <v>90.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63648,6 +63903,9 @@
       <c r="IJ86" t="n">
         <v>6</v>
       </c>
+      <c r="IK86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64384,6 +64642,9 @@
       <c r="IJ87" t="n">
         <v>4</v>
       </c>
+      <c r="IK87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65120,6 +65381,9 @@
       <c r="IJ88" t="n">
         <v>8</v>
       </c>
+      <c r="IK88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65856,6 +66120,9 @@
       <c r="IJ89" t="n">
         <v>4</v>
       </c>
+      <c r="IK89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66592,6 +66859,9 @@
       <c r="IJ90" t="n">
         <v>159</v>
       </c>
+      <c r="IK90" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67328,6 +67598,9 @@
       <c r="IJ91" t="n">
         <v>205</v>
       </c>
+      <c r="IK91" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68064,6 +68337,9 @@
       <c r="IJ92" t="n">
         <v>244</v>
       </c>
+      <c r="IK92" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68800,6 +69076,9 @@
       <c r="IJ93" t="n">
         <v>65.59999999999999</v>
       </c>
+      <c r="IK93" t="n">
+        <v>67.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69536,6 +69815,9 @@
       <c r="IJ94" t="n">
         <v>63</v>
       </c>
+      <c r="IK94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70272,6 +70554,9 @@
       <c r="IJ95" t="n">
         <v>4</v>
       </c>
+      <c r="IK95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71008,6 +71293,9 @@
       <c r="IJ96" t="n">
         <v>9</v>
       </c>
+      <c r="IK96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71744,6 +72032,9 @@
       <c r="IJ97" t="n">
         <v>37</v>
       </c>
+      <c r="IK97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72480,6 +72771,9 @@
       <c r="IJ98" t="n">
         <v>49</v>
       </c>
+      <c r="IK98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73216,6 +73510,9 @@
       <c r="IJ99" t="n">
         <v>49</v>
       </c>
+      <c r="IK99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73952,6 +74249,9 @@
       <c r="IJ100" t="n">
         <v>3</v>
       </c>
+      <c r="IK100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74688,6 +74988,9 @@
       <c r="IJ101" t="n">
         <v>7</v>
       </c>
+      <c r="IK101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75424,6 +75727,9 @@
       <c r="IJ102" t="n">
         <v>70</v>
       </c>
+      <c r="IK102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,9 @@
       <c r="IK1" t="n">
         <v>10405</v>
       </c>
+      <c r="IL1" t="n">
+        <v>10416</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1830,6 +1833,9 @@
       <c r="IK2" t="n">
         <v>2021</v>
       </c>
+      <c r="IL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2569,6 +2575,9 @@
       <c r="IK3" t="n">
         <v>9</v>
       </c>
+      <c r="IL3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3308,6 +3317,9 @@
       <c r="IK4" t="n">
         <v>0</v>
       </c>
+      <c r="IL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4047,6 +4059,9 @@
       <c r="IK5" t="n">
         <v>0</v>
       </c>
+      <c r="IL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4786,6 +4801,9 @@
       <c r="IK6" t="n">
         <v>72</v>
       </c>
+      <c r="IL6" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5525,6 +5543,9 @@
       <c r="IK7" t="n">
         <v>42</v>
       </c>
+      <c r="IL7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6264,6 +6285,9 @@
       <c r="IK8" t="n">
         <v>30</v>
       </c>
+      <c r="IL8" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7003,6 +7027,9 @@
       <c r="IK9" t="n">
         <v>1</v>
       </c>
+      <c r="IL9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7742,6 +7769,9 @@
       <c r="IK10" t="n">
         <v>4</v>
       </c>
+      <c r="IL10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8481,6 +8511,9 @@
       <c r="IK11" t="n">
         <v>218</v>
       </c>
+      <c r="IL11" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9220,6 +9253,9 @@
       <c r="IK12" t="n">
         <v>184</v>
       </c>
+      <c r="IL12" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9959,6 +9995,9 @@
       <c r="IK13" t="n">
         <v>402</v>
       </c>
+      <c r="IL13" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10698,6 +10737,9 @@
       <c r="IK14" t="n">
         <v>1.18</v>
       </c>
+      <c r="IL14" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11437,6 +11479,9 @@
       <c r="IK15" t="n">
         <v>95</v>
       </c>
+      <c r="IL15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12176,6 +12221,9 @@
       <c r="IK16" t="n">
         <v>82</v>
       </c>
+      <c r="IL16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12915,6 +12963,9 @@
       <c r="IK17" t="n">
         <v>22</v>
       </c>
+      <c r="IL17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13654,6 +13705,9 @@
       <c r="IK18" t="n">
         <v>20</v>
       </c>
+      <c r="IL18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14393,6 +14447,9 @@
       <c r="IK19" t="n">
         <v>15</v>
       </c>
+      <c r="IL19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15132,6 +15189,9 @@
       <c r="IK20" t="n">
         <v>10</v>
       </c>
+      <c r="IL20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15871,6 +15931,9 @@
       <c r="IK21" t="n">
         <v>8</v>
       </c>
+      <c r="IL21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16610,6 +16673,9 @@
       <c r="IK22" t="n">
         <v>12</v>
       </c>
+      <c r="IL22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17349,6 +17415,9 @@
       <c r="IK23" t="n">
         <v>0</v>
       </c>
+      <c r="IL23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18088,6 +18157,9 @@
       <c r="IK24" t="n">
         <v>22</v>
       </c>
+      <c r="IL24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18827,6 +18899,9 @@
       <c r="IK25" t="n">
         <v>45.5</v>
       </c>
+      <c r="IL25" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19566,6 +19641,9 @@
       <c r="IK26" t="n">
         <v>40.2</v>
       </c>
+      <c r="IL26" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20305,6 +20383,9 @@
       <c r="IK27" t="n">
         <v>18.27</v>
       </c>
+      <c r="IL27" t="n">
+        <v>19.16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21044,6 +21125,9 @@
       <c r="IK28" t="n">
         <v>28</v>
       </c>
+      <c r="IL28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21783,6 +21867,9 @@
       <c r="IK29" t="n">
         <v>56</v>
       </c>
+      <c r="IL29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22522,6 +22609,9 @@
       <c r="IK30" t="n">
         <v>40</v>
       </c>
+      <c r="IL30" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23261,6 +23351,9 @@
       <c r="IK31" t="n">
         <v>58</v>
       </c>
+      <c r="IL31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24000,6 +24093,9 @@
       <c r="IK32" t="n">
         <v>2.64</v>
       </c>
+      <c r="IL32" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24739,6 +24835,9 @@
       <c r="IK33" t="n">
         <v>5.8</v>
       </c>
+      <c r="IL33" t="n">
+        <v>3.46</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25478,6 +25577,9 @@
       <c r="IK34" t="n">
         <v>37.9</v>
       </c>
+      <c r="IL34" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26217,6 +26319,9 @@
       <c r="IK35" t="n">
         <v>17.2</v>
       </c>
+      <c r="IL35" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26956,6 +27061,9 @@
       <c r="IK36" t="n">
         <v>187.8</v>
       </c>
+      <c r="IL36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27695,6 +27803,9 @@
       <c r="IK37" t="n">
         <v>84.5</v>
       </c>
+      <c r="IL37" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28434,6 +28545,9 @@
       <c r="IK38" t="n">
         <v>25.33</v>
       </c>
+      <c r="IL38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29173,6 +29287,9 @@
       <c r="IK39" t="n">
         <v>102.2</v>
       </c>
+      <c r="IL39" t="n">
+        <v>101.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29912,6 +30029,9 @@
       <c r="IK40" t="n">
         <v>7</v>
       </c>
+      <c r="IL40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30651,6 +30771,9 @@
       <c r="IK41" t="n">
         <v>4</v>
       </c>
+      <c r="IL41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31390,6 +31513,9 @@
       <c r="IK42" t="n">
         <v>6</v>
       </c>
+      <c r="IL42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32129,6 +32255,9 @@
       <c r="IK43" t="n">
         <v>5</v>
       </c>
+      <c r="IL43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32868,6 +32997,9 @@
       <c r="IK44" t="n">
         <v>153</v>
       </c>
+      <c r="IL44" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33607,6 +33739,9 @@
       <c r="IK45" t="n">
         <v>243</v>
       </c>
+      <c r="IL45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34346,6 +34481,9 @@
       <c r="IK46" t="n">
         <v>298</v>
       </c>
+      <c r="IL46" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35085,6 +35223,9 @@
       <c r="IK47" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="IL47" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35824,6 +35965,9 @@
       <c r="IK48" t="n">
         <v>56</v>
       </c>
+      <c r="IL48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36563,6 +36707,9 @@
       <c r="IK49" t="n">
         <v>21</v>
       </c>
+      <c r="IL49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37302,6 +37449,9 @@
       <c r="IK50" t="n">
         <v>12</v>
       </c>
+      <c r="IL50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38041,6 +38191,9 @@
       <c r="IK51" t="n">
         <v>28</v>
       </c>
+      <c r="IL51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38780,6 +38933,9 @@
       <c r="IK52" t="n">
         <v>40</v>
       </c>
+      <c r="IL52" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39519,6 +39675,9 @@
       <c r="IK53" t="n">
         <v>41</v>
       </c>
+      <c r="IL53" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40258,6 +40417,9 @@
       <c r="IK54" t="n">
         <v>1</v>
       </c>
+      <c r="IL54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40997,6 +41159,9 @@
       <c r="IK55" t="n">
         <v>8</v>
       </c>
+      <c r="IL55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41736,6 +41901,9 @@
       <c r="IK56" t="n">
         <v>80</v>
       </c>
+      <c r="IL56" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42475,6 +42643,9 @@
       <c r="IK57" t="n">
         <v>189</v>
       </c>
+      <c r="IL57" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43214,6 +43385,9 @@
       <c r="IK58" t="n">
         <v>181</v>
       </c>
+      <c r="IL58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43953,6 +44127,9 @@
       <c r="IK59" t="n">
         <v>370</v>
       </c>
+      <c r="IL59" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44692,6 +44869,9 @@
       <c r="IK60" t="n">
         <v>1.04</v>
       </c>
+      <c r="IL60" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45431,6 +45611,9 @@
       <c r="IK61" t="n">
         <v>69</v>
       </c>
+      <c r="IL61" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46170,6 +46353,9 @@
       <c r="IK62" t="n">
         <v>69</v>
       </c>
+      <c r="IL62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46909,6 +47095,9 @@
       <c r="IK63" t="n">
         <v>34</v>
       </c>
+      <c r="IL63" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47648,6 +47837,9 @@
       <c r="IK64" t="n">
         <v>15</v>
       </c>
+      <c r="IL64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48387,6 +48579,9 @@
       <c r="IK65" t="n">
         <v>20</v>
       </c>
+      <c r="IL65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49126,6 +49321,9 @@
       <c r="IK66" t="n">
         <v>5</v>
       </c>
+      <c r="IL66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49865,6 +50063,9 @@
       <c r="IK67" t="n">
         <v>4</v>
       </c>
+      <c r="IL67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50604,6 +50805,9 @@
       <c r="IK68" t="n">
         <v>8</v>
       </c>
+      <c r="IL68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51343,6 +51547,9 @@
       <c r="IK69" t="n">
         <v>4</v>
       </c>
+      <c r="IL69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52082,6 +52289,9 @@
       <c r="IK70" t="n">
         <v>17</v>
       </c>
+      <c r="IL70" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52821,6 +53031,9 @@
       <c r="IK71" t="n">
         <v>29.4</v>
       </c>
+      <c r="IL71" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53560,6 +53773,9 @@
       <c r="IK72" t="n">
         <v>74</v>
       </c>
+      <c r="IL72" t="n">
+        <v>30.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54299,6 +54515,9 @@
       <c r="IK73" t="n">
         <v>21.76</v>
       </c>
+      <c r="IL73" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55038,6 +55257,9 @@
       <c r="IK74" t="n">
         <v>40</v>
       </c>
+      <c r="IL74" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55777,6 +55999,9 @@
       <c r="IK75" t="n">
         <v>70</v>
       </c>
+      <c r="IL75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56516,6 +56741,9 @@
       <c r="IK76" t="n">
         <v>46</v>
       </c>
+      <c r="IL76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57255,6 +57483,9 @@
       <c r="IK77" t="n">
         <v>45</v>
       </c>
+      <c r="IL77" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57994,6 +58225,9 @@
       <c r="IK78" t="n">
         <v>2.65</v>
       </c>
+      <c r="IL78" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58733,6 +58967,9 @@
       <c r="IK79" t="n">
         <v>9</v>
       </c>
+      <c r="IL79" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59472,6 +59709,9 @@
       <c r="IK80" t="n">
         <v>28.9</v>
       </c>
+      <c r="IL80" t="n">
+        <v>34.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60211,6 +60451,9 @@
       <c r="IK81" t="n">
         <v>11.1</v>
       </c>
+      <c r="IL81" t="n">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60950,6 +61193,9 @@
       <c r="IK82" t="n">
         <v>188.8</v>
       </c>
+      <c r="IL82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61689,6 +61935,9 @@
       <c r="IK83" t="n">
         <v>85.3</v>
       </c>
+      <c r="IL83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62428,6 +62677,9 @@
       <c r="IK84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IL84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63167,6 +63419,9 @@
       <c r="IK85" t="n">
         <v>90.5</v>
       </c>
+      <c r="IL85" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63906,6 +64161,9 @@
       <c r="IK86" t="n">
         <v>10</v>
       </c>
+      <c r="IL86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64645,6 +64903,9 @@
       <c r="IK87" t="n">
         <v>3</v>
       </c>
+      <c r="IL87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65384,6 +65645,9 @@
       <c r="IK88" t="n">
         <v>4</v>
       </c>
+      <c r="IL88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66123,6 +66387,9 @@
       <c r="IK89" t="n">
         <v>5</v>
       </c>
+      <c r="IL89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66862,6 +67129,9 @@
       <c r="IK90" t="n">
         <v>149</v>
       </c>
+      <c r="IL90" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67601,6 +67871,9 @@
       <c r="IK91" t="n">
         <v>210</v>
       </c>
+      <c r="IL91" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68340,6 +68613,9 @@
       <c r="IK92" t="n">
         <v>250</v>
       </c>
+      <c r="IL92" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69079,6 +69355,9 @@
       <c r="IK93" t="n">
         <v>67.59999999999999</v>
       </c>
+      <c r="IL93" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69818,6 +70097,9 @@
       <c r="IK94" t="n">
         <v>70</v>
       </c>
+      <c r="IL94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70557,6 +70839,9 @@
       <c r="IK95" t="n">
         <v>11</v>
       </c>
+      <c r="IL95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71296,6 +71581,9 @@
       <c r="IK96" t="n">
         <v>4</v>
       </c>
+      <c r="IL96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72035,6 +72323,9 @@
       <c r="IK97" t="n">
         <v>40</v>
       </c>
+      <c r="IL97" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72774,6 +73065,9 @@
       <c r="IK98" t="n">
         <v>46</v>
       </c>
+      <c r="IL98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73513,6 +73807,9 @@
       <c r="IK99" t="n">
         <v>39</v>
       </c>
+      <c r="IL99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74252,6 +74549,9 @@
       <c r="IK100" t="n">
         <v>5</v>
       </c>
+      <c r="IL100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74991,6 +75291,9 @@
       <c r="IK101" t="n">
         <v>4</v>
       </c>
+      <c r="IL101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75730,6 +76033,9 @@
       <c r="IK102" t="n">
         <v>80</v>
       </c>
+      <c r="IL102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,9 @@
       <c r="IM1" t="n">
         <v>10421</v>
       </c>
+      <c r="IN1" t="n">
+        <v>10528</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1842,6 +1845,9 @@
       <c r="IM2" t="n">
         <v>2021</v>
       </c>
+      <c r="IN2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2587,6 +2593,9 @@
       <c r="IM3" t="n">
         <v>11</v>
       </c>
+      <c r="IN3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3332,6 +3341,9 @@
       <c r="IM4" t="n">
         <v>0</v>
       </c>
+      <c r="IN4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4077,6 +4089,9 @@
       <c r="IM5" t="n">
         <v>0</v>
       </c>
+      <c r="IN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4822,6 +4837,9 @@
       <c r="IM6" t="n">
         <v>100</v>
       </c>
+      <c r="IN6" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5567,6 +5585,9 @@
       <c r="IM7" t="n">
         <v>78</v>
       </c>
+      <c r="IN7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6312,6 +6333,9 @@
       <c r="IM8" t="n">
         <v>22</v>
       </c>
+      <c r="IN8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7057,6 +7081,9 @@
       <c r="IM9" t="n">
         <v>1</v>
       </c>
+      <c r="IN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7802,6 +7829,9 @@
       <c r="IM10" t="n">
         <v>3</v>
       </c>
+      <c r="IN10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8547,6 +8577,9 @@
       <c r="IM11" t="n">
         <v>238</v>
       </c>
+      <c r="IN11" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9292,6 +9325,9 @@
       <c r="IM12" t="n">
         <v>126</v>
       </c>
+      <c r="IN12" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10037,6 +10073,9 @@
       <c r="IM13" t="n">
         <v>364</v>
       </c>
+      <c r="IN13" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10782,6 +10821,9 @@
       <c r="IM14" t="n">
         <v>1.89</v>
       </c>
+      <c r="IN14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11527,6 +11569,9 @@
       <c r="IM15" t="n">
         <v>107</v>
       </c>
+      <c r="IN15" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12272,6 +12317,9 @@
       <c r="IM16" t="n">
         <v>82</v>
       </c>
+      <c r="IN16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13017,6 +13065,9 @@
       <c r="IM17" t="n">
         <v>30</v>
       </c>
+      <c r="IN17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13762,6 +13813,9 @@
       <c r="IM18" t="n">
         <v>23</v>
       </c>
+      <c r="IN18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14507,6 +14561,9 @@
       <c r="IM19" t="n">
         <v>26</v>
       </c>
+      <c r="IN19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15252,6 +15309,9 @@
       <c r="IM20" t="n">
         <v>15</v>
       </c>
+      <c r="IN20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15997,6 +16057,9 @@
       <c r="IM21" t="n">
         <v>11</v>
       </c>
+      <c r="IN21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16742,6 +16805,9 @@
       <c r="IM22" t="n">
         <v>5</v>
       </c>
+      <c r="IN22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17487,6 +17553,9 @@
       <c r="IM23" t="n">
         <v>5</v>
       </c>
+      <c r="IN23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18232,6 +18301,9 @@
       <c r="IM24" t="n">
         <v>25</v>
       </c>
+      <c r="IN24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18977,6 +19049,9 @@
       <c r="IM25" t="n">
         <v>60</v>
       </c>
+      <c r="IN25" t="n">
+        <v>48.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19722,6 +19797,9 @@
       <c r="IM26" t="n">
         <v>24.27</v>
       </c>
+      <c r="IN26" t="n">
+        <v>27.54</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20467,6 +20545,9 @@
       <c r="IM27" t="n">
         <v>14.56</v>
       </c>
+      <c r="IN27" t="n">
+        <v>13.26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21212,6 +21293,9 @@
       <c r="IM28" t="n">
         <v>35</v>
       </c>
+      <c r="IN28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21957,6 +22041,9 @@
       <c r="IM29" t="n">
         <v>65</v>
       </c>
+      <c r="IN29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22702,6 +22789,9 @@
       <c r="IM30" t="n">
         <v>33</v>
       </c>
+      <c r="IN30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23447,6 +23537,9 @@
       <c r="IM31" t="n">
         <v>58</v>
       </c>
+      <c r="IN31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24192,6 +24285,9 @@
       <c r="IM32" t="n">
         <v>2.32</v>
       </c>
+      <c r="IN32" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24937,6 +25033,9 @@
       <c r="IM33" t="n">
         <v>3.87</v>
       </c>
+      <c r="IN33" t="n">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25682,6 +25781,9 @@
       <c r="IM34" t="n">
         <v>34.5</v>
       </c>
+      <c r="IN34" t="n">
+        <v>40.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26427,6 +26529,9 @@
       <c r="IM35" t="n">
         <v>25.9</v>
       </c>
+      <c r="IN35" t="n">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27172,6 +27277,9 @@
       <c r="IM36" t="n">
         <v>187.7</v>
       </c>
+      <c r="IN36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27917,6 +28025,9 @@
       <c r="IM37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IN37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28662,6 +28773,9 @@
       <c r="IM38" t="n">
         <v>25.33</v>
       </c>
+      <c r="IN38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29407,6 +29521,9 @@
       <c r="IM39" t="n">
         <v>103.1</v>
       </c>
+      <c r="IN39" t="n">
+        <v>102.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30152,6 +30269,9 @@
       <c r="IM40" t="n">
         <v>7</v>
       </c>
+      <c r="IN40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30897,6 +31017,9 @@
       <c r="IM41" t="n">
         <v>4</v>
       </c>
+      <c r="IN41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31642,6 +31765,9 @@
       <c r="IM42" t="n">
         <v>6</v>
       </c>
+      <c r="IN42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32387,6 +32513,9 @@
       <c r="IM43" t="n">
         <v>5</v>
       </c>
+      <c r="IN43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33132,6 +33261,9 @@
       <c r="IM44" t="n">
         <v>135</v>
       </c>
+      <c r="IN44" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33877,6 +34009,9 @@
       <c r="IM45" t="n">
         <v>223</v>
       </c>
+      <c r="IN45" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34622,6 +34757,9 @@
       <c r="IM46" t="n">
         <v>283</v>
       </c>
+      <c r="IN46" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35367,6 +35505,9 @@
       <c r="IM47" t="n">
         <v>77.7</v>
       </c>
+      <c r="IN47" t="n">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36112,6 +36253,9 @@
       <c r="IM48" t="n">
         <v>65</v>
       </c>
+      <c r="IN48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36857,6 +37001,9 @@
       <c r="IM49" t="n">
         <v>12</v>
       </c>
+      <c r="IN49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37602,6 +37749,9 @@
       <c r="IM50" t="n">
         <v>14</v>
       </c>
+      <c r="IN50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38347,6 +38497,9 @@
       <c r="IM51" t="n">
         <v>35</v>
       </c>
+      <c r="IN51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39092,6 +39245,9 @@
       <c r="IM52" t="n">
         <v>33</v>
       </c>
+      <c r="IN52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39837,6 +39993,9 @@
       <c r="IM53" t="n">
         <v>49</v>
       </c>
+      <c r="IN53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40582,6 +40741,9 @@
       <c r="IM54" t="n">
         <v>4</v>
       </c>
+      <c r="IN54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41327,6 +41489,9 @@
       <c r="IM55" t="n">
         <v>11</v>
       </c>
+      <c r="IN55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42072,6 +42237,9 @@
       <c r="IM56" t="n">
         <v>73.3</v>
       </c>
+      <c r="IN56" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42817,6 +42985,9 @@
       <c r="IM57" t="n">
         <v>199</v>
       </c>
+      <c r="IN57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43562,6 +43733,9 @@
       <c r="IM58" t="n">
         <v>104</v>
       </c>
+      <c r="IN58" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44307,6 +44481,9 @@
       <c r="IM59" t="n">
         <v>303</v>
       </c>
+      <c r="IN59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45052,6 +45229,9 @@
       <c r="IM60" t="n">
         <v>1.91</v>
       </c>
+      <c r="IN60" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45797,6 +45977,9 @@
       <c r="IM61" t="n">
         <v>72</v>
       </c>
+      <c r="IN61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46542,6 +46725,9 @@
       <c r="IM62" t="n">
         <v>53</v>
       </c>
+      <c r="IN62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47287,6 +47473,9 @@
       <c r="IM63" t="n">
         <v>44</v>
       </c>
+      <c r="IN63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48032,6 +48221,9 @@
       <c r="IM64" t="n">
         <v>26</v>
       </c>
+      <c r="IN64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48777,6 +48969,9 @@
       <c r="IM65" t="n">
         <v>23</v>
       </c>
+      <c r="IN65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49522,6 +49717,9 @@
       <c r="IM66" t="n">
         <v>11</v>
       </c>
+      <c r="IN66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50267,6 +50465,9 @@
       <c r="IM67" t="n">
         <v>3</v>
       </c>
+      <c r="IN67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51012,6 +51213,9 @@
       <c r="IM68" t="n">
         <v>9</v>
       </c>
+      <c r="IN68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51757,6 +51961,9 @@
       <c r="IM69" t="n">
         <v>3</v>
       </c>
+      <c r="IN69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52502,6 +52709,9 @@
       <c r="IM70" t="n">
         <v>23</v>
       </c>
+      <c r="IN70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53247,6 +53457,9 @@
       <c r="IM71" t="n">
         <v>47.8</v>
       </c>
+      <c r="IN71" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53992,6 +54205,9 @@
       <c r="IM72" t="n">
         <v>27.55</v>
       </c>
+      <c r="IN72" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54737,6 +54953,9 @@
       <c r="IM73" t="n">
         <v>13.17</v>
       </c>
+      <c r="IN73" t="n">
+        <v>16.39</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55482,6 +55701,9 @@
       <c r="IM74" t="n">
         <v>35</v>
       </c>
+      <c r="IN74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56227,6 +56449,9 @@
       <c r="IM75" t="n">
         <v>50</v>
       </c>
+      <c r="IN75" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56972,6 +57197,9 @@
       <c r="IM76" t="n">
         <v>42</v>
       </c>
+      <c r="IN76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57717,6 +57945,9 @@
       <c r="IM77" t="n">
         <v>44</v>
       </c>
+      <c r="IN77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58462,6 +58693,9 @@
       <c r="IM78" t="n">
         <v>1.91</v>
       </c>
+      <c r="IN78" t="n">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59207,6 +59441,9 @@
       <c r="IM79" t="n">
         <v>4</v>
       </c>
+      <c r="IN79" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59952,6 +60189,9 @@
       <c r="IM80" t="n">
         <v>45.5</v>
       </c>
+      <c r="IN80" t="n">
+        <v>46.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60697,6 +60937,9 @@
       <c r="IM81" t="n">
         <v>25</v>
       </c>
+      <c r="IN81" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61442,6 +61685,9 @@
       <c r="IM82" t="n">
         <v>188.1</v>
       </c>
+      <c r="IN82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62187,6 +62433,9 @@
       <c r="IM83" t="n">
         <v>86.5</v>
       </c>
+      <c r="IN83" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62932,6 +63181,9 @@
       <c r="IM84" t="n">
         <v>26.8</v>
       </c>
+      <c r="IN84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63677,6 +63929,9 @@
       <c r="IM85" t="n">
         <v>98.59999999999999</v>
       </c>
+      <c r="IN85" t="n">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64422,6 +64677,9 @@
       <c r="IM86" t="n">
         <v>8</v>
       </c>
+      <c r="IN86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65167,6 +65425,9 @@
       <c r="IM87" t="n">
         <v>4</v>
       </c>
+      <c r="IN87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65912,6 +66173,9 @@
       <c r="IM88" t="n">
         <v>6</v>
       </c>
+      <c r="IN88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66657,6 +66921,9 @@
       <c r="IM89" t="n">
         <v>5</v>
       </c>
+      <c r="IN89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67402,6 +67669,9 @@
       <c r="IM90" t="n">
         <v>139</v>
       </c>
+      <c r="IN90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68147,6 +68417,9 @@
       <c r="IM91" t="n">
         <v>158</v>
       </c>
+      <c r="IN91" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68892,6 +69165,9 @@
       <c r="IM92" t="n">
         <v>201</v>
       </c>
+      <c r="IN92" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69637,6 +69913,9 @@
       <c r="IM93" t="n">
         <v>66.3</v>
       </c>
+      <c r="IN93" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70382,6 +70661,9 @@
       <c r="IM94" t="n">
         <v>50</v>
       </c>
+      <c r="IN94" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71127,6 +71409,9 @@
       <c r="IM95" t="n">
         <v>10</v>
       </c>
+      <c r="IN95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71872,6 +72157,9 @@
       <c r="IM96" t="n">
         <v>9</v>
       </c>
+      <c r="IN96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72617,6 +72905,9 @@
       <c r="IM97" t="n">
         <v>35</v>
       </c>
+      <c r="IN97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73362,6 +73653,9 @@
       <c r="IM98" t="n">
         <v>42</v>
       </c>
+      <c r="IN98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74107,6 +74401,9 @@
       <c r="IM99" t="n">
         <v>41</v>
       </c>
+      <c r="IN99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74852,6 +75149,9 @@
       <c r="IM100" t="n">
         <v>7</v>
       </c>
+      <c r="IN100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75597,6 +75897,9 @@
       <c r="IM101" t="n">
         <v>3</v>
       </c>
+      <c r="IN101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76342,6 +76645,9 @@
       <c r="IM102" t="n">
         <v>27.3</v>
       </c>
+      <c r="IN102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,6 +1100,9 @@
       <c r="IN1" t="n">
         <v>10528</v>
       </c>
+      <c r="IO1" t="n">
+        <v>10435</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1848,6 +1851,9 @@
       <c r="IN2" t="n">
         <v>2021</v>
       </c>
+      <c r="IO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2596,6 +2602,9 @@
       <c r="IN3" t="n">
         <v>12</v>
       </c>
+      <c r="IO3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3344,6 +3353,9 @@
       <c r="IN4" t="n">
         <v>0</v>
       </c>
+      <c r="IO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4092,6 +4104,9 @@
       <c r="IN5" t="n">
         <v>0</v>
       </c>
+      <c r="IO5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4840,6 +4855,9 @@
       <c r="IN6" t="n">
         <v>92</v>
       </c>
+      <c r="IO6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5588,6 +5606,9 @@
       <c r="IN7" t="n">
         <v>83</v>
       </c>
+      <c r="IO7" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6336,6 +6357,9 @@
       <c r="IN8" t="n">
         <v>9</v>
       </c>
+      <c r="IO8" t="n">
+        <v>-38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7084,6 +7108,9 @@
       <c r="IN9" t="n">
         <v>1</v>
       </c>
+      <c r="IO9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7832,6 +7859,9 @@
       <c r="IN10" t="n">
         <v>15</v>
       </c>
+      <c r="IO10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8580,6 +8610,9 @@
       <c r="IN11" t="n">
         <v>215</v>
       </c>
+      <c r="IO11" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9328,6 +9361,9 @@
       <c r="IN12" t="n">
         <v>143</v>
       </c>
+      <c r="IO12" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10076,6 +10112,9 @@
       <c r="IN13" t="n">
         <v>358</v>
       </c>
+      <c r="IO13" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10824,6 +10863,9 @@
       <c r="IN14" t="n">
         <v>1.5</v>
       </c>
+      <c r="IO14" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11572,6 +11614,9 @@
       <c r="IN15" t="n">
         <v>97</v>
       </c>
+      <c r="IO15" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12320,6 +12365,9 @@
       <c r="IN16" t="n">
         <v>53</v>
       </c>
+      <c r="IO16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13068,6 +13116,9 @@
       <c r="IN17" t="n">
         <v>26</v>
       </c>
+      <c r="IO17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13816,6 +13867,9 @@
       <c r="IN18" t="n">
         <v>18</v>
       </c>
+      <c r="IO18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14564,6 +14618,9 @@
       <c r="IN19" t="n">
         <v>20</v>
       </c>
+      <c r="IO19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15312,6 +15369,9 @@
       <c r="IN20" t="n">
         <v>13</v>
       </c>
+      <c r="IO20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16060,6 +16120,9 @@
       <c r="IN21" t="n">
         <v>10</v>
       </c>
+      <c r="IO21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16808,6 +16871,9 @@
       <c r="IN22" t="n">
         <v>10</v>
       </c>
+      <c r="IO22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17556,6 +17622,9 @@
       <c r="IN23" t="n">
         <v>4</v>
       </c>
+      <c r="IO23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18304,6 +18373,9 @@
       <c r="IN24" t="n">
         <v>27</v>
       </c>
+      <c r="IO24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19052,6 +19124,9 @@
       <c r="IN25" t="n">
         <v>48.1</v>
       </c>
+      <c r="IO25" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19800,6 +19875,9 @@
       <c r="IN26" t="n">
         <v>27.54</v>
       </c>
+      <c r="IO26" t="n">
+        <v>52.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20548,6 +20626,9 @@
       <c r="IN27" t="n">
         <v>13.26</v>
       </c>
+      <c r="IO27" t="n">
+        <v>22.94</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21296,6 +21377,9 @@
       <c r="IN28" t="n">
         <v>35</v>
       </c>
+      <c r="IO28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22044,6 +22128,9 @@
       <c r="IN29" t="n">
         <v>52</v>
       </c>
+      <c r="IO29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22792,6 +22879,9 @@
       <c r="IN30" t="n">
         <v>38</v>
       </c>
+      <c r="IO30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23540,6 +23630,9 @@
       <c r="IN31" t="n">
         <v>57</v>
       </c>
+      <c r="IO31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24288,6 +24381,9 @@
       <c r="IN32" t="n">
         <v>2.11</v>
       </c>
+      <c r="IO32" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25036,6 +25132,9 @@
       <c r="IN33" t="n">
         <v>4.38</v>
       </c>
+      <c r="IO33" t="n">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25784,6 +25883,9 @@
       <c r="IN34" t="n">
         <v>40.4</v>
       </c>
+      <c r="IO34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26532,6 +26634,9 @@
       <c r="IN35" t="n">
         <v>22.8</v>
       </c>
+      <c r="IO35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27280,6 +27385,9 @@
       <c r="IN36" t="n">
         <v>187.8</v>
       </c>
+      <c r="IO36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28028,6 +28136,9 @@
       <c r="IN37" t="n">
         <v>85</v>
       </c>
+      <c r="IO37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28776,6 +28887,9 @@
       <c r="IN38" t="n">
         <v>25.24</v>
       </c>
+      <c r="IO38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29524,6 +29638,9 @@
       <c r="IN39" t="n">
         <v>102.4</v>
       </c>
+      <c r="IO39" t="n">
+        <v>104.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30272,6 +30389,9 @@
       <c r="IN40" t="n">
         <v>7</v>
       </c>
+      <c r="IO40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31020,6 +31140,9 @@
       <c r="IN41" t="n">
         <v>4</v>
       </c>
+      <c r="IO41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31768,6 +31891,9 @@
       <c r="IN42" t="n">
         <v>6</v>
       </c>
+      <c r="IO42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32516,6 +32642,9 @@
       <c r="IN43" t="n">
         <v>5</v>
       </c>
+      <c r="IO43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33264,6 +33393,9 @@
       <c r="IN44" t="n">
         <v>133</v>
       </c>
+      <c r="IO44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34012,6 +34144,9 @@
       <c r="IN45" t="n">
         <v>224</v>
       </c>
+      <c r="IO45" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34760,6 +34895,9 @@
       <c r="IN46" t="n">
         <v>284</v>
       </c>
+      <c r="IO46" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35508,6 +35646,9 @@
       <c r="IN47" t="n">
         <v>79.3</v>
       </c>
+      <c r="IO47" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36256,6 +36397,9 @@
       <c r="IN48" t="n">
         <v>52</v>
       </c>
+      <c r="IO48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37004,6 +37148,9 @@
       <c r="IN49" t="n">
         <v>12</v>
       </c>
+      <c r="IO49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37752,6 +37899,9 @@
       <c r="IN50" t="n">
         <v>12</v>
       </c>
+      <c r="IO50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38500,6 +38650,9 @@
       <c r="IN51" t="n">
         <v>35</v>
       </c>
+      <c r="IO51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39248,6 +39401,9 @@
       <c r="IN52" t="n">
         <v>38</v>
       </c>
+      <c r="IO52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39996,6 +40152,9 @@
       <c r="IN53" t="n">
         <v>47</v>
       </c>
+      <c r="IO53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40744,6 +40903,9 @@
       <c r="IN54" t="n">
         <v>4</v>
       </c>
+      <c r="IO54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41492,6 +41654,9 @@
       <c r="IN55" t="n">
         <v>10</v>
       </c>
+      <c r="IO55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42240,6 +42405,9 @@
       <c r="IN56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IO56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42988,6 +43156,9 @@
       <c r="IN57" t="n">
         <v>207</v>
       </c>
+      <c r="IO57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43736,6 +43907,9 @@
       <c r="IN58" t="n">
         <v>170</v>
       </c>
+      <c r="IO58" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44484,6 +44658,9 @@
       <c r="IN59" t="n">
         <v>377</v>
       </c>
+      <c r="IO59" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45232,6 +45409,9 @@
       <c r="IN60" t="n">
         <v>1.22</v>
       </c>
+      <c r="IO60" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45980,6 +46160,9 @@
       <c r="IN61" t="n">
         <v>88</v>
       </c>
+      <c r="IO61" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46728,6 +46911,9 @@
       <c r="IN62" t="n">
         <v>59</v>
       </c>
+      <c r="IO62" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47476,6 +47662,9 @@
       <c r="IN63" t="n">
         <v>36</v>
       </c>
+      <c r="IO63" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48224,6 +48413,9 @@
       <c r="IN64" t="n">
         <v>20</v>
       </c>
+      <c r="IO64" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48972,6 +49164,9 @@
       <c r="IN65" t="n">
         <v>18</v>
       </c>
+      <c r="IO65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49720,6 +49915,9 @@
       <c r="IN66" t="n">
         <v>12</v>
       </c>
+      <c r="IO66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50468,6 +50666,9 @@
       <c r="IN67" t="n">
         <v>7</v>
       </c>
+      <c r="IO67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51216,6 +51417,9 @@
       <c r="IN68" t="n">
         <v>11</v>
       </c>
+      <c r="IO68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51964,6 +52168,9 @@
       <c r="IN69" t="n">
         <v>0</v>
       </c>
+      <c r="IO69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52712,6 +52919,9 @@
       <c r="IN70" t="n">
         <v>23</v>
       </c>
+      <c r="IO70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53460,6 +53670,9 @@
       <c r="IN71" t="n">
         <v>52.2</v>
       </c>
+      <c r="IO71" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54208,6 +54421,9 @@
       <c r="IN72" t="n">
         <v>31.42</v>
       </c>
+      <c r="IO72" t="n">
+        <v>26.71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54956,6 +55172,9 @@
       <c r="IN73" t="n">
         <v>16.39</v>
       </c>
+      <c r="IO73" t="n">
+        <v>19.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55704,6 +55923,9 @@
       <c r="IN74" t="n">
         <v>36</v>
       </c>
+      <c r="IO74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56452,6 +56674,9 @@
       <c r="IN75" t="n">
         <v>52</v>
       </c>
+      <c r="IO75" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57200,6 +57425,9 @@
       <c r="IN76" t="n">
         <v>43</v>
       </c>
+      <c r="IO76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57948,6 +58176,9 @@
       <c r="IN77" t="n">
         <v>49</v>
       </c>
+      <c r="IO77" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58696,6 +58927,9 @@
       <c r="IN78" t="n">
         <v>2.13</v>
       </c>
+      <c r="IO78" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59444,6 +59678,9 @@
       <c r="IN79" t="n">
         <v>4.08</v>
       </c>
+      <c r="IO79" t="n">
+        <v>4.21</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60192,6 +60429,9 @@
       <c r="IN80" t="n">
         <v>46.9</v>
       </c>
+      <c r="IO80" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60940,6 +61180,9 @@
       <c r="IN81" t="n">
         <v>24.5</v>
       </c>
+      <c r="IO81" t="n">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61688,6 +61931,9 @@
       <c r="IN82" t="n">
         <v>188.3</v>
       </c>
+      <c r="IO82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62436,6 +62682,9 @@
       <c r="IN83" t="n">
         <v>85.5</v>
       </c>
+      <c r="IO83" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63184,6 +63433,9 @@
       <c r="IN84" t="n">
         <v>25.49</v>
       </c>
+      <c r="IO84" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63932,6 +64184,9 @@
       <c r="IN85" t="n">
         <v>92.3</v>
       </c>
+      <c r="IO85" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64680,6 +64935,9 @@
       <c r="IN86" t="n">
         <v>5</v>
       </c>
+      <c r="IO86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65428,6 +65686,9 @@
       <c r="IN87" t="n">
         <v>7</v>
       </c>
+      <c r="IO87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66176,6 +66437,9 @@
       <c r="IN88" t="n">
         <v>7</v>
       </c>
+      <c r="IO88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66924,6 +67188,9 @@
       <c r="IN89" t="n">
         <v>4</v>
       </c>
+      <c r="IO89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67672,6 +67939,9 @@
       <c r="IN90" t="n">
         <v>138</v>
       </c>
+      <c r="IO90" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68420,6 +68690,9 @@
       <c r="IN91" t="n">
         <v>232</v>
       </c>
+      <c r="IO91" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69168,6 +69441,9 @@
       <c r="IN92" t="n">
         <v>276</v>
       </c>
+      <c r="IO92" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69916,6 +70192,9 @@
       <c r="IN93" t="n">
         <v>73.2</v>
       </c>
+      <c r="IO93" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70664,6 +70943,9 @@
       <c r="IN94" t="n">
         <v>52</v>
       </c>
+      <c r="IO94" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71412,6 +71694,9 @@
       <c r="IN95" t="n">
         <v>12</v>
       </c>
+      <c r="IO95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72160,6 +72445,9 @@
       <c r="IN96" t="n">
         <v>11</v>
       </c>
+      <c r="IO96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72908,6 +73196,9 @@
       <c r="IN97" t="n">
         <v>36</v>
       </c>
+      <c r="IO97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73656,6 +73947,9 @@
       <c r="IN98" t="n">
         <v>43</v>
       </c>
+      <c r="IO98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74404,6 +74698,9 @@
       <c r="IN99" t="n">
         <v>50</v>
       </c>
+      <c r="IO99" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75152,6 +75449,9 @@
       <c r="IN100" t="n">
         <v>4</v>
       </c>
+      <c r="IO100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75900,6 +76200,9 @@
       <c r="IN101" t="n">
         <v>7</v>
       </c>
+      <c r="IO101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76648,6 +76951,9 @@
       <c r="IN102" t="n">
         <v>58.3</v>
       </c>
+      <c r="IO102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,9 @@
       <c r="IO1" t="n">
         <v>10435</v>
       </c>
+      <c r="IP1" t="n">
+        <v>10451</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1854,6 +1857,9 @@
       <c r="IO2" t="n">
         <v>2021</v>
       </c>
+      <c r="IP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2605,6 +2611,9 @@
       <c r="IO3" t="n">
         <v>13</v>
       </c>
+      <c r="IP3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3356,6 +3365,9 @@
       <c r="IO4" t="n">
         <v>0</v>
       </c>
+      <c r="IP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4107,6 +4119,9 @@
       <c r="IO5" t="n">
         <v>1</v>
       </c>
+      <c r="IP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4858,6 +4873,9 @@
       <c r="IO6" t="n">
         <v>51</v>
       </c>
+      <c r="IP6" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5609,6 +5627,9 @@
       <c r="IO7" t="n">
         <v>89</v>
       </c>
+      <c r="IP7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6360,6 +6381,9 @@
       <c r="IO8" t="n">
         <v>-38</v>
       </c>
+      <c r="IP8" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7111,6 +7135,9 @@
       <c r="IO9" t="n">
         <v>0</v>
       </c>
+      <c r="IP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7862,6 +7889,9 @@
       <c r="IO10" t="n">
         <v>10</v>
       </c>
+      <c r="IP10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8613,6 +8643,9 @@
       <c r="IO11" t="n">
         <v>191</v>
       </c>
+      <c r="IP11" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9364,6 +9397,9 @@
       <c r="IO12" t="n">
         <v>176</v>
       </c>
+      <c r="IP12" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10115,6 +10151,9 @@
       <c r="IO13" t="n">
         <v>367</v>
       </c>
+      <c r="IP13" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10866,6 +10905,9 @@
       <c r="IO14" t="n">
         <v>1.09</v>
       </c>
+      <c r="IP14" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11617,6 +11659,9 @@
       <c r="IO15" t="n">
         <v>75</v>
       </c>
+      <c r="IP15" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12368,6 +12413,9 @@
       <c r="IO16" t="n">
         <v>81</v>
       </c>
+      <c r="IP16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13119,6 +13167,9 @@
       <c r="IO17" t="n">
         <v>34</v>
       </c>
+      <c r="IP17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13870,6 +13921,9 @@
       <c r="IO18" t="n">
         <v>10</v>
       </c>
+      <c r="IP18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14621,6 +14675,9 @@
       <c r="IO19" t="n">
         <v>26</v>
       </c>
+      <c r="IP19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15372,6 +15429,9 @@
       <c r="IO20" t="n">
         <v>7</v>
       </c>
+      <c r="IP20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16123,6 +16183,9 @@
       <c r="IO21" t="n">
         <v>6</v>
       </c>
+      <c r="IP21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16874,6 +16937,9 @@
       <c r="IO22" t="n">
         <v>6</v>
       </c>
+      <c r="IP22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17625,6 +17691,9 @@
       <c r="IO23" t="n">
         <v>3</v>
       </c>
+      <c r="IP23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18376,6 +18445,9 @@
       <c r="IO24" t="n">
         <v>16</v>
       </c>
+      <c r="IP24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19127,6 +19199,9 @@
       <c r="IO25" t="n">
         <v>43.8</v>
       </c>
+      <c r="IP25" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19878,6 +19953,9 @@
       <c r="IO26" t="n">
         <v>52.43</v>
       </c>
+      <c r="IP26" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20629,6 +20707,9 @@
       <c r="IO27" t="n">
         <v>22.94</v>
       </c>
+      <c r="IP27" t="n">
+        <v>16.81</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21380,6 +21461,9 @@
       <c r="IO28" t="n">
         <v>39</v>
       </c>
+      <c r="IP28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22131,6 +22215,9 @@
       <c r="IO29" t="n">
         <v>60</v>
       </c>
+      <c r="IP29" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22882,6 +22969,9 @@
       <c r="IO30" t="n">
         <v>43</v>
       </c>
+      <c r="IP30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23633,6 +23723,9 @@
       <c r="IO31" t="n">
         <v>50</v>
       </c>
+      <c r="IP31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24384,6 +24477,9 @@
       <c r="IO32" t="n">
         <v>3.12</v>
       </c>
+      <c r="IP32" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25135,6 +25231,9 @@
       <c r="IO33" t="n">
         <v>7.14</v>
       </c>
+      <c r="IP33" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25886,6 +25985,9 @@
       <c r="IO34" t="n">
         <v>26</v>
       </c>
+      <c r="IP34" t="n">
+        <v>37.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26637,6 +26739,9 @@
       <c r="IO35" t="n">
         <v>14</v>
       </c>
+      <c r="IP35" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27388,6 +27493,9 @@
       <c r="IO36" t="n">
         <v>187.3</v>
       </c>
+      <c r="IP36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28139,6 +28247,9 @@
       <c r="IO37" t="n">
         <v>84.8</v>
       </c>
+      <c r="IP37" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28890,6 +29001,9 @@
       <c r="IO38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IP38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29641,6 +29755,9 @@
       <c r="IO39" t="n">
         <v>104.1</v>
       </c>
+      <c r="IP39" t="n">
+        <v>105.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30392,6 +30509,9 @@
       <c r="IO40" t="n">
         <v>7</v>
       </c>
+      <c r="IP40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31143,6 +31263,9 @@
       <c r="IO41" t="n">
         <v>4</v>
       </c>
+      <c r="IP41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31894,6 +32017,9 @@
       <c r="IO42" t="n">
         <v>7</v>
       </c>
+      <c r="IP42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32645,6 +32771,9 @@
       <c r="IO43" t="n">
         <v>5</v>
       </c>
+      <c r="IP43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33396,6 +33525,9 @@
       <c r="IO44" t="n">
         <v>139</v>
       </c>
+      <c r="IP44" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34147,6 +34279,9 @@
       <c r="IO45" t="n">
         <v>235</v>
       </c>
+      <c r="IP45" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34898,6 +35033,9 @@
       <c r="IO46" t="n">
         <v>275</v>
       </c>
+      <c r="IP46" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35649,6 +35787,9 @@
       <c r="IO47" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IP47" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36400,6 +36541,9 @@
       <c r="IO48" t="n">
         <v>60</v>
       </c>
+      <c r="IP48" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37151,6 +37295,9 @@
       <c r="IO49" t="n">
         <v>8</v>
       </c>
+      <c r="IP49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37902,6 +38049,9 @@
       <c r="IO50" t="n">
         <v>11</v>
       </c>
+      <c r="IP50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38653,6 +38803,9 @@
       <c r="IO51" t="n">
         <v>39</v>
       </c>
+      <c r="IP51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39404,6 +39557,9 @@
       <c r="IO52" t="n">
         <v>43</v>
       </c>
+      <c r="IP52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40155,6 +40311,9 @@
       <c r="IO53" t="n">
         <v>60</v>
       </c>
+      <c r="IP53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40906,6 +41065,9 @@
       <c r="IO54" t="n">
         <v>3</v>
       </c>
+      <c r="IP54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41657,6 +41819,9 @@
       <c r="IO55" t="n">
         <v>6</v>
       </c>
+      <c r="IP55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42408,6 +42573,9 @@
       <c r="IO56" t="n">
         <v>85.7</v>
       </c>
+      <c r="IP56" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43159,6 +43327,9 @@
       <c r="IO57" t="n">
         <v>207</v>
       </c>
+      <c r="IP57" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43910,6 +44081,9 @@
       <c r="IO58" t="n">
         <v>167</v>
       </c>
+      <c r="IP58" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44661,6 +44835,9 @@
       <c r="IO59" t="n">
         <v>374</v>
       </c>
+      <c r="IP59" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45412,6 +45589,9 @@
       <c r="IO60" t="n">
         <v>1.24</v>
       </c>
+      <c r="IP60" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46163,6 +46343,9 @@
       <c r="IO61" t="n">
         <v>70</v>
       </c>
+      <c r="IP61" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46914,6 +47097,9 @@
       <c r="IO62" t="n">
         <v>78</v>
       </c>
+      <c r="IP62" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47665,6 +47851,9 @@
       <c r="IO63" t="n">
         <v>50</v>
       </c>
+      <c r="IP63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48416,6 +48605,9 @@
       <c r="IO64" t="n">
         <v>26</v>
       </c>
+      <c r="IP64" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49167,6 +49359,9 @@
       <c r="IO65" t="n">
         <v>10</v>
       </c>
+      <c r="IP65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49918,6 +50113,9 @@
       <c r="IO66" t="n">
         <v>14</v>
       </c>
+      <c r="IP66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50669,6 +50867,9 @@
       <c r="IO67" t="n">
         <v>7</v>
       </c>
+      <c r="IP67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51420,6 +51621,9 @@
       <c r="IO68" t="n">
         <v>3</v>
       </c>
+      <c r="IP68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52171,6 +52375,9 @@
       <c r="IO69" t="n">
         <v>2</v>
       </c>
+      <c r="IP69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52922,6 +53129,9 @@
       <c r="IO70" t="n">
         <v>19</v>
       </c>
+      <c r="IP70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53673,6 +53883,9 @@
       <c r="IO71" t="n">
         <v>73.7</v>
       </c>
+      <c r="IP71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54424,6 +54637,9 @@
       <c r="IO72" t="n">
         <v>26.71</v>
       </c>
+      <c r="IP72" t="n">
+        <v>28.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55175,6 +55391,9 @@
       <c r="IO73" t="n">
         <v>19.68</v>
       </c>
+      <c r="IP73" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55926,6 +56145,9 @@
       <c r="IO74" t="n">
         <v>42</v>
       </c>
+      <c r="IP74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56677,6 +56899,9 @@
       <c r="IO75" t="n">
         <v>32</v>
       </c>
+      <c r="IP75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57428,6 +57653,9 @@
       <c r="IO76" t="n">
         <v>42</v>
       </c>
+      <c r="IP76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58179,6 +58407,9 @@
       <c r="IO77" t="n">
         <v>59</v>
       </c>
+      <c r="IP77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58930,6 +59161,9 @@
       <c r="IO78" t="n">
         <v>3.11</v>
       </c>
+      <c r="IP78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59681,6 +59915,9 @@
       <c r="IO79" t="n">
         <v>4.21</v>
       </c>
+      <c r="IP79" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60432,6 +60669,9 @@
       <c r="IO80" t="n">
         <v>28.8</v>
       </c>
+      <c r="IP80" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61183,6 +61423,9 @@
       <c r="IO81" t="n">
         <v>23.7</v>
       </c>
+      <c r="IP81" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61934,6 +62177,9 @@
       <c r="IO82" t="n">
         <v>187.1</v>
       </c>
+      <c r="IP82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62685,6 +62931,9 @@
       <c r="IO83" t="n">
         <v>84.5</v>
       </c>
+      <c r="IP83" t="n">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63436,6 +63685,9 @@
       <c r="IO84" t="n">
         <v>24.91</v>
       </c>
+      <c r="IP84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64187,6 +64439,9 @@
       <c r="IO85" t="n">
         <v>107</v>
       </c>
+      <c r="IP85" t="n">
+        <v>92.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64938,6 +65193,9 @@
       <c r="IO86" t="n">
         <v>7</v>
       </c>
+      <c r="IP86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65689,6 +65947,9 @@
       <c r="IO87" t="n">
         <v>6</v>
       </c>
+      <c r="IP87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66440,6 +66701,9 @@
       <c r="IO88" t="n">
         <v>5</v>
       </c>
+      <c r="IP88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67191,6 +67455,9 @@
       <c r="IO89" t="n">
         <v>5</v>
       </c>
+      <c r="IP89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67942,6 +68209,9 @@
       <c r="IO90" t="n">
         <v>165</v>
       </c>
+      <c r="IP90" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68693,6 +68963,9 @@
       <c r="IO91" t="n">
         <v>213</v>
       </c>
+      <c r="IP91" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69444,6 +69717,9 @@
       <c r="IO92" t="n">
         <v>275</v>
       </c>
+      <c r="IP92" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70195,6 +70471,9 @@
       <c r="IO93" t="n">
         <v>73.5</v>
       </c>
+      <c r="IP93" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70946,6 +71225,9 @@
       <c r="IO94" t="n">
         <v>32</v>
       </c>
+      <c r="IP94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71697,6 +71979,9 @@
       <c r="IO95" t="n">
         <v>15</v>
       </c>
+      <c r="IP95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72448,6 +72733,9 @@
       <c r="IO96" t="n">
         <v>10</v>
       </c>
+      <c r="IP96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73199,6 +73487,9 @@
       <c r="IO97" t="n">
         <v>42</v>
       </c>
+      <c r="IP97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73950,6 +74241,9 @@
       <c r="IO98" t="n">
         <v>42</v>
       </c>
+      <c r="IP98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74701,6 +74995,9 @@
       <c r="IO99" t="n">
         <v>69</v>
       </c>
+      <c r="IP99" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75452,6 +75749,9 @@
       <c r="IO100" t="n">
         <v>2</v>
       </c>
+      <c r="IP100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76203,6 +76503,9 @@
       <c r="IO101" t="n">
         <v>7</v>
       </c>
+      <c r="IP101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76954,8 +77257,11 @@
       <c r="IO102" t="n">
         <v>50</v>
       </c>
+      <c r="IP102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,6 +1106,9 @@
       <c r="IP1" t="n">
         <v>10451</v>
       </c>
+      <c r="IQ1" t="n">
+        <v>10458</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1860,6 +1863,9 @@
       <c r="IP2" t="n">
         <v>2021</v>
       </c>
+      <c r="IQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2614,6 +2620,9 @@
       <c r="IP3" t="n">
         <v>15</v>
       </c>
+      <c r="IQ3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3368,6 +3377,9 @@
       <c r="IP4" t="n">
         <v>1</v>
       </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4122,6 +4134,9 @@
       <c r="IP5" t="n">
         <v>0</v>
       </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4876,6 +4891,9 @@
       <c r="IP6" t="n">
         <v>71</v>
       </c>
+      <c r="IQ6" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5630,6 +5648,9 @@
       <c r="IP7" t="n">
         <v>81</v>
       </c>
+      <c r="IQ7" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6384,6 +6405,9 @@
       <c r="IP8" t="n">
         <v>-10</v>
       </c>
+      <c r="IQ8" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7138,6 +7162,9 @@
       <c r="IP9" t="n">
         <v>0</v>
       </c>
+      <c r="IQ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7892,6 +7919,9 @@
       <c r="IP10" t="n">
         <v>13</v>
       </c>
+      <c r="IQ10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8646,6 +8676,9 @@
       <c r="IP11" t="n">
         <v>193</v>
       </c>
+      <c r="IQ11" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9400,6 +9433,9 @@
       <c r="IP12" t="n">
         <v>160</v>
       </c>
+      <c r="IQ12" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10154,6 +10190,9 @@
       <c r="IP13" t="n">
         <v>353</v>
       </c>
+      <c r="IQ13" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10908,6 +10947,9 @@
       <c r="IP14" t="n">
         <v>1.21</v>
       </c>
+      <c r="IQ14" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11662,6 +11704,9 @@
       <c r="IP15" t="n">
         <v>49</v>
       </c>
+      <c r="IQ15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12416,6 +12461,9 @@
       <c r="IP16" t="n">
         <v>60</v>
       </c>
+      <c r="IQ16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13170,6 +13218,9 @@
       <c r="IP17" t="n">
         <v>32</v>
       </c>
+      <c r="IQ17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13924,6 +13975,9 @@
       <c r="IP18" t="n">
         <v>25</v>
       </c>
+      <c r="IQ18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14678,6 +14732,9 @@
       <c r="IP19" t="n">
         <v>26</v>
       </c>
+      <c r="IQ19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15432,6 +15489,9 @@
       <c r="IP20" t="n">
         <v>10</v>
       </c>
+      <c r="IQ20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16186,6 +16246,9 @@
       <c r="IP21" t="n">
         <v>4</v>
       </c>
+      <c r="IQ21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16940,6 +17003,9 @@
       <c r="IP22" t="n">
         <v>9</v>
       </c>
+      <c r="IQ22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17694,6 +17760,9 @@
       <c r="IP23" t="n">
         <v>2</v>
       </c>
+      <c r="IQ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18448,6 +18517,9 @@
       <c r="IP24" t="n">
         <v>21</v>
       </c>
+      <c r="IQ24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19202,6 +19274,9 @@
       <c r="IP25" t="n">
         <v>47.6</v>
       </c>
+      <c r="IQ25" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19956,6 +20031,9 @@
       <c r="IP26" t="n">
         <v>35.3</v>
       </c>
+      <c r="IQ26" t="n">
+        <v>24.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20710,6 +20788,9 @@
       <c r="IP27" t="n">
         <v>16.81</v>
       </c>
+      <c r="IQ27" t="n">
+        <v>15.57</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21464,6 +21545,9 @@
       <c r="IP28" t="n">
         <v>36</v>
       </c>
+      <c r="IQ28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22218,6 +22302,9 @@
       <c r="IP29" t="n">
         <v>71</v>
       </c>
+      <c r="IQ29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22972,6 +23059,9 @@
       <c r="IP30" t="n">
         <v>34</v>
       </c>
+      <c r="IQ30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23726,6 +23816,9 @@
       <c r="IP31" t="n">
         <v>51</v>
       </c>
+      <c r="IQ31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24480,6 +24573,9 @@
       <c r="IP32" t="n">
         <v>2.43</v>
       </c>
+      <c r="IQ32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25234,6 +25330,9 @@
       <c r="IP33" t="n">
         <v>5.1</v>
       </c>
+      <c r="IQ33" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25988,6 +26087,9 @@
       <c r="IP34" t="n">
         <v>37.3</v>
       </c>
+      <c r="IQ34" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26742,6 +26844,9 @@
       <c r="IP35" t="n">
         <v>19.6</v>
       </c>
+      <c r="IQ35" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27496,6 +27601,9 @@
       <c r="IP36" t="n">
         <v>187.7</v>
       </c>
+      <c r="IQ36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28250,6 +28358,9 @@
       <c r="IP37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IQ37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29004,6 +29115,9 @@
       <c r="IP38" t="n">
         <v>25.66</v>
       </c>
+      <c r="IQ38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29758,6 +29872,9 @@
       <c r="IP39" t="n">
         <v>105.5</v>
       </c>
+      <c r="IQ39" t="n">
+        <v>105.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30512,6 +30629,9 @@
       <c r="IP40" t="n">
         <v>7</v>
       </c>
+      <c r="IQ40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31266,6 +31386,9 @@
       <c r="IP41" t="n">
         <v>4</v>
       </c>
+      <c r="IQ41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32020,6 +32143,9 @@
       <c r="IP42" t="n">
         <v>6</v>
       </c>
+      <c r="IQ42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32774,6 +32900,9 @@
       <c r="IP43" t="n">
         <v>5</v>
       </c>
+      <c r="IQ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33528,6 +33657,9 @@
       <c r="IP44" t="n">
         <v>148</v>
       </c>
+      <c r="IQ44" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34282,6 +34414,9 @@
       <c r="IP45" t="n">
         <v>195</v>
       </c>
+      <c r="IQ45" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35036,6 +35171,9 @@
       <c r="IP46" t="n">
         <v>246</v>
       </c>
+      <c r="IQ46" t="n">
+        <v>335</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35790,6 +35928,9 @@
       <c r="IP47" t="n">
         <v>69.7</v>
       </c>
+      <c r="IQ47" t="n">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36544,6 +36685,9 @@
       <c r="IP48" t="n">
         <v>71</v>
       </c>
+      <c r="IQ48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37298,6 +37442,9 @@
       <c r="IP49" t="n">
         <v>7</v>
       </c>
+      <c r="IQ49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38052,6 +38199,9 @@
       <c r="IP50" t="n">
         <v>8</v>
       </c>
+      <c r="IQ50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38806,6 +38956,9 @@
       <c r="IP51" t="n">
         <v>36</v>
       </c>
+      <c r="IQ51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39560,6 +39713,9 @@
       <c r="IP52" t="n">
         <v>34</v>
       </c>
+      <c r="IQ52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40314,6 +40470,9 @@
       <c r="IP53" t="n">
         <v>60</v>
       </c>
+      <c r="IQ53" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41068,6 +41227,9 @@
       <c r="IP54" t="n">
         <v>2</v>
       </c>
+      <c r="IQ54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41822,6 +41984,9 @@
       <c r="IP55" t="n">
         <v>4</v>
       </c>
+      <c r="IQ55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42576,6 +42741,9 @@
       <c r="IP56" t="n">
         <v>40</v>
       </c>
+      <c r="IQ56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43330,6 +43498,9 @@
       <c r="IP57" t="n">
         <v>214</v>
       </c>
+      <c r="IQ57" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44084,6 +44255,9 @@
       <c r="IP58" t="n">
         <v>131</v>
       </c>
+      <c r="IQ58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44838,6 +45012,9 @@
       <c r="IP59" t="n">
         <v>345</v>
       </c>
+      <c r="IQ59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45592,6 +45769,9 @@
       <c r="IP60" t="n">
         <v>1.63</v>
       </c>
+      <c r="IQ60" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46346,6 +46526,9 @@
       <c r="IP61" t="n">
         <v>54</v>
       </c>
+      <c r="IQ61" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47100,6 +47283,9 @@
       <c r="IP62" t="n">
         <v>74</v>
       </c>
+      <c r="IQ62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47854,6 +48040,9 @@
       <c r="IP63" t="n">
         <v>44</v>
       </c>
+      <c r="IQ63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48608,6 +48797,9 @@
       <c r="IP64" t="n">
         <v>26</v>
       </c>
+      <c r="IQ64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49362,6 +49554,9 @@
       <c r="IP65" t="n">
         <v>25</v>
       </c>
+      <c r="IQ65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50116,6 +50311,9 @@
       <c r="IP66" t="n">
         <v>12</v>
       </c>
+      <c r="IQ66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50870,6 +51068,9 @@
       <c r="IP67" t="n">
         <v>6</v>
       </c>
+      <c r="IQ67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51624,6 +51825,9 @@
       <c r="IP68" t="n">
         <v>8</v>
       </c>
+      <c r="IQ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52378,6 +52582,9 @@
       <c r="IP69" t="n">
         <v>1</v>
       </c>
+      <c r="IQ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53132,6 +53339,9 @@
       <c r="IP70" t="n">
         <v>21</v>
       </c>
+      <c r="IQ70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53886,6 +54096,9 @@
       <c r="IP71" t="n">
         <v>57.1</v>
       </c>
+      <c r="IQ71" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54640,6 +54853,9 @@
       <c r="IP72" t="n">
         <v>28.75</v>
       </c>
+      <c r="IQ72" t="n">
+        <v>117.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55394,6 +55610,9 @@
       <c r="IP73" t="n">
         <v>16.43</v>
       </c>
+      <c r="IQ73" t="n">
+        <v>32.09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56148,6 +56367,9 @@
       <c r="IP74" t="n">
         <v>39</v>
       </c>
+      <c r="IQ74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56902,6 +57124,9 @@
       <c r="IP75" t="n">
         <v>65</v>
       </c>
+      <c r="IQ75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57656,6 +57881,9 @@
       <c r="IP76" t="n">
         <v>41</v>
       </c>
+      <c r="IQ76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58410,6 +58638,9 @@
       <c r="IP77" t="n">
         <v>47</v>
       </c>
+      <c r="IQ77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59164,6 +59395,9 @@
       <c r="IP78" t="n">
         <v>2.24</v>
       </c>
+      <c r="IQ78" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59918,6 +60152,9 @@
       <c r="IP79" t="n">
         <v>3.92</v>
       </c>
+      <c r="IQ79" t="n">
+        <v>13.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60672,6 +60909,9 @@
       <c r="IP80" t="n">
         <v>42.6</v>
       </c>
+      <c r="IQ80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61426,6 +61666,9 @@
       <c r="IP81" t="n">
         <v>25.5</v>
       </c>
+      <c r="IQ81" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62180,6 +62423,9 @@
       <c r="IP82" t="n">
         <v>188.3</v>
       </c>
+      <c r="IQ82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62934,6 +63180,9 @@
       <c r="IP83" t="n">
         <v>83.59999999999999</v>
       </c>
+      <c r="IQ83" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63688,6 +63937,9 @@
       <c r="IP84" t="n">
         <v>25.33</v>
       </c>
+      <c r="IQ84" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64442,6 +64694,9 @@
       <c r="IP85" t="n">
         <v>92.2</v>
       </c>
+      <c r="IQ85" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65196,6 +65451,9 @@
       <c r="IP86" t="n">
         <v>8</v>
       </c>
+      <c r="IQ86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65950,6 +66208,9 @@
       <c r="IP87" t="n">
         <v>6</v>
       </c>
+      <c r="IQ87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66704,6 +66965,9 @@
       <c r="IP88" t="n">
         <v>4</v>
       </c>
+      <c r="IQ88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67458,6 +67722,9 @@
       <c r="IP89" t="n">
         <v>5</v>
       </c>
+      <c r="IQ89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68212,6 +68479,9 @@
       <c r="IP90" t="n">
         <v>154</v>
       </c>
+      <c r="IQ90" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68966,6 +69236,9 @@
       <c r="IP91" t="n">
         <v>168</v>
       </c>
+      <c r="IQ91" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69720,6 +69993,9 @@
       <c r="IP92" t="n">
         <v>235</v>
       </c>
+      <c r="IQ92" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70474,6 +70750,9 @@
       <c r="IP93" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="IQ93" t="n">
+        <v>69.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71228,6 +71507,9 @@
       <c r="IP94" t="n">
         <v>65</v>
       </c>
+      <c r="IQ94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71982,6 +72264,9 @@
       <c r="IP95" t="n">
         <v>13</v>
       </c>
+      <c r="IQ95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72736,6 +73021,9 @@
       <c r="IP96" t="n">
         <v>8</v>
       </c>
+      <c r="IQ96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73490,6 +73778,9 @@
       <c r="IP97" t="n">
         <v>39</v>
       </c>
+      <c r="IQ97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74244,6 +74535,9 @@
       <c r="IP98" t="n">
         <v>41</v>
       </c>
+      <c r="IQ98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74998,6 +75292,9 @@
       <c r="IP99" t="n">
         <v>61</v>
       </c>
+      <c r="IQ99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75752,6 +76049,9 @@
       <c r="IP100" t="n">
         <v>1</v>
       </c>
+      <c r="IQ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76506,6 +76806,9 @@
       <c r="IP101" t="n">
         <v>6</v>
       </c>
+      <c r="IQ101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77260,8 +77563,11 @@
       <c r="IP102" t="n">
         <v>50</v>
       </c>
+      <c r="IQ102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,9 @@
       <c r="IQ1" t="n">
         <v>10458</v>
       </c>
+      <c r="IR1" t="n">
+        <v>10468</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1866,6 +1869,9 @@
       <c r="IQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2623,6 +2629,9 @@
       <c r="IQ3" t="n">
         <v>16</v>
       </c>
+      <c r="IR3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3380,6 +3389,9 @@
       <c r="IQ4" t="n">
         <v>0</v>
       </c>
+      <c r="IR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4137,6 +4149,9 @@
       <c r="IQ5" t="n">
         <v>0</v>
       </c>
+      <c r="IR5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4894,6 +4909,9 @@
       <c r="IQ6" t="n">
         <v>118</v>
       </c>
+      <c r="IR6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5651,6 +5669,9 @@
       <c r="IQ7" t="n">
         <v>26</v>
       </c>
+      <c r="IR7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6408,6 +6429,9 @@
       <c r="IQ8" t="n">
         <v>92</v>
       </c>
+      <c r="IR8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7165,6 +7189,9 @@
       <c r="IQ9" t="n">
         <v>1</v>
       </c>
+      <c r="IR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7922,6 +7949,9 @@
       <c r="IQ10" t="n">
         <v>17</v>
       </c>
+      <c r="IR10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8679,6 +8709,9 @@
       <c r="IQ11" t="n">
         <v>236</v>
       </c>
+      <c r="IR11" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9436,6 +9469,9 @@
       <c r="IQ12" t="n">
         <v>200</v>
       </c>
+      <c r="IR12" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10193,6 +10229,9 @@
       <c r="IQ13" t="n">
         <v>436</v>
       </c>
+      <c r="IR13" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10950,6 +10989,9 @@
       <c r="IQ14" t="n">
         <v>1.18</v>
       </c>
+      <c r="IR14" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11707,6 +11749,9 @@
       <c r="IQ15" t="n">
         <v>88</v>
       </c>
+      <c r="IR15" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12464,6 +12509,9 @@
       <c r="IQ16" t="n">
         <v>63</v>
       </c>
+      <c r="IR16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13221,6 +13269,9 @@
       <c r="IQ17" t="n">
         <v>25</v>
       </c>
+      <c r="IR17" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13978,6 +14029,9 @@
       <c r="IQ18" t="n">
         <v>18</v>
       </c>
+      <c r="IR18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14735,6 +14789,9 @@
       <c r="IQ19" t="n">
         <v>18</v>
       </c>
+      <c r="IR19" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15492,6 +15549,9 @@
       <c r="IQ20" t="n">
         <v>18</v>
       </c>
+      <c r="IR20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16249,6 +16309,9 @@
       <c r="IQ21" t="n">
         <v>10</v>
       </c>
+      <c r="IR21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17006,6 +17069,9 @@
       <c r="IQ22" t="n">
         <v>10</v>
       </c>
+      <c r="IR22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17763,6 +17829,9 @@
       <c r="IQ23" t="n">
         <v>0</v>
       </c>
+      <c r="IR23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18520,6 +18589,9 @@
       <c r="IQ24" t="n">
         <v>28</v>
       </c>
+      <c r="IR24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19277,6 +19349,9 @@
       <c r="IQ25" t="n">
         <v>64.3</v>
       </c>
+      <c r="IR25" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20034,6 +20109,9 @@
       <c r="IQ26" t="n">
         <v>24.22</v>
       </c>
+      <c r="IR26" t="n">
+        <v>34.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20791,6 +20869,9 @@
       <c r="IQ27" t="n">
         <v>15.57</v>
       </c>
+      <c r="IR27" t="n">
+        <v>15.62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21548,6 +21629,9 @@
       <c r="IQ28" t="n">
         <v>40</v>
       </c>
+      <c r="IR28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22305,6 +22389,9 @@
       <c r="IQ29" t="n">
         <v>52</v>
       </c>
+      <c r="IR29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23062,6 +23149,9 @@
       <c r="IQ30" t="n">
         <v>36</v>
       </c>
+      <c r="IR30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23819,6 +23909,9 @@
       <c r="IQ31" t="n">
         <v>60</v>
       </c>
+      <c r="IR31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24576,6 +24669,9 @@
       <c r="IQ32" t="n">
         <v>2.14</v>
       </c>
+      <c r="IR32" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25333,6 +25429,9 @@
       <c r="IQ33" t="n">
         <v>3.33</v>
       </c>
+      <c r="IR33" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26090,6 +26189,9 @@
       <c r="IQ34" t="n">
         <v>46.7</v>
       </c>
+      <c r="IR34" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26847,6 +26949,9 @@
       <c r="IQ35" t="n">
         <v>30</v>
       </c>
+      <c r="IR35" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27604,6 +27709,9 @@
       <c r="IQ36" t="n">
         <v>187.4</v>
       </c>
+      <c r="IR36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28361,6 +28469,9 @@
       <c r="IQ37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IR37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29118,6 +29229,9 @@
       <c r="IQ38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IR38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29875,6 +29989,9 @@
       <c r="IQ39" t="n">
         <v>105.6</v>
       </c>
+      <c r="IR39" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30632,6 +30749,9 @@
       <c r="IQ40" t="n">
         <v>7</v>
       </c>
+      <c r="IR40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31389,6 +31509,9 @@
       <c r="IQ41" t="n">
         <v>4</v>
       </c>
+      <c r="IR41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32146,6 +32269,9 @@
       <c r="IQ42" t="n">
         <v>6</v>
       </c>
+      <c r="IR42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32903,6 +33029,9 @@
       <c r="IQ43" t="n">
         <v>5</v>
       </c>
+      <c r="IR43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33660,6 +33789,9 @@
       <c r="IQ44" t="n">
         <v>151</v>
       </c>
+      <c r="IR44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34417,6 +34549,9 @@
       <c r="IQ45" t="n">
         <v>288</v>
       </c>
+      <c r="IR45" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35174,6 +35309,9 @@
       <c r="IQ46" t="n">
         <v>335</v>
       </c>
+      <c r="IR46" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35931,6 +36069,9 @@
       <c r="IQ47" t="n">
         <v>76.8</v>
       </c>
+      <c r="IR47" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36688,6 +36829,9 @@
       <c r="IQ48" t="n">
         <v>52</v>
       </c>
+      <c r="IR48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37445,6 +37589,9 @@
       <c r="IQ49" t="n">
         <v>12</v>
       </c>
+      <c r="IR49" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38202,6 +38349,9 @@
       <c r="IQ50" t="n">
         <v>10</v>
       </c>
+      <c r="IR50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38959,6 +39109,9 @@
       <c r="IQ51" t="n">
         <v>40</v>
       </c>
+      <c r="IR51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39716,6 +39869,9 @@
       <c r="IQ52" t="n">
         <v>36</v>
       </c>
+      <c r="IR52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40473,6 +40629,9 @@
       <c r="IQ53" t="n">
         <v>62</v>
       </c>
+      <c r="IR53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41230,6 +41389,9 @@
       <c r="IQ54" t="n">
         <v>5</v>
       </c>
+      <c r="IR54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41987,6 +42149,9 @@
       <c r="IQ55" t="n">
         <v>10</v>
       </c>
+      <c r="IR55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42744,6 +42909,9 @@
       <c r="IQ56" t="n">
         <v>55.6</v>
       </c>
+      <c r="IR56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43501,6 +43669,9 @@
       <c r="IQ57" t="n">
         <v>200</v>
       </c>
+      <c r="IR57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44258,6 +44429,9 @@
       <c r="IQ58" t="n">
         <v>153</v>
       </c>
+      <c r="IR58" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45015,6 +45189,9 @@
       <c r="IQ59" t="n">
         <v>353</v>
       </c>
+      <c r="IR59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45772,6 +45949,9 @@
       <c r="IQ60" t="n">
         <v>1.31</v>
       </c>
+      <c r="IR60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46529,6 +46709,9 @@
       <c r="IQ61" t="n">
         <v>83</v>
       </c>
+      <c r="IR61" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47286,6 +47469,9 @@
       <c r="IQ62" t="n">
         <v>59</v>
       </c>
+      <c r="IR62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48043,6 +48229,9 @@
       <c r="IQ63" t="n">
         <v>39</v>
       </c>
+      <c r="IR63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48800,6 +48989,9 @@
       <c r="IQ64" t="n">
         <v>18</v>
       </c>
+      <c r="IR64" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49557,6 +49749,9 @@
       <c r="IQ65" t="n">
         <v>18</v>
       </c>
+      <c r="IR65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50314,6 +50509,9 @@
       <c r="IQ66" t="n">
         <v>3</v>
       </c>
+      <c r="IR66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51071,6 +51269,9 @@
       <c r="IQ67" t="n">
         <v>2</v>
       </c>
+      <c r="IR67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51828,6 +52029,9 @@
       <c r="IQ68" t="n">
         <v>7</v>
       </c>
+      <c r="IR68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52585,6 +52789,9 @@
       <c r="IQ69" t="n">
         <v>1</v>
       </c>
+      <c r="IR69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53342,6 +53549,9 @@
       <c r="IQ70" t="n">
         <v>11</v>
       </c>
+      <c r="IR70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54099,6 +54309,9 @@
       <c r="IQ71" t="n">
         <v>27.3</v>
       </c>
+      <c r="IR71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54856,6 +55069,9 @@
       <c r="IQ72" t="n">
         <v>117.67</v>
       </c>
+      <c r="IR72" t="n">
+        <v>42.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55613,6 +55829,9 @@
       <c r="IQ73" t="n">
         <v>32.09</v>
       </c>
+      <c r="IR73" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56370,6 +56589,9 @@
       <c r="IQ74" t="n">
         <v>29</v>
       </c>
+      <c r="IR74" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57127,6 +57349,9 @@
       <c r="IQ75" t="n">
         <v>61</v>
       </c>
+      <c r="IR75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57884,6 +58109,9 @@
       <c r="IQ76" t="n">
         <v>40</v>
       </c>
+      <c r="IR76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58641,6 +58869,9 @@
       <c r="IQ77" t="n">
         <v>40</v>
       </c>
+      <c r="IR77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59398,6 +59629,9 @@
       <c r="IQ78" t="n">
         <v>3.64</v>
       </c>
+      <c r="IR78" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60155,6 +60389,9 @@
       <c r="IQ79" t="n">
         <v>13.33</v>
       </c>
+      <c r="IR79" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60912,6 +61149,9 @@
       <c r="IQ80" t="n">
         <v>25</v>
       </c>
+      <c r="IR80" t="n">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61669,6 +61909,9 @@
       <c r="IQ81" t="n">
         <v>7.5</v>
       </c>
+      <c r="IR81" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62426,6 +62669,9 @@
       <c r="IQ82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IR82" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63183,6 +63429,9 @@
       <c r="IQ83" t="n">
         <v>88.3</v>
       </c>
+      <c r="IR83" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63940,6 +64189,9 @@
       <c r="IQ84" t="n">
         <v>27</v>
       </c>
+      <c r="IR84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64697,6 +64949,9 @@
       <c r="IQ85" t="n">
         <v>128.9</v>
       </c>
+      <c r="IR85" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65454,6 +65709,9 @@
       <c r="IQ86" t="n">
         <v>5</v>
       </c>
+      <c r="IR86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66211,6 +66469,9 @@
       <c r="IQ87" t="n">
         <v>6</v>
       </c>
+      <c r="IR87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66968,6 +67229,9 @@
       <c r="IQ88" t="n">
         <v>3</v>
       </c>
+      <c r="IR88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67725,6 +67989,9 @@
       <c r="IQ89" t="n">
         <v>9</v>
       </c>
+      <c r="IR89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68482,6 +68749,9 @@
       <c r="IQ90" t="n">
         <v>146</v>
       </c>
+      <c r="IR90" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69239,6 +69509,9 @@
       <c r="IQ91" t="n">
         <v>210</v>
       </c>
+      <c r="IR91" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69996,6 +70269,9 @@
       <c r="IQ92" t="n">
         <v>244</v>
       </c>
+      <c r="IR92" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70753,6 +71029,9 @@
       <c r="IQ93" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="IR93" t="n">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71510,6 +71789,9 @@
       <c r="IQ94" t="n">
         <v>61</v>
       </c>
+      <c r="IR94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72267,6 +72549,9 @@
       <c r="IQ95" t="n">
         <v>12</v>
       </c>
+      <c r="IR95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73024,6 +73309,9 @@
       <c r="IQ96" t="n">
         <v>7</v>
       </c>
+      <c r="IR96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73781,6 +74069,9 @@
       <c r="IQ97" t="n">
         <v>29</v>
       </c>
+      <c r="IR97" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74538,6 +74829,9 @@
       <c r="IQ98" t="n">
         <v>40</v>
       </c>
+      <c r="IR98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75295,6 +75589,9 @@
       <c r="IQ99" t="n">
         <v>42</v>
       </c>
+      <c r="IR99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76052,6 +76349,9 @@
       <c r="IQ100" t="n">
         <v>4</v>
       </c>
+      <c r="IR100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76809,6 +77109,9 @@
       <c r="IQ101" t="n">
         <v>2</v>
       </c>
+      <c r="IR101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77566,6 +77869,9 @@
       <c r="IQ102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IR102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,6 +1112,9 @@
       <c r="IR1" t="n">
         <v>10468</v>
       </c>
+      <c r="IS1" t="n">
+        <v>10473</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1872,6 +1875,9 @@
       <c r="IR2" t="n">
         <v>2021</v>
       </c>
+      <c r="IS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2632,6 +2638,9 @@
       <c r="IR3" t="n">
         <v>17</v>
       </c>
+      <c r="IS3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3392,6 +3401,9 @@
       <c r="IR4" t="n">
         <v>1</v>
       </c>
+      <c r="IS4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4152,6 +4164,9 @@
       <c r="IR5" t="n">
         <v>1</v>
       </c>
+      <c r="IS5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4912,6 +4927,9 @@
       <c r="IR6" t="n">
         <v>79</v>
       </c>
+      <c r="IS6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5672,6 +5690,9 @@
       <c r="IR7" t="n">
         <v>60</v>
       </c>
+      <c r="IS7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6432,6 +6453,9 @@
       <c r="IR8" t="n">
         <v>19</v>
       </c>
+      <c r="IS8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7192,6 +7216,9 @@
       <c r="IR9" t="n">
         <v>1</v>
       </c>
+      <c r="IS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7952,6 +7979,9 @@
       <c r="IR10" t="n">
         <v>18</v>
       </c>
+      <c r="IS10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8712,6 +8742,9 @@
       <c r="IR11" t="n">
         <v>238</v>
       </c>
+      <c r="IS11" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9472,6 +9505,9 @@
       <c r="IR12" t="n">
         <v>137</v>
       </c>
+      <c r="IS12" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10232,6 +10268,9 @@
       <c r="IR13" t="n">
         <v>375</v>
       </c>
+      <c r="IS13" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10992,6 +11031,9 @@
       <c r="IR14" t="n">
         <v>1.74</v>
       </c>
+      <c r="IS14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11752,6 +11794,9 @@
       <c r="IR15" t="n">
         <v>123</v>
       </c>
+      <c r="IS15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12512,6 +12557,9 @@
       <c r="IR16" t="n">
         <v>46</v>
       </c>
+      <c r="IS16" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13272,6 +13320,9 @@
       <c r="IR17" t="n">
         <v>40</v>
       </c>
+      <c r="IS17" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14032,6 +14083,9 @@
       <c r="IR18" t="n">
         <v>16</v>
       </c>
+      <c r="IS18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14792,6 +14846,9 @@
       <c r="IR19" t="n">
         <v>27</v>
       </c>
+      <c r="IS19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15552,6 +15609,9 @@
       <c r="IR20" t="n">
         <v>11</v>
       </c>
+      <c r="IS20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16312,6 +16372,9 @@
       <c r="IR21" t="n">
         <v>8</v>
       </c>
+      <c r="IS21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17072,6 +17135,9 @@
       <c r="IR22" t="n">
         <v>11</v>
       </c>
+      <c r="IS22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17832,6 +17898,9 @@
       <c r="IR23" t="n">
         <v>2</v>
       </c>
+      <c r="IS23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18592,6 +18661,9 @@
       <c r="IR24" t="n">
         <v>24</v>
       </c>
+      <c r="IS24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19352,6 +19424,9 @@
       <c r="IR25" t="n">
         <v>45.8</v>
       </c>
+      <c r="IS25" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20112,6 +20187,9 @@
       <c r="IR26" t="n">
         <v>34.09</v>
       </c>
+      <c r="IS26" t="n">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20872,6 +20950,9 @@
       <c r="IR27" t="n">
         <v>15.62</v>
       </c>
+      <c r="IS27" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21632,6 +21713,9 @@
       <c r="IR28" t="n">
         <v>26</v>
       </c>
+      <c r="IS28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22392,6 +22476,9 @@
       <c r="IR29" t="n">
         <v>62</v>
       </c>
+      <c r="IS29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23152,6 +23239,9 @@
       <c r="IR30" t="n">
         <v>44</v>
       </c>
+      <c r="IS30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23912,6 +24002,9 @@
       <c r="IR31" t="n">
         <v>47</v>
       </c>
+      <c r="IS31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24672,6 +24765,9 @@
       <c r="IR32" t="n">
         <v>1.96</v>
       </c>
+      <c r="IS32" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25432,6 +25528,9 @@
       <c r="IR33" t="n">
         <v>4.27</v>
       </c>
+      <c r="IS33" t="n">
+        <v>3.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26192,6 +26291,9 @@
       <c r="IR34" t="n">
         <v>46.8</v>
       </c>
+      <c r="IS34" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26952,6 +27054,9 @@
       <c r="IR35" t="n">
         <v>23.4</v>
       </c>
+      <c r="IS35" t="n">
+        <v>31.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27712,6 +27817,9 @@
       <c r="IR36" t="n">
         <v>187.4</v>
       </c>
+      <c r="IS36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28472,6 +28580,9 @@
       <c r="IR37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IS37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29232,6 +29343,9 @@
       <c r="IR38" t="n">
         <v>25.49</v>
       </c>
+      <c r="IS38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29992,6 +30106,9 @@
       <c r="IR39" t="n">
         <v>106.6</v>
       </c>
+      <c r="IS39" t="n">
+        <v>98.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30752,6 +30869,9 @@
       <c r="IR40" t="n">
         <v>7</v>
       </c>
+      <c r="IS40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31512,6 +31632,9 @@
       <c r="IR41" t="n">
         <v>4</v>
       </c>
+      <c r="IS41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32272,6 +32395,9 @@
       <c r="IR42" t="n">
         <v>6</v>
       </c>
+      <c r="IS42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33032,6 +33158,9 @@
       <c r="IR43" t="n">
         <v>5</v>
       </c>
+      <c r="IS43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33792,6 +33921,9 @@
       <c r="IR44" t="n">
         <v>136</v>
       </c>
+      <c r="IS44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34552,6 +34684,9 @@
       <c r="IR45" t="n">
         <v>229</v>
       </c>
+      <c r="IS45" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35312,6 +35447,9 @@
       <c r="IR46" t="n">
         <v>286</v>
       </c>
+      <c r="IS46" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36072,6 +36210,9 @@
       <c r="IR47" t="n">
         <v>76.3</v>
       </c>
+      <c r="IS47" t="n">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36832,6 +36973,9 @@
       <c r="IR48" t="n">
         <v>62</v>
       </c>
+      <c r="IS48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37592,6 +37736,9 @@
       <c r="IR49" t="n">
         <v>20</v>
       </c>
+      <c r="IS49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38352,6 +38499,9 @@
       <c r="IR50" t="n">
         <v>12</v>
       </c>
+      <c r="IS50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39112,6 +39262,9 @@
       <c r="IR51" t="n">
         <v>26</v>
       </c>
+      <c r="IS51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39872,6 +40025,9 @@
       <c r="IR52" t="n">
         <v>44</v>
       </c>
+      <c r="IS52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40632,6 +40788,9 @@
       <c r="IR53" t="n">
         <v>51</v>
       </c>
+      <c r="IS53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41392,6 +41551,9 @@
       <c r="IR54" t="n">
         <v>4</v>
       </c>
+      <c r="IS54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42152,6 +42314,9 @@
       <c r="IR55" t="n">
         <v>8</v>
       </c>
+      <c r="IS55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42912,6 +43077,9 @@
       <c r="IR56" t="n">
         <v>72.7</v>
       </c>
+      <c r="IS56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43672,6 +43840,9 @@
       <c r="IR57" t="n">
         <v>193</v>
       </c>
+      <c r="IS57" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44432,6 +44603,9 @@
       <c r="IR58" t="n">
         <v>149</v>
       </c>
+      <c r="IS58" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45192,6 +45366,9 @@
       <c r="IR59" t="n">
         <v>342</v>
       </c>
+      <c r="IS59" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45952,6 +46129,9 @@
       <c r="IR60" t="n">
         <v>1.3</v>
       </c>
+      <c r="IS60" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46712,6 +46892,9 @@
       <c r="IR61" t="n">
         <v>67</v>
       </c>
+      <c r="IS61" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47472,6 +47655,9 @@
       <c r="IR62" t="n">
         <v>58</v>
       </c>
+      <c r="IS62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48232,6 +48418,9 @@
       <c r="IR63" t="n">
         <v>31</v>
       </c>
+      <c r="IS63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48992,6 +49181,9 @@
       <c r="IR64" t="n">
         <v>29</v>
       </c>
+      <c r="IS64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49752,6 +49944,9 @@
       <c r="IR65" t="n">
         <v>16</v>
       </c>
+      <c r="IS65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50512,6 +50707,9 @@
       <c r="IR66" t="n">
         <v>8</v>
       </c>
+      <c r="IS66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51272,6 +51470,9 @@
       <c r="IR67" t="n">
         <v>6</v>
       </c>
+      <c r="IS67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52032,6 +52233,9 @@
       <c r="IR68" t="n">
         <v>10</v>
       </c>
+      <c r="IS68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52792,6 +52996,9 @@
       <c r="IR69" t="n">
         <v>2</v>
       </c>
+      <c r="IS69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53552,6 +53759,9 @@
       <c r="IR70" t="n">
         <v>20</v>
       </c>
+      <c r="IS70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54312,6 +54522,9 @@
       <c r="IR71" t="n">
         <v>40</v>
       </c>
+      <c r="IS71" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55072,6 +55285,9 @@
       <c r="IR72" t="n">
         <v>42.75</v>
       </c>
+      <c r="IS72" t="n">
+        <v>31.27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55832,6 +56048,9 @@
       <c r="IR73" t="n">
         <v>17.1</v>
       </c>
+      <c r="IS73" t="n">
+        <v>20.24</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56592,6 +56811,9 @@
       <c r="IR74" t="n">
         <v>46</v>
       </c>
+      <c r="IS74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57352,6 +57574,9 @@
       <c r="IR75" t="n">
         <v>53</v>
       </c>
+      <c r="IS75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58112,6 +58337,9 @@
       <c r="IR76" t="n">
         <v>35</v>
       </c>
+      <c r="IS76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58872,6 +59100,9 @@
       <c r="IR77" t="n">
         <v>52</v>
       </c>
+      <c r="IS77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59632,6 +59863,9 @@
       <c r="IR78" t="n">
         <v>2.6</v>
       </c>
+      <c r="IS78" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60392,6 +60626,9 @@
       <c r="IR79" t="n">
         <v>6.5</v>
       </c>
+      <c r="IS79" t="n">
+        <v>3.73</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61152,6 +61389,9 @@
       <c r="IR80" t="n">
         <v>34.6</v>
       </c>
+      <c r="IS80" t="n">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61912,6 +62152,9 @@
       <c r="IR81" t="n">
         <v>15.4</v>
       </c>
+      <c r="IS81" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62672,6 +62915,9 @@
       <c r="IR82" t="n">
         <v>186.8</v>
       </c>
+      <c r="IS82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63432,6 +63678,9 @@
       <c r="IR83" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="IS83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64192,6 +64441,9 @@
       <c r="IR84" t="n">
         <v>25.24</v>
       </c>
+      <c r="IS84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64952,6 +65204,9 @@
       <c r="IR85" t="n">
         <v>90</v>
       </c>
+      <c r="IS85" t="n">
+        <v>82.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65712,6 +65967,9 @@
       <c r="IR86" t="n">
         <v>5</v>
       </c>
+      <c r="IS86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66472,6 +66730,9 @@
       <c r="IR87" t="n">
         <v>8</v>
       </c>
+      <c r="IS87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67232,6 +67493,9 @@
       <c r="IR88" t="n">
         <v>2</v>
       </c>
+      <c r="IS88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67992,6 +68256,9 @@
       <c r="IR89" t="n">
         <v>7</v>
       </c>
+      <c r="IS89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68752,6 +69019,9 @@
       <c r="IR90" t="n">
         <v>142</v>
       </c>
+      <c r="IS90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69512,6 +69782,9 @@
       <c r="IR91" t="n">
         <v>191</v>
       </c>
+      <c r="IS91" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70272,6 +70545,9 @@
       <c r="IR92" t="n">
         <v>240</v>
       </c>
+      <c r="IS92" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71032,6 +71308,9 @@
       <c r="IR93" t="n">
         <v>70.2</v>
       </c>
+      <c r="IS93" t="n">
+        <v>72.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71792,6 +72071,9 @@
       <c r="IR94" t="n">
         <v>53</v>
       </c>
+      <c r="IS94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72552,6 +72834,9 @@
       <c r="IR95" t="n">
         <v>8</v>
       </c>
+      <c r="IS95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73312,6 +73597,9 @@
       <c r="IR96" t="n">
         <v>9</v>
       </c>
+      <c r="IS96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74072,6 +74360,9 @@
       <c r="IR97" t="n">
         <v>46</v>
       </c>
+      <c r="IS97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74832,6 +75123,9 @@
       <c r="IR98" t="n">
         <v>35</v>
       </c>
+      <c r="IS98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75592,6 +75886,9 @@
       <c r="IR99" t="n">
         <v>49</v>
       </c>
+      <c r="IS99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76352,6 +76649,9 @@
       <c r="IR100" t="n">
         <v>3</v>
       </c>
+      <c r="IS100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77112,6 +77412,9 @@
       <c r="IR101" t="n">
         <v>6</v>
       </c>
+      <c r="IS101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77872,6 +78175,9 @@
       <c r="IR102" t="n">
         <v>75</v>
       </c>
+      <c r="IS102" t="n">
+        <v>54.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,6 +1118,9 @@
       <c r="IT1" t="n">
         <v>10485</v>
       </c>
+      <c r="IU1" t="n">
+        <v>10491</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1884,6 +1887,9 @@
       <c r="IT2" t="n">
         <v>2021</v>
       </c>
+      <c r="IU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2650,6 +2656,9 @@
       <c r="IT3" t="n">
         <v>19</v>
       </c>
+      <c r="IU3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3416,6 +3425,9 @@
       <c r="IT4" t="n">
         <v>0</v>
       </c>
+      <c r="IU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4182,6 +4194,9 @@
       <c r="IT5" t="n">
         <v>0</v>
       </c>
+      <c r="IU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4948,6 +4963,9 @@
       <c r="IT6" t="n">
         <v>98</v>
       </c>
+      <c r="IU6" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5714,6 +5732,9 @@
       <c r="IT7" t="n">
         <v>58</v>
       </c>
+      <c r="IU7" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6480,6 +6501,9 @@
       <c r="IT8" t="n">
         <v>40</v>
       </c>
+      <c r="IU8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7246,6 +7270,9 @@
       <c r="IT9" t="n">
         <v>1</v>
       </c>
+      <c r="IU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8012,6 +8039,9 @@
       <c r="IT10" t="n">
         <v>6</v>
       </c>
+      <c r="IU10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8778,6 +8808,9 @@
       <c r="IT11" t="n">
         <v>232</v>
       </c>
+      <c r="IU11" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9544,6 +9577,9 @@
       <c r="IT12" t="n">
         <v>161</v>
       </c>
+      <c r="IU12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10310,6 +10346,9 @@
       <c r="IT13" t="n">
         <v>393</v>
       </c>
+      <c r="IU13" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11076,6 +11115,9 @@
       <c r="IT14" t="n">
         <v>1.44</v>
       </c>
+      <c r="IU14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11842,6 +11884,9 @@
       <c r="IT15" t="n">
         <v>107</v>
       </c>
+      <c r="IU15" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12608,6 +12653,9 @@
       <c r="IT16" t="n">
         <v>64</v>
       </c>
+      <c r="IU16" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13374,6 +13422,9 @@
       <c r="IT17" t="n">
         <v>24</v>
       </c>
+      <c r="IU17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14140,6 +14191,9 @@
       <c r="IT18" t="n">
         <v>17</v>
       </c>
+      <c r="IU18" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14906,6 +14960,9 @@
       <c r="IT19" t="n">
         <v>19</v>
       </c>
+      <c r="IU19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15672,6 +15729,9 @@
       <c r="IT20" t="n">
         <v>14</v>
       </c>
+      <c r="IU20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16438,6 +16498,9 @@
       <c r="IT21" t="n">
         <v>10</v>
       </c>
+      <c r="IU21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17204,6 +17267,9 @@
       <c r="IT22" t="n">
         <v>12</v>
       </c>
+      <c r="IU22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17970,6 +18036,9 @@
       <c r="IT23" t="n">
         <v>2</v>
       </c>
+      <c r="IU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18736,6 +18805,9 @@
       <c r="IT24" t="n">
         <v>28</v>
       </c>
+      <c r="IU24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19502,6 +19574,9 @@
       <c r="IT25" t="n">
         <v>50</v>
       </c>
+      <c r="IU25" t="n">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20268,6 +20343,9 @@
       <c r="IT26" t="n">
         <v>28.07</v>
       </c>
+      <c r="IU26" t="n">
+        <v>22.65</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21034,6 +21112,9 @@
       <c r="IT27" t="n">
         <v>14.04</v>
       </c>
+      <c r="IU27" t="n">
+        <v>16.04</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21800,6 +21881,9 @@
       <c r="IT28" t="n">
         <v>28</v>
       </c>
+      <c r="IU28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22566,6 +22650,9 @@
       <c r="IT29" t="n">
         <v>51</v>
       </c>
+      <c r="IU29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23332,6 +23419,9 @@
       <c r="IT30" t="n">
         <v>35</v>
       </c>
+      <c r="IU30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24098,6 +24188,9 @@
       <c r="IT31" t="n">
         <v>55</v>
       </c>
+      <c r="IU31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24864,6 +24957,9 @@
       <c r="IT32" t="n">
         <v>1.96</v>
       </c>
+      <c r="IU32" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25630,6 +25726,9 @@
       <c r="IT33" t="n">
         <v>3.93</v>
       </c>
+      <c r="IU33" t="n">
+        <v>2.76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26396,6 +26495,9 @@
       <c r="IT34" t="n">
         <v>47.3</v>
       </c>
+      <c r="IU34" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27162,6 +27264,9 @@
       <c r="IT35" t="n">
         <v>25.5</v>
       </c>
+      <c r="IU35" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27928,6 +28033,9 @@
       <c r="IT36" t="n">
         <v>187.3</v>
       </c>
+      <c r="IU36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28694,6 +28802,9 @@
       <c r="IT37" t="n">
         <v>84.5</v>
       </c>
+      <c r="IU37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29460,6 +29571,9 @@
       <c r="IT38" t="n">
         <v>25.49</v>
       </c>
+      <c r="IU38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30226,6 +30340,9 @@
       <c r="IT39" t="n">
         <v>107.2</v>
       </c>
+      <c r="IU39" t="n">
+        <v>116.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30992,6 +31109,9 @@
       <c r="IT40" t="n">
         <v>8</v>
       </c>
+      <c r="IU40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31758,6 +31878,9 @@
       <c r="IT41" t="n">
         <v>4</v>
       </c>
+      <c r="IU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32524,6 +32647,9 @@
       <c r="IT42" t="n">
         <v>4</v>
       </c>
+      <c r="IU42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33290,6 +33416,9 @@
       <c r="IT43" t="n">
         <v>6</v>
       </c>
+      <c r="IU43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34056,6 +34185,9 @@
       <c r="IT44" t="n">
         <v>126</v>
       </c>
+      <c r="IU44" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34822,6 +34954,9 @@
       <c r="IT45" t="n">
         <v>254</v>
       </c>
+      <c r="IU45" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35588,6 +35723,9 @@
       <c r="IT46" t="n">
         <v>302</v>
       </c>
+      <c r="IU46" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36354,6 +36492,9 @@
       <c r="IT47" t="n">
         <v>76.8</v>
       </c>
+      <c r="IU47" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37120,6 +37261,9 @@
       <c r="IT48" t="n">
         <v>51</v>
       </c>
+      <c r="IU48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37886,6 +38030,9 @@
       <c r="IT49" t="n">
         <v>13</v>
       </c>
+      <c r="IU49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38652,6 +38799,9 @@
       <c r="IT50" t="n">
         <v>13</v>
       </c>
+      <c r="IU50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39418,6 +39568,9 @@
       <c r="IT51" t="n">
         <v>28</v>
       </c>
+      <c r="IU51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40184,6 +40337,9 @@
       <c r="IT52" t="n">
         <v>35</v>
       </c>
+      <c r="IU52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40950,6 +41106,9 @@
       <c r="IT53" t="n">
         <v>44</v>
       </c>
+      <c r="IU53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41716,6 +41875,9 @@
       <c r="IT54" t="n">
         <v>9</v>
       </c>
+      <c r="IU54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42482,6 +42644,9 @@
       <c r="IT55" t="n">
         <v>10</v>
       </c>
+      <c r="IU55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43248,6 +43413,9 @@
       <c r="IT56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IU56" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44014,6 +44182,9 @@
       <c r="IT57" t="n">
         <v>199</v>
       </c>
+      <c r="IU57" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44780,6 +44951,9 @@
       <c r="IT58" t="n">
         <v>145</v>
       </c>
+      <c r="IU58" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45546,6 +45720,9 @@
       <c r="IT59" t="n">
         <v>344</v>
       </c>
+      <c r="IU59" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46312,6 +46489,9 @@
       <c r="IT60" t="n">
         <v>1.37</v>
       </c>
+      <c r="IU60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47078,6 +47258,9 @@
       <c r="IT61" t="n">
         <v>92</v>
       </c>
+      <c r="IU61" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47844,6 +48027,9 @@
       <c r="IT62" t="n">
         <v>36</v>
       </c>
+      <c r="IU62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48610,6 +48796,9 @@
       <c r="IT63" t="n">
         <v>39</v>
       </c>
+      <c r="IU63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49376,6 +49565,9 @@
       <c r="IT64" t="n">
         <v>19</v>
       </c>
+      <c r="IU64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50142,6 +50334,9 @@
       <c r="IT65" t="n">
         <v>17</v>
       </c>
+      <c r="IU65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50908,6 +51103,9 @@
       <c r="IT66" t="n">
         <v>8</v>
       </c>
+      <c r="IU66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51674,6 +51872,9 @@
       <c r="IT67" t="n">
         <v>6</v>
       </c>
+      <c r="IU67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52440,6 +52641,9 @@
       <c r="IT68" t="n">
         <v>9</v>
       </c>
+      <c r="IU68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53206,6 +53410,9 @@
       <c r="IT69" t="n">
         <v>1</v>
       </c>
+      <c r="IU69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53972,6 +54179,9 @@
       <c r="IT70" t="n">
         <v>18</v>
       </c>
+      <c r="IU70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54738,6 +54948,9 @@
       <c r="IT71" t="n">
         <v>44.4</v>
       </c>
+      <c r="IU71" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55504,6 +55717,9 @@
       <c r="IT72" t="n">
         <v>43</v>
       </c>
+      <c r="IU72" t="n">
+        <v>20.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56270,6 +56486,9 @@
       <c r="IT73" t="n">
         <v>19.11</v>
       </c>
+      <c r="IU73" t="n">
+        <v>14.73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57036,6 +57255,9 @@
       <c r="IT74" t="n">
         <v>34</v>
       </c>
+      <c r="IU74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57802,6 +58024,9 @@
       <c r="IT75" t="n">
         <v>55</v>
       </c>
+      <c r="IU75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58568,6 +58793,9 @@
       <c r="IT76" t="n">
         <v>41</v>
       </c>
+      <c r="IU76" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59334,6 +59562,9 @@
       <c r="IT77" t="n">
         <v>43</v>
       </c>
+      <c r="IU77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60100,6 +60331,9 @@
       <c r="IT78" t="n">
         <v>2.39</v>
       </c>
+      <c r="IU78" t="n">
+        <v>2.27</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60866,6 +61100,9 @@
       <c r="IT79" t="n">
         <v>5.38</v>
       </c>
+      <c r="IU79" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61632,6 +61869,9 @@
       <c r="IT80" t="n">
         <v>39.5</v>
       </c>
+      <c r="IU80" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62398,6 +62638,9 @@
       <c r="IT81" t="n">
         <v>18.6</v>
       </c>
+      <c r="IU81" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63164,6 +63407,9 @@
       <c r="IT82" t="n">
         <v>187.2</v>
       </c>
+      <c r="IU82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63930,6 +64176,9 @@
       <c r="IT83" t="n">
         <v>88</v>
       </c>
+      <c r="IU83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64696,6 +64945,9 @@
       <c r="IT84" t="n">
         <v>24.8</v>
       </c>
+      <c r="IU84" t="n">
+        <v>23.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65462,6 +65714,9 @@
       <c r="IT85" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IU85" t="n">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66228,6 +66483,9 @@
       <c r="IT86" t="n">
         <v>9</v>
       </c>
+      <c r="IU86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66994,6 +67252,9 @@
       <c r="IT87" t="n">
         <v>8</v>
       </c>
+      <c r="IU87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67760,6 +68021,9 @@
       <c r="IT88" t="n">
         <v>3</v>
       </c>
+      <c r="IU88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -68526,6 +68790,9 @@
       <c r="IT89" t="n">
         <v>3</v>
       </c>
+      <c r="IU89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69292,6 +69559,9 @@
       <c r="IT90" t="n">
         <v>116</v>
       </c>
+      <c r="IU90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70058,6 +70328,9 @@
       <c r="IT91" t="n">
         <v>219</v>
       </c>
+      <c r="IU91" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70824,6 +71097,9 @@
       <c r="IT92" t="n">
         <v>250</v>
       </c>
+      <c r="IU92" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71590,6 +71866,9 @@
       <c r="IT93" t="n">
         <v>72.7</v>
       </c>
+      <c r="IU93" t="n">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72356,6 +72635,9 @@
       <c r="IT94" t="n">
         <v>55</v>
       </c>
+      <c r="IU94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73122,6 +73404,9 @@
       <c r="IT95" t="n">
         <v>7</v>
       </c>
+      <c r="IU95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73888,6 +74173,9 @@
       <c r="IT96" t="n">
         <v>10</v>
       </c>
+      <c r="IU96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74654,6 +74942,9 @@
       <c r="IT97" t="n">
         <v>34</v>
       </c>
+      <c r="IU97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -75420,6 +75711,9 @@
       <c r="IT98" t="n">
         <v>41</v>
       </c>
+      <c r="IU98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76186,6 +76480,9 @@
       <c r="IT99" t="n">
         <v>29</v>
       </c>
+      <c r="IU99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76952,6 +77249,9 @@
       <c r="IT100" t="n">
         <v>4</v>
       </c>
+      <c r="IU100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77718,6 +78018,9 @@
       <c r="IT101" t="n">
         <v>6</v>
       </c>
+      <c r="IU101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78484,6 +78787,9 @@
       <c r="IT102" t="n">
         <v>75</v>
       </c>
+      <c r="IU102" t="n">
+        <v>81.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,6 +1121,9 @@
       <c r="IU1" t="n">
         <v>10491</v>
       </c>
+      <c r="IV1" t="n">
+        <v>10529</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1890,6 +1893,9 @@
       <c r="IU2" t="n">
         <v>2021</v>
       </c>
+      <c r="IV2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2659,6 +2665,9 @@
       <c r="IU3" t="n">
         <v>20</v>
       </c>
+      <c r="IV3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3428,6 +3437,9 @@
       <c r="IU4" t="n">
         <v>1</v>
       </c>
+      <c r="IV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4197,6 +4209,9 @@
       <c r="IU5" t="n">
         <v>1</v>
       </c>
+      <c r="IV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4966,6 +4981,9 @@
       <c r="IU6" t="n">
         <v>109</v>
       </c>
+      <c r="IV6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5735,6 +5753,9 @@
       <c r="IU7" t="n">
         <v>102</v>
       </c>
+      <c r="IV7" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6504,6 +6525,9 @@
       <c r="IU8" t="n">
         <v>7</v>
       </c>
+      <c r="IV8" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7273,6 +7297,9 @@
       <c r="IU9" t="n">
         <v>1</v>
       </c>
+      <c r="IV9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8042,6 +8069,9 @@
       <c r="IU10" t="n">
         <v>5</v>
       </c>
+      <c r="IV10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8811,6 +8841,9 @@
       <c r="IU11" t="n">
         <v>231</v>
       </c>
+      <c r="IV11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9580,6 +9613,9 @@
       <c r="IU12" t="n">
         <v>154</v>
       </c>
+      <c r="IV12" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10349,6 +10385,9 @@
       <c r="IU13" t="n">
         <v>385</v>
       </c>
+      <c r="IV13" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11118,6 +11157,9 @@
       <c r="IU14" t="n">
         <v>1.5</v>
       </c>
+      <c r="IV14" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11887,6 +11929,9 @@
       <c r="IU15" t="n">
         <v>120</v>
       </c>
+      <c r="IV15" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12656,6 +12701,9 @@
       <c r="IU16" t="n">
         <v>42</v>
       </c>
+      <c r="IV16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13425,6 +13473,9 @@
       <c r="IU17" t="n">
         <v>25</v>
       </c>
+      <c r="IV17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14194,6 +14245,9 @@
       <c r="IU18" t="n">
         <v>28</v>
       </c>
+      <c r="IV18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14963,6 +15017,9 @@
       <c r="IU19" t="n">
         <v>23</v>
       </c>
+      <c r="IV19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15732,6 +15789,9 @@
       <c r="IU20" t="n">
         <v>17</v>
       </c>
+      <c r="IV20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16501,6 +16561,9 @@
       <c r="IU21" t="n">
         <v>13</v>
       </c>
+      <c r="IV21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17270,6 +17333,9 @@
       <c r="IU22" t="n">
         <v>5</v>
       </c>
+      <c r="IV22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18039,6 +18105,9 @@
       <c r="IU23" t="n">
         <v>2</v>
       </c>
+      <c r="IV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18808,6 +18877,9 @@
       <c r="IU24" t="n">
         <v>24</v>
       </c>
+      <c r="IV24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19577,6 +19649,9 @@
       <c r="IU25" t="n">
         <v>70.8</v>
       </c>
+      <c r="IV25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20346,6 +20421,9 @@
       <c r="IU26" t="n">
         <v>22.65</v>
       </c>
+      <c r="IV26" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21115,6 +21193,9 @@
       <c r="IU27" t="n">
         <v>16.04</v>
       </c>
+      <c r="IV27" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21884,6 +21965,9 @@
       <c r="IU28" t="n">
         <v>28</v>
       </c>
+      <c r="IV28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22653,6 +22737,9 @@
       <c r="IU29" t="n">
         <v>51</v>
       </c>
+      <c r="IV29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23422,6 +23509,9 @@
       <c r="IU30" t="n">
         <v>34</v>
       </c>
+      <c r="IV30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24191,6 +24281,9 @@
       <c r="IU31" t="n">
         <v>47</v>
       </c>
+      <c r="IV31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24960,6 +25053,9 @@
       <c r="IU32" t="n">
         <v>1.96</v>
       </c>
+      <c r="IV32" t="n">
+        <v>3.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25729,6 +25825,9 @@
       <c r="IU33" t="n">
         <v>2.76</v>
       </c>
+      <c r="IV33" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26498,6 +26597,9 @@
       <c r="IU34" t="n">
         <v>46.8</v>
       </c>
+      <c r="IV34" t="n">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27267,6 +27369,9 @@
       <c r="IU35" t="n">
         <v>36.2</v>
       </c>
+      <c r="IV35" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28036,6 +28141,9 @@
       <c r="IU36" t="n">
         <v>187.3</v>
       </c>
+      <c r="IV36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28805,6 +28913,9 @@
       <c r="IU37" t="n">
         <v>84.8</v>
       </c>
+      <c r="IV37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29574,6 +29685,9 @@
       <c r="IU38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IV38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30343,6 +30457,9 @@
       <c r="IU39" t="n">
         <v>116.3</v>
       </c>
+      <c r="IV39" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31112,6 +31229,9 @@
       <c r="IU40" t="n">
         <v>5</v>
       </c>
+      <c r="IV40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31881,6 +32001,9 @@
       <c r="IU41" t="n">
         <v>5</v>
       </c>
+      <c r="IV41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32650,6 +32773,9 @@
       <c r="IU42" t="n">
         <v>6</v>
       </c>
+      <c r="IV42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33419,6 +33545,9 @@
       <c r="IU43" t="n">
         <v>6</v>
       </c>
+      <c r="IV43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34188,6 +34317,9 @@
       <c r="IU44" t="n">
         <v>123</v>
       </c>
+      <c r="IV44" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34957,6 +35089,9 @@
       <c r="IU45" t="n">
         <v>257</v>
       </c>
+      <c r="IV45" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35726,6 +35861,9 @@
       <c r="IU46" t="n">
         <v>304</v>
       </c>
+      <c r="IV46" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36495,6 +36633,9 @@
       <c r="IU47" t="n">
         <v>79</v>
       </c>
+      <c r="IV47" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37264,6 +37405,9 @@
       <c r="IU48" t="n">
         <v>51</v>
       </c>
+      <c r="IV48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38033,6 +38177,9 @@
       <c r="IU49" t="n">
         <v>12</v>
       </c>
+      <c r="IV49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38802,6 +38949,9 @@
       <c r="IU50" t="n">
         <v>11</v>
       </c>
+      <c r="IV50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39571,6 +39721,9 @@
       <c r="IU51" t="n">
         <v>28</v>
       </c>
+      <c r="IV51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40340,6 +40493,9 @@
       <c r="IU52" t="n">
         <v>34</v>
       </c>
+      <c r="IV52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41109,6 +41265,9 @@
       <c r="IU53" t="n">
         <v>41</v>
       </c>
+      <c r="IV53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41878,6 +42037,9 @@
       <c r="IU54" t="n">
         <v>10</v>
       </c>
+      <c r="IV54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42647,6 +42809,9 @@
       <c r="IU55" t="n">
         <v>13</v>
       </c>
+      <c r="IV55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43416,6 +43581,9 @@
       <c r="IU56" t="n">
         <v>76.5</v>
       </c>
+      <c r="IV56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44185,6 +44353,9 @@
       <c r="IU57" t="n">
         <v>186</v>
       </c>
+      <c r="IV57" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44954,6 +45125,9 @@
       <c r="IU58" t="n">
         <v>138</v>
       </c>
+      <c r="IV58" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45723,6 +45897,9 @@
       <c r="IU59" t="n">
         <v>324</v>
       </c>
+      <c r="IV59" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46492,6 +46669,9 @@
       <c r="IU60" t="n">
         <v>1.35</v>
       </c>
+      <c r="IV60" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47261,6 +47441,9 @@
       <c r="IU61" t="n">
         <v>70</v>
       </c>
+      <c r="IV61" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48030,6 +48213,9 @@
       <c r="IU62" t="n">
         <v>39</v>
       </c>
+      <c r="IV62" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48799,6 +48985,9 @@
       <c r="IU63" t="n">
         <v>28</v>
       </c>
+      <c r="IV63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49568,6 +49757,9 @@
       <c r="IU64" t="n">
         <v>23</v>
       </c>
+      <c r="IV64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50337,6 +50529,9 @@
       <c r="IU65" t="n">
         <v>28</v>
       </c>
+      <c r="IV65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51106,6 +51301,9 @@
       <c r="IU66" t="n">
         <v>16</v>
       </c>
+      <c r="IV66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51875,6 +52073,9 @@
       <c r="IU67" t="n">
         <v>13</v>
       </c>
+      <c r="IV67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52644,6 +52845,9 @@
       <c r="IU68" t="n">
         <v>5</v>
       </c>
+      <c r="IV68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53413,6 +53617,9 @@
       <c r="IU69" t="n">
         <v>1</v>
       </c>
+      <c r="IV69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54182,6 +54389,9 @@
       <c r="IU70" t="n">
         <v>22</v>
       </c>
+      <c r="IV70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54951,6 +55161,9 @@
       <c r="IU71" t="n">
         <v>72.7</v>
       </c>
+      <c r="IV71" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55720,6 +55933,9 @@
       <c r="IU72" t="n">
         <v>20.25</v>
       </c>
+      <c r="IV72" t="n">
+        <v>28.71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56489,6 +56705,9 @@
       <c r="IU73" t="n">
         <v>14.73</v>
       </c>
+      <c r="IV73" t="n">
+        <v>17.48</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57258,6 +57477,9 @@
       <c r="IU74" t="n">
         <v>36</v>
       </c>
+      <c r="IV74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58027,6 +58249,9 @@
       <c r="IU75" t="n">
         <v>61</v>
       </c>
+      <c r="IV75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58796,6 +59021,9 @@
       <c r="IU76" t="n">
         <v>28</v>
       </c>
+      <c r="IV76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59565,6 +59793,9 @@
       <c r="IU77" t="n">
         <v>50</v>
       </c>
+      <c r="IV77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60334,6 +60565,9 @@
       <c r="IU78" t="n">
         <v>2.27</v>
       </c>
+      <c r="IV78" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61103,6 +61337,9 @@
       <c r="IU79" t="n">
         <v>3.12</v>
       </c>
+      <c r="IV79" t="n">
+        <v>4.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61872,6 +62109,9 @@
       <c r="IU80" t="n">
         <v>42</v>
       </c>
+      <c r="IV80" t="n">
+        <v>32.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62641,6 +62881,9 @@
       <c r="IU81" t="n">
         <v>32</v>
       </c>
+      <c r="IV81" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63410,6 +63653,9 @@
       <c r="IU82" t="n">
         <v>187.5</v>
       </c>
+      <c r="IV82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64179,6 +64425,9 @@
       <c r="IU83" t="n">
         <v>85.3</v>
       </c>
+      <c r="IV83" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64948,6 +65197,9 @@
       <c r="IU84" t="n">
         <v>23.91</v>
       </c>
+      <c r="IV84" t="n">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65717,6 +65969,9 @@
       <c r="IU85" t="n">
         <v>78.8</v>
       </c>
+      <c r="IV85" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66486,6 +66741,9 @@
       <c r="IU86" t="n">
         <v>10</v>
       </c>
+      <c r="IV86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67255,6 +67513,9 @@
       <c r="IU87" t="n">
         <v>6</v>
       </c>
+      <c r="IV87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68024,6 +68285,9 @@
       <c r="IU88" t="n">
         <v>2</v>
       </c>
+      <c r="IV88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -68793,6 +69057,9 @@
       <c r="IU89" t="n">
         <v>5</v>
       </c>
+      <c r="IV89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69562,6 +69829,9 @@
       <c r="IU90" t="n">
         <v>130</v>
       </c>
+      <c r="IV90" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70331,6 +70601,9 @@
       <c r="IU91" t="n">
         <v>198</v>
       </c>
+      <c r="IV91" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71100,6 +71373,9 @@
       <c r="IU92" t="n">
         <v>250</v>
       </c>
+      <c r="IV92" t="n">
+        <v>309</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71869,6 +72145,9 @@
       <c r="IU93" t="n">
         <v>77.2</v>
       </c>
+      <c r="IV93" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72638,6 +72917,9 @@
       <c r="IU94" t="n">
         <v>61</v>
       </c>
+      <c r="IV94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73407,6 +73689,9 @@
       <c r="IU95" t="n">
         <v>11</v>
       </c>
+      <c r="IV95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74176,6 +74461,9 @@
       <c r="IU96" t="n">
         <v>14</v>
       </c>
+      <c r="IV96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74945,6 +75233,9 @@
       <c r="IU97" t="n">
         <v>36</v>
       </c>
+      <c r="IV97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -75714,6 +76005,9 @@
       <c r="IU98" t="n">
         <v>28</v>
       </c>
+      <c r="IV98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76483,6 +76777,9 @@
       <c r="IU99" t="n">
         <v>48</v>
       </c>
+      <c r="IV99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77252,6 +77549,9 @@
       <c r="IU100" t="n">
         <v>5</v>
       </c>
+      <c r="IV100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78021,6 +78321,9 @@
       <c r="IU101" t="n">
         <v>13</v>
       </c>
+      <c r="IV101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78790,6 +79093,9 @@
       <c r="IU102" t="n">
         <v>81.2</v>
       </c>
+      <c r="IV102" t="n">
+        <v>57.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,6 +1192,9 @@
       <c r="IV1" t="n">
         <v>10529</v>
       </c>
+      <c r="IW1" t="n">
+        <v>10513</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1896,6 +1967,9 @@
       <c r="IV2" t="n">
         <v>2021</v>
       </c>
+      <c r="IW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2668,6 +2742,9 @@
       <c r="IV3" t="n">
         <v>21</v>
       </c>
+      <c r="IW3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3440,6 +3517,9 @@
       <c r="IV4" t="n">
         <v>1</v>
       </c>
+      <c r="IW4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4212,6 +4292,9 @@
       <c r="IV5" t="n">
         <v>0</v>
       </c>
+      <c r="IW5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4984,6 +5067,9 @@
       <c r="IV6" t="n">
         <v>64</v>
       </c>
+      <c r="IW6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5756,6 +5842,9 @@
       <c r="IV7" t="n">
         <v>93</v>
       </c>
+      <c r="IW7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6528,6 +6617,9 @@
       <c r="IV8" t="n">
         <v>-29</v>
       </c>
+      <c r="IW8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7300,6 +7392,9 @@
       <c r="IV9" t="n">
         <v>0</v>
       </c>
+      <c r="IW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8072,6 +8167,9 @@
       <c r="IV10" t="n">
         <v>15</v>
       </c>
+      <c r="IW10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8844,6 +8942,9 @@
       <c r="IV11" t="n">
         <v>207</v>
       </c>
+      <c r="IW11" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9616,6 +9717,9 @@
       <c r="IV12" t="n">
         <v>150</v>
       </c>
+      <c r="IW12" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10388,6 +10492,9 @@
       <c r="IV13" t="n">
         <v>357</v>
       </c>
+      <c r="IW13" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11160,6 +11267,9 @@
       <c r="IV14" t="n">
         <v>1.38</v>
       </c>
+      <c r="IW14" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11932,6 +12042,9 @@
       <c r="IV15" t="n">
         <v>77</v>
       </c>
+      <c r="IW15" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12704,6 +12817,9 @@
       <c r="IV16" t="n">
         <v>45</v>
       </c>
+      <c r="IW16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13476,6 +13592,9 @@
       <c r="IV17" t="n">
         <v>35</v>
       </c>
+      <c r="IW17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14248,6 +14367,9 @@
       <c r="IV18" t="n">
         <v>18</v>
       </c>
+      <c r="IW18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15020,6 +15142,9 @@
       <c r="IV19" t="n">
         <v>17</v>
       </c>
+      <c r="IW19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15792,6 +15917,9 @@
       <c r="IV20" t="n">
         <v>10</v>
       </c>
+      <c r="IW20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16564,6 +16692,9 @@
       <c r="IV21" t="n">
         <v>5</v>
       </c>
+      <c r="IW21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17336,6 +17467,9 @@
       <c r="IV22" t="n">
         <v>4</v>
       </c>
+      <c r="IW22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18108,6 +18242,9 @@
       <c r="IV23" t="n">
         <v>0</v>
       </c>
+      <c r="IW23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18880,6 +19017,9 @@
       <c r="IV24" t="n">
         <v>14</v>
       </c>
+      <c r="IW24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19652,6 +19792,9 @@
       <c r="IV25" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IW25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20424,6 +20567,9 @@
       <c r="IV26" t="n">
         <v>35.7</v>
       </c>
+      <c r="IW26" t="n">
+        <v>28.46</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21196,6 +21342,9 @@
       <c r="IV27" t="n">
         <v>25.5</v>
       </c>
+      <c r="IW27" t="n">
+        <v>14.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21968,6 +22117,9 @@
       <c r="IV28" t="n">
         <v>41</v>
       </c>
+      <c r="IW28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22740,6 +22892,9 @@
       <c r="IV29" t="n">
         <v>58</v>
       </c>
+      <c r="IW29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23512,6 +23667,9 @@
       <c r="IV30" t="n">
         <v>43</v>
       </c>
+      <c r="IW30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24284,6 +24442,9 @@
       <c r="IV31" t="n">
         <v>48</v>
       </c>
+      <c r="IW31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25056,6 +25217,9 @@
       <c r="IV32" t="n">
         <v>3.43</v>
       </c>
+      <c r="IW32" t="n">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25828,6 +25992,9 @@
       <c r="IV33" t="n">
         <v>4.8</v>
       </c>
+      <c r="IW33" t="n">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26600,6 +26767,9 @@
       <c r="IV34" t="n">
         <v>29.2</v>
       </c>
+      <c r="IW34" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27372,6 +27542,9 @@
       <c r="IV35" t="n">
         <v>20.8</v>
       </c>
+      <c r="IW35" t="n">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28144,6 +28317,9 @@
       <c r="IV36" t="n">
         <v>187.2</v>
       </c>
+      <c r="IW36" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28916,6 +29092,9 @@
       <c r="IV37" t="n">
         <v>84</v>
       </c>
+      <c r="IW37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29688,6 +29867,9 @@
       <c r="IV38" t="n">
         <v>25.66</v>
       </c>
+      <c r="IW38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30460,6 +30642,9 @@
       <c r="IV39" t="n">
         <v>114</v>
       </c>
+      <c r="IW39" t="n">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31232,6 +31417,9 @@
       <c r="IV40" t="n">
         <v>5</v>
       </c>
+      <c r="IW40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32004,6 +32192,9 @@
       <c r="IV41" t="n">
         <v>6</v>
       </c>
+      <c r="IW41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32776,6 +32967,9 @@
       <c r="IV42" t="n">
         <v>5</v>
       </c>
+      <c r="IW42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33548,6 +33742,9 @@
       <c r="IV43" t="n">
         <v>6</v>
       </c>
+      <c r="IW43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34320,6 +34517,9 @@
       <c r="IV44" t="n">
         <v>129</v>
       </c>
+      <c r="IW44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35092,6 +35292,9 @@
       <c r="IV45" t="n">
         <v>220</v>
       </c>
+      <c r="IW45" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35864,6 +36067,9 @@
       <c r="IV46" t="n">
         <v>249</v>
       </c>
+      <c r="IW46" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36636,6 +36842,9 @@
       <c r="IV47" t="n">
         <v>69.7</v>
       </c>
+      <c r="IW47" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37408,6 +37617,9 @@
       <c r="IV48" t="n">
         <v>58</v>
       </c>
+      <c r="IW48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38180,6 +38392,9 @@
       <c r="IV49" t="n">
         <v>5</v>
       </c>
+      <c r="IW49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38952,6 +39167,9 @@
       <c r="IV50" t="n">
         <v>6</v>
       </c>
+      <c r="IW50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39724,6 +39942,9 @@
       <c r="IV51" t="n">
         <v>41</v>
       </c>
+      <c r="IW51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40496,6 +40717,9 @@
       <c r="IV52" t="n">
         <v>43</v>
       </c>
+      <c r="IW52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41268,6 +41492,9 @@
       <c r="IV53" t="n">
         <v>51</v>
       </c>
+      <c r="IW53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42040,6 +42267,9 @@
       <c r="IV54" t="n">
         <v>9</v>
       </c>
+      <c r="IW54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42812,6 +43042,9 @@
       <c r="IV55" t="n">
         <v>5</v>
       </c>
+      <c r="IW55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43584,6 +43817,9 @@
       <c r="IV56" t="n">
         <v>50</v>
       </c>
+      <c r="IW56" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44356,6 +44592,9 @@
       <c r="IV57" t="n">
         <v>238</v>
       </c>
+      <c r="IW57" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45128,6 +45367,9 @@
       <c r="IV58" t="n">
         <v>164</v>
       </c>
+      <c r="IW58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45900,6 +46142,9 @@
       <c r="IV59" t="n">
         <v>402</v>
       </c>
+      <c r="IW59" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46672,6 +46917,9 @@
       <c r="IV60" t="n">
         <v>1.45</v>
       </c>
+      <c r="IW60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47444,6 +47692,9 @@
       <c r="IV61" t="n">
         <v>102</v>
       </c>
+      <c r="IW61" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48216,6 +48467,9 @@
       <c r="IV62" t="n">
         <v>67</v>
       </c>
+      <c r="IW62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48988,6 +49242,9 @@
       <c r="IV63" t="n">
         <v>33</v>
       </c>
+      <c r="IW63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49760,6 +50017,9 @@
       <c r="IV64" t="n">
         <v>17</v>
       </c>
+      <c r="IW64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50532,6 +50792,9 @@
       <c r="IV65" t="n">
         <v>18</v>
       </c>
+      <c r="IW65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51304,6 +51567,9 @@
       <c r="IV66" t="n">
         <v>14</v>
       </c>
+      <c r="IW66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52076,6 +52342,9 @@
       <c r="IV67" t="n">
         <v>8</v>
       </c>
+      <c r="IW67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52848,6 +53117,9 @@
       <c r="IV68" t="n">
         <v>5</v>
       </c>
+      <c r="IW68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53620,6 +53892,9 @@
       <c r="IV69" t="n">
         <v>4</v>
       </c>
+      <c r="IW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54392,6 +54667,9 @@
       <c r="IV70" t="n">
         <v>23</v>
       </c>
+      <c r="IW70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55164,6 +55442,9 @@
       <c r="IV71" t="n">
         <v>60.9</v>
       </c>
+      <c r="IW71" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55936,6 +56217,9 @@
       <c r="IV72" t="n">
         <v>28.71</v>
       </c>
+      <c r="IW72" t="n">
+        <v>26.92</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56708,6 +56992,9 @@
       <c r="IV73" t="n">
         <v>17.48</v>
       </c>
+      <c r="IW73" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57480,6 +57767,9 @@
       <c r="IV74" t="n">
         <v>30</v>
       </c>
+      <c r="IW74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58252,6 +58542,9 @@
       <c r="IV75" t="n">
         <v>61</v>
       </c>
+      <c r="IW75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59024,6 +59317,9 @@
       <c r="IV76" t="n">
         <v>38</v>
       </c>
+      <c r="IW76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59796,6 +60092,9 @@
       <c r="IV77" t="n">
         <v>58</v>
       </c>
+      <c r="IW77" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60568,6 +60867,9 @@
       <c r="IV78" t="n">
         <v>2.52</v>
       </c>
+      <c r="IW78" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61340,6 +61642,9 @@
       <c r="IV79" t="n">
         <v>4.14</v>
       </c>
+      <c r="IW79" t="n">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62112,6 +62417,9 @@
       <c r="IV80" t="n">
         <v>32.8</v>
       </c>
+      <c r="IW80" t="n">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62884,6 +63192,9 @@
       <c r="IV81" t="n">
         <v>24.1</v>
       </c>
+      <c r="IW81" t="n">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63656,6 +63967,9 @@
       <c r="IV82" t="n">
         <v>187.1</v>
       </c>
+      <c r="IW82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64428,6 +64742,9 @@
       <c r="IV83" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="IW83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65200,6 +65517,9 @@
       <c r="IV84" t="n">
         <v>23.8</v>
       </c>
+      <c r="IW84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65972,6 +66292,9 @@
       <c r="IV85" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="IW85" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66744,6 +67067,9 @@
       <c r="IV86" t="n">
         <v>7</v>
       </c>
+      <c r="IW86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67516,6 +67842,9 @@
       <c r="IV87" t="n">
         <v>7</v>
       </c>
+      <c r="IW87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68288,6 +68617,9 @@
       <c r="IV88" t="n">
         <v>7</v>
       </c>
+      <c r="IW88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69060,6 +69392,9 @@
       <c r="IV89" t="n">
         <v>2</v>
       </c>
+      <c r="IW89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69832,6 +70167,9 @@
       <c r="IV90" t="n">
         <v>137</v>
       </c>
+      <c r="IW90" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70604,6 +70942,9 @@
       <c r="IV91" t="n">
         <v>259</v>
       </c>
+      <c r="IW91" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71376,6 +71717,9 @@
       <c r="IV92" t="n">
         <v>309</v>
       </c>
+      <c r="IW92" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72148,6 +72492,9 @@
       <c r="IV93" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IW93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72920,6 +73267,9 @@
       <c r="IV94" t="n">
         <v>61</v>
       </c>
+      <c r="IW94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73692,6 +74042,9 @@
       <c r="IV95" t="n">
         <v>11</v>
       </c>
+      <c r="IW95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74464,6 +74817,9 @@
       <c r="IV96" t="n">
         <v>18</v>
       </c>
+      <c r="IW96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75236,6 +75592,9 @@
       <c r="IV97" t="n">
         <v>30</v>
       </c>
+      <c r="IW97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76008,6 +76367,9 @@
       <c r="IV98" t="n">
         <v>38</v>
       </c>
+      <c r="IW98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76780,6 +77142,9 @@
       <c r="IV99" t="n">
         <v>55</v>
       </c>
+      <c r="IW99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77552,6 +77917,9 @@
       <c r="IV100" t="n">
         <v>9</v>
       </c>
+      <c r="IW100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78324,6 +78692,9 @@
       <c r="IV101" t="n">
         <v>8</v>
       </c>
+      <c r="IW101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79096,6 +79467,9 @@
       <c r="IV102" t="n">
         <v>57.1</v>
       </c>
+      <c r="IW102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IW102"/>
+  <dimension ref="A1:IX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,6 +1195,9 @@
       <c r="IW1" t="n">
         <v>10513</v>
       </c>
+      <c r="IX1" t="n">
+        <v>10522</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1970,6 +1973,9 @@
       <c r="IW2" t="n">
         <v>2021</v>
       </c>
+      <c r="IX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2745,6 +2751,9 @@
       <c r="IW3" t="n">
         <v>22</v>
       </c>
+      <c r="IX3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3520,6 +3529,9 @@
       <c r="IW4" t="n">
         <v>1</v>
       </c>
+      <c r="IX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4295,6 +4307,9 @@
       <c r="IW5" t="n">
         <v>1</v>
       </c>
+      <c r="IX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5070,6 +5085,9 @@
       <c r="IW6" t="n">
         <v>91</v>
       </c>
+      <c r="IX6" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5845,6 +5863,9 @@
       <c r="IW7" t="n">
         <v>77</v>
       </c>
+      <c r="IX7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6620,6 +6641,9 @@
       <c r="IW8" t="n">
         <v>14</v>
       </c>
+      <c r="IX8" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7395,6 +7419,9 @@
       <c r="IW9" t="n">
         <v>1</v>
       </c>
+      <c r="IX9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8170,6 +8197,9 @@
       <c r="IW10" t="n">
         <v>12</v>
       </c>
+      <c r="IX10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8945,6 +8975,9 @@
       <c r="IW11" t="n">
         <v>233</v>
       </c>
+      <c r="IX11" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9720,6 +9753,9 @@
       <c r="IW12" t="n">
         <v>137</v>
       </c>
+      <c r="IX12" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10495,6 +10531,9 @@
       <c r="IW13" t="n">
         <v>370</v>
       </c>
+      <c r="IX13" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11270,6 +11309,9 @@
       <c r="IW14" t="n">
         <v>1.7</v>
       </c>
+      <c r="IX14" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12045,6 +12087,9 @@
       <c r="IW15" t="n">
         <v>109</v>
       </c>
+      <c r="IX15" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12820,6 +12865,9 @@
       <c r="IW16" t="n">
         <v>53</v>
       </c>
+      <c r="IX16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13595,6 +13643,9 @@
       <c r="IW17" t="n">
         <v>28</v>
       </c>
+      <c r="IX17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14370,6 +14421,9 @@
       <c r="IW18" t="n">
         <v>21</v>
       </c>
+      <c r="IX18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15145,6 +15199,9 @@
       <c r="IW19" t="n">
         <v>14</v>
       </c>
+      <c r="IX19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15920,6 +15977,9 @@
       <c r="IW20" t="n">
         <v>13</v>
       </c>
+      <c r="IX20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16695,6 +16755,9 @@
       <c r="IW21" t="n">
         <v>7</v>
       </c>
+      <c r="IX21" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17470,6 +17533,9 @@
       <c r="IW22" t="n">
         <v>11</v>
       </c>
+      <c r="IX22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18245,6 +18311,9 @@
       <c r="IW23" t="n">
         <v>2</v>
       </c>
+      <c r="IX23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19020,6 +19089,9 @@
       <c r="IW24" t="n">
         <v>26</v>
       </c>
+      <c r="IX24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19795,6 +19867,9 @@
       <c r="IW25" t="n">
         <v>50</v>
       </c>
+      <c r="IX25" t="n">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20570,6 +20645,9 @@
       <c r="IW26" t="n">
         <v>28.46</v>
       </c>
+      <c r="IX26" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21345,6 +21423,9 @@
       <c r="IW27" t="n">
         <v>14.23</v>
       </c>
+      <c r="IX27" t="n">
+        <v>12.81</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22120,6 +22201,9 @@
       <c r="IW28" t="n">
         <v>38</v>
       </c>
+      <c r="IX28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22895,6 +22979,9 @@
       <c r="IW29" t="n">
         <v>52</v>
       </c>
+      <c r="IX29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23670,6 +23757,9 @@
       <c r="IW30" t="n">
         <v>25</v>
       </c>
+      <c r="IX30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24445,6 +24535,9 @@
       <c r="IW31" t="n">
         <v>57</v>
       </c>
+      <c r="IX31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25220,6 +25313,9 @@
       <c r="IW32" t="n">
         <v>2.19</v>
       </c>
+      <c r="IX32" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25995,6 +26091,9 @@
       <c r="IW33" t="n">
         <v>4.38</v>
       </c>
+      <c r="IX33" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26770,6 +26869,9 @@
       <c r="IW34" t="n">
         <v>42.1</v>
       </c>
+      <c r="IX34" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27545,6 +27647,9 @@
       <c r="IW35" t="n">
         <v>22.8</v>
       </c>
+      <c r="IX35" t="n">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28320,6 +28425,9 @@
       <c r="IW36" t="n">
         <v>187.6</v>
       </c>
+      <c r="IX36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29095,6 +29203,9 @@
       <c r="IW37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IX37" t="n">
+        <v>84.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29870,6 +29981,9 @@
       <c r="IW38" t="n">
         <v>25</v>
       </c>
+      <c r="IX38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30645,6 +30759,9 @@
       <c r="IW39" t="n">
         <v>92.3</v>
       </c>
+      <c r="IX39" t="n">
+        <v>97.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31420,6 +31537,9 @@
       <c r="IW40" t="n">
         <v>7</v>
       </c>
+      <c r="IX40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32195,6 +32315,9 @@
       <c r="IW41" t="n">
         <v>7</v>
       </c>
+      <c r="IX41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32970,6 +33093,9 @@
       <c r="IW42" t="n">
         <v>5</v>
       </c>
+      <c r="IX42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33745,6 +33871,9 @@
       <c r="IW43" t="n">
         <v>4</v>
       </c>
+      <c r="IX43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34520,6 +34649,9 @@
       <c r="IW44" t="n">
         <v>139</v>
       </c>
+      <c r="IX44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35295,6 +35427,9 @@
       <c r="IW45" t="n">
         <v>233</v>
       </c>
+      <c r="IX45" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36070,6 +36205,9 @@
       <c r="IW46" t="n">
         <v>267</v>
       </c>
+      <c r="IX46" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36845,6 +36983,9 @@
       <c r="IW47" t="n">
         <v>72.2</v>
       </c>
+      <c r="IX47" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37620,6 +37761,9 @@
       <c r="IW48" t="n">
         <v>52</v>
       </c>
+      <c r="IX48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38395,6 +38539,9 @@
       <c r="IW49" t="n">
         <v>10</v>
       </c>
+      <c r="IX49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39170,6 +39317,9 @@
       <c r="IW50" t="n">
         <v>15</v>
       </c>
+      <c r="IX50" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39945,6 +40095,9 @@
       <c r="IW51" t="n">
         <v>38</v>
       </c>
+      <c r="IX51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40720,6 +40873,9 @@
       <c r="IW52" t="n">
         <v>25</v>
       </c>
+      <c r="IX52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41495,6 +41651,9 @@
       <c r="IW53" t="n">
         <v>34</v>
       </c>
+      <c r="IX53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42270,6 +42429,9 @@
       <c r="IW54" t="n">
         <v>2</v>
       </c>
+      <c r="IX54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43045,6 +43207,9 @@
       <c r="IW55" t="n">
         <v>7</v>
       </c>
+      <c r="IX55" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43820,6 +43985,9 @@
       <c r="IW56" t="n">
         <v>53.8</v>
       </c>
+      <c r="IX56" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44595,6 +44763,9 @@
       <c r="IW57" t="n">
         <v>194</v>
       </c>
+      <c r="IX57" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45370,6 +45541,9 @@
       <c r="IW58" t="n">
         <v>129</v>
       </c>
+      <c r="IX58" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46145,6 +46319,9 @@
       <c r="IW59" t="n">
         <v>323</v>
       </c>
+      <c r="IX59" t="n">
+        <v>335</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46920,6 +47097,9 @@
       <c r="IW60" t="n">
         <v>1.5</v>
       </c>
+      <c r="IX60" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47695,6 +47875,9 @@
       <c r="IW61" t="n">
         <v>94</v>
       </c>
+      <c r="IX61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48470,6 +48653,9 @@
       <c r="IW62" t="n">
         <v>41</v>
       </c>
+      <c r="IX62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49245,6 +49431,9 @@
       <c r="IW63" t="n">
         <v>43</v>
       </c>
+      <c r="IX63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50020,6 +50209,9 @@
       <c r="IW64" t="n">
         <v>14</v>
       </c>
+      <c r="IX64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50795,6 +50987,9 @@
       <c r="IW65" t="n">
         <v>21</v>
       </c>
+      <c r="IX65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51570,6 +51765,9 @@
       <c r="IW66" t="n">
         <v>12</v>
       </c>
+      <c r="IX66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52345,6 +52543,9 @@
       <c r="IW67" t="n">
         <v>9</v>
       </c>
+      <c r="IX67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53120,6 +53321,9 @@
       <c r="IW68" t="n">
         <v>4</v>
       </c>
+      <c r="IX68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53895,6 +54099,9 @@
       <c r="IW69" t="n">
         <v>1</v>
       </c>
+      <c r="IX69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54670,6 +54877,9 @@
       <c r="IW70" t="n">
         <v>17</v>
       </c>
+      <c r="IX70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55445,6 +55655,9 @@
       <c r="IW71" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IX71" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56220,6 +56433,9 @@
       <c r="IW72" t="n">
         <v>26.92</v>
       </c>
+      <c r="IX72" t="n">
+        <v>55.83</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56995,6 +57211,9 @@
       <c r="IW73" t="n">
         <v>19</v>
       </c>
+      <c r="IX73" t="n">
+        <v>17.63</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57770,6 +57989,9 @@
       <c r="IW74" t="n">
         <v>32</v>
       </c>
+      <c r="IX74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58545,6 +58767,9 @@
       <c r="IW75" t="n">
         <v>61</v>
       </c>
+      <c r="IX75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59320,6 +59545,9 @@
       <c r="IW76" t="n">
         <v>44</v>
       </c>
+      <c r="IX76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60095,6 +60323,9 @@
       <c r="IW77" t="n">
         <v>37</v>
       </c>
+      <c r="IX77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60870,6 +61101,9 @@
       <c r="IW78" t="n">
         <v>2.18</v>
       </c>
+      <c r="IX78" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61645,6 +61879,9 @@
       <c r="IW79" t="n">
         <v>3.08</v>
       </c>
+      <c r="IX79" t="n">
+        <v>7.83</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62420,6 +62657,9 @@
       <c r="IW80" t="n">
         <v>43.2</v>
       </c>
+      <c r="IX80" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63195,6 +63435,9 @@
       <c r="IW81" t="n">
         <v>32.4</v>
       </c>
+      <c r="IX81" t="n">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63970,6 +64213,9 @@
       <c r="IW82" t="n">
         <v>189.1</v>
       </c>
+      <c r="IX82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64745,6 +64991,9 @@
       <c r="IW83" t="n">
         <v>85</v>
       </c>
+      <c r="IX83" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65520,6 +65769,9 @@
       <c r="IW84" t="n">
         <v>24.74</v>
       </c>
+      <c r="IX84" t="n">
+        <v>24.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66295,6 +66547,9 @@
       <c r="IW85" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IX85" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67070,6 +67325,9 @@
       <c r="IW86" t="n">
         <v>9</v>
       </c>
+      <c r="IX86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67845,6 +68103,9 @@
       <c r="IW87" t="n">
         <v>5</v>
       </c>
+      <c r="IX87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68620,6 +68881,9 @@
       <c r="IW88" t="n">
         <v>5</v>
       </c>
+      <c r="IX88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69395,6 +69659,9 @@
       <c r="IW89" t="n">
         <v>3</v>
       </c>
+      <c r="IX89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70170,6 +70437,9 @@
       <c r="IW90" t="n">
         <v>110</v>
       </c>
+      <c r="IX90" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70945,6 +71215,9 @@
       <c r="IW91" t="n">
         <v>207</v>
       </c>
+      <c r="IX91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71720,6 +71993,9 @@
       <c r="IW92" t="n">
         <v>234</v>
       </c>
+      <c r="IX92" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72495,6 +72771,9 @@
       <c r="IW93" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="IX93" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73270,6 +73549,9 @@
       <c r="IW94" t="n">
         <v>61</v>
       </c>
+      <c r="IX94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74045,6 +74327,9 @@
       <c r="IW95" t="n">
         <v>10</v>
       </c>
+      <c r="IX95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74820,6 +75105,9 @@
       <c r="IW96" t="n">
         <v>10</v>
       </c>
+      <c r="IX96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75595,6 +75883,9 @@
       <c r="IW97" t="n">
         <v>32</v>
       </c>
+      <c r="IX97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76370,6 +76661,9 @@
       <c r="IW98" t="n">
         <v>44</v>
       </c>
+      <c r="IX98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77145,6 +77439,9 @@
       <c r="IW99" t="n">
         <v>39</v>
       </c>
+      <c r="IX99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77920,6 +78217,9 @@
       <c r="IW100" t="n">
         <v>2</v>
       </c>
+      <c r="IX100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78695,6 +78995,9 @@
       <c r="IW101" t="n">
         <v>9</v>
       </c>
+      <c r="IX101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79470,6 +79773,9 @@
       <c r="IW102" t="n">
         <v>75</v>
       </c>
+      <c r="IX102" t="n">
+        <v>83.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IX102"/>
+  <dimension ref="A1:IY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,6 +1130,9 @@
       <c r="IX1" t="n">
         <v>10522</v>
       </c>
+      <c r="IY1" t="n">
+        <v>10536</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1976,6 +1911,9 @@
       <c r="IX2" t="n">
         <v>2021</v>
       </c>
+      <c r="IY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2754,6 +2692,9 @@
       <c r="IX3" t="n">
         <v>23</v>
       </c>
+      <c r="IY3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3532,6 +3473,9 @@
       <c r="IX4" t="n">
         <v>0</v>
       </c>
+      <c r="IY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4310,6 +4254,9 @@
       <c r="IX5" t="n">
         <v>0</v>
       </c>
+      <c r="IY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5088,6 +5035,9 @@
       <c r="IX6" t="n">
         <v>136</v>
       </c>
+      <c r="IY6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5866,6 +5816,9 @@
       <c r="IX7" t="n">
         <v>49</v>
       </c>
+      <c r="IY7" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6644,6 +6597,9 @@
       <c r="IX8" t="n">
         <v>87</v>
       </c>
+      <c r="IY8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7422,6 +7378,9 @@
       <c r="IX9" t="n">
         <v>1</v>
       </c>
+      <c r="IY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8200,6 +8159,9 @@
       <c r="IX10" t="n">
         <v>8</v>
       </c>
+      <c r="IY10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8978,6 +8940,9 @@
       <c r="IX11" t="n">
         <v>255</v>
       </c>
+      <c r="IY11" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9756,6 +9721,9 @@
       <c r="IX12" t="n">
         <v>142</v>
       </c>
+      <c r="IY12" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10534,6 +10502,9 @@
       <c r="IX13" t="n">
         <v>397</v>
       </c>
+      <c r="IY13" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11312,6 +11283,9 @@
       <c r="IX14" t="n">
         <v>1.8</v>
       </c>
+      <c r="IY14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12090,6 +12064,9 @@
       <c r="IX15" t="n">
         <v>129</v>
       </c>
+      <c r="IY15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12868,6 +12845,9 @@
       <c r="IX16" t="n">
         <v>51</v>
       </c>
+      <c r="IY16" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13646,6 +13626,9 @@
       <c r="IX17" t="n">
         <v>31</v>
       </c>
+      <c r="IY17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14424,6 +14407,9 @@
       <c r="IX18" t="n">
         <v>22</v>
       </c>
+      <c r="IY18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15202,6 +15188,9 @@
       <c r="IX19" t="n">
         <v>15</v>
       </c>
+      <c r="IY19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15980,6 +15969,9 @@
       <c r="IX20" t="n">
         <v>21</v>
       </c>
+      <c r="IY20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16758,6 +16750,9 @@
       <c r="IX21" t="n">
         <v>17</v>
       </c>
+      <c r="IY21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17536,6 +17531,9 @@
       <c r="IX22" t="n">
         <v>9</v>
       </c>
+      <c r="IY22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18314,6 +18312,9 @@
       <c r="IX23" t="n">
         <v>1</v>
       </c>
+      <c r="IY23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19092,6 +19093,9 @@
       <c r="IX24" t="n">
         <v>31</v>
       </c>
+      <c r="IY24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19870,6 +19874,9 @@
       <c r="IX25" t="n">
         <v>67.7</v>
       </c>
+      <c r="IY25" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20648,6 +20655,9 @@
       <c r="IX26" t="n">
         <v>18.9</v>
       </c>
+      <c r="IY26" t="n">
+        <v>33.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21426,6 +21436,9 @@
       <c r="IX27" t="n">
         <v>12.81</v>
       </c>
+      <c r="IY27" t="n">
+        <v>14.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22204,6 +22217,9 @@
       <c r="IX28" t="n">
         <v>27</v>
       </c>
+      <c r="IY28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22982,6 +22998,9 @@
       <c r="IX29" t="n">
         <v>54</v>
       </c>
+      <c r="IY29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23760,6 +23779,9 @@
       <c r="IX30" t="n">
         <v>40</v>
       </c>
+      <c r="IY30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24538,6 +24560,9 @@
       <c r="IX31" t="n">
         <v>55</v>
       </c>
+      <c r="IY31" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25316,6 +25341,9 @@
       <c r="IX32" t="n">
         <v>1.77</v>
       </c>
+      <c r="IY32" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26094,6 +26122,9 @@
       <c r="IX33" t="n">
         <v>2.62</v>
       </c>
+      <c r="IY33" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26872,6 +26903,9 @@
       <c r="IX34" t="n">
         <v>54.5</v>
       </c>
+      <c r="IY34" t="n">
+        <v>32.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27650,6 +27684,9 @@
       <c r="IX35" t="n">
         <v>38.2</v>
       </c>
+      <c r="IY35" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28428,6 +28465,9 @@
       <c r="IX36" t="n">
         <v>187.1</v>
       </c>
+      <c r="IY36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29206,6 +29246,9 @@
       <c r="IX37" t="n">
         <v>84.2</v>
       </c>
+      <c r="IY37" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29984,6 +30027,9 @@
       <c r="IX38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IY38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30762,6 +30808,9 @@
       <c r="IX39" t="n">
         <v>97.90000000000001</v>
       </c>
+      <c r="IY39" t="n">
+        <v>95.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31540,6 +31589,9 @@
       <c r="IX40" t="n">
         <v>7</v>
       </c>
+      <c r="IY40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32318,6 +32370,9 @@
       <c r="IX41" t="n">
         <v>6</v>
       </c>
+      <c r="IY41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33096,6 +33151,9 @@
       <c r="IX42" t="n">
         <v>5</v>
       </c>
+      <c r="IY42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33874,6 +33932,9 @@
       <c r="IX43" t="n">
         <v>5</v>
       </c>
+      <c r="IY43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34652,6 +34713,9 @@
       <c r="IX44" t="n">
         <v>132</v>
       </c>
+      <c r="IY44" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35430,6 +35494,9 @@
       <c r="IX45" t="n">
         <v>261</v>
       </c>
+      <c r="IY45" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36208,6 +36275,9 @@
       <c r="IX46" t="n">
         <v>308</v>
       </c>
+      <c r="IY46" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36986,6 +37056,9 @@
       <c r="IX47" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="IY47" t="n">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37764,6 +37837,9 @@
       <c r="IX48" t="n">
         <v>54</v>
       </c>
+      <c r="IY48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38542,6 +38618,9 @@
       <c r="IX49" t="n">
         <v>13</v>
       </c>
+      <c r="IY49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39320,6 +39399,9 @@
       <c r="IX50" t="n">
         <v>24</v>
       </c>
+      <c r="IY50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40098,6 +40180,9 @@
       <c r="IX51" t="n">
         <v>27</v>
       </c>
+      <c r="IY51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40876,6 +40961,9 @@
       <c r="IX52" t="n">
         <v>40</v>
       </c>
+      <c r="IY52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41654,6 +41742,9 @@
       <c r="IX53" t="n">
         <v>49</v>
       </c>
+      <c r="IY53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42432,6 +42523,9 @@
       <c r="IX54" t="n">
         <v>11</v>
       </c>
+      <c r="IY54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43210,6 +43304,9 @@
       <c r="IX55" t="n">
         <v>17</v>
       </c>
+      <c r="IY55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43988,6 +44085,9 @@
       <c r="IX56" t="n">
         <v>81</v>
       </c>
+      <c r="IY56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44766,6 +44866,9 @@
       <c r="IX57" t="n">
         <v>195</v>
       </c>
+      <c r="IY57" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45544,6 +45647,9 @@
       <c r="IX58" t="n">
         <v>140</v>
       </c>
+      <c r="IY58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46322,6 +46428,9 @@
       <c r="IX59" t="n">
         <v>335</v>
       </c>
+      <c r="IY59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47100,6 +47209,9 @@
       <c r="IX60" t="n">
         <v>1.39</v>
       </c>
+      <c r="IY60" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47878,6 +47990,9 @@
       <c r="IX61" t="n">
         <v>86</v>
       </c>
+      <c r="IY61" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48656,6 +48771,9 @@
       <c r="IX62" t="n">
         <v>55</v>
       </c>
+      <c r="IY62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49434,6 +49552,9 @@
       <c r="IX63" t="n">
         <v>35</v>
       </c>
+      <c r="IY63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50212,6 +50333,9 @@
       <c r="IX64" t="n">
         <v>15</v>
       </c>
+      <c r="IY64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50990,6 +51114,9 @@
       <c r="IX65" t="n">
         <v>22</v>
       </c>
+      <c r="IY65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51768,6 +51895,9 @@
       <c r="IX66" t="n">
         <v>6</v>
       </c>
+      <c r="IY66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52546,6 +52676,9 @@
       <c r="IX67" t="n">
         <v>5</v>
       </c>
+      <c r="IY67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53324,6 +53457,9 @@
       <c r="IX68" t="n">
         <v>11</v>
       </c>
+      <c r="IY68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54102,6 +54238,9 @@
       <c r="IX69" t="n">
         <v>2</v>
       </c>
+      <c r="IY69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54880,6 +55019,9 @@
       <c r="IX70" t="n">
         <v>19</v>
       </c>
+      <c r="IY70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55658,6 +55800,9 @@
       <c r="IX71" t="n">
         <v>31.6</v>
       </c>
+      <c r="IY71" t="n">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56436,6 +56581,9 @@
       <c r="IX72" t="n">
         <v>55.83</v>
       </c>
+      <c r="IY72" t="n">
+        <v>31.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57214,6 +57362,9 @@
       <c r="IX73" t="n">
         <v>17.63</v>
       </c>
+      <c r="IY73" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57992,6 +58143,9 @@
       <c r="IX74" t="n">
         <v>36</v>
       </c>
+      <c r="IY74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58770,6 +58924,9 @@
       <c r="IX75" t="n">
         <v>60</v>
       </c>
+      <c r="IY75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59548,6 +59705,9 @@
       <c r="IX76" t="n">
         <v>34</v>
       </c>
+      <c r="IY76" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60326,6 +60486,9 @@
       <c r="IX77" t="n">
         <v>47</v>
       </c>
+      <c r="IY77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61104,6 +61267,9 @@
       <c r="IX78" t="n">
         <v>2.47</v>
       </c>
+      <c r="IY78" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61882,6 +62048,9 @@
       <c r="IX79" t="n">
         <v>7.83</v>
       </c>
+      <c r="IY79" t="n">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62660,6 +62829,9 @@
       <c r="IX80" t="n">
         <v>36.2</v>
       </c>
+      <c r="IY80" t="n">
+        <v>39.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63438,6 +63610,9 @@
       <c r="IX81" t="n">
         <v>12.8</v>
       </c>
+      <c r="IY81" t="n">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64216,6 +64391,9 @@
       <c r="IX82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IY82" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64994,6 +65172,9 @@
       <c r="IX83" t="n">
         <v>83.7</v>
       </c>
+      <c r="IY83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65772,6 +65953,9 @@
       <c r="IX84" t="n">
         <v>24.16</v>
       </c>
+      <c r="IY84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66550,6 +66734,9 @@
       <c r="IX85" t="n">
         <v>74.5</v>
       </c>
+      <c r="IY85" t="n">
+        <v>101.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67328,6 +67515,9 @@
       <c r="IX86" t="n">
         <v>8</v>
       </c>
+      <c r="IY86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68106,6 +68296,9 @@
       <c r="IX87" t="n">
         <v>8</v>
       </c>
+      <c r="IY87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68884,6 +69077,9 @@
       <c r="IX88" t="n">
         <v>4</v>
       </c>
+      <c r="IY88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69662,6 +69858,9 @@
       <c r="IX89" t="n">
         <v>3</v>
       </c>
+      <c r="IY89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70440,6 +70639,9 @@
       <c r="IX90" t="n">
         <v>125</v>
       </c>
+      <c r="IY90" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71218,6 +71420,9 @@
       <c r="IX91" t="n">
         <v>211</v>
       </c>
+      <c r="IY91" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71996,6 +72201,9 @@
       <c r="IX92" t="n">
         <v>245</v>
       </c>
+      <c r="IY92" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72774,6 +72982,9 @@
       <c r="IX93" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="IY93" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73552,6 +73763,9 @@
       <c r="IX94" t="n">
         <v>60</v>
       </c>
+      <c r="IY94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74330,6 +74544,9 @@
       <c r="IX95" t="n">
         <v>7</v>
       </c>
+      <c r="IY95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75108,6 +75325,9 @@
       <c r="IX96" t="n">
         <v>7</v>
       </c>
+      <c r="IY96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75886,6 +76106,9 @@
       <c r="IX97" t="n">
         <v>36</v>
       </c>
+      <c r="IY97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76664,6 +76887,9 @@
       <c r="IX98" t="n">
         <v>34</v>
       </c>
+      <c r="IY98" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77442,6 +77668,9 @@
       <c r="IX99" t="n">
         <v>37</v>
       </c>
+      <c r="IY99" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78220,6 +78449,9 @@
       <c r="IX100" t="n">
         <v>3</v>
       </c>
+      <c r="IY100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78998,6 +79230,9 @@
       <c r="IX101" t="n">
         <v>5</v>
       </c>
+      <c r="IY101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79776,6 +80011,9 @@
       <c r="IX102" t="n">
         <v>83.3</v>
       </c>
+      <c r="IY102" t="n">
+        <v>54.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IY102"/>
+  <dimension ref="A1:IZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1230,8 +1230,11 @@
       <c r="IX1" s="2" t="n">
         <v>10522</v>
       </c>
-      <c r="IY1" t="n">
+      <c r="IY1" s="2" t="n">
         <v>10536</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>10548</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2011,8 +2014,11 @@
       <c r="IX2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IY2" s="2" t="n">
         <v>2021</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="1">
@@ -2792,8 +2798,11 @@
       <c r="IX3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="IY3" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3573,8 +3582,11 @@
       <c r="IX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IY4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4354,7 +4366,10 @@
       <c r="IX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IY5" t="n">
+      <c r="IY5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5135,8 +5150,11 @@
       <c r="IX6" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IY6" t="n">
+      <c r="IY6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5916,8 +5934,11 @@
       <c r="IX7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IY7" t="n">
+      <c r="IY7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6697,8 +6718,11 @@
       <c r="IX8" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IY8" t="n">
+      <c r="IY8" s="2" t="n">
         <v>-1</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7478,8 +7502,11 @@
       <c r="IX9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY9" t="n">
+      <c r="IY9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8259,7 +8286,10 @@
       <c r="IX10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY10" t="n">
+      <c r="IY10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -9040,8 +9070,11 @@
       <c r="IX11" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="IY11" t="n">
+      <c r="IY11" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9821,8 +9854,11 @@
       <c r="IX12" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IY12" t="n">
+      <c r="IY12" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10602,8 +10638,11 @@
       <c r="IX13" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="IY13" t="n">
+      <c r="IY13" s="2" t="n">
         <v>332</v>
+      </c>
+      <c r="IZ13" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11383,8 +11422,11 @@
       <c r="IX14" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="IY14" t="n">
+      <c r="IY14" s="2" t="n">
         <v>1.55</v>
+      </c>
+      <c r="IZ14" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12164,8 +12206,11 @@
       <c r="IX15" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IY15" t="n">
+      <c r="IY15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IZ15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12945,8 +12990,11 @@
       <c r="IX16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IY16" t="n">
+      <c r="IY16" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IZ16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13726,8 +13774,11 @@
       <c r="IX17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IY17" t="n">
+      <c r="IY17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14507,8 +14558,11 @@
       <c r="IX18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IY18" t="n">
+      <c r="IY18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IZ18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15288,7 +15342,10 @@
       <c r="IX19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IY19" t="n">
+      <c r="IY19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IZ19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -16069,8 +16126,11 @@
       <c r="IX20" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IY20" t="n">
+      <c r="IY20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16850,8 +16910,11 @@
       <c r="IX21" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IY21" t="n">
+      <c r="IY21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IZ21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17631,8 +17694,11 @@
       <c r="IX22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IY22" t="n">
+      <c r="IY22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IZ22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18412,8 +18478,11 @@
       <c r="IX23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY23" t="n">
+      <c r="IY23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19193,8 +19262,11 @@
       <c r="IX24" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IY24" t="n">
+      <c r="IY24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19974,8 +20046,11 @@
       <c r="IX25" s="2" t="n">
         <v>67.7</v>
       </c>
-      <c r="IY25" t="n">
+      <c r="IY25" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="IZ25" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20755,8 +20830,11 @@
       <c r="IX26" s="2" t="n">
         <v>18.9</v>
       </c>
-      <c r="IY26" t="n">
+      <c r="IY26" s="2" t="n">
         <v>33.2</v>
+      </c>
+      <c r="IZ26" t="n">
+        <v>18.35</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21536,8 +21614,11 @@
       <c r="IX27" s="2" t="n">
         <v>12.81</v>
       </c>
-      <c r="IY27" t="n">
+      <c r="IY27" s="2" t="n">
         <v>14.43</v>
+      </c>
+      <c r="IZ27" t="n">
+        <v>11.56</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22317,8 +22398,11 @@
       <c r="IX28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IY28" t="n">
+      <c r="IY28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IZ28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23098,8 +23182,11 @@
       <c r="IX29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IY29" t="n">
+      <c r="IY29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IZ29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23879,7 +23966,10 @@
       <c r="IX30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IY30" t="n">
+      <c r="IY30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IZ30" t="n">
         <v>34</v>
       </c>
     </row>
@@ -24660,8 +24750,11 @@
       <c r="IX31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IY31" t="n">
+      <c r="IY31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IZ31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25441,8 +25534,11 @@
       <c r="IX32" s="2" t="n">
         <v>1.77</v>
       </c>
-      <c r="IY32" t="n">
+      <c r="IY32" s="2" t="n">
         <v>2.83</v>
+      </c>
+      <c r="IZ32" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26222,8 +26318,11 @@
       <c r="IX33" s="2" t="n">
         <v>2.62</v>
       </c>
-      <c r="IY33" t="n">
+      <c r="IY33" s="2" t="n">
         <v>6.5</v>
+      </c>
+      <c r="IZ33" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27003,8 +27102,11 @@
       <c r="IX34" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="IY34" t="n">
+      <c r="IY34" s="2" t="n">
         <v>32.3</v>
+      </c>
+      <c r="IZ34" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27784,8 +27886,11 @@
       <c r="IX35" s="2" t="n">
         <v>38.2</v>
       </c>
-      <c r="IY35" t="n">
+      <c r="IY35" s="2" t="n">
         <v>15.4</v>
+      </c>
+      <c r="IZ35" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28565,8 +28670,11 @@
       <c r="IX36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="IY36" t="n">
+      <c r="IY36" s="2" t="n">
         <v>186.9</v>
+      </c>
+      <c r="IZ36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29346,8 +29454,11 @@
       <c r="IX37" s="2" t="n">
         <v>84.2</v>
       </c>
-      <c r="IY37" t="n">
+      <c r="IY37" s="2" t="n">
         <v>84.40000000000001</v>
+      </c>
+      <c r="IZ37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30127,8 +30238,11 @@
       <c r="IX38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IY38" t="n">
+      <c r="IY38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IZ38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30908,8 +31022,11 @@
       <c r="IX39" s="2" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="IY39" t="n">
+      <c r="IY39" s="2" t="n">
         <v>95.2</v>
+      </c>
+      <c r="IZ39" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31689,8 +31806,11 @@
       <c r="IX40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY40" t="n">
+      <c r="IY40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IZ40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -32470,8 +32590,11 @@
       <c r="IX41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IY41" t="n">
+      <c r="IY41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IZ41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -33251,8 +33374,11 @@
       <c r="IX42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY42" t="n">
+      <c r="IY42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IZ42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -34032,7 +34158,10 @@
       <c r="IX43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY43" t="n">
+      <c r="IY43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34813,8 +34942,11 @@
       <c r="IX44" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="IY44" t="n">
+      <c r="IY44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IZ44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35594,8 +35726,11 @@
       <c r="IX45" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="IY45" t="n">
+      <c r="IY45" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="IZ45" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -36375,8 +36510,11 @@
       <c r="IX46" s="2" t="n">
         <v>308</v>
       </c>
-      <c r="IY46" t="n">
+      <c r="IY46" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="IZ46" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37156,8 +37294,11 @@
       <c r="IX47" s="2" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="IY47" t="n">
+      <c r="IY47" s="2" t="n">
         <v>70.2</v>
+      </c>
+      <c r="IZ47" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37937,8 +38078,11 @@
       <c r="IX48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IY48" t="n">
+      <c r="IY48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IZ48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -38718,8 +38862,11 @@
       <c r="IX49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IY49" t="n">
+      <c r="IY49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IZ49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -39499,8 +39646,11 @@
       <c r="IX50" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IY50" t="n">
+      <c r="IY50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IZ50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -40280,8 +40430,11 @@
       <c r="IX51" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IY51" t="n">
+      <c r="IY51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IZ51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41061,7 +41214,10 @@
       <c r="IX52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IY52" t="n">
+      <c r="IY52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IZ52" t="n">
         <v>34</v>
       </c>
     </row>
@@ -41842,8 +41998,11 @@
       <c r="IX53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IY53" t="n">
+      <c r="IY53" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IZ53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -42623,8 +42782,11 @@
       <c r="IX54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY54" t="n">
+      <c r="IY54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IZ54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -43404,8 +43566,11 @@
       <c r="IX55" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IY55" t="n">
+      <c r="IY55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IZ55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -44185,8 +44350,11 @@
       <c r="IX56" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="IY56" t="n">
+      <c r="IY56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IZ56" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -44966,8 +45134,11 @@
       <c r="IX57" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="IY57" t="n">
+      <c r="IY57" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="IZ57" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -45747,8 +45918,11 @@
       <c r="IX58" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="IY58" t="n">
+      <c r="IY58" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="IZ58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -46528,8 +46702,11 @@
       <c r="IX59" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="IY59" t="n">
+      <c r="IY59" s="2" t="n">
         <v>342</v>
+      </c>
+      <c r="IZ59" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -47309,8 +47486,11 @@
       <c r="IX60" s="2" t="n">
         <v>1.39</v>
       </c>
-      <c r="IY60" t="n">
+      <c r="IY60" s="2" t="n">
         <v>1.74</v>
+      </c>
+      <c r="IZ60" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -48090,8 +48270,11 @@
       <c r="IX61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IY61" t="n">
+      <c r="IY61" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IZ61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -48871,8 +49054,11 @@
       <c r="IX62" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IY62" t="n">
+      <c r="IY62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IZ62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -49652,8 +49838,11 @@
       <c r="IX63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IY63" t="n">
+      <c r="IY63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IZ63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -50433,7 +50622,10 @@
       <c r="IX64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IY64" t="n">
+      <c r="IY64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IZ64" t="n">
         <v>20</v>
       </c>
     </row>
@@ -51214,8 +51406,11 @@
       <c r="IX65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IY65" t="n">
+      <c r="IY65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IZ65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -51995,8 +52190,11 @@
       <c r="IX66" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IY66" t="n">
+      <c r="IY66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IZ66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -52776,8 +52974,11 @@
       <c r="IX67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY67" t="n">
+      <c r="IY67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IZ67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -53557,8 +53758,11 @@
       <c r="IX68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY68" t="n">
+      <c r="IY68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IZ68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -54338,8 +54542,11 @@
       <c r="IX69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IY69" t="n">
+      <c r="IY69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IZ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -55119,8 +55326,11 @@
       <c r="IX70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IY70" t="n">
+      <c r="IY70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IZ70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -55900,8 +56110,11 @@
       <c r="IX71" s="2" t="n">
         <v>31.6</v>
       </c>
-      <c r="IY71" t="n">
+      <c r="IY71" s="2" t="n">
         <v>57.9</v>
+      </c>
+      <c r="IZ71" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -56681,8 +56894,11 @@
       <c r="IX72" s="2" t="n">
         <v>55.83</v>
       </c>
-      <c r="IY72" t="n">
+      <c r="IY72" s="2" t="n">
         <v>31.09</v>
+      </c>
+      <c r="IZ72" t="n">
+        <v>26.46</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -57462,8 +57678,11 @@
       <c r="IX73" s="2" t="n">
         <v>17.63</v>
       </c>
-      <c r="IY73" t="n">
+      <c r="IY73" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IZ73" t="n">
+        <v>12.74</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -58243,8 +58462,11 @@
       <c r="IX74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IY74" t="n">
+      <c r="IY74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IZ74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -59024,7 +59246,10 @@
       <c r="IX75" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IY75" t="n">
+      <c r="IY75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IZ75" t="n">
         <v>51</v>
       </c>
     </row>
@@ -59805,8 +60030,11 @@
       <c r="IX76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IY76" t="n">
+      <c r="IY76" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IZ76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -60586,8 +60814,11 @@
       <c r="IX77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IY77" t="n">
+      <c r="IY77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IZ77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -61367,8 +61598,11 @@
       <c r="IX78" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="IY78" t="n">
+      <c r="IY78" s="2" t="n">
         <v>2.42</v>
+      </c>
+      <c r="IZ78" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -62148,8 +62382,11 @@
       <c r="IX79" s="2" t="n">
         <v>7.83</v>
       </c>
-      <c r="IY79" t="n">
+      <c r="IY79" s="2" t="n">
         <v>4.18</v>
+      </c>
+      <c r="IZ79" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -62929,8 +63166,11 @@
       <c r="IX80" s="2" t="n">
         <v>36.2</v>
       </c>
-      <c r="IY80" t="n">
+      <c r="IY80" s="2" t="n">
         <v>39.1</v>
+      </c>
+      <c r="IZ80" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -63710,8 +63950,11 @@
       <c r="IX81" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="IY81" t="n">
+      <c r="IY81" s="2" t="n">
         <v>23.9</v>
+      </c>
+      <c r="IZ81" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -64491,8 +64734,11 @@
       <c r="IX82" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="IY82" t="n">
+      <c r="IY82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="IZ82" t="n">
+        <v>189.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -65272,8 +65518,11 @@
       <c r="IX83" s="2" t="n">
         <v>83.7</v>
       </c>
-      <c r="IY83" t="n">
+      <c r="IY83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="IZ83" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -66053,8 +66302,11 @@
       <c r="IX84" s="2" t="n">
         <v>24.16</v>
       </c>
-      <c r="IY84" t="n">
+      <c r="IY84" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IZ84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -66834,8 +67086,11 @@
       <c r="IX85" s="2" t="n">
         <v>74.5</v>
       </c>
-      <c r="IY85" t="n">
+      <c r="IY85" s="2" t="n">
         <v>101.5</v>
+      </c>
+      <c r="IZ85" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -67615,8 +67870,11 @@
       <c r="IX86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY86" t="n">
+      <c r="IY86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IZ86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -68396,7 +68654,10 @@
       <c r="IX87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY87" t="n">
+      <c r="IY87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -69177,8 +69438,11 @@
       <c r="IX88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IY88" t="n">
+      <c r="IY88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IZ88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -69958,8 +70222,11 @@
       <c r="IX89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY89" t="n">
+      <c r="IY89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IZ89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -70739,8 +71006,11 @@
       <c r="IX90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IY90" t="n">
+      <c r="IY90" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="IZ90" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -71520,7 +71790,10 @@
       <c r="IX91" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="IY91" t="n">
+      <c r="IY91" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="IZ91" t="n">
         <v>191</v>
       </c>
     </row>
@@ -72301,8 +72574,11 @@
       <c r="IX92" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="IY92" t="n">
+      <c r="IY92" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="IZ92" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -73082,8 +73358,11 @@
       <c r="IX93" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="IY93" t="n">
+      <c r="IY93" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="IZ93" t="n">
+        <v>71.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -73863,7 +74142,10 @@
       <c r="IX94" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IY94" t="n">
+      <c r="IY94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IZ94" t="n">
         <v>51</v>
       </c>
     </row>
@@ -74644,8 +74926,11 @@
       <c r="IX95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY95" t="n">
+      <c r="IY95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IZ95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -75425,8 +75710,11 @@
       <c r="IX96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY96" t="n">
+      <c r="IY96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -76206,8 +76494,11 @@
       <c r="IX97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IY97" t="n">
+      <c r="IY97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IZ97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -76987,8 +77278,11 @@
       <c r="IX98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IY98" t="n">
+      <c r="IY98" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IZ98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -77768,8 +78062,11 @@
       <c r="IX99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IY99" t="n">
+      <c r="IY99" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IZ99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -78549,8 +78846,11 @@
       <c r="IX100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY100" t="n">
+      <c r="IY100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IZ100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -79330,8 +79630,11 @@
       <c r="IX101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY101" t="n">
+      <c r="IY101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IZ101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -80111,8 +80414,11 @@
       <c r="IX102" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="IY102" t="n">
+      <c r="IY102" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="IZ102" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IZ102"/>
+  <dimension ref="A1:JA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1233,8 +1233,11 @@
       <c r="IY1" s="2" t="n">
         <v>10536</v>
       </c>
-      <c r="IZ1" t="n">
+      <c r="IZ1" s="2" t="n">
         <v>10548</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>10554</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2017,7 +2020,10 @@
       <c r="IY2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IZ2" t="n">
+      <c r="IZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JA2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2801,8 +2807,11 @@
       <c r="IY3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IZ3" t="n">
+      <c r="IZ3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3585,8 +3594,11 @@
       <c r="IY4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IZ4" t="n">
+      <c r="IZ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4369,8 +4381,11 @@
       <c r="IY5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IZ5" t="n">
+      <c r="IZ5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5153,8 +5168,11 @@
       <c r="IY6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IZ6" t="n">
+      <c r="IZ6" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5937,8 +5955,11 @@
       <c r="IY7" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IZ7" t="n">
+      <c r="IZ7" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6721,8 +6742,11 @@
       <c r="IY8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="IZ8" t="n">
+      <c r="IZ8" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7505,7 +7529,10 @@
       <c r="IY9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IZ9" t="n">
+      <c r="IZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8289,8 +8316,11 @@
       <c r="IY10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IZ10" t="n">
+      <c r="IZ10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9073,8 +9103,11 @@
       <c r="IY11" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="IZ11" t="n">
+      <c r="IZ11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9857,8 +9890,11 @@
       <c r="IY12" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="IZ12" t="n">
+      <c r="IZ12" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10641,8 +10677,11 @@
       <c r="IY13" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="IZ13" t="n">
+      <c r="IZ13" s="2" t="n">
         <v>312</v>
+      </c>
+      <c r="JA13" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11425,8 +11464,11 @@
       <c r="IY14" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="IZ14" t="n">
+      <c r="IZ14" s="2" t="n">
         <v>1.94</v>
+      </c>
+      <c r="JA14" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12209,8 +12251,11 @@
       <c r="IY15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IZ15" t="n">
+      <c r="IZ15" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JA15" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12993,8 +13038,11 @@
       <c r="IY16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IZ16" t="n">
+      <c r="IZ16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JA16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13777,8 +13825,11 @@
       <c r="IY17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IZ17" t="n">
+      <c r="IZ17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14561,8 +14612,11 @@
       <c r="IY18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IZ18" t="n">
+      <c r="IZ18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JA18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15345,8 +15399,11 @@
       <c r="IY19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IZ19" t="n">
+      <c r="IZ19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JA19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16129,7 +16186,10 @@
       <c r="IY20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IZ20" t="n">
+      <c r="IZ20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA20" t="n">
         <v>17</v>
       </c>
     </row>
@@ -16913,8 +16973,11 @@
       <c r="IY21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IZ21" t="n">
+      <c r="IZ21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JA21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17697,8 +17760,11 @@
       <c r="IY22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IZ22" t="n">
+      <c r="IZ22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JA22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18481,8 +18547,11 @@
       <c r="IY23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IZ23" t="n">
+      <c r="IZ23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JA23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19265,8 +19334,11 @@
       <c r="IY24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IZ24" t="n">
+      <c r="IZ24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20049,8 +20121,11 @@
       <c r="IY25" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="IZ25" t="n">
+      <c r="IZ25" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JA25" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20833,8 +20908,11 @@
       <c r="IY26" s="2" t="n">
         <v>33.2</v>
       </c>
-      <c r="IZ26" t="n">
+      <c r="IZ26" s="2" t="n">
         <v>18.35</v>
+      </c>
+      <c r="JA26" t="n">
+        <v>21.76</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21617,8 +21695,11 @@
       <c r="IY27" s="2" t="n">
         <v>14.43</v>
       </c>
-      <c r="IZ27" t="n">
+      <c r="IZ27" s="2" t="n">
         <v>11.56</v>
+      </c>
+      <c r="JA27" t="n">
+        <v>16.82</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22401,8 +22482,11 @@
       <c r="IY28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IZ28" t="n">
+      <c r="IZ28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JA28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23185,8 +23269,11 @@
       <c r="IY29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IZ29" t="n">
+      <c r="IZ29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JA29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23969,8 +24056,11 @@
       <c r="IY30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IZ30" t="n">
+      <c r="IZ30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JA30" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24753,8 +24843,11 @@
       <c r="IY31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IZ31" t="n">
+      <c r="IZ31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JA31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25537,8 +25630,11 @@
       <c r="IY32" s="2" t="n">
         <v>2.83</v>
       </c>
-      <c r="IZ32" t="n">
+      <c r="IZ32" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="JA32" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26321,8 +26417,11 @@
       <c r="IY33" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="IZ33" t="n">
+      <c r="IZ33" s="2" t="n">
         <v>2.88</v>
+      </c>
+      <c r="JA33" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27105,8 +27204,11 @@
       <c r="IY34" s="2" t="n">
         <v>32.3</v>
       </c>
-      <c r="IZ34" t="n">
+      <c r="IZ34" s="2" t="n">
         <v>46.9</v>
+      </c>
+      <c r="JA34" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27889,8 +27991,11 @@
       <c r="IY35" s="2" t="n">
         <v>15.4</v>
       </c>
-      <c r="IZ35" t="n">
+      <c r="IZ35" s="2" t="n">
         <v>34.7</v>
+      </c>
+      <c r="JA35" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28673,8 +28778,11 @@
       <c r="IY36" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="IZ36" t="n">
+      <c r="IZ36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JA36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29457,8 +29565,11 @@
       <c r="IY37" s="2" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="IZ37" t="n">
+      <c r="IZ37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="JA37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30241,8 +30352,11 @@
       <c r="IY38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IZ38" t="n">
+      <c r="IZ38" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="JA38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31025,8 +31139,11 @@
       <c r="IY39" s="2" t="n">
         <v>95.2</v>
       </c>
-      <c r="IZ39" t="n">
+      <c r="IZ39" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JA39" t="n">
+        <v>102.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31809,8 +31926,11 @@
       <c r="IY40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IZ40" t="n">
+      <c r="IZ40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JA40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -32593,7 +32713,10 @@
       <c r="IY41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IZ41" t="n">
+      <c r="IZ41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33377,7 +33500,10 @@
       <c r="IY42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IZ42" t="n">
+      <c r="IZ42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -34161,8 +34287,11 @@
       <c r="IY43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IZ43" t="n">
+      <c r="IZ43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JA43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -34945,8 +35074,11 @@
       <c r="IY44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="IZ44" t="n">
+      <c r="IZ44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="JA44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35729,8 +35861,11 @@
       <c r="IY45" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="IZ45" t="n">
+      <c r="IZ45" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="JA45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -36513,8 +36648,11 @@
       <c r="IY46" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="IZ46" t="n">
+      <c r="IZ46" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="JA46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37297,8 +37435,11 @@
       <c r="IY47" s="2" t="n">
         <v>70.2</v>
       </c>
-      <c r="IZ47" t="n">
+      <c r="IZ47" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="JA47" t="n">
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38081,8 +38222,11 @@
       <c r="IY48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IZ48" t="n">
+      <c r="IZ48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JA48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -38865,8 +39009,11 @@
       <c r="IY49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IZ49" t="n">
+      <c r="IZ49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JA49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -39649,8 +39796,11 @@
       <c r="IY50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IZ50" t="n">
+      <c r="IZ50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JA50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -40433,8 +40583,11 @@
       <c r="IY51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IZ51" t="n">
+      <c r="IZ51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JA51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41217,8 +41370,11 @@
       <c r="IY52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IZ52" t="n">
+      <c r="IZ52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JA52" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42001,8 +42157,11 @@
       <c r="IY53" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IZ53" t="n">
+      <c r="IZ53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JA53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -42785,8 +42944,11 @@
       <c r="IY54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IZ54" t="n">
+      <c r="IZ54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JA54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -43569,8 +43731,11 @@
       <c r="IY55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IZ55" t="n">
+      <c r="IZ55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JA55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -44353,8 +44518,11 @@
       <c r="IY56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IZ56" t="n">
+      <c r="IZ56" s="2" t="n">
         <v>52.9</v>
+      </c>
+      <c r="JA56" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45137,8 +45305,11 @@
       <c r="IY57" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="IZ57" t="n">
+      <c r="IZ57" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="JA57" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -45921,8 +46092,11 @@
       <c r="IY58" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IZ58" t="n">
+      <c r="IZ58" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="JA58" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -46705,8 +46879,11 @@
       <c r="IY59" s="2" t="n">
         <v>342</v>
       </c>
-      <c r="IZ59" t="n">
+      <c r="IZ59" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="JA59" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -47489,8 +47666,11 @@
       <c r="IY60" s="2" t="n">
         <v>1.74</v>
       </c>
-      <c r="IZ60" t="n">
+      <c r="IZ60" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="JA60" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -48273,8 +48453,11 @@
       <c r="IY61" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IZ61" t="n">
+      <c r="IZ61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JA61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49057,8 +49240,11 @@
       <c r="IY62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IZ62" t="n">
+      <c r="IZ62" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JA62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -49841,7 +50027,10 @@
       <c r="IY63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IZ63" t="n">
+      <c r="IZ63" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JA63" t="n">
         <v>35</v>
       </c>
     </row>
@@ -50625,8 +50814,11 @@
       <c r="IY64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IZ64" t="n">
+      <c r="IZ64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JA64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -51409,8 +51601,11 @@
       <c r="IY65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IZ65" t="n">
+      <c r="IZ65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JA65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -52193,8 +52388,11 @@
       <c r="IY66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IZ66" t="n">
+      <c r="IZ66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JA66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -52977,8 +53175,11 @@
       <c r="IY67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IZ67" t="n">
+      <c r="IZ67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JA67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -53761,8 +53962,11 @@
       <c r="IY68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IZ68" t="n">
+      <c r="IZ68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JA68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -54545,8 +54749,11 @@
       <c r="IY69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IZ69" t="n">
+      <c r="IZ69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JA69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -55329,7 +55536,10 @@
       <c r="IY70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IZ70" t="n">
+      <c r="IZ70" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JA70" t="n">
         <v>27</v>
       </c>
     </row>
@@ -56113,8 +56323,11 @@
       <c r="IY71" s="2" t="n">
         <v>57.9</v>
       </c>
-      <c r="IZ71" t="n">
+      <c r="IZ71" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="JA71" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -56897,8 +57110,11 @@
       <c r="IY72" s="2" t="n">
         <v>31.09</v>
       </c>
-      <c r="IZ72" t="n">
+      <c r="IZ72" s="2" t="n">
         <v>26.46</v>
+      </c>
+      <c r="JA72" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -57681,8 +57897,11 @@
       <c r="IY73" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IZ73" t="n">
+      <c r="IZ73" s="2" t="n">
         <v>12.74</v>
+      </c>
+      <c r="JA73" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -58465,8 +58684,11 @@
       <c r="IY74" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IZ74" t="n">
+      <c r="IZ74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JA74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -59249,8 +59471,11 @@
       <c r="IY75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IZ75" t="n">
+      <c r="IZ75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JA75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -60033,8 +60258,11 @@
       <c r="IY76" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IZ76" t="n">
+      <c r="IZ76" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JA76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -60817,8 +61045,11 @@
       <c r="IY77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IZ77" t="n">
+      <c r="IZ77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JA77" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -61601,8 +61832,11 @@
       <c r="IY78" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="IZ78" t="n">
+      <c r="IZ78" s="2" t="n">
         <v>1.78</v>
+      </c>
+      <c r="JA78" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -62385,8 +62619,11 @@
       <c r="IY79" s="2" t="n">
         <v>4.18</v>
       </c>
-      <c r="IZ79" t="n">
+      <c r="IZ79" s="2" t="n">
         <v>3.69</v>
+      </c>
+      <c r="JA79" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -63169,8 +63406,11 @@
       <c r="IY80" s="2" t="n">
         <v>39.1</v>
       </c>
-      <c r="IZ80" t="n">
+      <c r="IZ80" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JA80" t="n">
+        <v>33.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -63953,8 +64193,11 @@
       <c r="IY81" s="2" t="n">
         <v>23.9</v>
       </c>
-      <c r="IZ81" t="n">
+      <c r="IZ81" s="2" t="n">
         <v>27.1</v>
+      </c>
+      <c r="JA81" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -64737,8 +64980,11 @@
       <c r="IY82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="IZ82" t="n">
+      <c r="IZ82" s="2" t="n">
         <v>189.6</v>
+      </c>
+      <c r="JA82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -65521,8 +65767,11 @@
       <c r="IY83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="IZ83" t="n">
+      <c r="IZ83" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="JA83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -66305,8 +66554,11 @@
       <c r="IY84" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IZ84" t="n">
+      <c r="IZ84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="JA84" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -67089,8 +67341,11 @@
       <c r="IY85" s="2" t="n">
         <v>101.5</v>
       </c>
-      <c r="IZ85" t="n">
+      <c r="IZ85" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="JA85" t="n">
+        <v>153.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -67873,8 +68128,11 @@
       <c r="IY86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IZ86" t="n">
+      <c r="IZ86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JA86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -68657,8 +68915,11 @@
       <c r="IY87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IZ87" t="n">
+      <c r="IZ87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JA87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -69441,8 +69702,11 @@
       <c r="IY88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IZ88" t="n">
+      <c r="IZ88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JA88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -70225,8 +70489,11 @@
       <c r="IY89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IZ89" t="n">
+      <c r="IZ89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JA89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -71009,8 +71276,11 @@
       <c r="IY90" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="IZ90" t="n">
+      <c r="IZ90" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="JA90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -71793,8 +72063,11 @@
       <c r="IY91" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="IZ91" t="n">
+      <c r="IZ91" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="JA91" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -72577,8 +72850,11 @@
       <c r="IY92" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="IZ92" t="n">
+      <c r="IZ92" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="JA92" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -73361,8 +73637,11 @@
       <c r="IY93" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="IZ93" t="n">
+      <c r="IZ93" s="2" t="n">
         <v>71.8</v>
+      </c>
+      <c r="JA93" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -74145,8 +74424,11 @@
       <c r="IY94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IZ94" t="n">
+      <c r="IZ94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JA94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -74929,8 +75211,11 @@
       <c r="IY95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IZ95" t="n">
+      <c r="IZ95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JA95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -75713,8 +75998,11 @@
       <c r="IY96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IZ96" t="n">
+      <c r="IZ96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JA96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -76497,8 +76785,11 @@
       <c r="IY97" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IZ97" t="n">
+      <c r="IZ97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JA97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -77281,8 +77572,11 @@
       <c r="IY98" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IZ98" t="n">
+      <c r="IZ98" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JA98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -78065,8 +78359,11 @@
       <c r="IY99" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IZ99" t="n">
+      <c r="IZ99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JA99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -78849,7 +79146,10 @@
       <c r="IY100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IZ100" t="n">
+      <c r="IZ100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -79633,8 +79933,11 @@
       <c r="IY101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IZ101" t="n">
+      <c r="IZ101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JA101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -80417,8 +80720,11 @@
       <c r="IY102" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="IZ102" t="n">
+      <c r="IZ102" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="JA102" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JA102"/>
+  <dimension ref="A1:JB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1236,8 +1236,11 @@
       <c r="IZ1" s="2" t="n">
         <v>10548</v>
       </c>
-      <c r="JA1" t="n">
+      <c r="JA1" s="2" t="n">
         <v>10554</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>10562</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2023,7 +2026,10 @@
       <c r="IZ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JA2" t="n">
+      <c r="JA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JB2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2810,8 +2816,11 @@
       <c r="IZ3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JA3" t="n">
+      <c r="JA3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3597,8 +3606,11 @@
       <c r="IZ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JA4" t="n">
+      <c r="JA4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4384,7 +4396,10 @@
       <c r="IZ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JA5" t="n">
+      <c r="JA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5171,8 +5186,11 @@
       <c r="IZ6" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="JA6" t="n">
+      <c r="JA6" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5958,8 +5976,11 @@
       <c r="IZ7" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JA7" t="n">
+      <c r="JA7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6745,8 +6766,11 @@
       <c r="IZ8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JA8" t="n">
+      <c r="JA8" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JB8" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7532,8 +7556,11 @@
       <c r="IZ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JA9" t="n">
+      <c r="JA9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8319,8 +8346,11 @@
       <c r="IZ10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JA10" t="n">
+      <c r="JA10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9106,8 +9136,11 @@
       <c r="IZ11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="JA11" t="n">
+      <c r="JA11" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9893,8 +9926,11 @@
       <c r="IZ12" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="JA12" t="n">
+      <c r="JA12" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="JB12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10680,8 +10716,11 @@
       <c r="IZ13" s="2" t="n">
         <v>312</v>
       </c>
-      <c r="JA13" t="n">
+      <c r="JA13" s="2" t="n">
         <v>370</v>
+      </c>
+      <c r="JB13" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11467,8 +11506,11 @@
       <c r="IZ14" s="2" t="n">
         <v>1.94</v>
       </c>
-      <c r="JA14" t="n">
+      <c r="JA14" s="2" t="n">
         <v>2.01</v>
+      </c>
+      <c r="JB14" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12254,8 +12296,11 @@
       <c r="IZ15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JA15" t="n">
+      <c r="JA15" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="JB15" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13041,8 +13086,11 @@
       <c r="IZ16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JA16" t="n">
+      <c r="JA16" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JB16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13828,8 +13876,11 @@
       <c r="IZ17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JA17" t="n">
+      <c r="JA17" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JB17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14615,8 +14666,11 @@
       <c r="IZ18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JA18" t="n">
+      <c r="JA18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JB18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15402,8 +15456,11 @@
       <c r="IZ19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JA19" t="n">
+      <c r="JA19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JB19" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16189,8 +16246,11 @@
       <c r="IZ20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JA20" t="n">
+      <c r="JA20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JB20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16976,8 +17036,11 @@
       <c r="IZ21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JA21" t="n">
+      <c r="JA21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JB21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17763,8 +17826,11 @@
       <c r="IZ22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JA22" t="n">
+      <c r="JA22" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JB22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18550,7 +18616,10 @@
       <c r="IZ23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JA23" t="n">
+      <c r="JA23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19337,8 +19406,11 @@
       <c r="IZ24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JA24" t="n">
+      <c r="JA24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JB24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20124,8 +20196,11 @@
       <c r="IZ25" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JA25" t="n">
+      <c r="JA25" s="2" t="n">
         <v>77.3</v>
+      </c>
+      <c r="JB25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20911,8 +20986,11 @@
       <c r="IZ26" s="2" t="n">
         <v>18.35</v>
       </c>
-      <c r="JA26" t="n">
+      <c r="JA26" s="2" t="n">
         <v>21.76</v>
+      </c>
+      <c r="JB26" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21698,8 +21776,11 @@
       <c r="IZ27" s="2" t="n">
         <v>11.56</v>
       </c>
-      <c r="JA27" t="n">
+      <c r="JA27" s="2" t="n">
         <v>16.82</v>
+      </c>
+      <c r="JB27" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22485,7 +22566,10 @@
       <c r="IZ28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JA28" t="n">
+      <c r="JA28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB28" t="n">
         <v>32</v>
       </c>
     </row>
@@ -23272,8 +23356,11 @@
       <c r="IZ29" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JA29" t="n">
+      <c r="JA29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JB29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24059,8 +24146,11 @@
       <c r="IZ30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JA30" t="n">
+      <c r="JA30" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JB30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24846,8 +24936,11 @@
       <c r="IZ31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JA31" t="n">
+      <c r="JA31" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JB31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25633,8 +25726,11 @@
       <c r="IZ32" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="JA32" t="n">
+      <c r="JA32" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="JB32" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26420,8 +26516,11 @@
       <c r="IZ33" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="JA33" t="n">
+      <c r="JA33" s="2" t="n">
         <v>2.76</v>
+      </c>
+      <c r="JB33" t="n">
+        <v>5.44</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27207,8 +27306,11 @@
       <c r="IZ34" s="2" t="n">
         <v>46.9</v>
       </c>
-      <c r="JA34" t="n">
+      <c r="JA34" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="JB34" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27994,8 +28096,11 @@
       <c r="IZ35" s="2" t="n">
         <v>34.7</v>
       </c>
-      <c r="JA35" t="n">
+      <c r="JA35" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="JB35" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28781,8 +28886,11 @@
       <c r="IZ36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="JA36" t="n">
+      <c r="JA36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="JB36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29568,8 +29676,11 @@
       <c r="IZ37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JA37" t="n">
+      <c r="JA37" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="JB37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30355,8 +30466,11 @@
       <c r="IZ38" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="JA38" t="n">
+      <c r="JA38" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="JB38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31142,8 +31256,11 @@
       <c r="IZ39" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JA39" t="n">
+      <c r="JA39" s="2" t="n">
         <v>102.1</v>
+      </c>
+      <c r="JB39" t="n">
+        <v>100.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31929,8 +32046,11 @@
       <c r="IZ40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JA40" t="n">
+      <c r="JA40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JB40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -32716,7 +32836,10 @@
       <c r="IZ41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JA41" t="n">
+      <c r="JA41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33503,7 +33626,10 @@
       <c r="IZ42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JA42" t="n">
+      <c r="JA42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -34290,7 +34416,10 @@
       <c r="IZ43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JA43" t="n">
+      <c r="JA43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -35077,8 +35206,11 @@
       <c r="IZ44" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="JA44" t="n">
+      <c r="JA44" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JB44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35864,8 +35996,11 @@
       <c r="IZ45" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="JA45" t="n">
+      <c r="JA45" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="JB45" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -36651,8 +36786,11 @@
       <c r="IZ46" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="JA46" t="n">
+      <c r="JA46" s="2" t="n">
         <v>281</v>
+      </c>
+      <c r="JB46" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37438,8 +37576,11 @@
       <c r="IZ47" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="JA47" t="n">
+      <c r="JA47" s="2" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="JB47" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38225,8 +38366,11 @@
       <c r="IZ48" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JA48" t="n">
+      <c r="JA48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JB48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39012,8 +39156,11 @@
       <c r="IZ49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JA49" t="n">
+      <c r="JA49" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JB49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -39799,8 +39946,11 @@
       <c r="IZ50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JA50" t="n">
+      <c r="JA50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JB50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -40586,7 +40736,10 @@
       <c r="IZ51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JA51" t="n">
+      <c r="JA51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB51" t="n">
         <v>32</v>
       </c>
     </row>
@@ -41373,8 +41526,11 @@
       <c r="IZ52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JA52" t="n">
+      <c r="JA52" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JB52" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42160,8 +42316,11 @@
       <c r="IZ53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JA53" t="n">
+      <c r="JA53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JB53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -42947,8 +43106,11 @@
       <c r="IZ54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JA54" t="n">
+      <c r="JA54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JB54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -43734,8 +43896,11 @@
       <c r="IZ55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JA55" t="n">
+      <c r="JA55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JB55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -44521,8 +44686,11 @@
       <c r="IZ56" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="JA56" t="n">
+      <c r="JA56" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="JB56" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45308,8 +45476,11 @@
       <c r="IZ57" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JA57" t="n">
+      <c r="JA57" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="JB57" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46095,8 +46266,11 @@
       <c r="IZ58" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="JA58" t="n">
+      <c r="JA58" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="JB58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -46882,8 +47056,11 @@
       <c r="IZ59" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="JA59" t="n">
+      <c r="JA59" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="JB59" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -47669,8 +47846,11 @@
       <c r="IZ60" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="JA60" t="n">
+      <c r="JA60" s="2" t="n">
         <v>1.49</v>
+      </c>
+      <c r="JB60" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -48456,8 +48636,11 @@
       <c r="IZ61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JA61" t="n">
+      <c r="JA61" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JB61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49243,8 +49426,11 @@
       <c r="IZ62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JA62" t="n">
+      <c r="JA62" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JB62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50030,8 +50216,11 @@
       <c r="IZ63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JA63" t="n">
+      <c r="JA63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JB63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -50817,8 +51006,11 @@
       <c r="IZ64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JA64" t="n">
+      <c r="JA64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JB64" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -51604,8 +51796,11 @@
       <c r="IZ65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JA65" t="n">
+      <c r="JA65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JB65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -52391,8 +52586,11 @@
       <c r="IZ66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JA66" t="n">
+      <c r="JA66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JB66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -53178,8 +53376,11 @@
       <c r="IZ67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JA67" t="n">
+      <c r="JA67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JB67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -53965,7 +54166,10 @@
       <c r="IZ68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JA68" t="n">
+      <c r="JA68" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JB68" t="n">
         <v>12</v>
       </c>
     </row>
@@ -54752,7 +54956,10 @@
       <c r="IZ69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JA69" t="n">
+      <c r="JA69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JB69" t="n">
         <v>5</v>
       </c>
     </row>
@@ -55539,8 +55746,11 @@
       <c r="IZ70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JA70" t="n">
+      <c r="JA70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JB70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -56326,8 +56536,11 @@
       <c r="IZ71" s="2" t="n">
         <v>48.1</v>
       </c>
-      <c r="JA71" t="n">
+      <c r="JA71" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JB71" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57113,8 +57326,11 @@
       <c r="IZ72" s="2" t="n">
         <v>26.46</v>
       </c>
-      <c r="JA72" t="n">
+      <c r="JA72" s="2" t="n">
         <v>33.8</v>
+      </c>
+      <c r="JB72" t="n">
+        <v>41.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -57900,8 +58116,11 @@
       <c r="IZ73" s="2" t="n">
         <v>12.74</v>
       </c>
-      <c r="JA73" t="n">
+      <c r="JA73" s="2" t="n">
         <v>12.52</v>
+      </c>
+      <c r="JB73" t="n">
+        <v>14.35</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -58687,8 +58906,11 @@
       <c r="IZ74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JA74" t="n">
+      <c r="JA74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JB74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -59474,8 +59696,11 @@
       <c r="IZ75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JA75" t="n">
+      <c r="JA75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JB75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -60261,8 +60486,11 @@
       <c r="IZ76" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JA76" t="n">
+      <c r="JA76" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JB76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61048,8 +61276,11 @@
       <c r="IZ77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JA77" t="n">
+      <c r="JA77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JB77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -61835,8 +62066,11 @@
       <c r="IZ78" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="JA78" t="n">
+      <c r="JA78" s="2" t="n">
         <v>2.41</v>
+      </c>
+      <c r="JB78" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -62622,8 +62856,11 @@
       <c r="IZ79" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="JA79" t="n">
+      <c r="JA79" s="2" t="n">
         <v>6.5</v>
+      </c>
+      <c r="JB79" t="n">
+        <v>6.56</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -63409,8 +63646,11 @@
       <c r="IZ80" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JA80" t="n">
+      <c r="JA80" s="2" t="n">
         <v>33.8</v>
+      </c>
+      <c r="JB80" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -64196,8 +64436,11 @@
       <c r="IZ81" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="JA81" t="n">
+      <c r="JA81" s="2" t="n">
         <v>15.4</v>
+      </c>
+      <c r="JB81" t="n">
+        <v>15.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -64983,8 +65226,11 @@
       <c r="IZ82" s="2" t="n">
         <v>189.6</v>
       </c>
-      <c r="JA82" t="n">
+      <c r="JA82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JB82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -65770,8 +66016,11 @@
       <c r="IZ83" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="JA83" t="n">
+      <c r="JA83" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="JB83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -66557,8 +66806,11 @@
       <c r="IZ84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="JA84" t="n">
+      <c r="JA84" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="JB84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -67344,8 +67596,11 @@
       <c r="IZ85" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="JA85" t="n">
+      <c r="JA85" s="2" t="n">
         <v>153.7</v>
+      </c>
+      <c r="JB85" t="n">
+        <v>96.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -68131,8 +68386,11 @@
       <c r="IZ86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JA86" t="n">
+      <c r="JA86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JB86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -68918,8 +69176,11 @@
       <c r="IZ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JA87" t="n">
+      <c r="JA87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JB87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -69705,8 +69966,11 @@
       <c r="IZ88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JA88" t="n">
+      <c r="JA88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JB88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -70492,8 +70756,11 @@
       <c r="IZ89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JA89" t="n">
+      <c r="JA89" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JB89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -71279,8 +71546,11 @@
       <c r="IZ90" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="JA90" t="n">
+      <c r="JA90" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JB90" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -72066,8 +72336,11 @@
       <c r="IZ91" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="JA91" t="n">
+      <c r="JA91" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="JB91" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -72853,8 +73126,11 @@
       <c r="IZ92" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="JA92" t="n">
+      <c r="JA92" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="JB92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -73640,8 +73916,11 @@
       <c r="IZ93" s="2" t="n">
         <v>71.8</v>
       </c>
-      <c r="JA93" t="n">
+      <c r="JA93" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="JB93" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -74427,8 +74706,11 @@
       <c r="IZ94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JA94" t="n">
+      <c r="JA94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JB94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -75214,8 +75496,11 @@
       <c r="IZ95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JA95" t="n">
+      <c r="JA95" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JB95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -76001,8 +76286,11 @@
       <c r="IZ96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JA96" t="n">
+      <c r="JA96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JB96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -76788,8 +77076,11 @@
       <c r="IZ97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JA97" t="n">
+      <c r="JA97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JB97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -77575,8 +77866,11 @@
       <c r="IZ98" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JA98" t="n">
+      <c r="JA98" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JB98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -78362,8 +78656,11 @@
       <c r="IZ99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JA99" t="n">
+      <c r="JA99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JB99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -79149,8 +79446,11 @@
       <c r="IZ100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JA100" t="n">
+      <c r="JA100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JB100" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -79936,8 +80236,11 @@
       <c r="IZ101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JA101" t="n">
+      <c r="JA101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JB101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -80723,8 +81026,11 @@
       <c r="IZ102" s="2" t="n">
         <v>30.8</v>
       </c>
-      <c r="JA102" t="n">
+      <c r="JA102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JB102" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JC102"/>
+  <dimension ref="A1:JD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1242,8 +1242,11 @@
       <c r="JB1" s="2" t="n">
         <v>10562</v>
       </c>
-      <c r="JC1" t="n">
+      <c r="JC1" s="2" t="n">
         <v>10573</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>10582</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2035,7 +2038,10 @@
       <c r="JB2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JD2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2828,8 +2834,11 @@
       <c r="JB3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JC3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3621,8 +3630,11 @@
       <c r="JB4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JC4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4414,8 +4426,11 @@
       <c r="JB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JC5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5207,8 +5222,11 @@
       <c r="JB6" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JC6" t="n">
+      <c r="JC6" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6000,8 +6018,11 @@
       <c r="JB7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="JC7" t="n">
+      <c r="JC7" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6793,8 +6814,11 @@
       <c r="JB8" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="JC8" t="n">
+      <c r="JC8" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7586,7 +7610,10 @@
       <c r="JB9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JC9" t="n">
+      <c r="JC9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JD9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8379,8 +8406,11 @@
       <c r="JB10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JC10" t="n">
+      <c r="JC10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9172,8 +9202,11 @@
       <c r="JB11" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="JC11" t="n">
+      <c r="JC11" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9965,8 +9998,11 @@
       <c r="JB12" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="JC12" t="n">
+      <c r="JC12" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="JD12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10758,8 +10794,11 @@
       <c r="JB13" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="JC13" t="n">
+      <c r="JC13" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="JD13" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11551,8 +11590,11 @@
       <c r="JB14" s="2" t="n">
         <v>1.61</v>
       </c>
-      <c r="JC14" t="n">
+      <c r="JC14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="JD14" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12344,8 +12386,11 @@
       <c r="JB15" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="JC15" t="n">
+      <c r="JC15" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JD15" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13137,8 +13182,11 @@
       <c r="JB16" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JC16" t="n">
+      <c r="JC16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JD16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13930,8 +13978,11 @@
       <c r="JB17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JC17" t="n">
+      <c r="JC17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JD17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14723,8 +14774,11 @@
       <c r="JB18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JC18" t="n">
+      <c r="JC18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JD18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15516,8 +15570,11 @@
       <c r="JB19" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JC19" t="n">
+      <c r="JC19" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JD19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16309,8 +16366,11 @@
       <c r="JB20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC20" t="n">
+      <c r="JC20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JD20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17102,8 +17162,11 @@
       <c r="JB21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC21" t="n">
+      <c r="JC21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17895,8 +17958,11 @@
       <c r="JB22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC22" t="n">
+      <c r="JC22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JD22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18688,8 +18754,11 @@
       <c r="JB23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JC23" t="n">
+      <c r="JC23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JD23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19481,8 +19550,11 @@
       <c r="JB24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JC24" t="n">
+      <c r="JC24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JD24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20274,8 +20346,11 @@
       <c r="JB25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JC25" t="n">
+      <c r="JC25" s="2" t="n">
         <v>61.9</v>
+      </c>
+      <c r="JD25" t="n">
+        <v>58.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21067,8 +21142,11 @@
       <c r="JB26" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JC26" t="n">
+      <c r="JC26" s="2" t="n">
         <v>26.92</v>
+      </c>
+      <c r="JD26" t="n">
+        <v>21.39</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21860,8 +21938,11 @@
       <c r="JB27" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JC27" t="n">
+      <c r="JC27" s="2" t="n">
         <v>16.67</v>
+      </c>
+      <c r="JD27" t="n">
+        <v>12.42</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22653,8 +22734,11 @@
       <c r="JB28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JC28" t="n">
+      <c r="JC28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23446,8 +23530,11 @@
       <c r="JB29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JC29" t="n">
+      <c r="JC29" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JD29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24239,8 +24326,11 @@
       <c r="JB30" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JC30" t="n">
+      <c r="JC30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD30" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25032,8 +25122,11 @@
       <c r="JB31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JC31" t="n">
+      <c r="JC31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JD31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25825,8 +25918,11 @@
       <c r="JB32" s="2" t="n">
         <v>3.27</v>
       </c>
-      <c r="JC32" t="n">
+      <c r="JC32" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="JD32" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26618,8 +26714,11 @@
       <c r="JB33" s="2" t="n">
         <v>5.44</v>
       </c>
-      <c r="JC33" t="n">
+      <c r="JC33" s="2" t="n">
         <v>4.31</v>
+      </c>
+      <c r="JD33" t="n">
+        <v>3.61</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27411,8 +27510,11 @@
       <c r="JB34" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="JC34" t="n">
+      <c r="JC34" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="JD34" t="n">
+        <v>44.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28204,8 +28306,11 @@
       <c r="JB35" s="2" t="n">
         <v>18.4</v>
       </c>
-      <c r="JC35" t="n">
+      <c r="JC35" s="2" t="n">
         <v>23.2</v>
+      </c>
+      <c r="JD35" t="n">
+        <v>27.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28997,8 +29102,11 @@
       <c r="JB36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="JC36" t="n">
+      <c r="JC36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JD36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29790,8 +29898,11 @@
       <c r="JB37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JC37" t="n">
+      <c r="JC37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JD37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30583,8 +30694,11 @@
       <c r="JB38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JC38" t="n">
+      <c r="JC38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="JD38" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31376,8 +31490,11 @@
       <c r="JB39" s="2" t="n">
         <v>100.1</v>
       </c>
-      <c r="JC39" t="n">
+      <c r="JC39" s="2" t="n">
         <v>103.9</v>
+      </c>
+      <c r="JD39" t="n">
+        <v>82.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32169,8 +32286,11 @@
       <c r="JB40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JC40" t="n">
+      <c r="JC40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JD40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -32962,7 +33082,10 @@
       <c r="JB41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC41" t="n">
+      <c r="JC41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33755,7 +33878,10 @@
       <c r="JB42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JC42" t="n">
+      <c r="JC42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34548,8 +34674,11 @@
       <c r="JB43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JC43" t="n">
+      <c r="JC43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JD43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35341,8 +35470,11 @@
       <c r="JB44" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="JC44" t="n">
+      <c r="JC44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="JD44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36134,8 +36266,11 @@
       <c r="JB45" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JC45" t="n">
+      <c r="JC45" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="JD45" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -36927,8 +37062,11 @@
       <c r="JB46" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="JC46" t="n">
+      <c r="JC46" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="JD46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37720,8 +37858,11 @@
       <c r="JB47" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="JC47" t="n">
+      <c r="JC47" s="2" t="n">
         <v>73.09999999999999</v>
+      </c>
+      <c r="JD47" t="n">
+        <v>74.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38513,8 +38654,11 @@
       <c r="JB48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JC48" t="n">
+      <c r="JC48" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JD48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39306,8 +39450,11 @@
       <c r="JB49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JC49" t="n">
+      <c r="JC49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40099,8 +40246,11 @@
       <c r="JB50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JC50" t="n">
+      <c r="JC50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -40892,8 +41042,11 @@
       <c r="JB51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JC51" t="n">
+      <c r="JC51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41685,8 +41838,11 @@
       <c r="JB52" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JC52" t="n">
+      <c r="JC52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD52" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42478,8 +42634,11 @@
       <c r="JB53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JC53" t="n">
+      <c r="JC53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JD53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43271,7 +43430,10 @@
       <c r="JB54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JC54" t="n">
+      <c r="JC54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD54" t="n">
         <v>6</v>
       </c>
     </row>
@@ -44064,8 +44226,11 @@
       <c r="JB55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC55" t="n">
+      <c r="JC55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -44857,8 +45022,11 @@
       <c r="JB56" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="JC56" t="n">
+      <c r="JC56" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="JD56" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45650,8 +45818,11 @@
       <c r="JB57" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="JC57" t="n">
+      <c r="JC57" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="JD57" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46443,8 +46614,11 @@
       <c r="JB58" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="JC58" t="n">
+      <c r="JC58" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="JD58" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47236,8 +47410,11 @@
       <c r="JB59" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="JC59" t="n">
+      <c r="JC59" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="JD59" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48029,8 +48206,11 @@
       <c r="JB60" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="JC60" t="n">
+      <c r="JC60" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="JD60" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -48822,8 +49002,11 @@
       <c r="JB61" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="JC61" t="n">
+      <c r="JC61" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JD61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49615,8 +49798,11 @@
       <c r="JB62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JC62" t="n">
+      <c r="JC62" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JD62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50408,8 +50594,11 @@
       <c r="JB63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JC63" t="n">
+      <c r="JC63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JD63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51201,8 +51390,11 @@
       <c r="JB64" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JC64" t="n">
+      <c r="JC64" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JD64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -51994,8 +52186,11 @@
       <c r="JB65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JC65" t="n">
+      <c r="JC65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JD65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -52787,8 +52982,11 @@
       <c r="JB66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC66" t="n">
+      <c r="JC66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JD66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -53580,8 +53778,11 @@
       <c r="JB67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC67" t="n">
+      <c r="JC67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54373,8 +54574,11 @@
       <c r="JB68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JC68" t="n">
+      <c r="JC68" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JD68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55166,7 +55370,10 @@
       <c r="JB69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JC69" t="n">
+      <c r="JC69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55959,8 +56166,11 @@
       <c r="JB70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JC70" t="n">
+      <c r="JC70" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JD70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -56752,8 +56962,11 @@
       <c r="JB71" s="2" t="n">
         <v>34.6</v>
       </c>
-      <c r="JC71" t="n">
+      <c r="JC71" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JD71" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57545,8 +57758,11 @@
       <c r="JB72" s="2" t="n">
         <v>41.44</v>
       </c>
-      <c r="JC72" t="n">
+      <c r="JC72" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JD72" t="n">
+        <v>34.78</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58338,8 +58554,11 @@
       <c r="JB73" s="2" t="n">
         <v>14.35</v>
       </c>
-      <c r="JC73" t="n">
+      <c r="JC73" s="2" t="n">
         <v>22.4</v>
+      </c>
+      <c r="JD73" t="n">
+        <v>24.08</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59131,8 +59350,11 @@
       <c r="JB74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JC74" t="n">
+      <c r="JC74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JD74" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -59924,8 +60146,11 @@
       <c r="JB75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JC75" t="n">
+      <c r="JC75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JD75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -60717,8 +60942,11 @@
       <c r="JB76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JC76" t="n">
+      <c r="JC76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD76" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61510,8 +61738,11 @@
       <c r="JB77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JC77" t="n">
+      <c r="JC77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JD77" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -62303,8 +62534,11 @@
       <c r="JB78" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="JC78" t="n">
+      <c r="JC78" s="2" t="n">
         <v>3.6</v>
+      </c>
+      <c r="JD78" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63096,8 +63330,11 @@
       <c r="JB79" s="2" t="n">
         <v>6.56</v>
       </c>
-      <c r="JC79" t="n">
+      <c r="JC79" s="2" t="n">
         <v>4.5</v>
+      </c>
+      <c r="JD79" t="n">
+        <v>3.22</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -63889,8 +64126,11 @@
       <c r="JB80" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="JC80" t="n">
+      <c r="JC80" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="JD80" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -64682,8 +64922,11 @@
       <c r="JB81" s="2" t="n">
         <v>15.3</v>
       </c>
-      <c r="JC81" t="n">
+      <c r="JC81" s="2" t="n">
         <v>22.2</v>
+      </c>
+      <c r="JD81" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -65475,8 +65718,11 @@
       <c r="JB82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JC82" t="n">
+      <c r="JC82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="JD82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -66268,8 +66514,11 @@
       <c r="JB83" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="JC83" t="n">
+      <c r="JC83" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="JD83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67061,8 +67310,11 @@
       <c r="JB84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JC84" t="n">
+      <c r="JC84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JD84" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -67854,8 +68106,11 @@
       <c r="JB85" s="2" t="n">
         <v>96.3</v>
       </c>
-      <c r="JC85" t="n">
+      <c r="JC85" s="2" t="n">
         <v>78.7</v>
+      </c>
+      <c r="JD85" t="n">
+        <v>110.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -68647,8 +68902,11 @@
       <c r="JB86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JC86" t="n">
+      <c r="JC86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JD86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -69440,8 +69698,11 @@
       <c r="JB87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JC87" t="n">
+      <c r="JC87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JD87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -70233,8 +70494,11 @@
       <c r="JB88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JC88" t="n">
+      <c r="JC88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JD88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -71026,8 +71290,11 @@
       <c r="JB89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JC89" t="n">
+      <c r="JC89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JD89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -71819,8 +72086,11 @@
       <c r="JB90" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="JC90" t="n">
+      <c r="JC90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JD90" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -72612,8 +72882,11 @@
       <c r="JB91" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="JC91" t="n">
+      <c r="JC91" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="JD91" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -73405,8 +73678,11 @@
       <c r="JB92" s="2" t="n">
         <v>264</v>
       </c>
-      <c r="JC92" t="n">
+      <c r="JC92" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="JD92" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -74198,8 +74474,11 @@
       <c r="JB93" s="2" t="n">
         <v>70.8</v>
       </c>
-      <c r="JC93" t="n">
+      <c r="JC93" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JD93" t="n">
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -74991,8 +75270,11 @@
       <c r="JB94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JC94" t="n">
+      <c r="JC94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JD94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -75784,8 +76066,11 @@
       <c r="JB95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JC95" t="n">
+      <c r="JC95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JD95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -76577,8 +76862,11 @@
       <c r="JB96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JC96" t="n">
+      <c r="JC96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JD96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -77370,8 +77658,11 @@
       <c r="JB97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JC97" t="n">
+      <c r="JC97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JD97" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -78163,8 +78454,11 @@
       <c r="JB98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JC98" t="n">
+      <c r="JC98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD98" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -78956,8 +79250,11 @@
       <c r="JB99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JC99" t="n">
+      <c r="JC99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JD99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -79749,8 +80046,11 @@
       <c r="JB100" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JC100" t="n">
+      <c r="JC100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JD100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -80542,8 +80842,11 @@
       <c r="JB101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC101" t="n">
+      <c r="JC101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -81335,8 +81638,11 @@
       <c r="JB102" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="JC102" t="n">
+      <c r="JC102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JD102" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JD102"/>
+  <dimension ref="A1:JE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1245,8 +1245,11 @@
       <c r="JC1" s="2" t="n">
         <v>10573</v>
       </c>
-      <c r="JD1" t="n">
+      <c r="JD1" s="2" t="n">
         <v>10582</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>10596</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2041,7 +2044,10 @@
       <c r="JC2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2837,8 +2843,11 @@
       <c r="JC3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JD3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3633,7 +3642,10 @@
       <c r="JC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,7 +4441,10 @@
       <c r="JC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,8 +5240,11 @@
       <c r="JC6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JD6" t="n">
+      <c r="JD6" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6021,8 +6039,11 @@
       <c r="JC7" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JD7" t="n">
+      <c r="JD7" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6817,8 +6838,11 @@
       <c r="JC8" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JD8" t="n">
+      <c r="JD8" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7613,7 +7637,10 @@
       <c r="JC9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JD9" t="n">
+      <c r="JD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8409,8 +8436,11 @@
       <c r="JC10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JD10" t="n">
+      <c r="JD10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9205,8 +9235,11 @@
       <c r="JC11" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="JD11" t="n">
+      <c r="JD11" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10001,8 +10034,11 @@
       <c r="JC12" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="JD12" t="n">
+      <c r="JD12" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10797,8 +10833,11 @@
       <c r="JC13" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="JD13" t="n">
+      <c r="JD13" s="2" t="n">
         <v>385</v>
+      </c>
+      <c r="JE13" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11593,8 +11632,11 @@
       <c r="JC14" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="JD14" t="n">
+      <c r="JD14" s="2" t="n">
         <v>1.71</v>
+      </c>
+      <c r="JE14" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12389,8 +12431,11 @@
       <c r="JC15" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JD15" t="n">
+      <c r="JD15" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="JE15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13185,8 +13230,11 @@
       <c r="JC16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JD16" t="n">
+      <c r="JD16" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JE16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13981,8 +14029,11 @@
       <c r="JC17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JD17" t="n">
+      <c r="JD17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14777,8 +14828,11 @@
       <c r="JC18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JD18" t="n">
+      <c r="JD18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JE18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15573,8 +15627,11 @@
       <c r="JC19" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JD19" t="n">
+      <c r="JD19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JE19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16369,8 +16426,11 @@
       <c r="JC20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JD20" t="n">
+      <c r="JD20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JE20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17165,8 +17225,11 @@
       <c r="JC21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD21" t="n">
+      <c r="JD21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JE21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17961,7 +18024,10 @@
       <c r="JC22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JD22" t="n">
+      <c r="JD22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18757,7 +18823,10 @@
       <c r="JC23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JD23" t="n">
+      <c r="JD23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19553,8 +19622,11 @@
       <c r="JC24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JD24" t="n">
+      <c r="JD24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20349,8 +20421,11 @@
       <c r="JC25" s="2" t="n">
         <v>61.9</v>
       </c>
-      <c r="JD25" t="n">
+      <c r="JD25" s="2" t="n">
         <v>58.1</v>
+      </c>
+      <c r="JE25" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21145,8 +21220,11 @@
       <c r="JC26" s="2" t="n">
         <v>26.92</v>
       </c>
-      <c r="JD26" t="n">
+      <c r="JD26" s="2" t="n">
         <v>21.39</v>
+      </c>
+      <c r="JE26" t="n">
+        <v>23.06</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21941,8 +22019,11 @@
       <c r="JC27" s="2" t="n">
         <v>16.67</v>
       </c>
-      <c r="JD27" t="n">
+      <c r="JD27" s="2" t="n">
         <v>12.42</v>
+      </c>
+      <c r="JE27" t="n">
+        <v>12.72</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22737,8 +22818,11 @@
       <c r="JC28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JD28" t="n">
+      <c r="JD28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JE28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23533,8 +23617,11 @@
       <c r="JC29" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JD29" t="n">
+      <c r="JD29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JE29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24329,8 +24416,11 @@
       <c r="JC30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JD30" t="n">
+      <c r="JD30" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JE30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25125,8 +25215,11 @@
       <c r="JC31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JD31" t="n">
+      <c r="JD31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JE31" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25921,8 +26014,11 @@
       <c r="JC32" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="JD32" t="n">
+      <c r="JD32" s="2" t="n">
         <v>2.1</v>
+      </c>
+      <c r="JE32" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26717,8 +26813,11 @@
       <c r="JC33" s="2" t="n">
         <v>4.31</v>
       </c>
-      <c r="JD33" t="n">
+      <c r="JD33" s="2" t="n">
         <v>3.61</v>
+      </c>
+      <c r="JE33" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27513,8 +27612,11 @@
       <c r="JC34" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="JD34" t="n">
+      <c r="JD34" s="2" t="n">
         <v>44.6</v>
+      </c>
+      <c r="JE34" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28309,8 +28411,11 @@
       <c r="JC35" s="2" t="n">
         <v>23.2</v>
       </c>
-      <c r="JD35" t="n">
+      <c r="JD35" s="2" t="n">
         <v>27.7</v>
+      </c>
+      <c r="JE35" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29105,8 +29210,11 @@
       <c r="JC36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JD36" t="n">
+      <c r="JD36" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="JE36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29901,8 +30009,11 @@
       <c r="JC37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JD37" t="n">
+      <c r="JD37" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="JE37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30697,8 +30808,11 @@
       <c r="JC38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="JD38" t="n">
+      <c r="JD38" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="JE38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31493,8 +31607,11 @@
       <c r="JC39" s="2" t="n">
         <v>103.9</v>
       </c>
-      <c r="JD39" t="n">
+      <c r="JD39" s="2" t="n">
         <v>82.5</v>
+      </c>
+      <c r="JE39" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32289,8 +32406,11 @@
       <c r="JC40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JD40" t="n">
+      <c r="JD40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JE40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33085,8 +33205,11 @@
       <c r="JC41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JD41" t="n">
+      <c r="JD41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JE41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -33881,7 +34004,10 @@
       <c r="JC42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JD42" t="n">
+      <c r="JD42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34677,8 +34803,11 @@
       <c r="JC43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JD43" t="n">
+      <c r="JD43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35473,8 +35602,11 @@
       <c r="JC44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JD44" t="n">
+      <c r="JD44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="JE44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36269,8 +36401,11 @@
       <c r="JC45" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="JD45" t="n">
+      <c r="JD45" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="JE45" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37065,8 +37200,11 @@
       <c r="JC46" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="JD46" t="n">
+      <c r="JD46" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="JE46" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37861,8 +37999,11 @@
       <c r="JC47" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="JD47" t="n">
+      <c r="JD47" s="2" t="n">
         <v>74.5</v>
+      </c>
+      <c r="JE47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38657,8 +38798,11 @@
       <c r="JC48" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JD48" t="n">
+      <c r="JD48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JE48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39453,8 +39597,11 @@
       <c r="JC49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD49" t="n">
+      <c r="JD49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JE49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40249,8 +40396,11 @@
       <c r="JC50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD50" t="n">
+      <c r="JD50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JE50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41045,8 +41195,11 @@
       <c r="JC51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JD51" t="n">
+      <c r="JD51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JE51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41841,8 +41994,11 @@
       <c r="JC52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JD52" t="n">
+      <c r="JD52" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JE52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42637,8 +42793,11 @@
       <c r="JC53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JD53" t="n">
+      <c r="JD53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JE53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43433,8 +43592,11 @@
       <c r="JC54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD54" t="n">
+      <c r="JD54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JE54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44229,8 +44391,11 @@
       <c r="JC55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD55" t="n">
+      <c r="JD55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JE55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45025,8 +45190,11 @@
       <c r="JC56" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="JD56" t="n">
+      <c r="JD56" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="JE56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45821,7 +45989,10 @@
       <c r="JC57" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="JD57" t="n">
+      <c r="JD57" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="JE57" t="n">
         <v>199</v>
       </c>
     </row>
@@ -46617,8 +46788,11 @@
       <c r="JC58" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="JD58" t="n">
+      <c r="JD58" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="JE58" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47413,8 +47587,11 @@
       <c r="JC59" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="JD59" t="n">
+      <c r="JD59" s="2" t="n">
         <v>313</v>
+      </c>
+      <c r="JE59" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48209,8 +48386,11 @@
       <c r="JC60" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="JD60" t="n">
+      <c r="JD60" s="2" t="n">
         <v>1.75</v>
+      </c>
+      <c r="JE60" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49005,8 +49185,11 @@
       <c r="JC61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JD61" t="n">
+      <c r="JD61" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JE61" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49801,8 +49984,11 @@
       <c r="JC62" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JD62" t="n">
+      <c r="JD62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JE62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50597,8 +50783,11 @@
       <c r="JC63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JD63" t="n">
+      <c r="JD63" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JE63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51393,8 +51582,11 @@
       <c r="JC64" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JD64" t="n">
+      <c r="JD64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JE64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52189,8 +52381,11 @@
       <c r="JC65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JD65" t="n">
+      <c r="JD65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JE65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -52985,8 +53180,11 @@
       <c r="JC66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JD66" t="n">
+      <c r="JD66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JE66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -53781,8 +53979,11 @@
       <c r="JC67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD67" t="n">
+      <c r="JD67" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54577,8 +54778,11 @@
       <c r="JC68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JD68" t="n">
+      <c r="JD68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JE68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55373,8 +55577,11 @@
       <c r="JC69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD69" t="n">
+      <c r="JD69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JE69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -56169,8 +56376,11 @@
       <c r="JC70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JD70" t="n">
+      <c r="JD70" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JE70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -56965,8 +57175,11 @@
       <c r="JC71" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JD71" t="n">
+      <c r="JD71" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="JE71" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57761,8 +57974,11 @@
       <c r="JC72" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JD72" t="n">
+      <c r="JD72" s="2" t="n">
         <v>34.78</v>
+      </c>
+      <c r="JE72" t="n">
+        <v>31.9</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58557,8 +58773,11 @@
       <c r="JC73" s="2" t="n">
         <v>22.4</v>
       </c>
-      <c r="JD73" t="n">
+      <c r="JD73" s="2" t="n">
         <v>24.08</v>
+      </c>
+      <c r="JE73" t="n">
+        <v>17.72</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59353,8 +59572,11 @@
       <c r="JC74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JD74" t="n">
+      <c r="JD74" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JE74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -60149,8 +60371,11 @@
       <c r="JC75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JD75" t="n">
+      <c r="JD75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JE75" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -60945,8 +61170,11 @@
       <c r="JC76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JD76" t="n">
+      <c r="JD76" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JE76" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61741,8 +61969,11 @@
       <c r="JC77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JD77" t="n">
+      <c r="JD77" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JE77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -62537,8 +62768,11 @@
       <c r="JC78" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="JD78" t="n">
+      <c r="JD78" s="2" t="n">
         <v>2.23</v>
+      </c>
+      <c r="JE78" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63333,8 +63567,11 @@
       <c r="JC79" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="JD79" t="n">
+      <c r="JD79" s="2" t="n">
         <v>3.22</v>
+      </c>
+      <c r="JE79" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -64129,8 +64366,11 @@
       <c r="JC80" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="JD80" t="n">
+      <c r="JD80" s="2" t="n">
         <v>44.8</v>
+      </c>
+      <c r="JE80" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -64925,8 +65165,11 @@
       <c r="JC81" s="2" t="n">
         <v>22.2</v>
       </c>
-      <c r="JD81" t="n">
+      <c r="JD81" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JE81" t="n">
+        <v>23.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -65721,8 +65964,11 @@
       <c r="JC82" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="JD82" t="n">
+      <c r="JD82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="JE82" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -66517,8 +66763,11 @@
       <c r="JC83" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="JD83" t="n">
+      <c r="JD83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="JE83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67313,8 +67562,11 @@
       <c r="JC84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="JD84" t="n">
+      <c r="JD84" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="JE84" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -68109,8 +68361,11 @@
       <c r="JC85" s="2" t="n">
         <v>78.7</v>
       </c>
-      <c r="JD85" t="n">
+      <c r="JD85" s="2" t="n">
         <v>110.5</v>
+      </c>
+      <c r="JE85" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -68905,8 +69160,11 @@
       <c r="JC86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JD86" t="n">
+      <c r="JD86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JE86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -69701,8 +69959,11 @@
       <c r="JC87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD87" t="n">
+      <c r="JD87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -70497,8 +70758,11 @@
       <c r="JC88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JD88" t="n">
+      <c r="JD88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JE88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -71293,8 +71557,11 @@
       <c r="JC89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JD89" t="n">
+      <c r="JD89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JE89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -72089,8 +72356,11 @@
       <c r="JC90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JD90" t="n">
+      <c r="JD90" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="JE90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -72885,8 +73155,11 @@
       <c r="JC91" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="JD91" t="n">
+      <c r="JD91" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="JE91" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -73681,8 +73954,11 @@
       <c r="JC92" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="JD92" t="n">
+      <c r="JD92" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="JE92" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -74477,8 +74753,11 @@
       <c r="JC93" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JD93" t="n">
+      <c r="JD93" s="2" t="n">
         <v>77.59999999999999</v>
+      </c>
+      <c r="JE93" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -75273,8 +75552,11 @@
       <c r="JC94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JD94" t="n">
+      <c r="JD94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JE94" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -76069,8 +76351,11 @@
       <c r="JC95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD95" t="n">
+      <c r="JD95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -76865,8 +77150,11 @@
       <c r="JC96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JD96" t="n">
+      <c r="JD96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JE96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -77661,8 +77949,11 @@
       <c r="JC97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JD97" t="n">
+      <c r="JD97" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JE97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -78457,8 +78748,11 @@
       <c r="JC98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JD98" t="n">
+      <c r="JD98" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JE98" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -79253,8 +79547,11 @@
       <c r="JC99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JD99" t="n">
+      <c r="JD99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JE99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -80049,8 +80346,11 @@
       <c r="JC100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JD100" t="n">
+      <c r="JD100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JE100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -80845,8 +81145,11 @@
       <c r="JC101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JD101" t="n">
+      <c r="JD101" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -81641,8 +81944,11 @@
       <c r="JC102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JD102" t="n">
+      <c r="JD102" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JE102" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JE102"/>
+  <dimension ref="A1:JG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1248,8 +1248,14 @@
       <c r="JD1" s="2" t="n">
         <v>10582</v>
       </c>
-      <c r="JE1" t="n">
+      <c r="JE1" s="2" t="n">
         <v>10596</v>
+      </c>
+      <c r="JF1" s="2" t="n">
+        <v>10606</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>10610</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2047,7 +2053,13 @@
       <c r="JD2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JG2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2846,8 +2858,14 @@
       <c r="JD3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JE3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JF3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3645,8 +3663,14 @@
       <c r="JD4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JE4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4444,7 +4468,13 @@
       <c r="JD5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JE5" t="n">
+      <c r="JE5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,8 +5273,14 @@
       <c r="JD6" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="JE6" t="n">
+      <c r="JE6" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="JF6" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6042,8 +6078,14 @@
       <c r="JD7" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JE7" t="n">
+      <c r="JE7" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JF7" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6841,8 +6883,14 @@
       <c r="JD8" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JE8" t="n">
+      <c r="JE8" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JF8" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7640,8 +7688,14 @@
       <c r="JD9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JE9" t="n">
+      <c r="JE9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8439,8 +8493,14 @@
       <c r="JD10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JE10" t="n">
+      <c r="JE10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JF10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9238,8 +9298,14 @@
       <c r="JD11" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="JE11" t="n">
+      <c r="JE11" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="JF11" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10037,8 +10103,14 @@
       <c r="JD12" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JE12" t="n">
+      <c r="JE12" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="JF12" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10836,8 +10908,14 @@
       <c r="JD13" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="JE13" t="n">
+      <c r="JE13" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="JF13" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11635,8 +11713,14 @@
       <c r="JD14" s="2" t="n">
         <v>1.71</v>
       </c>
-      <c r="JE14" t="n">
+      <c r="JE14" s="2" t="n">
         <v>1.51</v>
+      </c>
+      <c r="JF14" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="JG14" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12434,8 +12518,14 @@
       <c r="JD15" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JE15" t="n">
+      <c r="JE15" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="JF15" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JG15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13233,8 +13323,14 @@
       <c r="JD16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JE16" t="n">
+      <c r="JE16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JF16" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14032,8 +14128,14 @@
       <c r="JD17" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JE17" t="n">
+      <c r="JE17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JF17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14831,8 +14933,14 @@
       <c r="JD18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JE18" t="n">
+      <c r="JE18" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JF18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JG18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15630,8 +15738,14 @@
       <c r="JD19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JE19" t="n">
+      <c r="JE19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JF19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JG19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16429,8 +16543,14 @@
       <c r="JD20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JE20" t="n">
+      <c r="JE20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JF20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JG20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17228,8 +17348,14 @@
       <c r="JD21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JE21" t="n">
+      <c r="JE21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JF21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18027,7 +18153,13 @@
       <c r="JD22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JE22" t="n">
+      <c r="JE22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JF22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18826,7 +18958,13 @@
       <c r="JD23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JE23" t="n">
+      <c r="JE23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JG23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19625,8 +19763,14 @@
       <c r="JD24" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JE24" t="n">
+      <c r="JE24" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JF24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20424,8 +20568,14 @@
       <c r="JD25" s="2" t="n">
         <v>58.1</v>
       </c>
-      <c r="JE25" t="n">
+      <c r="JE25" s="2" t="n">
         <v>55.2</v>
+      </c>
+      <c r="JF25" s="2" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="JG25" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21223,8 +21373,14 @@
       <c r="JD26" s="2" t="n">
         <v>21.39</v>
       </c>
-      <c r="JE26" t="n">
+      <c r="JE26" s="2" t="n">
         <v>23.06</v>
+      </c>
+      <c r="JF26" s="2" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>38.88</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22022,8 +22178,14 @@
       <c r="JD27" s="2" t="n">
         <v>12.42</v>
       </c>
-      <c r="JE27" t="n">
+      <c r="JE27" s="2" t="n">
         <v>12.72</v>
+      </c>
+      <c r="JF27" s="2" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="JG27" t="n">
+        <v>14.81</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22821,8 +22983,14 @@
       <c r="JD28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JE28" t="n">
+      <c r="JE28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JF28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JG28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23620,8 +23788,14 @@
       <c r="JD29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JE29" t="n">
+      <c r="JE29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JF29" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JG29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24419,8 +24593,14 @@
       <c r="JD30" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JE30" t="n">
+      <c r="JE30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JF30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JG30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25218,8 +25398,14 @@
       <c r="JD31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JE31" t="n">
+      <c r="JE31" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JF31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JG31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26017,8 +26203,14 @@
       <c r="JD32" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="JE32" t="n">
+      <c r="JE32" s="2" t="n">
         <v>2.34</v>
+      </c>
+      <c r="JF32" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="JG32" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26816,8 +27008,14 @@
       <c r="JD33" s="2" t="n">
         <v>3.61</v>
       </c>
-      <c r="JE33" t="n">
+      <c r="JE33" s="2" t="n">
         <v>4.25</v>
+      </c>
+      <c r="JF33" s="2" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="JG33" t="n">
+        <v>5.12</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27615,8 +27813,14 @@
       <c r="JD34" s="2" t="n">
         <v>44.6</v>
       </c>
-      <c r="JE34" t="n">
+      <c r="JE34" s="2" t="n">
         <v>39.7</v>
+      </c>
+      <c r="JF34" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JG34" t="n">
+        <v>46.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28414,8 +28618,14 @@
       <c r="JD35" s="2" t="n">
         <v>27.7</v>
       </c>
-      <c r="JE35" t="n">
+      <c r="JE35" s="2" t="n">
         <v>23.5</v>
+      </c>
+      <c r="JF35" s="2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="JG35" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29213,7 +29423,13 @@
       <c r="JD36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JE36" t="n">
+      <c r="JE36" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JF36" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="JG36" t="n">
         <v>187.7</v>
       </c>
     </row>
@@ -30012,8 +30228,14 @@
       <c r="JD37" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="JE37" t="n">
+      <c r="JE37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="JF37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JG37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30811,7 +31033,13 @@
       <c r="JD38" s="2" t="n">
         <v>24.41</v>
       </c>
-      <c r="JE38" t="n">
+      <c r="JE38" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JF38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JG38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -31610,8 +31838,14 @@
       <c r="JD39" s="2" t="n">
         <v>82.5</v>
       </c>
-      <c r="JE39" t="n">
+      <c r="JE39" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="JF39" s="2" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="JG39" t="n">
+        <v>102.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32409,8 +32643,14 @@
       <c r="JD40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JE40" t="n">
+      <c r="JE40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JF40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33208,8 +33448,14 @@
       <c r="JD41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JE41" t="n">
+      <c r="JE41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JF41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -34007,8 +34253,14 @@
       <c r="JD42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JE42" t="n">
+      <c r="JE42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JF42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -34806,8 +35058,14 @@
       <c r="JD43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JE43" t="n">
+      <c r="JE43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JF43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35605,8 +35863,14 @@
       <c r="JD44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="JE44" t="n">
+      <c r="JE44" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="JF44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JG44" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36404,8 +36668,14 @@
       <c r="JD45" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JE45" t="n">
+      <c r="JE45" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="JF45" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JG45" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37203,8 +37473,14 @@
       <c r="JD46" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="JE46" t="n">
+      <c r="JE46" s="2" t="n">
         <v>277</v>
+      </c>
+      <c r="JF46" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="JG46" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38002,8 +38278,14 @@
       <c r="JD47" s="2" t="n">
         <v>74.5</v>
       </c>
-      <c r="JE47" t="n">
+      <c r="JE47" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="JF47" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JG47" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38801,8 +39083,14 @@
       <c r="JD48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JE48" t="n">
+      <c r="JE48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JF48" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JG48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39600,8 +39888,14 @@
       <c r="JD49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JE49" t="n">
+      <c r="JE49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JF49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JG49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40399,7 +40693,13 @@
       <c r="JD50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JE50" t="n">
+      <c r="JE50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JF50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -41198,8 +41498,14 @@
       <c r="JD51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JE51" t="n">
+      <c r="JE51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JF51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JG51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41997,8 +42303,14 @@
       <c r="JD52" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JE52" t="n">
+      <c r="JE52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JF52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JG52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42796,8 +43108,14 @@
       <c r="JD53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JE53" t="n">
+      <c r="JE53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JF53" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JG53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -43595,8 +43913,14 @@
       <c r="JD54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JE54" t="n">
+      <c r="JE54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JF54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44394,8 +44718,14 @@
       <c r="JD55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JE55" t="n">
+      <c r="JE55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JF55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45193,8 +45523,14 @@
       <c r="JD56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JE56" t="n">
+      <c r="JE56" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="JF56" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="JG56" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45992,8 +46328,14 @@
       <c r="JD57" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="JE57" t="n">
+      <c r="JE57" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="JF57" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JG57" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46791,8 +47133,14 @@
       <c r="JD58" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="JE58" t="n">
+      <c r="JE58" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JF58" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="JG58" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47590,8 +47938,14 @@
       <c r="JD59" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="JE59" t="n">
+      <c r="JE59" s="2" t="n">
         <v>319</v>
+      </c>
+      <c r="JF59" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="JG59" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48389,8 +48743,14 @@
       <c r="JD60" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="JE60" t="n">
+      <c r="JE60" s="2" t="n">
         <v>1.66</v>
+      </c>
+      <c r="JF60" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="JG60" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49188,8 +49548,14 @@
       <c r="JD61" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="JE61" t="n">
+      <c r="JE61" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JF61" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JG61" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49987,8 +50353,14 @@
       <c r="JD62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JE62" t="n">
+      <c r="JE62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JF62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JG62" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50786,8 +51158,14 @@
       <c r="JD63" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JE63" t="n">
+      <c r="JE63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JF63" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JG63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51585,8 +51963,14 @@
       <c r="JD64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JE64" t="n">
+      <c r="JE64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JF64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JG64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52384,8 +52768,14 @@
       <c r="JD65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JE65" t="n">
+      <c r="JE65" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JF65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JG65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -53183,7 +53573,13 @@
       <c r="JD66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JE66" t="n">
+      <c r="JE66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF66" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JG66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -53982,8 +54378,14 @@
       <c r="JD67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE67" t="n">
+      <c r="JE67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JF67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54781,8 +55183,14 @@
       <c r="JD68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JE68" t="n">
+      <c r="JE68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JF68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55580,7 +55988,13 @@
       <c r="JD69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JE69" t="n">
+      <c r="JE69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -56379,8 +56793,14 @@
       <c r="JD70" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JE70" t="n">
+      <c r="JE70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JF70" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -57178,8 +57598,14 @@
       <c r="JD71" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="JE71" t="n">
+      <c r="JE71" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="JF71" s="2" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="JG71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57977,8 +58403,14 @@
       <c r="JD72" s="2" t="n">
         <v>34.78</v>
       </c>
-      <c r="JE72" t="n">
+      <c r="JE72" s="2" t="n">
         <v>31.9</v>
+      </c>
+      <c r="JF72" s="2" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="JG72" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58776,8 +59208,14 @@
       <c r="JD73" s="2" t="n">
         <v>24.08</v>
       </c>
-      <c r="JE73" t="n">
+      <c r="JE73" s="2" t="n">
         <v>17.72</v>
+      </c>
+      <c r="JF73" s="2" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="JG73" t="n">
+        <v>13.08</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59575,8 +60013,14 @@
       <c r="JD74" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JE74" t="n">
+      <c r="JE74" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JF74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JG74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -60374,8 +60818,14 @@
       <c r="JD75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JE75" t="n">
+      <c r="JE75" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JF75" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JG75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -61173,8 +61623,14 @@
       <c r="JD76" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JE76" t="n">
+      <c r="JE76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JF76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JG76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61972,8 +62428,14 @@
       <c r="JD77" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JE77" t="n">
+      <c r="JE77" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JF77" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JG77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -62771,8 +63233,14 @@
       <c r="JD78" s="2" t="n">
         <v>2.23</v>
       </c>
-      <c r="JE78" t="n">
+      <c r="JE78" s="2" t="n">
         <v>2.33</v>
+      </c>
+      <c r="JF78" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="JG78" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63570,8 +64038,14 @@
       <c r="JD79" s="2" t="n">
         <v>3.22</v>
       </c>
-      <c r="JE79" t="n">
+      <c r="JE79" s="2" t="n">
         <v>4.2</v>
+      </c>
+      <c r="JF79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JG79" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -64369,8 +64843,14 @@
       <c r="JD80" s="2" t="n">
         <v>44.8</v>
       </c>
-      <c r="JE80" t="n">
+      <c r="JE80" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="JF80" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JG80" t="n">
+        <v>41.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -65168,8 +65648,14 @@
       <c r="JD81" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JE81" t="n">
+      <c r="JE81" s="2" t="n">
         <v>23.8</v>
+      </c>
+      <c r="JF81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JG81" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -65967,8 +66453,14 @@
       <c r="JD82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JE82" t="n">
+      <c r="JE82" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="JF82" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="JG82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -66766,8 +67258,14 @@
       <c r="JD83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="JE83" t="n">
+      <c r="JE83" s="2" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="JF83" s="2" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="JG83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67565,8 +68063,14 @@
       <c r="JD84" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="JE84" t="n">
+      <c r="JE84" s="2" t="n">
         <v>24.49</v>
+      </c>
+      <c r="JF84" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JG84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -68364,8 +68868,14 @@
       <c r="JD85" s="2" t="n">
         <v>110.5</v>
       </c>
-      <c r="JE85" t="n">
+      <c r="JE85" s="2" t="n">
         <v>80.40000000000001</v>
+      </c>
+      <c r="JF85" s="2" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="JG85" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -69163,8 +69673,14 @@
       <c r="JD86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JE86" t="n">
+      <c r="JE86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JF86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -69962,8 +70478,14 @@
       <c r="JD87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JE87" t="n">
+      <c r="JE87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JF87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -70761,8 +71283,14 @@
       <c r="JD88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JE88" t="n">
+      <c r="JE88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JF88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -71560,8 +72088,14 @@
       <c r="JD89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JE89" t="n">
+      <c r="JE89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JF89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -72359,8 +72893,14 @@
       <c r="JD90" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JE90" t="n">
+      <c r="JE90" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JF90" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="JG90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -73158,8 +73698,14 @@
       <c r="JD91" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="JE91" t="n">
+      <c r="JE91" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="JF91" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="JG91" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -73957,8 +74503,14 @@
       <c r="JD92" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="JE92" t="n">
+      <c r="JE92" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="JF92" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="JG92" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -74756,8 +75308,14 @@
       <c r="JD93" s="2" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="JE93" t="n">
+      <c r="JE93" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JF93" s="2" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="JG93" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -75555,8 +76113,14 @@
       <c r="JD94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JE94" t="n">
+      <c r="JE94" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JF94" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JG94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -76354,7 +76918,13 @@
       <c r="JD95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JE95" t="n">
+      <c r="JE95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -77153,8 +77723,14 @@
       <c r="JD96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JE96" t="n">
+      <c r="JE96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JF96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -77952,8 +78528,14 @@
       <c r="JD97" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JE97" t="n">
+      <c r="JE97" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JF97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JG97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -78751,8 +79333,14 @@
       <c r="JD98" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JE98" t="n">
+      <c r="JE98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JF98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JG98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -79550,8 +80138,14 @@
       <c r="JD99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JE99" t="n">
+      <c r="JE99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JF99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JG99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -80349,7 +80943,13 @@
       <c r="JD100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JE100" t="n">
+      <c r="JE100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG100" t="n">
         <v>8</v>
       </c>
     </row>
@@ -81148,8 +81748,14 @@
       <c r="JD101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JE101" t="n">
+      <c r="JE101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JF101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -81947,8 +82553,14 @@
       <c r="JD102" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="JE102" t="n">
+      <c r="JE102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JF102" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JG102" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JI102"/>
+  <dimension ref="A1:JO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1260,8 +1260,26 @@
       <c r="JH1" s="2" t="n">
         <v>10620</v>
       </c>
-      <c r="JI1" t="n">
+      <c r="JI1" s="2" t="n">
         <v>10625</v>
+      </c>
+      <c r="JJ1" s="2" t="n">
+        <v>10639</v>
+      </c>
+      <c r="JK1" s="2" t="n">
+        <v>10644</v>
+      </c>
+      <c r="JL1" s="2" t="n">
+        <v>10659</v>
+      </c>
+      <c r="JM1" s="2" t="n">
+        <v>10666</v>
+      </c>
+      <c r="JN1" s="2" t="n">
+        <v>10672</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>10685</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2071,7 +2089,25 @@
       <c r="JH2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JO2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2882,8 +2918,26 @@
       <c r="JH3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JI3" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK3" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL3" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JN3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3693,8 +3747,26 @@
       <c r="JH4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JI4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4504,7 +4576,25 @@
       <c r="JH5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JI5" t="n">
+      <c r="JI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5315,8 +5405,26 @@
       <c r="JH6" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="JI6" t="n">
+      <c r="JI6" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JJ6" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JK6" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JL6" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JM6" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JN6" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6126,8 +6234,26 @@
       <c r="JH7" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JI7" t="n">
+      <c r="JI7" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="JJ7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JK7" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JL7" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JM7" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JN7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6937,8 +7063,26 @@
       <c r="JH8" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JI8" t="n">
+      <c r="JI8" s="2" t="n">
         <v>-15</v>
+      </c>
+      <c r="JJ8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK8" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL8" s="2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="JM8" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN8" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7748,8 +7892,26 @@
       <c r="JH9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI9" t="n">
+      <c r="JI9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8559,8 +8721,26 @@
       <c r="JH10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JI10" t="n">
+      <c r="JI10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JJ10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JK10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JN10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9370,8 +9550,26 @@
       <c r="JH11" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="JI11" t="n">
+      <c r="JI11" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="JJ11" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="JK11" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="JL11" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="JM11" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="JN11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10181,8 +10379,26 @@
       <c r="JH12" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="JI12" t="n">
+      <c r="JI12" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="JJ12" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="JK12" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JL12" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="JM12" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JN12" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10992,8 +11208,26 @@
       <c r="JH13" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="JI13" t="n">
+      <c r="JI13" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="JJ13" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="JK13" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="JL13" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="JM13" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="JN13" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11803,8 +12037,26 @@
       <c r="JH14" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="JI14" t="n">
+      <c r="JI14" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="JJ14" s="2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="JK14" s="2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="JL14" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="JM14" s="2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="JN14" s="2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12614,8 +12866,26 @@
       <c r="JH15" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JI15" t="n">
+      <c r="JI15" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="JJ15" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JK15" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="JL15" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JM15" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="JN15" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13425,8 +13695,26 @@
       <c r="JH16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JI16" t="n">
+      <c r="JI16" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JJ16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JK16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JL16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JM16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JN16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14236,8 +14524,26 @@
       <c r="JH17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JI17" t="n">
+      <c r="JI17" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JJ17" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JK17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JL17" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM17" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JN17" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15047,8 +15353,26 @@
       <c r="JH18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JI18" t="n">
+      <c r="JI18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JJ18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JK18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JL18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JN18" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JO18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15858,8 +16182,26 @@
       <c r="JH19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JI19" t="n">
+      <c r="JI19" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JJ19" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JK19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JL19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16669,8 +17011,26 @@
       <c r="JH20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JI20" t="n">
+      <c r="JI20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JK20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17480,8 +17840,26 @@
       <c r="JH21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JI21" t="n">
+      <c r="JI21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18291,8 +18669,26 @@
       <c r="JH22" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JI22" t="n">
+      <c r="JI22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19102,8 +19498,26 @@
       <c r="JH23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI23" t="n">
+      <c r="JI23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JJ23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19913,8 +20327,26 @@
       <c r="JH24" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JI24" t="n">
+      <c r="JI24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JJ24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JK24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JL24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JN24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20724,8 +21156,26 @@
       <c r="JH25" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JI25" t="n">
+      <c r="JI25" s="2" t="n">
         <v>59.1</v>
+      </c>
+      <c r="JJ25" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JK25" s="2" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="JL25" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="JM25" s="2" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="JN25" s="2" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>48.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21535,8 +21985,26 @@
       <c r="JH26" s="2" t="n">
         <v>28.14</v>
       </c>
-      <c r="JI26" t="n">
+      <c r="JI26" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JJ26" s="2" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="JK26" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="JL26" s="2" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="JM26" s="2" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="JN26" s="2" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22346,8 +22814,26 @@
       <c r="JH27" s="2" t="n">
         <v>11.26</v>
       </c>
-      <c r="JI27" t="n">
+      <c r="JI27" s="2" t="n">
         <v>15.36</v>
+      </c>
+      <c r="JJ27" s="2" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="JK27" s="2" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="JL27" s="2" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="JM27" s="2" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="JN27" s="2" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>10.69</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23157,8 +23643,26 @@
       <c r="JH28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JI28" t="n">
+      <c r="JI28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JJ28" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JK28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JN28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JO28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23968,8 +24472,26 @@
       <c r="JH29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JI29" t="n">
+      <c r="JI29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JJ29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JK29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JL29" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JM29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JN29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24779,8 +25301,26 @@
       <c r="JH30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JI30" t="n">
+      <c r="JI30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JJ30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JK30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JL30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JM30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25590,8 +26130,26 @@
       <c r="JH31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JI31" t="n">
+      <c r="JI31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JJ31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JK31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JN31" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JO31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26401,8 +26959,26 @@
       <c r="JH32" s="2" t="n">
         <v>1.71</v>
       </c>
-      <c r="JI32" t="n">
+      <c r="JI32" s="2" t="n">
         <v>2.55</v>
+      </c>
+      <c r="JJ32" s="2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="JK32" s="2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="JL32" s="2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="JM32" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="JN32" s="2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="JO32" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27212,8 +27788,26 @@
       <c r="JH33" s="2" t="n">
         <v>4.29</v>
       </c>
-      <c r="JI33" t="n">
+      <c r="JI33" s="2" t="n">
         <v>4.31</v>
+      </c>
+      <c r="JJ33" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="JK33" s="2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="JL33" s="2" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="JM33" s="2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="JN33" s="2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="JO33" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28023,8 +28617,26 @@
       <c r="JH34" s="2" t="n">
         <v>51.7</v>
       </c>
-      <c r="JI34" t="n">
+      <c r="JI34" s="2" t="n">
         <v>37.5</v>
+      </c>
+      <c r="JJ34" s="2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="JK34" s="2" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="JL34" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JM34" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JN34" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="JO34" t="n">
+        <v>56.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28834,8 +29446,26 @@
       <c r="JH35" s="2" t="n">
         <v>23.3</v>
       </c>
-      <c r="JI35" t="n">
+      <c r="JI35" s="2" t="n">
         <v>23.2</v>
+      </c>
+      <c r="JJ35" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="JK35" s="2" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="JL35" s="2" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="JM35" s="2" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="JN35" s="2" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="JO35" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29645,7 +30275,25 @@
       <c r="JH36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="JI36" t="n">
+      <c r="JI36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JJ36" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JK36" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JL36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JM36" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="JN36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JO36" t="n">
         <v>187.6</v>
       </c>
     </row>
@@ -30456,7 +31104,25 @@
       <c r="JH37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JI37" t="n">
+      <c r="JI37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JJ37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JK37" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JL37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JM37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JN37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JO37" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -31267,8 +31933,26 @@
       <c r="JH38" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="JI38" t="n">
+      <c r="JI38" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="JJ38" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JK38" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JL38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JM38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JN38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JO38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32078,8 +32762,26 @@
       <c r="JH39" s="2" t="n">
         <v>108.2</v>
       </c>
-      <c r="JI39" t="n">
+      <c r="JI39" s="2" t="n">
         <v>104.2</v>
+      </c>
+      <c r="JJ39" s="2" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="JK39" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JL39" s="2" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="JM39" s="2" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="JN39" s="2" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="JO39" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32889,8 +33591,26 @@
       <c r="JH40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI40" t="n">
+      <c r="JI40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33700,8 +34420,26 @@
       <c r="JH41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI41" t="n">
+      <c r="JI41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JJ41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -34511,7 +35249,25 @@
       <c r="JH42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JI42" t="n">
+      <c r="JI42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35322,8 +36078,26 @@
       <c r="JH43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JI43" t="n">
+      <c r="JI43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -36133,8 +36907,26 @@
       <c r="JH44" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JI44" t="n">
+      <c r="JI44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="JJ44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JK44" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JL44" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="JM44" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JN44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36944,8 +37736,26 @@
       <c r="JH45" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="JI45" t="n">
+      <c r="JI45" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="JJ45" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JK45" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="JL45" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="JM45" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="JN45" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37755,8 +38565,26 @@
       <c r="JH46" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="JI46" t="n">
+      <c r="JI46" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="JJ46" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JK46" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JL46" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JM46" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="JN46" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JO46" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38566,8 +39394,26 @@
       <c r="JH47" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JI47" t="n">
+      <c r="JI47" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JJ47" s="2" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="JK47" s="2" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="JL47" s="2" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="JM47" s="2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="JN47" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JO47" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -39377,8 +40223,26 @@
       <c r="JH48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JI48" t="n">
+      <c r="JI48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JJ48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JK48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JL48" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JM48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JN48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JO48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -40188,8 +41052,26 @@
       <c r="JH49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JI49" t="n">
+      <c r="JI49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JJ49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JL49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40999,8 +41881,26 @@
       <c r="JH50" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JI50" t="n">
+      <c r="JI50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JJ50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JO50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41810,8 +42710,26 @@
       <c r="JH51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JI51" t="n">
+      <c r="JI51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JJ51" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JK51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JN51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JO51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -42621,8 +43539,26 @@
       <c r="JH52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JI52" t="n">
+      <c r="JI52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JJ52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JK52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JL52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JM52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -43432,8 +44368,26 @@
       <c r="JH53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JI53" t="n">
+      <c r="JI53" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JJ53" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JK53" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JL53" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM53" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JN53" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -44243,8 +45197,26 @@
       <c r="JH54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JI54" t="n">
+      <c r="JI54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JJ54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -45054,8 +46026,26 @@
       <c r="JH55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JI55" t="n">
+      <c r="JI55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45865,8 +46855,26 @@
       <c r="JH56" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="JI56" t="n">
+      <c r="JI56" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="JJ56" s="2" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="JK56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JL56" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JM56" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JN56" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JO56" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -46676,8 +47684,26 @@
       <c r="JH57" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="JI57" t="n">
+      <c r="JI57" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="JJ57" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JK57" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JL57" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="JM57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JN57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="JO57" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -47487,8 +48513,26 @@
       <c r="JH58" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="JI58" t="n">
+      <c r="JI58" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="JJ58" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="JK58" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="JL58" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JM58" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="JN58" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JO58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -48298,8 +49342,26 @@
       <c r="JH59" s="2" t="n">
         <v>331</v>
       </c>
-      <c r="JI59" t="n">
+      <c r="JI59" s="2" t="n">
         <v>370</v>
+      </c>
+      <c r="JJ59" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="JK59" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="JL59" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="JM59" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="JN59" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -49109,8 +50171,26 @@
       <c r="JH60" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="JI60" t="n">
+      <c r="JI60" s="2" t="n">
         <v>1.42</v>
+      </c>
+      <c r="JJ60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JK60" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="JL60" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JM60" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="JN60" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="JO60" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49920,8 +51000,26 @@
       <c r="JH61" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JI61" t="n">
+      <c r="JI61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="JJ61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JK61" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JL61" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JM61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JN61" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="JO61" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -50731,8 +51829,26 @@
       <c r="JH62" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JI62" t="n">
+      <c r="JI62" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JJ62" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JK62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JL62" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JM62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JN62" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JO62" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -51542,8 +52658,26 @@
       <c r="JH63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JI63" t="n">
+      <c r="JI63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JJ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JK63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JL63" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JM63" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JN63" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JO63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -52353,8 +53487,26 @@
       <c r="JH64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JI64" t="n">
+      <c r="JI64" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JJ64" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JK64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JL64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM64" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JO64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -53164,8 +54316,26 @@
       <c r="JH65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JI65" t="n">
+      <c r="JI65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JJ65" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JK65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JL65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JN65" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JO65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -53975,8 +55145,26 @@
       <c r="JH66" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI66" t="n">
+      <c r="JI66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JJ66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JK66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM66" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JO66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -54786,8 +55974,26 @@
       <c r="JH67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI67" t="n">
+      <c r="JI67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -55597,8 +56803,26 @@
       <c r="JH68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI68" t="n">
+      <c r="JI68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -56408,8 +57632,26 @@
       <c r="JH69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JI69" t="n">
+      <c r="JI69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JJ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -57219,8 +58461,26 @@
       <c r="JH70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JI70" t="n">
+      <c r="JI70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JJ70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JK70" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JL70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM70" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -58030,8 +59290,26 @@
       <c r="JH71" s="2" t="n">
         <v>35.3</v>
       </c>
-      <c r="JI71" t="n">
+      <c r="JI71" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="JJ71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JK71" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="JL71" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JM71" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JN71" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JO71" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -58841,8 +60119,26 @@
       <c r="JH72" s="2" t="n">
         <v>55.17</v>
       </c>
-      <c r="JI72" t="n">
+      <c r="JI72" s="2" t="n">
         <v>24.67</v>
+      </c>
+      <c r="JJ72" s="2" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="JK72" s="2" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="JL72" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM72" s="2" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="JN72" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JO72" t="n">
+        <v>37.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -59652,8 +60948,26 @@
       <c r="JH73" s="2" t="n">
         <v>19.47</v>
       </c>
-      <c r="JI73" t="n">
+      <c r="JI73" s="2" t="n">
         <v>13.7</v>
+      </c>
+      <c r="JJ73" s="2" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="JK73" s="2" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="JL73" s="2" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="JM73" s="2" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="JN73" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO73" t="n">
+        <v>15.41</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -60463,8 +61777,26 @@
       <c r="JH74" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JI74" t="n">
+      <c r="JI74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JJ74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JK74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JL74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JN74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JO74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -61274,8 +62606,26 @@
       <c r="JH75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JI75" t="n">
+      <c r="JI75" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JJ75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JK75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JL75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JM75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JN75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JO75" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -62085,8 +63435,26 @@
       <c r="JH76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JI76" t="n">
+      <c r="JI76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JJ76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JK76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JL76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JM76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JN76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -62896,8 +64264,26 @@
       <c r="JH77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JI77" t="n">
+      <c r="JI77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JJ77" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JK77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JN77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JO77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -63707,8 +65093,26 @@
       <c r="JH78" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="JI78" t="n">
+      <c r="JI78" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="JJ78" s="2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="JK78" s="2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="JL78" s="2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JM78" s="2" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JN78" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="JO78" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -64518,8 +65922,26 @@
       <c r="JH79" s="2" t="n">
         <v>8.17</v>
       </c>
-      <c r="JI79" t="n">
+      <c r="JI79" s="2" t="n">
         <v>3.27</v>
+      </c>
+      <c r="JJ79" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="JK79" s="2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="JL79" s="2" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="JM79" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN79" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="JO79" t="n">
+        <v>5.11</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -65329,8 +66751,26 @@
       <c r="JH80" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="JI80" t="n">
+      <c r="JI80" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JJ80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JK80" s="2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="JL80" s="2" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="JM80" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="JN80" s="2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="JO80" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -66140,8 +67580,26 @@
       <c r="JH81" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="JI81" t="n">
+      <c r="JI81" s="2" t="n">
         <v>30.6</v>
+      </c>
+      <c r="JJ81" s="2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="JK81" s="2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="JL81" s="2" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="JM81" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="JN81" s="2" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="JO81" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -66951,8 +68409,26 @@
       <c r="JH82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="JI82" t="n">
+      <c r="JI82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JJ82" s="2" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="JK82" s="2" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="JL82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JM82" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="JN82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JO82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -67762,8 +69238,26 @@
       <c r="JH83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="JI83" t="n">
+      <c r="JI83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JJ83" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JK83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JL83" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="JM83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JN83" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JO83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -68573,8 +70067,26 @@
       <c r="JH84" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="JI84" t="n">
+      <c r="JI84" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JJ84" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JK84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JL84" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JM84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JN84" s="2" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="JO84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -69384,8 +70896,26 @@
       <c r="JH85" s="2" t="n">
         <v>69.7</v>
       </c>
-      <c r="JI85" t="n">
+      <c r="JI85" s="2" t="n">
         <v>67.5</v>
+      </c>
+      <c r="JJ85" s="2" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="JK85" s="2" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="JL85" s="2" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="JM85" s="2" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="JN85" s="2" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="JO85" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -70195,8 +71725,26 @@
       <c r="JH86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI86" t="n">
+      <c r="JI86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -71006,7 +72554,25 @@
       <c r="JH87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI87" t="n">
+      <c r="JI87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -71817,8 +73383,26 @@
       <c r="JH88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI88" t="n">
+      <c r="JI88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM88" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -72628,8 +74212,26 @@
       <c r="JH89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI89" t="n">
+      <c r="JI89" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JJ89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -73439,8 +75041,26 @@
       <c r="JH90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JI90" t="n">
+      <c r="JI90" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="JJ90" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="JK90" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="JL90" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="JM90" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="JN90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JO90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -74250,8 +75870,26 @@
       <c r="JH91" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="JI91" t="n">
+      <c r="JI91" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="JJ91" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="JK91" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="JL91" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="JM91" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="JN91" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JO91" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -75061,8 +76699,26 @@
       <c r="JH92" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="JI92" t="n">
+      <c r="JI92" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="JJ92" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JK92" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="JL92" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="JM92" s="2" t="n">
+        <v>281</v>
+      </c>
+      <c r="JN92" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="JO92" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -75872,8 +77528,26 @@
       <c r="JH93" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JI93" t="n">
+      <c r="JI93" s="2" t="n">
         <v>77.3</v>
+      </c>
+      <c r="JJ93" s="2" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="JK93" s="2" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="JL93" s="2" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JM93" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="JN93" s="2" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="JO93" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -76683,8 +78357,26 @@
       <c r="JH94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JI94" t="n">
+      <c r="JI94" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JJ94" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JK94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JL94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JM94" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JN94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JO94" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -77494,8 +79186,26 @@
       <c r="JH95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI95" t="n">
+      <c r="JI95" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JJ95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -78305,8 +80015,26 @@
       <c r="JH96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI96" t="n">
+      <c r="JI96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JM96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -79116,8 +80844,26 @@
       <c r="JH97" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JI97" t="n">
+      <c r="JI97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JJ97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JK97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JL97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JN97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JO97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -79927,8 +81673,26 @@
       <c r="JH98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JI98" t="n">
+      <c r="JI98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JJ98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JK98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JL98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JM98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JN98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JO98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -80738,8 +82502,26 @@
       <c r="JH99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JI99" t="n">
+      <c r="JI99" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JJ99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JK99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM99" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JN99" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JO99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -81549,8 +83331,26 @@
       <c r="JH100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI100" t="n">
+      <c r="JI100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -82360,8 +84160,26 @@
       <c r="JH101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI101" t="n">
+      <c r="JI101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM101" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -83171,8 +84989,26 @@
       <c r="JH102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JI102" t="n">
+      <c r="JI102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JJ102" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JK102" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="JL102" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JM102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN102" s="2" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JO102" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JO102"/>
+  <dimension ref="A1:JW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1278,8 +1278,32 @@
       <c r="JN1" s="2" t="n">
         <v>10672</v>
       </c>
-      <c r="JO1" t="n">
+      <c r="JO1" s="2" t="n">
         <v>10685</v>
+      </c>
+      <c r="JP1" s="2" t="n">
+        <v>10696</v>
+      </c>
+      <c r="JQ1" s="2" t="n">
+        <v>10696</v>
+      </c>
+      <c r="JR1" s="2" t="n">
+        <v>10696</v>
+      </c>
+      <c r="JS1" s="2" t="n">
+        <v>10702</v>
+      </c>
+      <c r="JT1" s="2" t="n">
+        <v>10712</v>
+      </c>
+      <c r="JU1" s="2" t="n">
+        <v>10720</v>
+      </c>
+      <c r="JV1" s="2" t="n">
+        <v>10729</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>10740</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2107,7 +2131,31 @@
       <c r="JN2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JW2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2936,8 +2984,32 @@
       <c r="JN3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JO3" t="n">
+      <c r="JO3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JP3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JQ3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JR3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JS3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JT3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JU3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JV3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3765,8 +3837,32 @@
       <c r="JN4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JO4" t="n">
+      <c r="JO4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4594,8 +4690,32 @@
       <c r="JN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO5" t="n">
+      <c r="JO5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JP5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5423,8 +5543,32 @@
       <c r="JN6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JO6" t="n">
+      <c r="JO6" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JP6" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JQ6" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JR6" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JS6" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="JT6" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="JU6" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JV6" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6252,8 +6396,32 @@
       <c r="JN7" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="JO7" t="n">
+      <c r="JO7" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JP7" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JQ7" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JR7" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JS7" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JT7" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JU7" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JV7" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7081,8 +7249,32 @@
       <c r="JN8" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="JO8" t="n">
+      <c r="JO8" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JP8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JR8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JS8" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JT8" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JU8" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JV8" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7910,7 +8102,31 @@
       <c r="JN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO9" t="n">
+      <c r="JO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8739,8 +8955,32 @@
       <c r="JN10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO10" t="n">
+      <c r="JO10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JP10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JV10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9568,8 +9808,32 @@
       <c r="JN11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="JO11" t="n">
+      <c r="JO11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JP11" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="JQ11" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="JR11" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="JS11" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JT11" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="JU11" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="JV11" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10397,8 +10661,32 @@
       <c r="JN12" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="JO12" t="n">
+      <c r="JO12" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="JP12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JQ12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JR12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JS12" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JT12" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="JU12" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JV12" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11226,8 +11514,32 @@
       <c r="JN13" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="JO13" t="n">
+      <c r="JO13" s="2" t="n">
         <v>374</v>
+      </c>
+      <c r="JP13" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="JQ13" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="JR13" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="JS13" s="2" t="n">
+        <v>406</v>
+      </c>
+      <c r="JT13" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="JU13" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="JV13" s="2" t="n">
+        <v>390</v>
+      </c>
+      <c r="JW13" t="n">
+        <v>347</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -12055,8 +12367,32 @@
       <c r="JN14" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="JO14" t="n">
+      <c r="JO14" s="2" t="n">
         <v>1.51</v>
+      </c>
+      <c r="JP14" s="2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="JQ14" s="2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="JR14" s="2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="JS14" s="2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="JT14" s="2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="JU14" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="JV14" s="2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="JW14" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12884,8 +13220,32 @@
       <c r="JN15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="JO15" t="n">
+      <c r="JO15" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="JP15" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="JQ15" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="JR15" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="JS15" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="JT15" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="JU15" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JV15" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="JW15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13713,8 +14073,32 @@
       <c r="JN16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JO16" t="n">
+      <c r="JO16" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JP16" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JQ16" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JR16" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JS16" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JT16" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JU16" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JV16" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JW16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14542,8 +14926,32 @@
       <c r="JN17" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JO17" t="n">
+      <c r="JO17" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JP17" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ17" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR17" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JT17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JU17" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JV17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JW17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15371,8 +15779,32 @@
       <c r="JN18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JO18" t="n">
+      <c r="JO18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JR18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JS18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JT18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16200,8 +16632,32 @@
       <c r="JN19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JO19" t="n">
+      <c r="JO19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JP19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JT19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JU19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -17029,8 +17485,32 @@
       <c r="JN20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JO20" t="n">
+      <c r="JO20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JP20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JT20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JU20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17858,8 +18338,32 @@
       <c r="JN21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO21" t="n">
+      <c r="JO21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JP21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18687,8 +19191,32 @@
       <c r="JN22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JO22" t="n">
+      <c r="JO22" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JP22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19516,8 +20044,32 @@
       <c r="JN23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO23" t="n">
+      <c r="JO23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JP23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -20345,8 +20897,32 @@
       <c r="JN24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JO24" t="n">
+      <c r="JO24" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JP24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JQ24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JR24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JS24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JT24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JU24" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JV24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -21174,8 +21750,32 @@
       <c r="JN25" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="JO25" t="n">
+      <c r="JO25" s="2" t="n">
         <v>48.6</v>
+      </c>
+      <c r="JP25" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JQ25" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JR25" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JS25" s="2" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="JT25" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JU25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JW25" t="n">
+        <v>56.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -22003,8 +22603,32 @@
       <c r="JN26" s="2" t="n">
         <v>24.83</v>
       </c>
-      <c r="JO26" t="n">
+      <c r="JO26" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JP26" s="2" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="JQ26" s="2" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="JR26" s="2" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="JS26" s="2" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="JT26" s="2" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="JU26" s="2" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="JV26" s="2" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="JW26" t="n">
+        <v>26.69</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22832,8 +23456,32 @@
       <c r="JN27" s="2" t="n">
         <v>11.46</v>
       </c>
-      <c r="JO27" t="n">
+      <c r="JO27" s="2" t="n">
         <v>10.69</v>
+      </c>
+      <c r="JP27" s="2" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="JQ27" s="2" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="JR27" s="2" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="JS27" s="2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="JT27" s="2" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="JU27" s="2" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="JV27" s="2" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="JW27" t="n">
+        <v>15.09</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23661,8 +24309,32 @@
       <c r="JN28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JO28" t="n">
+      <c r="JO28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JQ28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JR28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JS28" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JT28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JV28" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JW28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24490,8 +25162,32 @@
       <c r="JN29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JO29" t="n">
+      <c r="JO29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JP29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JQ29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JR29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JS29" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JT29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JU29" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JV29" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JW29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -25319,8 +26015,32 @@
       <c r="JN30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JO30" t="n">
+      <c r="JO30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JP30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JQ30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JR30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JS30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JT30" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JU30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JW30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -26148,8 +26868,32 @@
       <c r="JN31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JO31" t="n">
+      <c r="JO31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JP31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JQ31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JR31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JS31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JT31" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JU31" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JV31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JW31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26977,8 +27721,32 @@
       <c r="JN32" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="JO32" t="n">
+      <c r="JO32" s="2" t="n">
         <v>1.66</v>
+      </c>
+      <c r="JP32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS32" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JT32" s="2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="JU32" s="2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="JV32" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="JW32" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27806,8 +28574,32 @@
       <c r="JN33" s="2" t="n">
         <v>4.75</v>
       </c>
-      <c r="JO33" t="n">
+      <c r="JO33" s="2" t="n">
         <v>3.41</v>
+      </c>
+      <c r="JP33" s="2" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="JQ33" s="2" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="JR33" s="2" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="JS33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JT33" s="2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="JU33" s="2" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="JV33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW33" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28635,8 +29427,32 @@
       <c r="JN34" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="JO34" t="n">
+      <c r="JO34" s="2" t="n">
         <v>56.9</v>
+      </c>
+      <c r="JP34" s="2" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="JQ34" s="2" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="JR34" s="2" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="JS34" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JT34" s="2" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="JU34" s="2" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="JV34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JW34" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -29464,8 +30280,32 @@
       <c r="JN35" s="2" t="n">
         <v>21.1</v>
       </c>
-      <c r="JO35" t="n">
+      <c r="JO35" s="2" t="n">
         <v>29.3</v>
+      </c>
+      <c r="JP35" s="2" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="JQ35" s="2" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="JR35" s="2" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="JS35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JT35" s="2" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="JU35" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JV35" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JW35" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -30293,8 +31133,32 @@
       <c r="JN36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JO36" t="n">
+      <c r="JO36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="JP36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JQ36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JR36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JS36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JT36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JU36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JV36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JW36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -31122,8 +31986,32 @@
       <c r="JN37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JO37" t="n">
+      <c r="JO37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="JP37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JQ37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JR37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JS37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JT37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JU37" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JV37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JW37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -31951,8 +32839,32 @@
       <c r="JN38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="JO38" t="n">
+      <c r="JO38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="JP38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JQ38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JR38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JS38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="JT38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="JU38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="JV38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JW38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32780,8 +33692,32 @@
       <c r="JN39" s="2" t="n">
         <v>106.2</v>
       </c>
-      <c r="JO39" t="n">
+      <c r="JO39" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="JP39" s="2" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="JQ39" s="2" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="JR39" s="2" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="JS39" s="2" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="JT39" s="2" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="JU39" s="2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="JV39" s="2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="JW39" t="n">
+        <v>113.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33609,8 +34545,32 @@
       <c r="JN40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO40" t="n">
+      <c r="JO40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -34438,8 +35398,32 @@
       <c r="JN41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO41" t="n">
+      <c r="JO41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -35267,7 +36251,31 @@
       <c r="JN42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO42" t="n">
+      <c r="JO42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36096,7 +37104,31 @@
       <c r="JN43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO43" t="n">
+      <c r="JO43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36925,8 +37957,32 @@
       <c r="JN44" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JO44" t="n">
+      <c r="JO44" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="JP44" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="JQ44" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="JR44" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="JS44" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="JT44" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JU44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JV44" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JW44" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -37754,8 +38810,32 @@
       <c r="JN45" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="JO45" t="n">
+      <c r="JO45" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JP45" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="JQ45" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="JR45" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="JS45" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JT45" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="JU45" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="JV45" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JW45" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -38583,8 +39663,32 @@
       <c r="JN46" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JO46" t="n">
+      <c r="JO46" s="2" t="n">
         <v>277</v>
+      </c>
+      <c r="JP46" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="JQ46" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="JR46" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="JS46" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="JT46" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="JU46" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="JV46" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="JW46" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -39412,8 +40516,32 @@
       <c r="JN47" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="JO47" t="n">
+      <c r="JO47" s="2" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="JP47" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JQ47" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JR47" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JS47" s="2" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="JT47" s="2" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JU47" s="2" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="JV47" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JW47" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -40241,8 +41369,32 @@
       <c r="JN48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JO48" t="n">
+      <c r="JO48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JP48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JQ48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JR48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JS48" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JT48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JU48" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JV48" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JW48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -41070,8 +42222,32 @@
       <c r="JN49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JO49" t="n">
+      <c r="JO49" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JP49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JU49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JW49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -41899,8 +43075,32 @@
       <c r="JN50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JO50" t="n">
+      <c r="JO50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JU50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JW50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -42728,8 +43928,32 @@
       <c r="JN51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JO51" t="n">
+      <c r="JO51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JQ51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JR51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JS51" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JT51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JV51" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JW51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -43557,8 +44781,32 @@
       <c r="JN52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JO52" t="n">
+      <c r="JO52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JP52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JQ52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JR52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JS52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JT52" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JU52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JW52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -44386,8 +45634,32 @@
       <c r="JN53" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JO53" t="n">
+      <c r="JO53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JP53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JQ53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JR53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JS53" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JT53" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JU53" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JV53" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JW53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -45215,8 +46487,32 @@
       <c r="JN54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JO54" t="n">
+      <c r="JO54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -46044,8 +47340,32 @@
       <c r="JN55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO55" t="n">
+      <c r="JO55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JP55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -46873,8 +48193,32 @@
       <c r="JN56" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="JO56" t="n">
+      <c r="JO56" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="JP56" s="2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JQ56" s="2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JR56" s="2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JS56" s="2" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="JT56" s="2" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="JU56" s="2" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="JV56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JW56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -47702,8 +49046,32 @@
       <c r="JN57" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="JO57" t="n">
+      <c r="JO57" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="JP57" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="JQ57" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="JR57" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="JS57" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="JT57" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="JU57" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JV57" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="JW57" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -48531,8 +49899,32 @@
       <c r="JN58" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="JO58" t="n">
+      <c r="JO58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="JP58" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JQ58" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JR58" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JS58" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="JT58" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="JU58" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="JV58" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="JW58" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -49360,8 +50752,32 @@
       <c r="JN59" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="JO59" t="n">
+      <c r="JO59" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="JP59" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="JQ59" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="JR59" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="JS59" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="JT59" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JU59" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="JV59" s="2" t="n">
+        <v>322</v>
+      </c>
+      <c r="JW59" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -50189,8 +51605,32 @@
       <c r="JN60" s="2" t="n">
         <v>1.44</v>
       </c>
-      <c r="JO60" t="n">
+      <c r="JO60" s="2" t="n">
         <v>1.2</v>
+      </c>
+      <c r="JP60" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="JQ60" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="JR60" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="JS60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JT60" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="JU60" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="JV60" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="JW60" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -51018,8 +52458,32 @@
       <c r="JN61" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="JO61" t="n">
+      <c r="JO61" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JP61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JQ61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JR61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JS61" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JT61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JU61" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="JV61" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JW61" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -51847,8 +53311,32 @@
       <c r="JN62" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JO62" t="n">
+      <c r="JO62" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JP62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JQ62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JR62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JS62" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JT62" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JU62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JV62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JW62" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -52676,8 +54164,32 @@
       <c r="JN63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JO63" t="n">
+      <c r="JO63" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JP63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JQ63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JR63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JS63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JT63" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JV63" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JW63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -53505,8 +55017,32 @@
       <c r="JN64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JO64" t="n">
+      <c r="JO64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JP64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JT64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JU64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -54334,8 +55870,32 @@
       <c r="JN65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JO65" t="n">
+      <c r="JO65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JR65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JS65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JT65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JU65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JW65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -55163,8 +56723,32 @@
       <c r="JN66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JO66" t="n">
+      <c r="JO66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JP66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -55992,7 +57576,31 @@
       <c r="JN67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JO67" t="n">
+      <c r="JO67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -56821,8 +58429,32 @@
       <c r="JN68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JO68" t="n">
+      <c r="JO68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JP68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -57650,8 +59282,32 @@
       <c r="JN69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO69" t="n">
+      <c r="JO69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -58479,8 +60135,32 @@
       <c r="JN70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JO70" t="n">
+      <c r="JO70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JP70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JR70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JS70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JT70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JU70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JV70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JW70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -59308,8 +60988,32 @@
       <c r="JN71" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JO71" t="n">
+      <c r="JO71" s="2" t="n">
         <v>40.9</v>
+      </c>
+      <c r="JP71" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JQ71" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JR71" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JS71" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JT71" s="2" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="JU71" s="2" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="JV71" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JW71" t="n">
+        <v>57.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -60137,8 +61841,32 @@
       <c r="JN72" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JO72" t="n">
+      <c r="JO72" s="2" t="n">
         <v>37.67</v>
+      </c>
+      <c r="JP72" s="2" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="JQ72" s="2" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="JR72" s="2" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="JS72" s="2" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="JT72" s="2" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="JU72" s="2" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="JV72" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JW72" t="n">
+        <v>34.18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -60966,8 +62694,32 @@
       <c r="JN73" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JO73" t="n">
+      <c r="JO73" s="2" t="n">
         <v>15.41</v>
+      </c>
+      <c r="JP73" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JQ73" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JR73" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JS73" s="2" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="JT73" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="JU73" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="JV73" s="2" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="JW73" t="n">
+        <v>19.79</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -61795,8 +63547,32 @@
       <c r="JN74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JO74" t="n">
+      <c r="JO74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JP74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JQ74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JR74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JS74" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JT74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JU74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JW74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -62624,8 +64400,32 @@
       <c r="JN75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JO75" t="n">
+      <c r="JO75" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JP75" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JQ75" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JR75" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JS75" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JT75" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JU75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JV75" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JW75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -63453,8 +65253,32 @@
       <c r="JN76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JO76" t="n">
+      <c r="JO76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JQ76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JR76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JS76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JT76" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JU76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JV76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JW76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -64282,8 +66106,32 @@
       <c r="JN77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JO77" t="n">
+      <c r="JO77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JP77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JS77" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JT77" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU77" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JV77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JW77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -65111,8 +66959,32 @@
       <c r="JN78" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="JO78" t="n">
+      <c r="JO78" s="2" t="n">
         <v>2.09</v>
+      </c>
+      <c r="JP78" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="JQ78" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="JR78" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="JS78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="JT78" s="2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="JU78" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JV78" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="JW78" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -65940,8 +67812,32 @@
       <c r="JN79" s="2" t="n">
         <v>3.27</v>
       </c>
-      <c r="JO79" t="n">
+      <c r="JO79" s="2" t="n">
         <v>5.11</v>
+      </c>
+      <c r="JP79" s="2" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="JQ79" s="2" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="JR79" s="2" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="JS79" s="2" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="JT79" s="2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="JU79" s="2" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="JV79" s="2" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="JW79" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -66769,8 +68665,32 @@
       <c r="JN80" s="2" t="n">
         <v>36.7</v>
       </c>
-      <c r="JO80" t="n">
+      <c r="JO80" s="2" t="n">
         <v>45.7</v>
+      </c>
+      <c r="JP80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JQ80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JR80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JS80" s="2" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="JT80" s="2" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="JU80" s="2" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="JV80" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="JW80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -67598,8 +69518,32 @@
       <c r="JN81" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="JO81" t="n">
+      <c r="JO81" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JP81" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="JQ81" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="JR81" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="JS81" s="2" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="JT81" s="2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="JU81" s="2" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="JV81" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="JW81" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -68427,8 +70371,32 @@
       <c r="JN82" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="JO82" t="n">
+      <c r="JO82" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="JP82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JQ82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JR82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JS82" s="2" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="JT82" s="2" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="JU82" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="JV82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JW82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -69256,8 +71224,32 @@
       <c r="JN83" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="JO83" t="n">
+      <c r="JO83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="JP83" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JQ83" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JR83" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JS83" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JT83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JU83" s="2" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="JV83" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JW83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -70085,8 +72077,32 @@
       <c r="JN84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="JO84" t="n">
+      <c r="JO84" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="JP84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JQ84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JR84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JS84" s="2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="JT84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JU84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JV84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JW84" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -70914,8 +72930,32 @@
       <c r="JN85" s="2" t="n">
         <v>78.7</v>
       </c>
-      <c r="JO85" t="n">
+      <c r="JO85" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="JP85" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="JQ85" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="JR85" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="JS85" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JT85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JU85" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JV85" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JW85" t="n">
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -71743,8 +73783,32 @@
       <c r="JN86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO86" t="n">
+      <c r="JO86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -72572,8 +74636,32 @@
       <c r="JN87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO87" t="n">
+      <c r="JO87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JP87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JU87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -73401,8 +75489,32 @@
       <c r="JN88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JO88" t="n">
+      <c r="JO88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JP88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -74230,8 +76342,32 @@
       <c r="JN89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JO89" t="n">
+      <c r="JO89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -75059,8 +77195,32 @@
       <c r="JN90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JO90" t="n">
+      <c r="JO90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="JP90" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JQ90" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JR90" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JS90" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="JT90" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="JU90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JV90" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="JW90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -75888,8 +78048,32 @@
       <c r="JN91" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="JO91" t="n">
+      <c r="JO91" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="JP91" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JQ91" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JR91" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JS91" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JT91" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="JU91" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="JV91" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="JW91" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -76717,8 +78901,32 @@
       <c r="JN92" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="JO92" t="n">
+      <c r="JO92" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="JP92" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="JQ92" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="JR92" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="JS92" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="JT92" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="JU92" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="JV92" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JW92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -77546,8 +79754,32 @@
       <c r="JN93" s="2" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="JO93" t="n">
+      <c r="JO93" s="2" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="JP93" s="2" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="JQ93" s="2" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="JR93" s="2" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="JS93" s="2" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="JT93" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JU93" s="2" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="JV93" s="2" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="JW93" t="n">
+        <v>70.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -78375,8 +80607,32 @@
       <c r="JN94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JO94" t="n">
+      <c r="JO94" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JP94" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JQ94" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JR94" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JS94" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JT94" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JU94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JV94" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JW94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -79204,8 +81460,32 @@
       <c r="JN95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO95" t="n">
+      <c r="JO95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JP95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JV95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -80033,7 +82313,31 @@
       <c r="JN96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JO96" t="n">
+      <c r="JO96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JV96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW96" t="n">
         <v>10</v>
       </c>
     </row>
@@ -80862,8 +83166,32 @@
       <c r="JN97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JO97" t="n">
+      <c r="JO97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JP97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JQ97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JR97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JS97" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JT97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JU97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JW97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -81691,8 +84019,32 @@
       <c r="JN98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JO98" t="n">
+      <c r="JO98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JP98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JQ98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JR98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JS98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JT98" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JU98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JV98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JW98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -82520,8 +84872,32 @@
       <c r="JN99" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JO99" t="n">
+      <c r="JO99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JP99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JQ99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JR99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JS99" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JT99" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JU99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JW99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -83349,8 +85725,32 @@
       <c r="JN100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JO100" t="n">
+      <c r="JO100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JP100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -84178,7 +86578,31 @@
       <c r="JN101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JO101" t="n">
+      <c r="JO101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -85007,8 +87431,32 @@
       <c r="JN102" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="JO102" t="n">
+      <c r="JO102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JP102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JQ102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JR102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JS102" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JT102" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JU102" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JV102" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JW102" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JW102"/>
+  <dimension ref="A1:JX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1302,8 +1302,11 @@
       <c r="JV1" s="2" t="n">
         <v>10729</v>
       </c>
-      <c r="JW1" t="n">
+      <c r="JW1" s="2" t="n">
         <v>10740</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>10743</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2155,7 +2158,10 @@
       <c r="JV2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JX2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3008,8 +3014,11 @@
       <c r="JV3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JW3" t="n">
+      <c r="JW3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3861,7 +3870,10 @@
       <c r="JV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JW4" t="n">
+      <c r="JW4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,7 +4726,10 @@
       <c r="JV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JW5" t="n">
+      <c r="JW5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5567,8 +5582,11 @@
       <c r="JV6" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JW6" t="n">
+      <c r="JW6" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6420,8 +6438,11 @@
       <c r="JV7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JW7" t="n">
+      <c r="JW7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7273,8 +7294,11 @@
       <c r="JV8" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JW8" t="n">
+      <c r="JW8" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JX8" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8126,7 +8150,10 @@
       <c r="JV9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JW9" t="n">
+      <c r="JW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8979,8 +9006,11 @@
       <c r="JV10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JW10" t="n">
+      <c r="JW10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9832,8 +9862,11 @@
       <c r="JV11" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="JW11" t="n">
+      <c r="JW11" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10685,8 +10718,11 @@
       <c r="JV12" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JW12" t="n">
+      <c r="JW12" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="JX12" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11538,8 +11574,11 @@
       <c r="JV13" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="JW13" t="n">
+      <c r="JW13" s="2" t="n">
         <v>347</v>
+      </c>
+      <c r="JX13" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -12391,8 +12430,11 @@
       <c r="JV14" s="2" t="n">
         <v>1.79</v>
       </c>
-      <c r="JW14" t="n">
+      <c r="JW14" s="2" t="n">
         <v>1.71</v>
+      </c>
+      <c r="JX14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -13244,8 +13286,11 @@
       <c r="JV15" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="JW15" t="n">
+      <c r="JW15" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="JX15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -14097,8 +14142,11 @@
       <c r="JV16" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JW16" t="n">
+      <c r="JW16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JX16" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14950,7 +14998,10 @@
       <c r="JV17" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JW17" t="n">
+      <c r="JW17" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JX17" t="n">
         <v>28</v>
       </c>
     </row>
@@ -15803,8 +15854,11 @@
       <c r="JV18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JW18" t="n">
+      <c r="JW18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JX18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16656,8 +16710,11 @@
       <c r="JV19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JW19" t="n">
+      <c r="JW19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JX19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -17509,8 +17566,11 @@
       <c r="JV20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JW20" t="n">
+      <c r="JW20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JX20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -18362,8 +18422,11 @@
       <c r="JV21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JW21" t="n">
+      <c r="JW21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -19215,8 +19278,11 @@
       <c r="JV22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JW22" t="n">
+      <c r="JW22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -20068,8 +20134,11 @@
       <c r="JV23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JW23" t="n">
+      <c r="JW23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JX23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -20921,8 +20990,11 @@
       <c r="JV24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JW24" t="n">
+      <c r="JW24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JX24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -21774,8 +21846,11 @@
       <c r="JV25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JW25" t="n">
+      <c r="JW25" s="2" t="n">
         <v>56.5</v>
+      </c>
+      <c r="JX25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -22627,8 +22702,11 @@
       <c r="JV26" s="2" t="n">
         <v>35.45</v>
       </c>
-      <c r="JW26" t="n">
+      <c r="JW26" s="2" t="n">
         <v>26.69</v>
+      </c>
+      <c r="JX26" t="n">
+        <v>22.93</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -23480,8 +23558,11 @@
       <c r="JV27" s="2" t="n">
         <v>17.73</v>
       </c>
-      <c r="JW27" t="n">
+      <c r="JW27" s="2" t="n">
         <v>15.09</v>
+      </c>
+      <c r="JX27" t="n">
+        <v>15.29</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -24333,8 +24414,11 @@
       <c r="JV28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JW28" t="n">
+      <c r="JW28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JX28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -25186,8 +25270,11 @@
       <c r="JV29" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JW29" t="n">
+      <c r="JW29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JX29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -26039,8 +26126,11 @@
       <c r="JV30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JW30" t="n">
+      <c r="JW30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JX30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -26892,8 +26982,11 @@
       <c r="JV31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JW31" t="n">
+      <c r="JW31" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JX31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -27745,8 +27838,11 @@
       <c r="JV32" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="JW32" t="n">
+      <c r="JW32" s="2" t="n">
         <v>2.17</v>
+      </c>
+      <c r="JX32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -28598,8 +28694,11 @@
       <c r="JV33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JW33" t="n">
+      <c r="JW33" s="2" t="n">
         <v>3.85</v>
+      </c>
+      <c r="JX33" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -29451,8 +29550,11 @@
       <c r="JV34" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JW34" t="n">
+      <c r="JW34" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JX34" t="n">
+        <v>40.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -30304,8 +30406,11 @@
       <c r="JV35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JW35" t="n">
+      <c r="JW35" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JX35" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -31157,7 +31262,10 @@
       <c r="JV36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JW36" t="n">
+      <c r="JW36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JX36" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -32010,8 +32118,11 @@
       <c r="JV37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JW37" t="n">
+      <c r="JW37" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JX37" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -32863,8 +32974,11 @@
       <c r="JV38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="JW38" t="n">
+      <c r="JW38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JX38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -33716,8 +33830,11 @@
       <c r="JV39" s="2" t="n">
         <v>111.8</v>
       </c>
-      <c r="JW39" t="n">
+      <c r="JW39" s="2" t="n">
         <v>113.5</v>
+      </c>
+      <c r="JX39" t="n">
+        <v>113.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -34569,7 +34686,10 @@
       <c r="JV40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JW40" t="n">
+      <c r="JW40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35422,7 +35542,10 @@
       <c r="JV41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JW41" t="n">
+      <c r="JW41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36275,7 +36398,10 @@
       <c r="JV42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JW42" t="n">
+      <c r="JW42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37128,7 +37254,10 @@
       <c r="JV43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JW43" t="n">
+      <c r="JW43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37981,8 +38110,11 @@
       <c r="JV44" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="JW44" t="n">
+      <c r="JW44" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="JX44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -38834,8 +38966,11 @@
       <c r="JV45" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="JW45" t="n">
+      <c r="JW45" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="JX45" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -39687,8 +39822,11 @@
       <c r="JV46" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="JW46" t="n">
+      <c r="JW46" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="JX46" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -40540,8 +40678,11 @@
       <c r="JV47" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="JW47" t="n">
+      <c r="JW47" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JX47" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -41393,8 +41534,11 @@
       <c r="JV48" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JW48" t="n">
+      <c r="JW48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JX48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -42246,8 +42390,11 @@
       <c r="JV49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JW49" t="n">
+      <c r="JW49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JX49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -43099,8 +43246,11 @@
       <c r="JV50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JW50" t="n">
+      <c r="JW50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JX50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -43952,8 +44102,11 @@
       <c r="JV51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JW51" t="n">
+      <c r="JW51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JX51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -44805,8 +44958,11 @@
       <c r="JV52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JW52" t="n">
+      <c r="JW52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JX52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -45658,8 +45814,11 @@
       <c r="JV53" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JW53" t="n">
+      <c r="JW53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JX53" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -46511,8 +46670,11 @@
       <c r="JV54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JW54" t="n">
+      <c r="JW54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JX54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -47364,8 +47526,11 @@
       <c r="JV55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JW55" t="n">
+      <c r="JW55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -48217,8 +48382,11 @@
       <c r="JV56" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JW56" t="n">
+      <c r="JW56" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="JX56" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -49070,8 +49238,11 @@
       <c r="JV57" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="JW57" t="n">
+      <c r="JW57" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="JX57" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -49923,8 +50094,11 @@
       <c r="JV58" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="JW58" t="n">
+      <c r="JW58" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="JX58" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -50776,8 +50950,11 @@
       <c r="JV59" s="2" t="n">
         <v>322</v>
       </c>
-      <c r="JW59" t="n">
+      <c r="JW59" s="2" t="n">
         <v>376</v>
+      </c>
+      <c r="JX59" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -51629,8 +51806,11 @@
       <c r="JV60" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="JW60" t="n">
+      <c r="JW60" s="2" t="n">
         <v>1.85</v>
+      </c>
+      <c r="JX60" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -52482,8 +52662,11 @@
       <c r="JV61" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JW61" t="n">
+      <c r="JW61" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JX61" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -53335,8 +53518,11 @@
       <c r="JV62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JW62" t="n">
+      <c r="JW62" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JX62" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -54188,8 +54374,11 @@
       <c r="JV63" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JW63" t="n">
+      <c r="JW63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JX63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -55041,8 +55230,11 @@
       <c r="JV64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JW64" t="n">
+      <c r="JW64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JX64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -55894,8 +56086,11 @@
       <c r="JV65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JW65" t="n">
+      <c r="JW65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JX65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -56747,8 +56942,11 @@
       <c r="JV66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JW66" t="n">
+      <c r="JW66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JX66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -57600,7 +57798,10 @@
       <c r="JV67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JW67" t="n">
+      <c r="JW67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -58453,8 +58654,11 @@
       <c r="JV68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JW68" t="n">
+      <c r="JW68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JX68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -59306,8 +59510,11 @@
       <c r="JV69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JW69" t="n">
+      <c r="JW69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JX69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -60159,7 +60366,10 @@
       <c r="JV70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JW70" t="n">
+      <c r="JW70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JX70" t="n">
         <v>19</v>
       </c>
     </row>
@@ -61012,8 +61222,11 @@
       <c r="JV71" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="JW71" t="n">
+      <c r="JW71" s="2" t="n">
         <v>57.9</v>
+      </c>
+      <c r="JX71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -61865,8 +62078,11 @@
       <c r="JV72" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JW72" t="n">
+      <c r="JW72" s="2" t="n">
         <v>34.18</v>
+      </c>
+      <c r="JX72" t="n">
+        <v>33.1</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -62718,8 +62934,11 @@
       <c r="JV73" s="2" t="n">
         <v>21.47</v>
       </c>
-      <c r="JW73" t="n">
+      <c r="JW73" s="2" t="n">
         <v>19.79</v>
+      </c>
+      <c r="JX73" t="n">
+        <v>17.42</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -63571,8 +63790,11 @@
       <c r="JV74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JW74" t="n">
+      <c r="JW74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JX74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -64424,8 +64646,11 @@
       <c r="JV75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JW75" t="n">
+      <c r="JW75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JX75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -65277,8 +65502,11 @@
       <c r="JV76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JW76" t="n">
+      <c r="JW76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JX76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -66130,8 +66358,11 @@
       <c r="JV77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JW77" t="n">
+      <c r="JW77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JX77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -66983,8 +67214,11 @@
       <c r="JV78" s="2" t="n">
         <v>3.47</v>
       </c>
-      <c r="JW78" t="n">
+      <c r="JW78" s="2" t="n">
         <v>2.68</v>
+      </c>
+      <c r="JX78" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -67836,8 +68070,11 @@
       <c r="JV79" s="2" t="n">
         <v>7.43</v>
       </c>
-      <c r="JW79" t="n">
+      <c r="JW79" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="JX79" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -68689,8 +68926,11 @@
       <c r="JV80" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="JW80" t="n">
+      <c r="JW80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JX80" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -69542,8 +69782,11 @@
       <c r="JV81" s="2" t="n">
         <v>13.5</v>
       </c>
-      <c r="JW81" t="n">
+      <c r="JW81" s="2" t="n">
         <v>21.6</v>
+      </c>
+      <c r="JX81" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -70395,8 +70638,11 @@
       <c r="JV82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JW82" t="n">
+      <c r="JW82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JX82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -71248,8 +71494,11 @@
       <c r="JV83" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="JW83" t="n">
+      <c r="JW83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="JX83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -72101,8 +72350,11 @@
       <c r="JV84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="JW84" t="n">
+      <c r="JW84" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="JX84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -72954,8 +73206,11 @@
       <c r="JV85" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JW85" t="n">
+      <c r="JW85" s="2" t="n">
         <v>96.09999999999999</v>
+      </c>
+      <c r="JX85" t="n">
+        <v>121.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -73807,8 +74062,11 @@
       <c r="JV86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JW86" t="n">
+      <c r="JW86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JX86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -74660,8 +74918,11 @@
       <c r="JV87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JW87" t="n">
+      <c r="JW87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JX87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -75513,8 +75774,11 @@
       <c r="JV88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JW88" t="n">
+      <c r="JW88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JX88" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -76366,8 +76630,11 @@
       <c r="JV89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JW89" t="n">
+      <c r="JW89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JX89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -77219,8 +77486,11 @@
       <c r="JV90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JW90" t="n">
+      <c r="JW90" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JX90" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -78072,8 +78342,11 @@
       <c r="JV91" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="JW91" t="n">
+      <c r="JW91" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="JX91" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -78925,8 +79198,11 @@
       <c r="JV92" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JW92" t="n">
+      <c r="JW92" s="2" t="n">
         <v>264</v>
+      </c>
+      <c r="JX92" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -79778,8 +80054,11 @@
       <c r="JV93" s="2" t="n">
         <v>65.2</v>
       </c>
-      <c r="JW93" t="n">
+      <c r="JW93" s="2" t="n">
         <v>70.2</v>
+      </c>
+      <c r="JX93" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -80631,8 +80910,11 @@
       <c r="JV94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JW94" t="n">
+      <c r="JW94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JX94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -81484,8 +81766,11 @@
       <c r="JV95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JW95" t="n">
+      <c r="JW95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JX95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -82337,8 +82622,11 @@
       <c r="JV96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JW96" t="n">
+      <c r="JW96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -83190,8 +83478,11 @@
       <c r="JV97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JW97" t="n">
+      <c r="JW97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JX97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -84043,8 +84334,11 @@
       <c r="JV98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JW98" t="n">
+      <c r="JW98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JX98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -84896,8 +85190,11 @@
       <c r="JV99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JW99" t="n">
+      <c r="JW99" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JX99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -85749,8 +86046,11 @@
       <c r="JV100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JW100" t="n">
+      <c r="JW100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JX100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -86602,7 +86902,10 @@
       <c r="JV101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JW101" t="n">
+      <c r="JW101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -87455,8 +87758,11 @@
       <c r="JV102" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="JW102" t="n">
+      <c r="JW102" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JX102" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="103" ht="13.8" customHeight="1" s="1"/>

--- a/django_AFL_ML/Data/Sydney_stats.xlsx
+++ b/django_AFL_ML/Data/Sydney_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JY102"/>
+  <dimension ref="A1:KK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IM94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IY103" activeCellId="0" sqref="IY103"/>
@@ -1308,7 +1308,43 @@
       <c r="JX1" s="2" t="n">
         <v>10743</v>
       </c>
-      <c r="JY1" t="n">
+      <c r="JY1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="JZ1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KA1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KB1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KC1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KD1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KE1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KF1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KG1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KH1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KI1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KJ1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KK1" t="n">
         <v>10749</v>
       </c>
     </row>
@@ -2167,7 +2203,43 @@
       <c r="JX2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KB2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KH2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KK2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3026,7 +3098,43 @@
       <c r="JX3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="JY3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JZ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KA3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KB3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KD3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KE3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KF3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KG3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KH3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KI3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KJ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KK3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3885,7 +3993,43 @@
       <c r="JX4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="JY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4744,7 +4888,43 @@
       <c r="JX5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JY5" t="n">
+      <c r="JY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5603,7 +5783,43 @@
       <c r="JX6" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="JY6" t="n">
+      <c r="JY6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="JZ6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KA6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KB6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KC6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KD6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KE6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KF6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KG6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KH6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KI6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KJ6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KK6" t="n">
         <v>95</v>
       </c>
     </row>
@@ -6462,7 +6678,43 @@
       <c r="JX7" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JY7" t="n">
+      <c r="JY7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JZ7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KA7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KB7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KC7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KD7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KE7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KF7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KG7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KH7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KI7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KJ7" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KK7" t="n">
         <v>94</v>
       </c>
     </row>
@@ -7321,7 +7573,43 @@
       <c r="JX8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JY8" t="n">
+      <c r="JY8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8180,7 +8468,43 @@
       <c r="JX9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JY9" t="n">
+      <c r="JY9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9039,7 +9363,43 @@
       <c r="JX10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JY10" t="n">
+      <c r="JY10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9898,7 +10258,43 @@
       <c r="JX11" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="JY11" t="n">
+      <c r="JY11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JZ11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KA11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KB11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KC11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KD11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KE11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KF11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KG11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KH11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KI11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KJ11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KK11" t="n">
         <v>217</v>
       </c>
     </row>
@@ -10757,7 +11153,43 @@
       <c r="JX12" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="JY12" t="n">
+      <c r="JY12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JZ12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KA12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KB12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KC12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KD12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KE12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KF12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KG12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KH12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KI12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KJ12" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KK12" t="n">
         <v>103</v>
       </c>
     </row>
@@ -11616,7 +12048,43 @@
       <c r="JX13" s="2" t="n">
         <v>321</v>
       </c>
-      <c r="JY13" t="n">
+      <c r="JY13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="JZ13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KA13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KB13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KC13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KD13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KE13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KF13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KG13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KH13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KI13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KJ13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KK13" t="n">
         <v>320</v>
       </c>
     </row>
@@ -12475,7 +12943,43 @@
       <c r="JX14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JY14" t="n">
+      <c r="JY14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="JZ14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KA14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KB14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KC14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KD14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KE14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KF14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KG14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KH14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KI14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KJ14" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KK14" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -13334,7 +13838,43 @@
       <c r="JX15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JY15" t="n">
+      <c r="JY15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JZ15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KA15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KB15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KC15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KD15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KE15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KF15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KG15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KH15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KI15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KJ15" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KK15" t="n">
         <v>83</v>
       </c>
     </row>
@@ -14193,7 +14733,43 @@
       <c r="JX16" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JY16" t="n">
+      <c r="JY16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JZ16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KA16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KB16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KD16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KE16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KF16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KG16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KH16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KI16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KJ16" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KK16" t="n">
         <v>75</v>
       </c>
     </row>
@@ -15052,7 +15628,43 @@
       <c r="JX17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JY17" t="n">
+      <c r="JY17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JZ17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KA17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KB17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KC17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KD17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KE17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KF17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KG17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KH17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KI17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KJ17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KK17" t="n">
         <v>31</v>
       </c>
     </row>
@@ -15911,7 +16523,43 @@
       <c r="JX18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JY18" t="n">
+      <c r="JY18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK18" t="n">
         <v>15</v>
       </c>
     </row>
@@ -16770,7 +17418,43 @@
       <c r="JX19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JY19" t="n">
+      <c r="JY19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JZ19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KA19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KB19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KE19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KF19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KG19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KH19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KI19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KJ19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KK19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17629,7 +18313,43 @@
       <c r="JX20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JY20" t="n">
+      <c r="JY20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -18488,7 +19208,43 @@
       <c r="JX21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY21" t="n">
+      <c r="JY21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -19347,7 +20103,43 @@
       <c r="JX22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY22" t="n">
+      <c r="JY22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KG22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KH22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KI22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -20206,7 +20998,43 @@
       <c r="JX23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JY23" t="n">
+      <c r="JY23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21065,7 +21893,43 @@
       <c r="JX24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JY24" t="n">
+      <c r="JY24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JZ24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KA24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KB24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KC24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KD24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KE24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KF24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KG24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KH24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KI24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KJ24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KK24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -21924,7 +22788,43 @@
       <c r="JX25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JY25" t="n">
+      <c r="JY25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JZ25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KA25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KB25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KC25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KD25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KE25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KF25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KG25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KH25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KI25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KJ25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KK25" t="n">
         <v>56</v>
       </c>
     </row>
@@ -22783,7 +23683,43 @@
       <c r="JX26" s="2" t="n">
         <v>22.93</v>
       </c>
-      <c r="JY26" t="n">
+      <c r="JY26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="JZ26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KA26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KB26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KC26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KD26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KE26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KF26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KG26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KH26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KI26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KJ26" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KK26" t="n">
         <v>22.86</v>
       </c>
     </row>
@@ -23642,7 +24578,43 @@
       <c r="JX27" s="2" t="n">
         <v>15.29</v>
       </c>
-      <c r="JY27" t="n">
+      <c r="JY27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="JZ27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KA27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KB27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KC27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KD27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KE27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KF27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KG27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KH27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KI27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KJ27" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KK27" t="n">
         <v>12.8</v>
       </c>
     </row>
@@ -24501,7 +25473,43 @@
       <c r="JX28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JY28" t="n">
+      <c r="JY28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JZ28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KA28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KB28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KC28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KD28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KE28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KF28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KG28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KH28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KI28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KJ28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KK28" t="n">
         <v>44</v>
       </c>
     </row>
@@ -25360,7 +26368,43 @@
       <c r="JX29" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JY29" t="n">
+      <c r="JY29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JZ29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KA29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KC29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KD29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK29" t="n">
         <v>55</v>
       </c>
     </row>
@@ -26219,7 +27263,43 @@
       <c r="JX30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JY30" t="n">
+      <c r="JY30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KI30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KJ30" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK30" t="n">
         <v>48</v>
       </c>
     </row>
@@ -27078,7 +28158,43 @@
       <c r="JX31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JY31" t="n">
+      <c r="JY31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JZ31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KA31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KB31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KC31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KD31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KE31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KF31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KG31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KH31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KI31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KJ31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KK31" t="n">
         <v>56</v>
       </c>
     </row>
@@ -27937,7 +29053,43 @@
       <c r="JX32" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="JY32" t="n">
+      <c r="JY32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="JZ32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KA32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KB32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KC32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KD32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KE32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KF32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KG32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KH32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KI32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KJ32" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KK32" t="n">
         <v>2.24</v>
       </c>
     </row>
@@ -28796,7 +29948,43 @@
       <c r="JX33" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="JY33" t="n">
+      <c r="JY33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29655,7 +30843,43 @@
       <c r="JX34" s="2" t="n">
         <v>40.8</v>
       </c>
-      <c r="JY34" t="n">
+      <c r="JY34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="JZ34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KA34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KB34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KC34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KD34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KE34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KF34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KG34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KH34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KI34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KJ34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KK34" t="n">
         <v>41.1</v>
       </c>
     </row>
@@ -30514,7 +31738,43 @@
       <c r="JX35" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="JY35" t="n">
+      <c r="JY35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JZ35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KA35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KB35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KC35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KD35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KE35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KF35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KG35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KH35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KI35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KJ35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KK35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -31373,7 +32633,43 @@
       <c r="JX36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JY36" t="n">
+      <c r="JY36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JZ36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KA36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KB36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KC36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KD36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KE36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KF36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KG36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KH36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KI36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KJ36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KK36" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -32232,7 +33528,43 @@
       <c r="JX37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JY37" t="n">
+      <c r="JY37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JZ37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KA37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KB37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KC37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KD37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KE37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KF37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KG37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KH37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KI37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KJ37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KK37" t="n">
         <v>85.8</v>
       </c>
     </row>
@@ -33091,7 +34423,43 @@
       <c r="JX38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="JY38" t="n">
+      <c r="JY38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JZ38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KA38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KB38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KC38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KD38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KE38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KF38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KG38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KH38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KI38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KJ38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KK38" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -33950,7 +35318,43 @@
       <c r="JX39" s="2" t="n">
         <v>113.7</v>
       </c>
-      <c r="JY39" t="n">
+      <c r="JY39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JZ39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KA39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KB39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KC39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KD39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KE39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KF39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KG39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KH39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KI39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KJ39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KK39" t="n">
         <v>114.7</v>
       </c>
     </row>
@@ -34809,7 +36213,43 @@
       <c r="JX40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JY40" t="n">
+      <c r="JY40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35668,7 +37108,43 @@
       <c r="JX41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY41" t="n">
+      <c r="JY41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36527,7 +38003,43 @@
       <c r="JX42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JY42" t="n">
+      <c r="JY42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37386,7 +38898,43 @@
       <c r="JX43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY43" t="n">
+      <c r="JY43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38245,7 +39793,43 @@
       <c r="JX44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JY44" t="n">
+      <c r="JY44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JZ44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KA44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KB44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KC44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KD44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KE44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KF44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KG44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KH44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KI44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KJ44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KK44" t="n">
         <v>144</v>
       </c>
     </row>
@@ -39104,7 +40688,43 @@
       <c r="JX45" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="JY45" t="n">
+      <c r="JY45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JZ45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KA45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KB45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KC45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KD45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KE45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KF45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KG45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KH45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KI45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KJ45" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KK45" t="n">
         <v>166</v>
       </c>
     </row>
@@ -39963,7 +41583,43 @@
       <c r="JX46" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="JY46" t="n">
+      <c r="JY46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="JZ46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KA46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KB46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KC46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KD46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KE46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KF46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KG46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KH46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KI46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KJ46" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KK46" t="n">
         <v>224</v>
       </c>
     </row>
@@ -40822,7 +42478,43 @@
       <c r="JX47" s="2" t="n">
         <v>70.7</v>
       </c>
-      <c r="JY47" t="n">
+      <c r="JY47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JZ47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KA47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KB47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KC47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KD47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KE47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KF47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KG47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KH47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KI47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KJ47" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KK47" t="n">
         <v>70</v>
       </c>
     </row>
@@ -41681,7 +43373,43 @@
       <c r="JX48" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JY48" t="n">
+      <c r="JY48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JZ48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KA48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KC48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KD48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK48" t="n">
         <v>55</v>
       </c>
     </row>
@@ -42540,7 +44268,43 @@
       <c r="JX49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY49" t="n">
+      <c r="JY49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JZ49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KA49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KB49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KC49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KD49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KE49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KF49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KG49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KH49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KI49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KJ49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KK49" t="n">
         <v>16</v>
       </c>
     </row>
@@ -43399,7 +45163,43 @@
       <c r="JX50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY50" t="n">
+      <c r="JY50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -44258,7 +46058,43 @@
       <c r="JX51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JY51" t="n">
+      <c r="JY51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JZ51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KA51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KB51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KC51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KD51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KE51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KF51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KG51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KH51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KI51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KJ51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KK51" t="n">
         <v>44</v>
       </c>
     </row>
@@ -45117,7 +46953,43 @@
       <c r="JX52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JY52" t="n">
+      <c r="JY52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KI52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KJ52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK52" t="n">
         <v>48</v>
       </c>
     </row>
@@ -45976,7 +47848,43 @@
       <c r="JX53" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JY53" t="n">
+      <c r="JY53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JZ53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KA53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KB53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KC53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KD53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KE53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KF53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KG53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KH53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KI53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KJ53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KK53" t="n">
         <v>49</v>
       </c>
     </row>
@@ -46835,7 +48743,43 @@
       <c r="JX54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JY54" t="n">
+      <c r="JY54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -47694,7 +49638,43 @@
       <c r="JX55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY55" t="n">
+      <c r="JY55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -48553,7 +50533,43 @@
       <c r="JX56" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="JY56" t="n">
+      <c r="JY56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JZ56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KA56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KB56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KC56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KD56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KE56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KF56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KG56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KH56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KI56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KJ56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KK56" t="n">
         <v>42.9</v>
       </c>
     </row>
@@ -49412,7 +51428,43 @@
       <c r="JX57" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="JY57" t="n">
+      <c r="JY57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="JZ57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KA57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KB57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KC57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KD57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KE57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KF57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KG57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KH57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KI57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KJ57" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KK57" t="n">
         <v>193</v>
       </c>
     </row>
@@ -50271,7 +52323,43 @@
       <c r="JX58" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="JY58" t="n">
+      <c r="JY58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="JZ58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KA58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KB58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KC58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KD58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KE58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KF58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KG58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KH58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KI58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KJ58" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KK58" t="n">
         <v>110</v>
       </c>
     </row>
@@ -51130,7 +53218,43 @@
       <c r="JX59" s="2" t="n">
         <v>331</v>
       </c>
-      <c r="JY59" t="n">
+      <c r="JY59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="JZ59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KA59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KB59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KC59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KD59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KE59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KF59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KG59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KH59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KI59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KJ59" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KK59" t="n">
         <v>303</v>
       </c>
     </row>
@@ -51989,7 +54113,43 @@
       <c r="JX60" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="JY60" t="n">
+      <c r="JY60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="JZ60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KA60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KB60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KC60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KD60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KE60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KF60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KG60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KH60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KI60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KJ60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KK60" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -52848,7 +55008,43 @@
       <c r="JX61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JY61" t="n">
+      <c r="JY61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JZ61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KA61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KB61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KC61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KD61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KE61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KF61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KG61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KH61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KI61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KJ61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KK61" t="n">
         <v>68</v>
       </c>
     </row>
@@ -53707,7 +55903,43 @@
       <c r="JX62" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JY62" t="n">
+      <c r="JY62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JZ62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KA62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KB62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KC62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KD62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KE62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KF62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KG62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KH62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KI62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KJ62" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KK62" t="n">
         <v>80</v>
       </c>
     </row>
@@ -54566,7 +56798,43 @@
       <c r="JX63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JY63" t="n">
+      <c r="JY63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JZ63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KA63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KB63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KC63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KD63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KE63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KF63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KG63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KH63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KI63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KJ63" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KK63" t="n">
         <v>39</v>
       </c>
     </row>
@@ -55425,7 +57693,43 @@
       <c r="JX64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JY64" t="n">
+      <c r="JY64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JZ64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KA64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KB64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KE64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KF64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KG64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KH64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KI64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KJ64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KK64" t="n">
         <v>20</v>
       </c>
     </row>
@@ -56284,7 +58588,43 @@
       <c r="JX65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JY65" t="n">
+      <c r="JY65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK65" t="n">
         <v>15</v>
       </c>
     </row>
@@ -57143,7 +59483,43 @@
       <c r="JX66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JY66" t="n">
+      <c r="JY66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK66" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58002,7 +60378,43 @@
       <c r="JX67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY67" t="n">
+      <c r="JY67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -58861,7 +61273,43 @@
       <c r="JX68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JY68" t="n">
+      <c r="JY68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK68" t="n">
         <v>7</v>
       </c>
     </row>
@@ -59720,7 +62168,43 @@
       <c r="JX69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JY69" t="n">
+      <c r="JY69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -60579,7 +63063,43 @@
       <c r="JX70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JY70" t="n">
+      <c r="JY70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JZ70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KA70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KB70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KC70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KD70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KE70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KF70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KG70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KH70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KI70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KJ70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KK70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -61438,7 +63958,43 @@
       <c r="JX71" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="JY71" t="n">
+      <c r="JY71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JZ71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KA71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KB71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KC71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KD71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KE71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KF71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KG71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KH71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KI71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KJ71" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KK71" t="n">
         <v>58.3</v>
       </c>
     </row>
@@ -62297,7 +64853,43 @@
       <c r="JX72" s="2" t="n">
         <v>33.1</v>
       </c>
-      <c r="JY72" t="n">
+      <c r="JY72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="JZ72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KA72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KB72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KC72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KD72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KE72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KF72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KG72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KH72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KI72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KJ72" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KK72" t="n">
         <v>21.64</v>
       </c>
     </row>
@@ -63156,7 +65748,43 @@
       <c r="JX73" s="2" t="n">
         <v>17.42</v>
       </c>
-      <c r="JY73" t="n">
+      <c r="JY73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="JZ73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KA73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KB73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KC73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KD73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KE73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KF73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KG73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KH73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KI73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KJ73" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KK73" t="n">
         <v>12.62</v>
       </c>
     </row>
@@ -64015,7 +66643,43 @@
       <c r="JX74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JY74" t="n">
+      <c r="JY74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JZ74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KA74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KB74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KE74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KF74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KG74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KH74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KI74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KJ74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KK74" t="n">
         <v>47</v>
       </c>
     </row>
@@ -64874,7 +67538,43 @@
       <c r="JX75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JY75" t="n">
+      <c r="JY75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KD75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KE75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KF75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KG75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KI75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KJ75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KK75" t="n">
         <v>51</v>
       </c>
     </row>
@@ -65733,7 +68433,43 @@
       <c r="JX76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JY76" t="n">
+      <c r="JY76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JZ76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KA76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KB76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KC76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK76" t="n">
         <v>40</v>
       </c>
     </row>
@@ -66592,7 +69328,43 @@
       <c r="JX77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JY77" t="n">
+      <c r="JY77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JZ77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KA77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KB77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KC77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KD77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KE77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KF77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KG77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KH77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KI77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KJ77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KK77" t="n">
         <v>62</v>
       </c>
     </row>
@@ -67451,7 +70223,43 @@
       <c r="JX78" s="2" t="n">
         <v>2.95</v>
       </c>
-      <c r="JY78" t="n">
+      <c r="JY78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="JZ78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KA78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KB78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KC78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KD78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KE78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KF78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KG78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KH78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KI78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KJ78" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KK78" t="n">
         <v>2.58</v>
       </c>
     </row>
@@ -68310,7 +71118,43 @@
       <c r="JX79" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="JY79" t="n">
+      <c r="JY79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="JZ79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KA79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KB79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KC79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KD79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KE79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KF79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KG79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KH79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KI79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KJ79" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KK79" t="n">
         <v>4.43</v>
       </c>
     </row>
@@ -69169,7 +72013,43 @@
       <c r="JX80" s="2" t="n">
         <v>32.1</v>
       </c>
-      <c r="JY80" t="n">
+      <c r="JY80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JZ80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KA80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KB80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KC80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KD80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KE80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KF80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KG80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KH80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KI80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KJ80" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KK80" t="n">
         <v>33.9</v>
       </c>
     </row>
@@ -70028,7 +72908,43 @@
       <c r="JX81" s="2" t="n">
         <v>17.9</v>
       </c>
-      <c r="JY81" t="n">
+      <c r="JY81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="JZ81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KA81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KB81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KC81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KD81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KE81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KF81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KG81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KH81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KI81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KJ81" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KK81" t="n">
         <v>22.6</v>
       </c>
     </row>
@@ -70887,7 +73803,43 @@
       <c r="JX82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JY82" t="n">
+      <c r="JY82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="JZ82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KA82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KB82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KC82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KD82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KE82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KF82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KG82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KH82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KI82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KJ82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KK82" t="n">
         <v>189.2</v>
       </c>
     </row>
@@ -71746,7 +74698,43 @@
       <c r="JX83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JY83" t="n">
+      <c r="JY83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JZ83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KA83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KB83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KC83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KD83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KE83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KF83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KG83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KH83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KI83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KJ83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KK83" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -72605,7 +75593,43 @@
       <c r="JX84" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="JY84" t="n">
+      <c r="JY84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="JZ84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KA84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KB84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KC84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KD84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KE84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KF84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KG84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KH84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KI84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KJ84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KK84" t="n">
         <v>26.24</v>
       </c>
     </row>
@@ -73464,7 +76488,43 @@
       <c r="JX85" s="2" t="n">
         <v>121.7</v>
       </c>
-      <c r="JY85" t="n">
+      <c r="JY85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="JZ85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KA85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KB85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KC85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KD85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KE85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KF85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KG85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KH85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KI85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KJ85" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KK85" t="n">
         <v>109.6</v>
       </c>
     </row>
@@ -74323,7 +77383,43 @@
       <c r="JX86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JY86" t="n">
+      <c r="JY86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -75182,7 +78278,43 @@
       <c r="JX87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JY87" t="n">
+      <c r="JY87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK87" t="n">
         <v>6</v>
       </c>
     </row>
@@ -76041,7 +79173,43 @@
       <c r="JX88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JY88" t="n">
+      <c r="JY88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76900,7 +80068,43 @@
       <c r="JX89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY89" t="n">
+      <c r="JY89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -77759,7 +80963,43 @@
       <c r="JX90" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="JY90" t="n">
+      <c r="JY90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JZ90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KA90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KB90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KC90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KD90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KE90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KF90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KG90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KH90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KI90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KJ90" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KK90" t="n">
         <v>134</v>
       </c>
     </row>
@@ -78618,7 +81858,43 @@
       <c r="JX91" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="JY91" t="n">
+      <c r="JY91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JZ91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KA91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KB91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KC91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KD91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KE91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KF91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KG91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KH91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KI91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KJ91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KK91" t="n">
         <v>157</v>
       </c>
     </row>
@@ -79477,7 +82753,43 @@
       <c r="JX92" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="JY92" t="n">
+      <c r="JY92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JZ92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KA92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KB92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KC92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KD92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KE92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KF92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KG92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KH92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KI92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KJ92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KK92" t="n">
         <v>201</v>
       </c>
     </row>
@@ -80336,7 +83648,43 @@
       <c r="JX93" s="2" t="n">
         <v>66.2</v>
       </c>
-      <c r="JY93" t="n">
+      <c r="JY93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="JZ93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KA93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KB93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KC93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KD93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KE93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KF93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KG93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KH93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KI93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KJ93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KK93" t="n">
         <v>66.3</v>
       </c>
     </row>
@@ -81195,7 +84543,43 @@
       <c r="JX94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JY94" t="n">
+      <c r="JY94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KD94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KE94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KF94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KG94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KI94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KJ94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KK94" t="n">
         <v>51</v>
       </c>
     </row>
@@ -82054,7 +85438,43 @@
       <c r="JX95" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JY95" t="n">
+      <c r="JY95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KG95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KH95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KI95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KJ95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -82913,7 +86333,43 @@
       <c r="JX96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JY96" t="n">
+      <c r="JY96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK96" t="n">
         <v>8</v>
       </c>
     </row>
@@ -83772,7 +87228,43 @@
       <c r="JX97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JY97" t="n">
+      <c r="JY97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JZ97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KA97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KB97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KE97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KF97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KG97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KH97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KI97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KJ97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KK97" t="n">
         <v>47</v>
       </c>
     </row>
@@ -84631,7 +88123,43 @@
       <c r="JX98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JY98" t="n">
+      <c r="JY98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JZ98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KA98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KB98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KC98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK98" t="n">
         <v>40</v>
       </c>
     </row>
@@ -85490,7 +89018,43 @@
       <c r="JX99" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JY99" t="n">
+      <c r="JY99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KD99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KE99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KF99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KG99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KI99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KJ99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KK99" t="n">
         <v>51</v>
       </c>
     </row>
@@ -86349,7 +89913,43 @@
       <c r="JX100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JY100" t="n">
+      <c r="JY100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KG100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KH100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KI100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK100" t="n">
         <v>9</v>
       </c>
     </row>
@@ -87208,7 +90808,43 @@
       <c r="JX101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY101" t="n">
+      <c r="JY101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -88067,7 +91703,43 @@
       <c r="JX102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JY102" t="n">
+      <c r="JY102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JZ102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KA102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KB102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KC102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KD102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK102" t="n">
         <v>50</v>
       </c>
     </row>
